--- a/rekap data uang kas kecil - asrama.xlsx
+++ b/rekap data uang kas kecil - asrama.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yofandi Riki Winata\Documents\yofandi\rekap data - uang galon, parkir, bumbu asrama\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yofandi Riki Winata\Documents\yofandi\rekap data - uang galon, parkir, bumbu asrama\uangasrama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D91FADE5-BFF8-450C-84CC-56F83A96CE5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBDE82F6-B4E1-407D-9547-BCDDBBB97330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{C456B771-9DF8-4725-AC5F-E2624C050843}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Kas Kecil - Asrama STTHF</t>
   </si>
@@ -71,6 +71,27 @@
   </si>
   <si>
     <t>petrus</t>
+  </si>
+  <si>
+    <t>uang beli garam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">peter </t>
+  </si>
+  <si>
+    <t>uang beli minyak 2L</t>
+  </si>
+  <si>
+    <t>uang beli nasi padang 11</t>
+  </si>
+  <si>
+    <t>valen</t>
+  </si>
+  <si>
+    <t>uang beli susu</t>
+  </si>
+  <si>
+    <t>tondo</t>
   </si>
 </sst>
 </file>
@@ -79,8 +100,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="168" formatCode="[$-421]dd\ mmmm\ yyyy;@"/>
-    <numFmt numFmtId="169" formatCode="_([$Rp-421]* #,##0.00_);_([$Rp-421]* \(#,##0.00\);_([$Rp-421]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_([$Rp-421]* #,##0.00_);_([$Rp-421]* \(#,##0.00\);_([$Rp-421]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -149,12 +170,6 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -168,8 +183,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,15 +506,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1137C53-0063-4FE4-9637-7E05AFF16C56}">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="34.7109375" style="5" customWidth="1"/>
     <col min="2" max="2" width="31.42578125" customWidth="1"/>
     <col min="3" max="3" width="33.85546875" customWidth="1"/>
     <col min="4" max="4" width="27.85546875" customWidth="1"/>
@@ -502,141 +523,141 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
     </row>
     <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+      <c r="A9" s="7">
         <v>44473</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="6">
         <v>500000</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="6">
         <v>0</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="6">
         <f>B9-C9</f>
         <v>500000</v>
       </c>
@@ -648,16 +669,16 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+      <c r="A10" s="7">
         <v>44474</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="6">
         <v>0</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="6">
         <v>70500</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="6">
         <f>D9+B10-C10</f>
         <v>429500</v>
       </c>
@@ -667,6 +688,326 @@
       <c r="F10" t="s">
         <v>12</v>
       </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>44475</v>
+      </c>
+      <c r="B11" s="6">
+        <v>0</v>
+      </c>
+      <c r="C11" s="6">
+        <v>17500</v>
+      </c>
+      <c r="D11" s="6">
+        <f t="shared" ref="D11:D14" si="0">D10+B11-C11</f>
+        <v>412000</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>44475</v>
+      </c>
+      <c r="B12" s="6">
+        <v>0</v>
+      </c>
+      <c r="C12" s="6">
+        <v>35700</v>
+      </c>
+      <c r="D12" s="6">
+        <f t="shared" si="0"/>
+        <v>376300</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>44476</v>
+      </c>
+      <c r="B13" s="6">
+        <v>0</v>
+      </c>
+      <c r="C13" s="6">
+        <v>154000</v>
+      </c>
+      <c r="D13" s="6">
+        <f t="shared" si="0"/>
+        <v>222300</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>44476</v>
+      </c>
+      <c r="B14" s="6">
+        <v>0</v>
+      </c>
+      <c r="C14" s="6">
+        <v>100000</v>
+      </c>
+      <c r="D14" s="6">
+        <f t="shared" si="0"/>
+        <v>122300</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+      <c r="B32" s="6"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+      <c r="B33" s="6"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+      <c r="B34" s="6"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="7"/>
+      <c r="B35" s="6"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
+      <c r="B36" s="6"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+      <c r="B37" s="6"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
+      <c r="B38" s="6"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="7"/>
+      <c r="B39" s="6"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="7"/>
+      <c r="B40" s="6"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="7"/>
+      <c r="B41" s="6"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="7"/>
+      <c r="B42" s="6"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="7"/>
+      <c r="B43" s="6"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="7"/>
+      <c r="B44" s="6"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="7"/>
+      <c r="B45" s="6"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="7"/>
+      <c r="B46" s="6"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="7"/>
+      <c r="B47" s="6"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="7"/>
+      <c r="B48" s="6"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="7"/>
+      <c r="B49" s="6"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="7"/>
+      <c r="B50" s="6"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="7"/>
+      <c r="B51" s="6"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="7"/>
+      <c r="B52" s="6"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="7"/>
+      <c r="B53" s="6"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="7"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="7"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="7"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="7"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="7"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="7"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="7"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="7"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="7"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="7"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="7"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="7"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="7"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="7"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="7"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="7"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="7"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="7"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="7"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="7"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/rekap data uang kas kecil - asrama.xlsx
+++ b/rekap data uang kas kecil - asrama.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yofandi Riki Winata\Documents\yofandi\rekap data - uang galon, parkir, bumbu asrama\uangasrama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBDE82F6-B4E1-407D-9547-BCDDBBB97330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E2A502-7305-4B37-B81A-A1A4373D4A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{C456B771-9DF8-4725-AC5F-E2624C050843}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Kas Kecil - Asrama STTHF</t>
   </si>
@@ -92,6 +92,18 @@
   </si>
   <si>
     <t>tondo</t>
+  </si>
+  <si>
+    <t>uang karcis juanda</t>
+  </si>
+  <si>
+    <t>Tondo</t>
+  </si>
+  <si>
+    <t>uang beli bensin pertalite</t>
+  </si>
+  <si>
+    <t>yofandi</t>
   </si>
 </sst>
 </file>
@@ -509,7 +521,7 @@
   <dimension ref="A1:N74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -700,7 +712,7 @@
         <v>17500</v>
       </c>
       <c r="D11" s="6">
-        <f t="shared" ref="D11:D14" si="0">D10+B11-C11</f>
+        <f t="shared" ref="D11:D16" si="0">D10+B11-C11</f>
         <v>412000</v>
       </c>
       <c r="E11" t="s">
@@ -760,11 +772,11 @@
         <v>0</v>
       </c>
       <c r="C14" s="6">
-        <v>100000</v>
+        <v>101200</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="0"/>
-        <v>122300</v>
+        <v>121100</v>
       </c>
       <c r="E14" t="s">
         <v>18</v>
@@ -774,14 +786,46 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
+      <c r="A15" s="7">
+        <v>44476</v>
+      </c>
+      <c r="B15" s="6">
+        <v>0</v>
+      </c>
+      <c r="C15" s="6">
+        <v>13000</v>
+      </c>
+      <c r="D15" s="6">
+        <f t="shared" si="0"/>
+        <v>108100</v>
+      </c>
+      <c r="E15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
+      <c r="A16" s="7">
+        <v>44477</v>
+      </c>
+      <c r="B16" s="6">
+        <v>0</v>
+      </c>
+      <c r="C16" s="6">
+        <v>10000</v>
+      </c>
+      <c r="D16" s="6">
+        <f t="shared" si="0"/>
+        <v>98100</v>
+      </c>
+      <c r="E16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>

--- a/rekap data uang kas kecil - asrama.xlsx
+++ b/rekap data uang kas kecil - asrama.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yofandi Riki Winata\Documents\yofandi\rekap data - uang galon, parkir, bumbu asrama\uangasrama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E2A502-7305-4B37-B81A-A1A4373D4A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D67CFB-E2C4-4BA2-850B-8CD59A7805C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{C456B771-9DF8-4725-AC5F-E2624C050843}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>Kas Kecil - Asrama STTHF</t>
   </si>
@@ -104,6 +104,30 @@
   </si>
   <si>
     <t>yofandi</t>
+  </si>
+  <si>
+    <t>uang beli ladaku, minyak, sabun colek, gula</t>
+  </si>
+  <si>
+    <t>uang beli galon (5 galon)</t>
+  </si>
+  <si>
+    <t>uang beli sirup cocopandan 2 botol &amp; nata de coco 2 bungkus di super indo</t>
+  </si>
+  <si>
+    <t>uang beli es batu 3 bungkus</t>
+  </si>
+  <si>
+    <t>uang parkir &amp; beli blewah 2 buah</t>
+  </si>
+  <si>
+    <t>uang masuk roku rungkut megah raya (paket indogrosir atas nama ce nanda)</t>
+  </si>
+  <si>
+    <t>uang beli galon (9 galon)</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
@@ -518,32 +542,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1137C53-0063-4FE4-9637-7E05AFF16C56}">
-  <dimension ref="A1:N74"/>
+  <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="93" zoomScaleNormal="93" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" customWidth="1"/>
-    <col min="3" max="3" width="33.85546875" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" customWidth="1"/>
-    <col min="5" max="5" width="44.5703125" customWidth="1"/>
-    <col min="6" max="6" width="29.28515625" customWidth="1"/>
+    <col min="2" max="2" width="34.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" customWidth="1"/>
+    <col min="4" max="4" width="33.85546875" customWidth="1"/>
+    <col min="5" max="5" width="27.85546875" customWidth="1"/>
+    <col min="6" max="6" width="44.5703125" customWidth="1"/>
+    <col min="7" max="7" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8"/>
+    <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
-      <c r="G1" s="2"/>
+      <c r="G1" s="8"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -551,15 +574,15 @@
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
+      <c r="O1" s="2"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="G2" s="2"/>
+      <c r="G2" s="8"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -567,15 +590,15 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
+      <c r="O2" s="2"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="G3" s="2"/>
+      <c r="G3" s="8"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -583,15 +606,15 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="G4" s="2"/>
+      <c r="G4" s="8"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -599,17 +622,17 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
-    </row>
-    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="O4" s="2"/>
+    </row>
+    <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="9"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
-      <c r="G5" s="3"/>
+      <c r="G5" s="9"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -617,15 +640,15 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
-    </row>
-    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
-      <c r="G6" s="3"/>
+      <c r="G6" s="9"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -633,430 +656,684 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="O6" s="3"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" s="7">
         <v>44473</v>
       </c>
-      <c r="B9" s="6">
+      <c r="C9" s="6">
         <v>500000</v>
       </c>
-      <c r="C9" s="6">
-        <v>0</v>
-      </c>
       <c r="D9" s="6">
-        <f>B9-C9</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="6">
+        <f>C9-D9</f>
         <v>500000</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>8</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" s="7">
         <v>44474</v>
       </c>
-      <c r="B10" s="6">
-        <v>0</v>
-      </c>
       <c r="C10" s="6">
+        <v>0</v>
+      </c>
+      <c r="D10" s="6">
         <v>70500</v>
       </c>
-      <c r="D10" s="6">
-        <f>D9+B10-C10</f>
+      <c r="E10" s="6">
+        <f>E9+C10-D10</f>
         <v>429500</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" s="7">
         <v>44475</v>
       </c>
-      <c r="B11" s="6">
-        <v>0</v>
-      </c>
       <c r="C11" s="6">
+        <v>0</v>
+      </c>
+      <c r="D11" s="6">
         <v>17500</v>
       </c>
-      <c r="D11" s="6">
-        <f t="shared" ref="D11:D16" si="0">D10+B11-C11</f>
+      <c r="E11" s="6">
+        <f t="shared" ref="E11:E19" si="0">E10+C11-D11</f>
         <v>412000</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>13</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12" s="7">
         <v>44475</v>
       </c>
-      <c r="B12" s="6">
-        <v>0</v>
-      </c>
       <c r="C12" s="6">
+        <v>0</v>
+      </c>
+      <c r="D12" s="6">
         <v>35700</v>
       </c>
-      <c r="D12" s="6">
+      <c r="E12" s="6">
         <f t="shared" si="0"/>
         <v>376300</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>15</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13" s="7">
         <v>44476</v>
       </c>
-      <c r="B13" s="6">
-        <v>0</v>
-      </c>
       <c r="C13" s="6">
+        <v>0</v>
+      </c>
+      <c r="D13" s="6">
         <v>154000</v>
       </c>
-      <c r="D13" s="6">
+      <c r="E13" s="6">
         <f t="shared" si="0"/>
         <v>222300</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>16</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14" s="7">
         <v>44476</v>
       </c>
-      <c r="B14" s="6">
-        <v>0</v>
-      </c>
       <c r="C14" s="6">
+        <v>0</v>
+      </c>
+      <c r="D14" s="6">
         <v>101200</v>
       </c>
-      <c r="D14" s="6">
+      <c r="E14" s="6">
         <f t="shared" si="0"/>
         <v>121100</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>18</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>7</v>
+      </c>
+      <c r="B15" s="7">
         <v>44476</v>
       </c>
-      <c r="B15" s="6">
-        <v>0</v>
-      </c>
       <c r="C15" s="6">
+        <v>0</v>
+      </c>
+      <c r="D15" s="6">
         <v>13000</v>
       </c>
-      <c r="D15" s="6">
+      <c r="E15" s="6">
         <f t="shared" si="0"/>
         <v>108100</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>20</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>8</v>
+      </c>
+      <c r="B16" s="7">
         <v>44477</v>
       </c>
-      <c r="B16" s="6">
-        <v>0</v>
-      </c>
       <c r="C16" s="6">
+        <v>0</v>
+      </c>
+      <c r="D16" s="6">
         <v>10000</v>
       </c>
-      <c r="D16" s="6">
+      <c r="E16" s="6">
         <f t="shared" si="0"/>
         <v>98100</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>22</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="6"/>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>9</v>
+      </c>
+      <c r="B17" s="7">
+        <v>44480</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0</v>
+      </c>
+      <c r="D17" s="6">
+        <v>79000</v>
+      </c>
+      <c r="E17" s="6">
+        <f t="shared" si="0"/>
+        <v>19100</v>
+      </c>
+      <c r="F17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>10</v>
+      </c>
+      <c r="B18" s="7">
+        <v>44480</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0</v>
+      </c>
+      <c r="D18" s="6">
+        <v>37500</v>
+      </c>
+      <c r="E18" s="6">
+        <f t="shared" si="0"/>
+        <v>-18400</v>
+      </c>
+      <c r="F18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>11</v>
+      </c>
+      <c r="B19" s="7">
+        <v>44481</v>
+      </c>
+      <c r="C19" s="6">
+        <v>500000</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0</v>
+      </c>
+      <c r="E19" s="6">
+        <f>E18+C19-D19</f>
+        <v>481600</v>
+      </c>
+      <c r="F19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>12</v>
+      </c>
+      <c r="B20" s="7">
+        <v>44481</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0</v>
+      </c>
+      <c r="D20" s="6">
+        <v>67400</v>
+      </c>
+      <c r="E20" s="6">
+        <f t="shared" ref="E20:E41" si="1">E19+C20-D20</f>
+        <v>414200</v>
+      </c>
+      <c r="F20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>13</v>
+      </c>
+      <c r="B21" s="7">
+        <v>44481</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0</v>
+      </c>
+      <c r="D21" s="6">
+        <v>23000</v>
+      </c>
+      <c r="E21" s="6">
+        <f t="shared" si="1"/>
+        <v>391200</v>
+      </c>
+      <c r="F21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>14</v>
+      </c>
+      <c r="B22" s="7">
+        <v>44481</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0</v>
+      </c>
+      <c r="D22" s="6">
+        <v>15000</v>
+      </c>
+      <c r="E22" s="6">
+        <f t="shared" si="1"/>
+        <v>376200</v>
+      </c>
+      <c r="F22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>15</v>
+      </c>
+      <c r="B23" s="7">
+        <v>44481</v>
+      </c>
+      <c r="C23" s="6">
+        <v>0</v>
+      </c>
+      <c r="D23" s="6">
+        <v>6000</v>
+      </c>
+      <c r="E23" s="6">
+        <f t="shared" si="1"/>
+        <v>370200</v>
+      </c>
+      <c r="F23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>16</v>
+      </c>
+      <c r="B24" s="7">
+        <v>44481</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0</v>
+      </c>
+      <c r="D24" s="6">
+        <v>70500</v>
+      </c>
+      <c r="E24" s="6">
+        <f t="shared" si="1"/>
+        <v>299700</v>
+      </c>
+      <c r="F24" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="7"/>
       <c r="C25" s="6"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6">
+        <f t="shared" si="1"/>
+        <v>299700</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="7"/>
       <c r="C26" s="6"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6">
+        <f t="shared" si="1"/>
+        <v>299700</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="7"/>
       <c r="C27" s="6"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6">
+        <f t="shared" si="1"/>
+        <v>299700</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="7"/>
       <c r="C28" s="6"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-      <c r="B29" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6">
+        <f t="shared" si="1"/>
+        <v>299700</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="7"/>
       <c r="C29" s="6"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
-      <c r="B30" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6">
+        <f t="shared" si="1"/>
+        <v>299700</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="7"/>
       <c r="C30" s="6"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6">
+        <f t="shared" si="1"/>
+        <v>299700</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="7"/>
       <c r="C31" s="6"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
-      <c r="B32" s="6"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
-      <c r="B33" s="6"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
-      <c r="B34" s="6"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
-      <c r="B35" s="6"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
-      <c r="B36" s="6"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
-      <c r="B37" s="6"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
-      <c r="B38" s="6"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
-      <c r="B39" s="6"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
-      <c r="B40" s="6"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
-      <c r="B41" s="6"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="7"/>
-      <c r="B42" s="6"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="7"/>
-      <c r="B43" s="6"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="7"/>
-      <c r="B44" s="6"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="7"/>
-      <c r="B45" s="6"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="7"/>
-      <c r="B46" s="6"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="7"/>
-      <c r="B47" s="6"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="7"/>
-      <c r="B48" s="6"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="7"/>
-      <c r="B49" s="6"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="7"/>
-      <c r="B50" s="6"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="7"/>
-      <c r="B51" s="6"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="7"/>
-      <c r="B52" s="6"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="7"/>
-      <c r="B53" s="6"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="7"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="7"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="7"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="7"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="7"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="7"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="7"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="7"/>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="7"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="7"/>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="7"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="7"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="7"/>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="7"/>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="7"/>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="7"/>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="7"/>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="7"/>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="7"/>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="7"/>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="7"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6">
+        <f t="shared" si="1"/>
+        <v>299700</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="7"/>
+      <c r="C32" s="6"/>
+      <c r="E32" s="6">
+        <f t="shared" si="1"/>
+        <v>299700</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="7"/>
+      <c r="C33" s="6"/>
+      <c r="E33" s="6">
+        <f t="shared" si="1"/>
+        <v>299700</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="7"/>
+      <c r="C34" s="6"/>
+      <c r="E34" s="6">
+        <f t="shared" si="1"/>
+        <v>299700</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="7"/>
+      <c r="C35" s="6"/>
+      <c r="E35" s="6">
+        <f t="shared" si="1"/>
+        <v>299700</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="7"/>
+      <c r="C36" s="6"/>
+      <c r="E36" s="6">
+        <f t="shared" si="1"/>
+        <v>299700</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="7"/>
+      <c r="C37" s="6"/>
+      <c r="E37" s="6">
+        <f t="shared" si="1"/>
+        <v>299700</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="7"/>
+      <c r="C38" s="6"/>
+      <c r="E38" s="6">
+        <f t="shared" si="1"/>
+        <v>299700</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="7"/>
+      <c r="C39" s="6"/>
+      <c r="E39" s="6">
+        <f t="shared" si="1"/>
+        <v>299700</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="7"/>
+      <c r="C40" s="6"/>
+      <c r="E40" s="6">
+        <f t="shared" si="1"/>
+        <v>299700</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="7"/>
+      <c r="C41" s="6"/>
+      <c r="E41" s="6">
+        <f t="shared" si="1"/>
+        <v>299700</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="7"/>
+      <c r="C42" s="6"/>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="7"/>
+      <c r="C43" s="6"/>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B44" s="7"/>
+      <c r="C44" s="6"/>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45" s="7"/>
+      <c r="C45" s="6"/>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="7"/>
+      <c r="C46" s="6"/>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="7"/>
+      <c r="C47" s="6"/>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B48" s="7"/>
+      <c r="C48" s="6"/>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" s="7"/>
+      <c r="C49" s="6"/>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50" s="7"/>
+      <c r="C50" s="6"/>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51" s="7"/>
+      <c r="C51" s="6"/>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52" s="7"/>
+      <c r="C52" s="6"/>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B53" s="7"/>
+      <c r="C53" s="6"/>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B54" s="7"/>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B55" s="7"/>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B56" s="7"/>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B57" s="7"/>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B58" s="7"/>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B59" s="7"/>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B60" s="7"/>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B61" s="7"/>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B62" s="7"/>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B63" s="7"/>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B64" s="7"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="7"/>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="7"/>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="7"/>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68" s="7"/>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69" s="7"/>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70" s="7"/>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B71" s="7"/>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B72" s="7"/>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73" s="7"/>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B74" s="7"/>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B75" s="7"/>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B76" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:F4"/>
-    <mergeCell ref="A5:F6"/>
+    <mergeCell ref="B1:G4"/>
+    <mergeCell ref="B5:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/rekap data uang kas kecil - asrama.xlsx
+++ b/rekap data uang kas kecil - asrama.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yofandi Riki Winata\Documents\yofandi\rekap data - uang galon, parkir, bumbu asrama\uangasrama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D67CFB-E2C4-4BA2-850B-8CD59A7805C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332CC5F0-247C-4CA5-90EF-1AED64A8C940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{C456B771-9DF8-4725-AC5F-E2624C050843}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
   <si>
     <t>Kas Kecil - Asrama STTHF</t>
   </si>
@@ -128,6 +128,27 @@
   </si>
   <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>uang beli tespan, voltmeter sama lem G</t>
+  </si>
+  <si>
+    <t>Saferius sama Hosea</t>
+  </si>
+  <si>
+    <t>uang beli tabung gas 3 kg (2 tabung)</t>
+  </si>
+  <si>
+    <t>jhonan sama peter</t>
+  </si>
+  <si>
+    <t>uang beli DHS machine head (puteran gitar)</t>
+  </si>
+  <si>
+    <t>Saferius sama tondo</t>
+  </si>
+  <si>
+    <t>uang parkir</t>
   </si>
 </sst>
 </file>
@@ -544,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1137C53-0063-4FE4-9637-7E05AFF16C56}">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="93" zoomScaleNormal="93" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:A24"/>
+    <sheetView tabSelected="1" topLeftCell="B6" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -748,7 +769,7 @@
         <v>17500</v>
       </c>
       <c r="E11" s="6">
-        <f t="shared" ref="E11:E19" si="0">E10+C11-D11</f>
+        <f t="shared" ref="E11:E18" si="0">E10+C11-D11</f>
         <v>412000</v>
       </c>
       <c r="F11" t="s">
@@ -964,7 +985,7 @@
         <v>67400</v>
       </c>
       <c r="E20" s="6">
-        <f t="shared" ref="E20:E41" si="1">E19+C20-D20</f>
+        <f t="shared" ref="E20:E35" si="1">E19+C20-D20</f>
         <v>414200</v>
       </c>
       <c r="F20" t="s">
@@ -1027,7 +1048,7 @@
         <v>15</v>
       </c>
       <c r="B23" s="7">
-        <v>44481</v>
+        <v>44482</v>
       </c>
       <c r="C23" s="6">
         <v>0</v>
@@ -1051,7 +1072,7 @@
         <v>16</v>
       </c>
       <c r="B24" s="7">
-        <v>44481</v>
+        <v>44482</v>
       </c>
       <c r="C24" s="6">
         <v>0</v>
@@ -1071,57 +1092,147 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="7"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
+      <c r="A25">
+        <v>17</v>
+      </c>
+      <c r="B25" s="7">
+        <v>44483</v>
+      </c>
+      <c r="C25" s="6">
+        <v>0</v>
+      </c>
+      <c r="D25" s="6">
+        <v>84500</v>
+      </c>
       <c r="E25" s="6">
         <f t="shared" si="1"/>
-        <v>299700</v>
+        <v>215200</v>
+      </c>
+      <c r="F25" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="7"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
+      <c r="A26">
+        <v>18</v>
+      </c>
+      <c r="B26" s="7">
+        <v>44485</v>
+      </c>
+      <c r="C26" s="6">
+        <v>0</v>
+      </c>
+      <c r="D26" s="6">
+        <v>32000</v>
+      </c>
       <c r="E26" s="6">
         <f t="shared" si="1"/>
-        <v>299700</v>
+        <v>183200</v>
+      </c>
+      <c r="F26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="7"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
+      <c r="A27">
+        <v>19</v>
+      </c>
+      <c r="B27" s="7">
+        <v>44485</v>
+      </c>
+      <c r="C27" s="6">
+        <v>0</v>
+      </c>
+      <c r="D27" s="6">
+        <v>31700</v>
+      </c>
       <c r="E27" s="6">
         <f t="shared" si="1"/>
-        <v>299700</v>
+        <v>151500</v>
+      </c>
+      <c r="F27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="7"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
+      <c r="A28">
+        <v>20</v>
+      </c>
+      <c r="B28" s="7">
+        <v>44485</v>
+      </c>
+      <c r="C28" s="6">
+        <v>0</v>
+      </c>
+      <c r="D28" s="6">
+        <v>55000</v>
+      </c>
       <c r="E28" s="6">
         <f t="shared" si="1"/>
-        <v>299700</v>
+        <v>96500</v>
+      </c>
+      <c r="F28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G28" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="7"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
+      <c r="A29">
+        <v>21</v>
+      </c>
+      <c r="B29" s="7">
+        <v>44485</v>
+      </c>
+      <c r="C29" s="6">
+        <v>0</v>
+      </c>
+      <c r="D29" s="6">
+        <v>10000</v>
+      </c>
       <c r="E29" s="6">
         <f t="shared" si="1"/>
-        <v>299700</v>
+        <v>86500</v>
+      </c>
+      <c r="F29" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="7"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
+      <c r="A30">
+        <v>22</v>
+      </c>
+      <c r="B30" s="7">
+        <v>44485</v>
+      </c>
+      <c r="C30" s="6">
+        <v>0</v>
+      </c>
+      <c r="D30" s="6">
+        <v>2000</v>
+      </c>
       <c r="E30" s="6">
         <f t="shared" si="1"/>
-        <v>299700</v>
+        <v>84500</v>
+      </c>
+      <c r="F30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1130,7 +1241,7 @@
       <c r="D31" s="6"/>
       <c r="E31" s="6">
         <f t="shared" si="1"/>
-        <v>299700</v>
+        <v>84500</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1138,7 +1249,7 @@
       <c r="C32" s="6"/>
       <c r="E32" s="6">
         <f t="shared" si="1"/>
-        <v>299700</v>
+        <v>84500</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
@@ -1146,7 +1257,7 @@
       <c r="C33" s="6"/>
       <c r="E33" s="6">
         <f t="shared" si="1"/>
-        <v>299700</v>
+        <v>84500</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
@@ -1154,7 +1265,7 @@
       <c r="C34" s="6"/>
       <c r="E34" s="6">
         <f t="shared" si="1"/>
-        <v>299700</v>
+        <v>84500</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
@@ -1162,56 +1273,38 @@
       <c r="C35" s="6"/>
       <c r="E35" s="6">
         <f t="shared" si="1"/>
-        <v>299700</v>
+        <v>84500</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" s="7"/>
       <c r="C36" s="6"/>
-      <c r="E36" s="6">
-        <f t="shared" si="1"/>
-        <v>299700</v>
-      </c>
+      <c r="E36" s="6"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" s="7"/>
       <c r="C37" s="6"/>
-      <c r="E37" s="6">
-        <f t="shared" si="1"/>
-        <v>299700</v>
-      </c>
+      <c r="E37" s="6"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" s="7"/>
       <c r="C38" s="6"/>
-      <c r="E38" s="6">
-        <f t="shared" si="1"/>
-        <v>299700</v>
-      </c>
+      <c r="E38" s="6"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" s="7"/>
       <c r="C39" s="6"/>
-      <c r="E39" s="6">
-        <f t="shared" si="1"/>
-        <v>299700</v>
-      </c>
+      <c r="E39" s="6"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" s="7"/>
       <c r="C40" s="6"/>
-      <c r="E40" s="6">
-        <f t="shared" si="1"/>
-        <v>299700</v>
-      </c>
+      <c r="E40" s="6"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" s="7"/>
       <c r="C41" s="6"/>
-      <c r="E41" s="6">
-        <f t="shared" si="1"/>
-        <v>299700</v>
-      </c>
+      <c r="E41" s="6"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" s="7"/>

--- a/rekap data uang kas kecil - asrama.xlsx
+++ b/rekap data uang kas kecil - asrama.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yofandi Riki Winata\Documents\yofandi\rekap data - uang galon, parkir, bumbu asrama\uangasrama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332CC5F0-247C-4CA5-90EF-1AED64A8C940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCCFD7AA-1353-47E6-9DC2-E4C27B690195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{C456B771-9DF8-4725-AC5F-E2624C050843}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="48">
   <si>
     <t>Kas Kecil - Asrama STTHF</t>
   </si>
@@ -149,6 +149,33 @@
   </si>
   <si>
     <t>uang parkir</t>
+  </si>
+  <si>
+    <t>uang beli kran tandon</t>
+  </si>
+  <si>
+    <t>peter sama valen</t>
+  </si>
+  <si>
+    <t>uang galon aqua (10)</t>
+  </si>
+  <si>
+    <t>valen sama hosea</t>
+  </si>
+  <si>
+    <t>uang beli nata de coco</t>
+  </si>
+  <si>
+    <t>yofandi sama valen</t>
+  </si>
+  <si>
+    <t>uang beli semangka, melon, isi ban motor, parkir</t>
+  </si>
+  <si>
+    <t>uang beli bensin pertamax avanza</t>
+  </si>
+  <si>
+    <t>uang beli sate ayam 100 tusuk</t>
   </si>
 </sst>
 </file>
@@ -565,13 +592,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1137C53-0063-4FE4-9637-7E05AFF16C56}">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="34.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" style="5" customWidth="1"/>
     <col min="3" max="3" width="31.42578125" customWidth="1"/>
     <col min="4" max="4" width="33.85546875" customWidth="1"/>
     <col min="5" max="5" width="27.85546875" customWidth="1"/>
@@ -985,7 +1012,7 @@
         <v>67400</v>
       </c>
       <c r="E20" s="6">
-        <f t="shared" ref="E20:E35" si="1">E19+C20-D20</f>
+        <f t="shared" ref="E20:E40" si="1">E19+C20-D20</f>
         <v>414200</v>
       </c>
       <c r="F20" t="s">
@@ -1236,101 +1263,259 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="7"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
+      <c r="A31">
+        <v>23</v>
+      </c>
+      <c r="B31" s="7">
+        <v>44486</v>
+      </c>
+      <c r="C31" s="6">
+        <v>0</v>
+      </c>
+      <c r="D31" s="6">
+        <v>110000</v>
+      </c>
       <c r="E31" s="6">
         <f t="shared" si="1"/>
-        <v>84500</v>
+        <v>-25500</v>
+      </c>
+      <c r="F31" t="s">
+        <v>39</v>
+      </c>
+      <c r="G31" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="7"/>
-      <c r="C32" s="6"/>
+      <c r="A32">
+        <v>24</v>
+      </c>
+      <c r="B32" s="7">
+        <v>44487</v>
+      </c>
+      <c r="C32" s="6">
+        <v>500000</v>
+      </c>
+      <c r="D32" s="6">
+        <v>0</v>
+      </c>
       <c r="E32" s="6">
         <f t="shared" si="1"/>
-        <v>84500</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="7"/>
-      <c r="C33" s="6"/>
+        <v>474500</v>
+      </c>
+      <c r="F32" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>25</v>
+      </c>
+      <c r="B33" s="7">
+        <v>44487</v>
+      </c>
+      <c r="C33" s="6">
+        <v>0</v>
+      </c>
+      <c r="D33" s="6">
+        <v>32900</v>
+      </c>
       <c r="E33" s="6">
         <f t="shared" si="1"/>
-        <v>84500</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="7"/>
-      <c r="C34" s="6"/>
+        <v>441600</v>
+      </c>
+      <c r="F33" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>26</v>
+      </c>
+      <c r="B34" s="7">
+        <v>44488</v>
+      </c>
+      <c r="C34" s="6">
+        <v>0</v>
+      </c>
+      <c r="D34" s="6">
+        <v>78000</v>
+      </c>
       <c r="E34" s="6">
         <f t="shared" si="1"/>
-        <v>84500</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="7"/>
-      <c r="C35" s="6"/>
+        <v>363600</v>
+      </c>
+      <c r="F34" t="s">
+        <v>41</v>
+      </c>
+      <c r="G34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>27</v>
+      </c>
+      <c r="B35" s="7">
+        <v>44488</v>
+      </c>
+      <c r="C35" s="6">
+        <v>0</v>
+      </c>
+      <c r="D35" s="6">
+        <v>10000</v>
+      </c>
       <c r="E35" s="6">
         <f t="shared" si="1"/>
-        <v>84500</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="7"/>
-      <c r="C36" s="6"/>
-      <c r="E36" s="6"/>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="7"/>
-      <c r="C37" s="6"/>
-      <c r="E37" s="6"/>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="7"/>
-      <c r="C38" s="6"/>
-      <c r="E38" s="6"/>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="7"/>
-      <c r="C39" s="6"/>
-      <c r="E39" s="6"/>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+        <v>353600</v>
+      </c>
+      <c r="F35" t="s">
+        <v>22</v>
+      </c>
+      <c r="G35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>28</v>
+      </c>
+      <c r="B36" s="7">
+        <v>44490</v>
+      </c>
+      <c r="C36" s="6">
+        <v>0</v>
+      </c>
+      <c r="D36" s="6">
+        <v>33000</v>
+      </c>
+      <c r="E36" s="6">
+        <f t="shared" si="1"/>
+        <v>320600</v>
+      </c>
+      <c r="F36" t="s">
+        <v>43</v>
+      </c>
+      <c r="G36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>29</v>
+      </c>
+      <c r="B37" s="7">
+        <v>44490</v>
+      </c>
+      <c r="C37" s="6">
+        <v>0</v>
+      </c>
+      <c r="D37" s="6">
+        <v>69000</v>
+      </c>
+      <c r="E37" s="6">
+        <f t="shared" si="1"/>
+        <v>251600</v>
+      </c>
+      <c r="F37" t="s">
+        <v>45</v>
+      </c>
+      <c r="G37" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>30</v>
+      </c>
+      <c r="B38" s="7">
+        <v>44490</v>
+      </c>
+      <c r="C38" s="6">
+        <v>0</v>
+      </c>
+      <c r="D38" s="6">
+        <v>100000</v>
+      </c>
+      <c r="E38" s="6">
+        <f t="shared" si="1"/>
+        <v>151600</v>
+      </c>
+      <c r="F38" t="s">
+        <v>46</v>
+      </c>
+      <c r="G38" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>31</v>
+      </c>
+      <c r="B39" s="7">
+        <v>44490</v>
+      </c>
+      <c r="C39" s="6">
+        <v>0</v>
+      </c>
+      <c r="D39" s="6">
+        <v>117000</v>
+      </c>
+      <c r="E39" s="6">
+        <f t="shared" si="1"/>
+        <v>34600</v>
+      </c>
+      <c r="F39" t="s">
+        <v>47</v>
+      </c>
+      <c r="G39" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B40" s="7"/>
       <c r="C40" s="6"/>
-      <c r="E40" s="6"/>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E40" s="6">
+        <f t="shared" si="1"/>
+        <v>34600</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B41" s="7"/>
       <c r="C41" s="6"/>
       <c r="E41" s="6"/>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B42" s="7"/>
       <c r="C42" s="6"/>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B43" s="7"/>
       <c r="C43" s="6"/>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B44" s="7"/>
       <c r="C44" s="6"/>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B45" s="7"/>
       <c r="C45" s="6"/>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B46" s="7"/>
       <c r="C46" s="6"/>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B47" s="7"/>
       <c r="C47" s="6"/>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B48" s="7"/>
       <c r="C48" s="6"/>
     </row>

--- a/rekap data uang kas kecil - asrama.xlsx
+++ b/rekap data uang kas kecil - asrama.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yofandi Riki Winata\Documents\yofandi\rekap data - uang galon, parkir, bumbu asrama\uangasrama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCCFD7AA-1353-47E6-9DC2-E4C27B690195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B2D0FB-8EC7-475C-BB6F-3CA414B9FD8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{C456B771-9DF8-4725-AC5F-E2624C050843}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{C456B771-9DF8-4725-AC5F-E2624C050843}"/>
   </bookViews>
   <sheets>
     <sheet name="Oktober" sheetId="1" r:id="rId1"/>
+    <sheet name="November" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="79">
   <si>
     <t>Kas Kecil - Asrama STTHF</t>
   </si>
@@ -176,18 +177,112 @@
   </si>
   <si>
     <t>uang beli sate ayam 100 tusuk</t>
+  </si>
+  <si>
+    <t>uang beli pongstan 500mg</t>
+  </si>
+  <si>
+    <t>hosea</t>
+  </si>
+  <si>
+    <t>uamg masuk dari Ce Nanda, uang kas kecil asrama</t>
+  </si>
+  <si>
+    <t>uang bensin pertamax motor</t>
+  </si>
+  <si>
+    <t>uang beli es batu 2 bungkus</t>
+  </si>
+  <si>
+    <t>uang beli sirup cocopandan 2 botol &amp; nata de coco 2 bungkus &amp; gula 2 bungkus di super indo</t>
+  </si>
+  <si>
+    <t>uang bensin perlite motot</t>
+  </si>
+  <si>
+    <t>saferius</t>
+  </si>
+  <si>
+    <t>uang beli t.bombong</t>
+  </si>
+  <si>
+    <t>uang beli gas elpiji 3kg (3buah)</t>
+  </si>
+  <si>
+    <t>uang bensin avanza untuk njemput dosen</t>
+  </si>
+  <si>
+    <t>uang beli galon aqua (10galon)</t>
+  </si>
+  <si>
+    <t>uang beli es batu (2kantong)</t>
+  </si>
+  <si>
+    <t>uang masuk ruko rich palace</t>
+  </si>
+  <si>
+    <t>uang masuk ruko rungkut megah raya (grab cece nanda)</t>
+  </si>
+  <si>
+    <t>uang beli pertalite motor</t>
+  </si>
+  <si>
+    <t>saferius sama peter</t>
+  </si>
+  <si>
+    <t>uang parkir depan gedung HFS</t>
+  </si>
+  <si>
+    <t>uang parkir mobil</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>*dimulai tanggal 03 november 2021</t>
+  </si>
+  <si>
+    <t>*November 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sisa saldo nota dari bulan oktober </t>
+  </si>
+  <si>
+    <t>uang masuk dari ce nanda (uang kas kecil asrama)</t>
+  </si>
+  <si>
+    <t>uang beli galon aqua (10 galon)</t>
+  </si>
+  <si>
+    <t>uang beli helm motor model kepala capung</t>
+  </si>
+  <si>
+    <t>uang beli bensin motor pertalite</t>
+  </si>
+  <si>
+    <t>hosea sama peter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uang beli setrika maspion </t>
+  </si>
+  <si>
+    <t>uang grab cewek vaksin (berangkat - pulang)</t>
+  </si>
+  <si>
+    <t>fatma sama mega tobigo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="_([$Rp-421]* #,##0.00_);_([$Rp-421]* \(#,##0.00\);_([$Rp-421]* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,6 +319,20 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -252,7 +361,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -269,10 +378,27 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -592,8 +718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1137C53-0063-4FE4-9637-7E05AFF16C56}">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,19 +728,19 @@
     <col min="3" max="3" width="31.42578125" customWidth="1"/>
     <col min="4" max="4" width="33.85546875" customWidth="1"/>
     <col min="5" max="5" width="27.85546875" customWidth="1"/>
-    <col min="6" max="6" width="44.5703125" customWidth="1"/>
+    <col min="6" max="6" width="70" customWidth="1"/>
     <col min="7" max="7" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
+      <c r="B1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -625,12 +751,12 @@
       <c r="O1" s="2"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -641,12 +767,12 @@
       <c r="O2" s="2"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -657,12 +783,12 @@
       <c r="O3" s="2"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -673,14 +799,14 @@
       <c r="O4" s="2"/>
     </row>
     <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -691,12 +817,12 @@
       <c r="O5" s="3"/>
     </row>
     <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -1012,7 +1138,7 @@
         <v>67400</v>
       </c>
       <c r="E20" s="6">
-        <f t="shared" ref="E20:E40" si="1">E19+C20-D20</f>
+        <f t="shared" ref="E20:E59" si="1">E19+C20-D20</f>
         <v>414200</v>
       </c>
       <c r="F20" t="s">
@@ -1479,97 +1605,526 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="7"/>
-      <c r="C40" s="6"/>
+      <c r="A40">
+        <v>32</v>
+      </c>
+      <c r="B40" s="7">
+        <v>44491</v>
+      </c>
+      <c r="C40" s="6">
+        <v>100000</v>
+      </c>
+      <c r="D40" s="6">
+        <v>0</v>
+      </c>
       <c r="E40" s="6">
         <f t="shared" si="1"/>
-        <v>34600</v>
+        <v>134600</v>
+      </c>
+      <c r="F40" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="7"/>
-      <c r="C41" s="6"/>
-      <c r="E41" s="6"/>
+      <c r="A41">
+        <v>33</v>
+      </c>
+      <c r="B41" s="7">
+        <v>44491</v>
+      </c>
+      <c r="C41" s="6">
+        <v>0</v>
+      </c>
+      <c r="D41" s="6">
+        <v>78000</v>
+      </c>
+      <c r="E41" s="6">
+        <f t="shared" si="1"/>
+        <v>56600</v>
+      </c>
+      <c r="F41" t="s">
+        <v>41</v>
+      </c>
+      <c r="G41" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="7"/>
-      <c r="C42" s="6"/>
+      <c r="A42">
+        <v>34</v>
+      </c>
+      <c r="B42" s="7">
+        <v>44491</v>
+      </c>
+      <c r="C42" s="6">
+        <v>0</v>
+      </c>
+      <c r="D42" s="6">
+        <v>35900</v>
+      </c>
+      <c r="E42" s="6">
+        <f t="shared" si="1"/>
+        <v>20700</v>
+      </c>
+      <c r="F42" t="s">
+        <v>48</v>
+      </c>
+      <c r="G42" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="7"/>
-      <c r="C43" s="6"/>
+      <c r="A43">
+        <v>35</v>
+      </c>
+      <c r="B43" s="7">
+        <v>44491</v>
+      </c>
+      <c r="C43" s="6">
+        <v>0</v>
+      </c>
+      <c r="D43" s="6">
+        <v>2000</v>
+      </c>
+      <c r="E43" s="6">
+        <f t="shared" si="1"/>
+        <v>18700</v>
+      </c>
+      <c r="F43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G43" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="7"/>
-      <c r="C44" s="6"/>
+      <c r="A44">
+        <v>36</v>
+      </c>
+      <c r="B44" s="7">
+        <v>44491</v>
+      </c>
+      <c r="C44" s="6">
+        <v>500000</v>
+      </c>
+      <c r="D44" s="6">
+        <v>0</v>
+      </c>
+      <c r="E44" s="6">
+        <f t="shared" si="1"/>
+        <v>518700</v>
+      </c>
+      <c r="F44" t="s">
+        <v>50</v>
+      </c>
+      <c r="G44" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B45" s="7"/>
-      <c r="C45" s="6"/>
+      <c r="A45">
+        <v>37</v>
+      </c>
+      <c r="B45" s="7">
+        <v>44492</v>
+      </c>
+      <c r="C45" s="6">
+        <v>0</v>
+      </c>
+      <c r="D45" s="6">
+        <v>20000</v>
+      </c>
+      <c r="E45" s="6">
+        <f t="shared" si="1"/>
+        <v>498700</v>
+      </c>
+      <c r="F45" t="s">
+        <v>51</v>
+      </c>
+      <c r="G45" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="7"/>
-      <c r="C46" s="6"/>
+      <c r="A46">
+        <v>38</v>
+      </c>
+      <c r="B46" s="7">
+        <v>44492</v>
+      </c>
+      <c r="C46" s="6">
+        <v>0</v>
+      </c>
+      <c r="D46" s="6">
+        <v>10000</v>
+      </c>
+      <c r="E46" s="6">
+        <f t="shared" si="1"/>
+        <v>488700</v>
+      </c>
+      <c r="F46" t="s">
+        <v>52</v>
+      </c>
+      <c r="G46" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B47" s="7"/>
-      <c r="C47" s="6"/>
+      <c r="A47">
+        <v>39</v>
+      </c>
+      <c r="B47" s="7">
+        <v>44492</v>
+      </c>
+      <c r="C47" s="6">
+        <v>0</v>
+      </c>
+      <c r="D47" s="6">
+        <v>81300</v>
+      </c>
+      <c r="E47" s="6">
+        <f t="shared" si="1"/>
+        <v>407400</v>
+      </c>
+      <c r="F47" t="s">
+        <v>53</v>
+      </c>
+      <c r="G47" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B48" s="7"/>
-      <c r="C48" s="6"/>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B49" s="7"/>
-      <c r="C49" s="6"/>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="7"/>
-      <c r="C50" s="6"/>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B51" s="7"/>
-      <c r="C51" s="6"/>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="7"/>
-      <c r="C52" s="6"/>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="7"/>
-      <c r="C53" s="6"/>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B54" s="7"/>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B55" s="7"/>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B56" s="7"/>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B57" s="7"/>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B58" s="7"/>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B59" s="7"/>
-    </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B60" s="7"/>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B61" s="7"/>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B62" s="7"/>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>40</v>
+      </c>
+      <c r="B48" s="7">
+        <v>44493</v>
+      </c>
+      <c r="C48" s="6">
+        <v>0</v>
+      </c>
+      <c r="D48" s="6">
+        <v>15000</v>
+      </c>
+      <c r="E48" s="6">
+        <f t="shared" si="1"/>
+        <v>392400</v>
+      </c>
+      <c r="F48" t="s">
+        <v>54</v>
+      </c>
+      <c r="G48" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>41</v>
+      </c>
+      <c r="B49" s="7">
+        <v>44493</v>
+      </c>
+      <c r="C49" s="6">
+        <v>0</v>
+      </c>
+      <c r="D49" s="6">
+        <v>22000</v>
+      </c>
+      <c r="E49" s="6">
+        <f t="shared" si="1"/>
+        <v>370400</v>
+      </c>
+      <c r="F49" t="s">
+        <v>56</v>
+      </c>
+      <c r="G49" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>42</v>
+      </c>
+      <c r="B50" s="7">
+        <v>44494</v>
+      </c>
+      <c r="C50" s="6">
+        <v>0</v>
+      </c>
+      <c r="D50" s="6">
+        <v>48000</v>
+      </c>
+      <c r="E50" s="6">
+        <f>E49+C50-D50</f>
+        <v>322400</v>
+      </c>
+      <c r="F50" t="s">
+        <v>57</v>
+      </c>
+      <c r="G50" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>43</v>
+      </c>
+      <c r="B51" s="7">
+        <v>44496</v>
+      </c>
+      <c r="C51" s="6">
+        <v>0</v>
+      </c>
+      <c r="D51" s="6">
+        <v>200000</v>
+      </c>
+      <c r="E51" s="6">
+        <f t="shared" si="1"/>
+        <v>122400</v>
+      </c>
+      <c r="F51" t="s">
+        <v>58</v>
+      </c>
+      <c r="G51" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>44</v>
+      </c>
+      <c r="B52" s="7">
+        <v>44496</v>
+      </c>
+      <c r="C52" s="6">
+        <v>0</v>
+      </c>
+      <c r="D52" s="6">
+        <v>83000</v>
+      </c>
+      <c r="E52" s="6">
+        <f t="shared" si="1"/>
+        <v>39400</v>
+      </c>
+      <c r="F52" t="s">
+        <v>59</v>
+      </c>
+      <c r="G52" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>45</v>
+      </c>
+      <c r="B53" s="7">
+        <v>44496</v>
+      </c>
+      <c r="C53" s="6">
+        <v>0</v>
+      </c>
+      <c r="D53" s="6">
+        <v>10000</v>
+      </c>
+      <c r="E53" s="6">
+        <f t="shared" si="1"/>
+        <v>29400</v>
+      </c>
+      <c r="F53" t="s">
+        <v>60</v>
+      </c>
+      <c r="G53" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>46</v>
+      </c>
+      <c r="B54" s="7">
+        <v>44497</v>
+      </c>
+      <c r="C54" s="6">
+        <v>0</v>
+      </c>
+      <c r="D54" s="6">
+        <v>10000</v>
+      </c>
+      <c r="E54" s="6">
+        <f t="shared" si="1"/>
+        <v>19400</v>
+      </c>
+      <c r="F54" t="s">
+        <v>61</v>
+      </c>
+      <c r="G54" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>47</v>
+      </c>
+      <c r="B55" s="7">
+        <v>44497</v>
+      </c>
+      <c r="C55" s="6">
+        <v>0</v>
+      </c>
+      <c r="D55" s="6">
+        <v>3000</v>
+      </c>
+      <c r="E55" s="6">
+        <f t="shared" si="1"/>
+        <v>16400</v>
+      </c>
+      <c r="F55" t="s">
+        <v>62</v>
+      </c>
+      <c r="G55" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>48</v>
+      </c>
+      <c r="B56" s="7">
+        <v>44499</v>
+      </c>
+      <c r="C56" s="6">
+        <v>0</v>
+      </c>
+      <c r="D56" s="6">
+        <v>15000</v>
+      </c>
+      <c r="E56" s="6">
+        <f t="shared" si="1"/>
+        <v>1400</v>
+      </c>
+      <c r="F56" t="s">
+        <v>63</v>
+      </c>
+      <c r="G56" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>49</v>
+      </c>
+      <c r="B57" s="7">
+        <v>44500</v>
+      </c>
+      <c r="C57" s="6">
+        <v>0</v>
+      </c>
+      <c r="D57" s="6">
+        <v>5000</v>
+      </c>
+      <c r="E57" s="6">
+        <f t="shared" si="1"/>
+        <v>-3600</v>
+      </c>
+      <c r="F57" t="s">
+        <v>65</v>
+      </c>
+      <c r="G57" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>50</v>
+      </c>
+      <c r="B58" s="7">
+        <v>44500</v>
+      </c>
+      <c r="C58" s="6">
+        <v>0</v>
+      </c>
+      <c r="D58" s="6">
+        <v>10000</v>
+      </c>
+      <c r="E58" s="6">
+        <f t="shared" si="1"/>
+        <v>-13600</v>
+      </c>
+      <c r="F58" t="s">
+        <v>61</v>
+      </c>
+      <c r="G58" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>51</v>
+      </c>
+      <c r="B59" s="7">
+        <v>44500</v>
+      </c>
+      <c r="C59" s="6">
+        <v>0</v>
+      </c>
+      <c r="D59" s="6">
+        <v>5000</v>
+      </c>
+      <c r="E59" s="6">
+        <f t="shared" si="1"/>
+        <v>-18600</v>
+      </c>
+      <c r="F59" t="s">
+        <v>66</v>
+      </c>
+      <c r="G59" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B60" s="13"/>
+      <c r="C60" s="14">
+        <f>SUM(C9:C59)</f>
+        <v>2100000</v>
+      </c>
+      <c r="D60" s="14">
+        <f>SUM(D9:D59)</f>
+        <v>2118600</v>
+      </c>
+      <c r="E60" s="14">
+        <v>-18600</v>
+      </c>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="13"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="13"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="13"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B63" s="7"/>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B64" s="7"/>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
@@ -1607,6 +2162,732 @@
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" s="7"/>
+    </row>
+  </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
+  <mergeCells count="7">
+    <mergeCell ref="B1:G4"/>
+    <mergeCell ref="B5:G6"/>
+    <mergeCell ref="A60:B62"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="F60:G62"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BDAE0A9-9D0C-4DE2-9702-0E943FFDF5A6}">
+  <dimension ref="A1:G94"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="38.85546875" customWidth="1"/>
+    <col min="3" max="3" width="37.42578125" customWidth="1"/>
+    <col min="4" max="4" width="42.5703125" customWidth="1"/>
+    <col min="5" max="5" width="48.42578125" customWidth="1"/>
+    <col min="6" max="6" width="52" customWidth="1"/>
+    <col min="7" max="7" width="27.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" s="8">
+        <v>44503</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0</v>
+      </c>
+      <c r="D9" s="6">
+        <v>18600</v>
+      </c>
+      <c r="E9" s="6">
+        <f>C9-D9</f>
+        <v>-18600</v>
+      </c>
+      <c r="F9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" s="8">
+        <v>44503</v>
+      </c>
+      <c r="C10" s="6">
+        <v>300000</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6">
+        <f>E9+C10-D10</f>
+        <v>281400</v>
+      </c>
+      <c r="F10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" s="8">
+        <v>44503</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0</v>
+      </c>
+      <c r="D11" s="6">
+        <v>83000</v>
+      </c>
+      <c r="E11" s="6">
+        <f>E10+C11-D11</f>
+        <v>198400</v>
+      </c>
+      <c r="F11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12" s="8">
+        <v>44503</v>
+      </c>
+      <c r="C12" s="6">
+        <v>700000</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6">
+        <f t="shared" ref="E12:E16" si="0">E11+C12-D12</f>
+        <v>898400</v>
+      </c>
+      <c r="F12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13" s="8">
+        <v>44503</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0</v>
+      </c>
+      <c r="D13" s="6">
+        <v>150000</v>
+      </c>
+      <c r="E13" s="6">
+        <f t="shared" si="0"/>
+        <v>748400</v>
+      </c>
+      <c r="F13" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14" s="8">
+        <v>44503</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0</v>
+      </c>
+      <c r="D14" s="6">
+        <v>15000</v>
+      </c>
+      <c r="E14" s="6">
+        <f t="shared" si="0"/>
+        <v>733400</v>
+      </c>
+      <c r="F14" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>7</v>
+      </c>
+      <c r="B15" s="8">
+        <v>44503</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0</v>
+      </c>
+      <c r="D15" s="6">
+        <v>150000</v>
+      </c>
+      <c r="E15" s="6">
+        <f t="shared" si="0"/>
+        <v>583400</v>
+      </c>
+      <c r="F15" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="8">
+        <v>44504</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0</v>
+      </c>
+      <c r="D16" s="6">
+        <v>80000</v>
+      </c>
+      <c r="E16" s="6">
+        <f>E15+C16-D16</f>
+        <v>503400</v>
+      </c>
+      <c r="F16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6">
+        <f t="shared" ref="E17:E44" si="1">E16+C17-D17</f>
+        <v>503400</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6">
+        <f t="shared" si="1"/>
+        <v>503400</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6">
+        <f t="shared" si="1"/>
+        <v>503400</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6">
+        <f t="shared" si="1"/>
+        <v>503400</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6">
+        <f t="shared" si="1"/>
+        <v>503400</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6">
+        <f t="shared" si="1"/>
+        <v>503400</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6">
+        <f t="shared" si="1"/>
+        <v>503400</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6">
+        <f t="shared" si="1"/>
+        <v>503400</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6">
+        <f t="shared" si="1"/>
+        <v>503400</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6">
+        <f t="shared" si="1"/>
+        <v>503400</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6">
+        <f t="shared" si="1"/>
+        <v>503400</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6">
+        <f t="shared" si="1"/>
+        <v>503400</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6">
+        <f t="shared" si="1"/>
+        <v>503400</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6">
+        <f t="shared" si="1"/>
+        <v>503400</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6">
+        <f t="shared" si="1"/>
+        <v>503400</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6">
+        <f t="shared" si="1"/>
+        <v>503400</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6">
+        <f t="shared" si="1"/>
+        <v>503400</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6">
+        <f t="shared" si="1"/>
+        <v>503400</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6">
+        <f t="shared" si="1"/>
+        <v>503400</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6">
+        <f t="shared" si="1"/>
+        <v>503400</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6">
+        <f t="shared" si="1"/>
+        <v>503400</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6">
+        <f t="shared" si="1"/>
+        <v>503400</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6">
+        <f t="shared" si="1"/>
+        <v>503400</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6">
+        <f t="shared" si="1"/>
+        <v>503400</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6">
+        <f t="shared" si="1"/>
+        <v>503400</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C42" s="9"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6">
+        <f t="shared" si="1"/>
+        <v>503400</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C43" s="9"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6">
+        <f t="shared" si="1"/>
+        <v>503400</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C44" s="9"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6">
+        <f t="shared" si="1"/>
+        <v>503400</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+    </row>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+    </row>
+    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+    </row>
+    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+    </row>
+    <row r="49" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+    </row>
+    <row r="50" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+    </row>
+    <row r="51" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+    </row>
+    <row r="52" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+    </row>
+    <row r="53" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+    </row>
+    <row r="54" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+    </row>
+    <row r="55" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+    </row>
+    <row r="56" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+    </row>
+    <row r="57" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+    </row>
+    <row r="58" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+    </row>
+    <row r="59" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+    </row>
+    <row r="60" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+    </row>
+    <row r="61" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+    </row>
+    <row r="62" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+    </row>
+    <row r="63" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+    </row>
+    <row r="64" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+    </row>
+    <row r="65" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+    </row>
+    <row r="66" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+    </row>
+    <row r="67" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+    </row>
+    <row r="68" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+    </row>
+    <row r="69" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+    </row>
+    <row r="70" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+    </row>
+    <row r="71" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+    </row>
+    <row r="72" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+    </row>
+    <row r="73" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+    </row>
+    <row r="74" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+    </row>
+    <row r="75" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+    </row>
+    <row r="76" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+    </row>
+    <row r="77" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+    </row>
+    <row r="78" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+    </row>
+    <row r="79" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+    </row>
+    <row r="80" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+    </row>
+    <row r="81" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+    </row>
+    <row r="82" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+    </row>
+    <row r="83" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+    </row>
+    <row r="84" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+    </row>
+    <row r="85" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+    </row>
+    <row r="86" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+    </row>
+    <row r="87" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+    </row>
+    <row r="88" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+    </row>
+    <row r="89" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+    </row>
+    <row r="90" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+    </row>
+    <row r="91" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+    </row>
+    <row r="92" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+    </row>
+    <row r="93" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+    </row>
+    <row r="94" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E94" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/rekap data uang kas kecil - asrama.xlsx
+++ b/rekap data uang kas kecil - asrama.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yofandi Riki Winata\Documents\yofandi\rekap data - uang galon, parkir, bumbu asrama\uangasrama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B2D0FB-8EC7-475C-BB6F-3CA414B9FD8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB8DA56-ADD1-4588-B96A-677483E8B426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{C456B771-9DF8-4725-AC5F-E2624C050843}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="Oktober" sheetId="1" r:id="rId1"/>
     <sheet name="November" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Oktober!$A$8:$G$8</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="97">
   <si>
     <t>Kas Kecil - Asrama STTHF</t>
   </si>
@@ -270,6 +273,60 @@
   </si>
   <si>
     <t>fatma sama mega tobigo</t>
+  </si>
+  <si>
+    <t>uang parkir juanda (vaksin kedua)</t>
+  </si>
+  <si>
+    <t>uang beli beras 25 kg (Raja lele)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uang beli bensin mobil avanza </t>
+  </si>
+  <si>
+    <t>uang beli bakso untuk 8 orang yang ke sawo</t>
+  </si>
+  <si>
+    <t>uang masuk ruko rich palace nyusul Pak Handoko</t>
+  </si>
+  <si>
+    <t>uang beli paper cup sama minyak 2 L (2 buah)</t>
+  </si>
+  <si>
+    <t>*uang yofan</t>
+  </si>
+  <si>
+    <t>uang parkir di jalan</t>
+  </si>
+  <si>
+    <t>uanng masuk total</t>
+  </si>
+  <si>
+    <t>uang yofan yang kepake</t>
+  </si>
+  <si>
+    <t>uang beli garam minyak sama masako</t>
+  </si>
+  <si>
+    <t>uang kak irene</t>
+  </si>
+  <si>
+    <t>uaang beli es batu</t>
+  </si>
+  <si>
+    <t>uang beli gula buat es the</t>
+  </si>
+  <si>
+    <t>uang masuk kas kecil asrama dari ce nanda</t>
+  </si>
+  <si>
+    <t>uang beli kertas 4 1 RIM, kertas origami ukuran sedang 1 dan besar 1 sama kotak pencil 2b</t>
+  </si>
+  <si>
+    <t>uang tambal ban</t>
+  </si>
+  <si>
+    <t>uang beli isi strapes</t>
   </si>
 </sst>
 </file>
@@ -718,8 +775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1137C53-0063-4FE4-9637-7E05AFF16C56}">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A34" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2165,6 +2222,7 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
+  <autoFilter ref="A8:G8" xr:uid="{E1137C53-0063-4FE4-9637-7E05AFF16C56}"/>
   <mergeCells count="7">
     <mergeCell ref="B1:G4"/>
     <mergeCell ref="B5:G6"/>
@@ -2181,20 +2239,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BDAE0A9-9D0C-4DE2-9702-0E943FFDF5A6}">
-  <dimension ref="A1:G94"/>
+  <dimension ref="A1:J94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="38.85546875" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="37.42578125" customWidth="1"/>
     <col min="4" max="4" width="42.5703125" customWidth="1"/>
     <col min="5" max="5" width="48.42578125" customWidth="1"/>
     <col min="6" max="6" width="52" customWidth="1"/>
     <col min="7" max="7" width="27.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="27.28515625" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -2279,6 +2340,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
+        <f>ROW(A1)</f>
         <v>1</v>
       </c>
       <c r="B9" s="8">
@@ -2303,6 +2365,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
+        <f t="shared" ref="A10:A30" si="0">ROW(A2)</f>
         <v>2</v>
       </c>
       <c r="B10" s="8">
@@ -2327,6 +2390,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B11" s="8">
@@ -2351,6 +2415,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B12" s="8">
@@ -2363,7 +2428,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="6">
-        <f t="shared" ref="E12:E16" si="0">E11+C12-D12</f>
+        <f t="shared" ref="E12:E15" si="1">E11+C12-D12</f>
         <v>898400</v>
       </c>
       <c r="F12" t="s">
@@ -2375,6 +2440,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B13" s="8">
@@ -2387,7 +2453,7 @@
         <v>150000</v>
       </c>
       <c r="E13" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>748400</v>
       </c>
       <c r="F13" t="s">
@@ -2399,6 +2465,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B14" s="8">
@@ -2411,7 +2478,7 @@
         <v>15000</v>
       </c>
       <c r="E14" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>733400</v>
       </c>
       <c r="F14" t="s">
@@ -2423,6 +2490,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B15" s="8">
@@ -2435,7 +2503,7 @@
         <v>150000</v>
       </c>
       <c r="E15" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>583400</v>
       </c>
       <c r="F15" t="s">
@@ -2446,6 +2514,10 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
       <c r="B16" s="8">
         <v>44504</v>
       </c>
@@ -2466,243 +2538,623 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B17" s="8">
+        <v>44504</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0</v>
+      </c>
+      <c r="D17" s="6">
+        <v>10000</v>
+      </c>
       <c r="E17" s="6">
-        <f t="shared" ref="E17:E44" si="1">E16+C17-D17</f>
-        <v>503400</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
+        <f t="shared" ref="E17:E44" si="2">E16+C17-D17</f>
+        <v>493400</v>
+      </c>
+      <c r="F17" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B18" s="8">
+        <v>44505</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0</v>
+      </c>
+      <c r="D18" s="6">
+        <v>230000</v>
+      </c>
       <c r="E18" s="6">
-        <f t="shared" si="1"/>
-        <v>503400</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
+        <f t="shared" si="2"/>
+        <v>263400</v>
+      </c>
+      <c r="F18" t="s">
+        <v>80</v>
+      </c>
+      <c r="G18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B19" s="8">
+        <v>44505</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0</v>
+      </c>
+      <c r="D19" s="6">
+        <v>10000</v>
+      </c>
       <c r="E19" s="6">
-        <f t="shared" si="1"/>
-        <v>503400</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
+        <f t="shared" si="2"/>
+        <v>253400</v>
+      </c>
+      <c r="F19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B20" s="8">
+        <v>44505</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0</v>
+      </c>
+      <c r="D20" s="6">
+        <v>200000</v>
+      </c>
       <c r="E20" s="6">
-        <f t="shared" si="1"/>
-        <v>503400</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
+        <f t="shared" si="2"/>
+        <v>53400</v>
+      </c>
+      <c r="F20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" t="s">
+        <v>87</v>
+      </c>
+      <c r="J20" s="6">
+        <f>SUM(C9:C44)</f>
+        <v>1850000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B21" s="8">
+        <v>44506</v>
+      </c>
+      <c r="C21" s="6">
+        <v>100000</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0</v>
+      </c>
       <c r="E21" s="6">
-        <f t="shared" si="1"/>
-        <v>503400</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
+        <f t="shared" si="2"/>
+        <v>153400</v>
+      </c>
+      <c r="F21" t="s">
+        <v>71</v>
+      </c>
+      <c r="G21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B22" s="8">
+        <v>44506</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0</v>
+      </c>
+      <c r="D22" s="6">
+        <v>90000</v>
+      </c>
       <c r="E22" s="6">
-        <f t="shared" si="1"/>
-        <v>503400</v>
-      </c>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
+        <f t="shared" si="2"/>
+        <v>63400</v>
+      </c>
+      <c r="F22" t="s">
+        <v>82</v>
+      </c>
+      <c r="G22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B23" s="8">
+        <v>44506</v>
+      </c>
+      <c r="C23" s="6">
+        <v>0</v>
+      </c>
+      <c r="D23" s="6">
+        <v>10000</v>
+      </c>
       <c r="E23" s="6">
-        <f t="shared" si="1"/>
-        <v>503400</v>
-      </c>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
+        <f t="shared" si="2"/>
+        <v>53400</v>
+      </c>
+      <c r="F23" t="s">
+        <v>83</v>
+      </c>
+      <c r="G23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" t="s">
+        <v>85</v>
+      </c>
+      <c r="I23" t="s">
+        <v>88</v>
+      </c>
+      <c r="J23" s="6">
+        <f>D23+D24+D25+D27+D28+D29+D30+D31+D32+D33</f>
+        <v>340900</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B24" s="8">
+        <v>44506</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0</v>
+      </c>
+      <c r="D24" s="6">
+        <v>88400</v>
+      </c>
       <c r="E24" s="6">
-        <f t="shared" si="1"/>
-        <v>503400</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
+        <f t="shared" si="2"/>
+        <v>-35000</v>
+      </c>
+      <c r="F24" t="s">
+        <v>84</v>
+      </c>
+      <c r="G24" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" t="s">
+        <v>85</v>
+      </c>
+      <c r="J24" s="6">
+        <f>SUM(D23:D33)</f>
+        <v>391200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B25" s="8">
+        <v>44506</v>
+      </c>
+      <c r="C25" s="6">
+        <v>0</v>
+      </c>
+      <c r="D25" s="6">
+        <v>7000</v>
+      </c>
       <c r="E25" s="6">
-        <f t="shared" si="1"/>
-        <v>503400</v>
-      </c>
-    </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
+        <f t="shared" si="2"/>
+        <v>-42000</v>
+      </c>
+      <c r="F25" t="s">
+        <v>86</v>
+      </c>
+      <c r="G25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B26" s="8">
+        <v>44506</v>
+      </c>
+      <c r="C26" s="6">
+        <v>0</v>
+      </c>
+      <c r="D26" s="6">
+        <v>50300</v>
+      </c>
       <c r="E26" s="6">
-        <f t="shared" si="1"/>
-        <v>503400</v>
-      </c>
-    </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
+        <f t="shared" si="2"/>
+        <v>-92300</v>
+      </c>
+      <c r="F26" t="s">
+        <v>89</v>
+      </c>
+      <c r="G26" t="s">
+        <v>49</v>
+      </c>
+      <c r="H26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B27" s="8">
+        <v>44507</v>
+      </c>
+      <c r="C27" s="6">
+        <v>0</v>
+      </c>
+      <c r="D27" s="6">
+        <v>10000</v>
+      </c>
       <c r="E27" s="6">
-        <f t="shared" si="1"/>
-        <v>503400</v>
-      </c>
-    </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
+        <f t="shared" si="2"/>
+        <v>-102300</v>
+      </c>
+      <c r="F27" t="s">
+        <v>83</v>
+      </c>
+      <c r="G27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B28" s="8">
+        <v>44507</v>
+      </c>
+      <c r="C28" s="6">
+        <v>0</v>
+      </c>
+      <c r="D28" s="6">
+        <v>10000</v>
+      </c>
       <c r="E28" s="6">
-        <f t="shared" si="1"/>
-        <v>503400</v>
-      </c>
-    </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
+        <f t="shared" si="2"/>
+        <v>-112300</v>
+      </c>
+      <c r="F28" t="s">
+        <v>91</v>
+      </c>
+      <c r="G28" t="s">
+        <v>44</v>
+      </c>
+      <c r="H28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B29" s="8">
+        <v>44507</v>
+      </c>
+      <c r="C29" s="6">
+        <v>0</v>
+      </c>
+      <c r="D29" s="6">
+        <v>12500</v>
+      </c>
       <c r="E29" s="6">
-        <f t="shared" si="1"/>
-        <v>503400</v>
-      </c>
-    </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
+        <f t="shared" si="2"/>
+        <v>-124800</v>
+      </c>
+      <c r="F29" t="s">
+        <v>92</v>
+      </c>
+      <c r="G29" t="s">
+        <v>44</v>
+      </c>
+      <c r="H29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B30" s="8">
+        <v>44508</v>
+      </c>
+      <c r="C30" s="6">
+        <v>0</v>
+      </c>
+      <c r="D30" s="6">
+        <v>10000</v>
+      </c>
       <c r="E30" s="6">
-        <f t="shared" si="1"/>
-        <v>503400</v>
-      </c>
-    </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
+        <f t="shared" si="2"/>
+        <v>-134800</v>
+      </c>
+      <c r="F30" t="s">
+        <v>74</v>
+      </c>
+      <c r="G30" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="8">
+        <v>44509</v>
+      </c>
+      <c r="C31" s="6">
+        <v>0</v>
+      </c>
+      <c r="D31" s="6">
+        <v>83000</v>
+      </c>
       <c r="E31" s="6">
-        <f t="shared" si="1"/>
-        <v>503400</v>
-      </c>
-    </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
+        <f t="shared" si="2"/>
+        <v>-217800</v>
+      </c>
+      <c r="F31" t="s">
+        <v>72</v>
+      </c>
+      <c r="G31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="8">
+        <v>44510</v>
+      </c>
+      <c r="C32" s="6">
+        <v>0</v>
+      </c>
+      <c r="D32" s="6">
+        <v>10000</v>
+      </c>
       <c r="E32" s="6">
-        <f t="shared" si="1"/>
-        <v>503400</v>
-      </c>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
+        <f t="shared" si="2"/>
+        <v>-227800</v>
+      </c>
+      <c r="F32" t="s">
+        <v>83</v>
+      </c>
+      <c r="G32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="8">
+        <v>44512</v>
+      </c>
+      <c r="C33" s="6">
+        <v>0</v>
+      </c>
+      <c r="D33" s="6">
+        <v>100000</v>
+      </c>
       <c r="E33" s="6">
-        <f t="shared" si="1"/>
-        <v>503400</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
+        <f t="shared" si="2"/>
+        <v>-327800</v>
+      </c>
+      <c r="F33" t="s">
+        <v>81</v>
+      </c>
+      <c r="G33" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="8">
+        <v>44512</v>
+      </c>
+      <c r="C34" s="6">
+        <v>750000</v>
+      </c>
+      <c r="D34" s="6">
+        <v>0</v>
+      </c>
       <c r="E34" s="6">
-        <f t="shared" si="1"/>
-        <v>503400</v>
-      </c>
-    </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
+        <f t="shared" si="2"/>
+        <v>422200</v>
+      </c>
+      <c r="F34" t="s">
+        <v>93</v>
+      </c>
+      <c r="G34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="8">
+        <v>44512</v>
+      </c>
+      <c r="C35" s="6">
+        <v>0</v>
+      </c>
+      <c r="D35" s="6">
+        <v>120500</v>
+      </c>
       <c r="E35" s="6">
-        <f t="shared" si="1"/>
-        <v>503400</v>
-      </c>
-    </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
+        <f t="shared" si="2"/>
+        <v>301700</v>
+      </c>
+      <c r="F35" t="s">
+        <v>94</v>
+      </c>
+      <c r="G35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="8">
+        <v>44513</v>
+      </c>
+      <c r="C36" s="6">
+        <v>0</v>
+      </c>
+      <c r="D36" s="6">
+        <v>15000</v>
+      </c>
       <c r="E36" s="6">
-        <f t="shared" si="1"/>
-        <v>503400</v>
-      </c>
-    </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
+        <f t="shared" si="2"/>
+        <v>286700</v>
+      </c>
+      <c r="F36" t="s">
+        <v>95</v>
+      </c>
+      <c r="G36" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="8">
+        <v>44513</v>
+      </c>
+      <c r="C37" s="6">
+        <v>0</v>
+      </c>
+      <c r="D37" s="6">
+        <v>12500</v>
+      </c>
       <c r="E37" s="6">
-        <f t="shared" si="1"/>
-        <v>503400</v>
-      </c>
-    </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>274200</v>
+      </c>
+      <c r="F37" t="s">
+        <v>96</v>
+      </c>
+      <c r="G37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6">
-        <f t="shared" si="1"/>
-        <v>503400</v>
-      </c>
-    </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>274200</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6">
-        <f t="shared" si="1"/>
-        <v>503400</v>
-      </c>
-    </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>274200</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6">
-        <f t="shared" si="1"/>
-        <v>503400</v>
-      </c>
-    </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>274200</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6">
-        <f t="shared" si="1"/>
-        <v>503400</v>
-      </c>
-    </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>274200</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C42" s="9"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6">
-        <f t="shared" si="1"/>
-        <v>503400</v>
-      </c>
-    </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>274200</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C43" s="9"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6">
-        <f t="shared" si="1"/>
-        <v>503400</v>
-      </c>
-    </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>274200</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C44" s="9"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6">
-        <f t="shared" si="1"/>
-        <v>503400</v>
-      </c>
-    </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>274200</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
     </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
     </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
     </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
     </row>

--- a/rekap data uang kas kecil - asrama.xlsx
+++ b/rekap data uang kas kecil - asrama.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yofandi Riki Winata\Documents\yofandi\rekap data - uang galon, parkir, bumbu asrama\uangasrama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB8DA56-ADD1-4588-B96A-677483E8B426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E99E51-9035-4A66-B62B-7E1A21A76E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{C456B771-9DF8-4725-AC5F-E2624C050843}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="100">
   <si>
     <t>Kas Kecil - Asrama STTHF</t>
   </si>
@@ -327,6 +327,15 @@
   </si>
   <si>
     <t>uang beli isi strapes</t>
+  </si>
+  <si>
+    <t>lunas</t>
+  </si>
+  <si>
+    <t>uang beli barang keperluan asrama di indogrosir</t>
+  </si>
+  <si>
+    <t>yofandi sama valen sama jhonan</t>
   </si>
 </sst>
 </file>
@@ -2239,10 +2248,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BDAE0A9-9D0C-4DE2-9702-0E943FFDF5A6}">
-  <dimension ref="A1:J94"/>
+  <dimension ref="A1:K94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2252,7 +2261,7 @@
     <col min="4" max="4" width="42.5703125" customWidth="1"/>
     <col min="5" max="5" width="48.42578125" customWidth="1"/>
     <col min="6" max="6" width="52" customWidth="1"/>
-    <col min="7" max="7" width="27.85546875" customWidth="1"/>
+    <col min="7" max="7" width="31.5703125" customWidth="1"/>
     <col min="8" max="8" width="13.85546875" customWidth="1"/>
     <col min="9" max="9" width="27.28515625" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
@@ -2538,7 +2547,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2563,7 +2572,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2588,7 +2597,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2613,7 +2622,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2642,10 +2651,10 @@
       </c>
       <c r="J20" s="6">
         <f>SUM(C9:C44)</f>
-        <v>1850000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3100000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2670,7 +2679,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2695,7 +2704,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2729,8 +2738,11 @@
         <f>D23+D24+D25+D27+D28+D29+D30+D31+D32+D33</f>
         <v>340900</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K23" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2757,12 +2769,9 @@
       <c r="H24" t="s">
         <v>85</v>
       </c>
-      <c r="J24" s="6">
-        <f>SUM(D23:D33)</f>
-        <v>391200</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J24" s="6"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2790,7 +2799,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2818,7 +2827,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2846,7 +2855,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2874,7 +2883,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2902,7 +2911,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2930,7 +2939,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B31" s="8">
         <v>44509</v>
       </c>
@@ -2954,7 +2963,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B32" s="8">
         <v>44510</v>
       </c>
@@ -3087,27 +3096,66 @@
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
+      <c r="B38" s="8">
+        <v>44513</v>
+      </c>
+      <c r="C38" s="6">
+        <v>1250000</v>
+      </c>
+      <c r="D38" s="6">
+        <v>0</v>
+      </c>
       <c r="E38" s="6">
         <f t="shared" si="2"/>
-        <v>274200</v>
+        <v>1524200</v>
+      </c>
+      <c r="F38" t="s">
+        <v>93</v>
+      </c>
+      <c r="G38" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
+      <c r="B39" s="8">
+        <v>44513</v>
+      </c>
+      <c r="C39" s="6">
+        <v>0</v>
+      </c>
+      <c r="D39" s="6">
+        <v>1576500</v>
+      </c>
       <c r="E39" s="6">
         <f t="shared" si="2"/>
-        <v>274200</v>
+        <v>-52300</v>
+      </c>
+      <c r="F39" t="s">
+        <v>98</v>
+      </c>
+      <c r="G39" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
+      <c r="B40" s="8">
+        <v>44513</v>
+      </c>
+      <c r="C40" s="6">
+        <v>0</v>
+      </c>
+      <c r="D40" s="6">
+        <v>15000</v>
+      </c>
       <c r="E40" s="6">
         <f t="shared" si="2"/>
-        <v>274200</v>
+        <v>-67300</v>
+      </c>
+      <c r="F40" t="s">
+        <v>74</v>
+      </c>
+      <c r="G40" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
@@ -3115,7 +3163,7 @@
       <c r="D41" s="6"/>
       <c r="E41" s="6">
         <f t="shared" si="2"/>
-        <v>274200</v>
+        <v>-67300</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
@@ -3123,7 +3171,7 @@
       <c r="D42" s="6"/>
       <c r="E42" s="6">
         <f t="shared" si="2"/>
-        <v>274200</v>
+        <v>-67300</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
@@ -3131,7 +3179,7 @@
       <c r="D43" s="6"/>
       <c r="E43" s="6">
         <f t="shared" si="2"/>
-        <v>274200</v>
+        <v>-67300</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
@@ -3139,7 +3187,7 @@
       <c r="D44" s="6"/>
       <c r="E44" s="6">
         <f t="shared" si="2"/>
-        <v>274200</v>
+        <v>-67300</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">

--- a/rekap data uang kas kecil - asrama.xlsx
+++ b/rekap data uang kas kecil - asrama.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yofandi Riki Winata\Documents\yofandi\rekap data - uang galon, parkir, bumbu asrama\uangasrama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E99E51-9035-4A66-B62B-7E1A21A76E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D1E35A-32DC-4F62-9922-AC45115FA58B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{C456B771-9DF8-4725-AC5F-E2624C050843}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="107">
   <si>
     <t>Kas Kecil - Asrama STTHF</t>
   </si>
@@ -302,9 +302,6 @@
     <t>uanng masuk total</t>
   </si>
   <si>
-    <t>uang yofan yang kepake</t>
-  </si>
-  <si>
     <t>uang beli garam minyak sama masako</t>
   </si>
   <si>
@@ -336,14 +333,37 @@
   </si>
   <si>
     <t>yofandi sama valen sama jhonan</t>
+  </si>
+  <si>
+    <t>uang parkir dijalan</t>
+  </si>
+  <si>
+    <t>belum lunas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uang beli gas elpiji 1 tabung gas </t>
+  </si>
+  <si>
+    <t>uang masuk ruko rich palace nganter yohana noril hosea valen pelayanan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">uang keluar total </t>
+  </si>
+  <si>
+    <t>uang kepake 100000 (100000)</t>
+  </si>
+  <si>
+    <t>uang kepake 77000 (100000)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="_([$Rp-421]* #,##0.00_);_([$Rp-421]* \(#,##0.00\);_([$Rp-421]* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
@@ -427,7 +447,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -445,7 +465,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -799,14 +818,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
+      <c r="B1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -817,12 +836,12 @@
       <c r="O1" s="2"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -833,12 +852,12 @@
       <c r="O2" s="2"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -849,12 +868,12 @@
       <c r="O3" s="2"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -865,14 +884,14 @@
       <c r="O4" s="2"/>
     </row>
     <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -883,12 +902,12 @@
       <c r="O5" s="3"/>
     </row>
     <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -2151,41 +2170,41 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="12" t="s">
+      <c r="A60" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B60" s="13"/>
-      <c r="C60" s="14">
+      <c r="B60" s="12"/>
+      <c r="C60" s="13">
         <f>SUM(C9:C59)</f>
         <v>2100000</v>
       </c>
-      <c r="D60" s="14">
+      <c r="D60" s="13">
         <f>SUM(D9:D59)</f>
         <v>2118600</v>
       </c>
-      <c r="E60" s="14">
+      <c r="E60" s="13">
         <v>-18600</v>
       </c>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="13"/>
-      <c r="B61" s="13"/>
-      <c r="C61" s="15"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="13"/>
+      <c r="A61" s="12"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="13"/>
-      <c r="B62" s="13"/>
-      <c r="C62" s="15"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="13"/>
+      <c r="A62" s="12"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B63" s="7"/>
@@ -2250,8 +2269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BDAE0A9-9D0C-4DE2-9702-0E943FFDF5A6}">
   <dimension ref="A1:K94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2264,67 +2283,68 @@
     <col min="7" max="7" width="31.5703125" customWidth="1"/>
     <col min="8" max="8" width="13.85546875" customWidth="1"/>
     <col min="9" max="9" width="27.28515625" customWidth="1"/>
-    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="10" max="10" width="25.42578125" customWidth="1"/>
+    <col min="11" max="11" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="16" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>31</v>
       </c>
@@ -2346,8 +2366,15 @@
       <c r="G8" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" s="6">
+        <f>SUM(C9:C44)</f>
+        <v>3100000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>ROW(A1)</f>
         <v>1</v>
@@ -2371,10 +2398,17 @@
       <c r="G9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I9" t="s">
+        <v>104</v>
+      </c>
+      <c r="J9" s="6">
+        <f>SUM(D9:D44)</f>
+        <v>3289800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f t="shared" ref="A10:A30" si="0">ROW(A2)</f>
+        <f t="shared" ref="A10:A68" si="0">ROW(A2)</f>
         <v>2</v>
       </c>
       <c r="B10" s="8">
@@ -2396,8 +2430,12 @@
       <c r="G10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J10" s="6">
+        <f>J8-J9</f>
+        <v>-189800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2412,7 +2450,7 @@
         <v>83000</v>
       </c>
       <c r="E11" s="6">
-        <f>E10+C11-D11</f>
+        <f t="shared" ref="E11:E68" si="1">E10+C11-D11</f>
         <v>198400</v>
       </c>
       <c r="F11" t="s">
@@ -2422,7 +2460,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2437,7 +2475,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="6">
-        <f t="shared" ref="E12:E15" si="1">E11+C12-D12</f>
+        <f t="shared" si="1"/>
         <v>898400</v>
       </c>
       <c r="F12" t="s">
@@ -2447,7 +2485,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2472,7 +2510,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2497,7 +2535,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2522,7 +2560,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2537,7 +2575,7 @@
         <v>80000</v>
       </c>
       <c r="E16" s="6">
-        <f>E15+C16-D16</f>
+        <f t="shared" si="1"/>
         <v>503400</v>
       </c>
       <c r="F16" t="s">
@@ -2562,7 +2600,7 @@
         <v>10000</v>
       </c>
       <c r="E17" s="6">
-        <f t="shared" ref="E17:E44" si="2">E16+C17-D17</f>
+        <f t="shared" si="1"/>
         <v>493400</v>
       </c>
       <c r="F17" t="s">
@@ -2587,7 +2625,7 @@
         <v>230000</v>
       </c>
       <c r="E18" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>263400</v>
       </c>
       <c r="F18" t="s">
@@ -2612,7 +2650,7 @@
         <v>10000</v>
       </c>
       <c r="E19" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>253400</v>
       </c>
       <c r="F19" t="s">
@@ -2637,7 +2675,7 @@
         <v>200000</v>
       </c>
       <c r="E20" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>53400</v>
       </c>
       <c r="F20" t="s">
@@ -2646,13 +2684,6 @@
       <c r="G20" t="s">
         <v>17</v>
       </c>
-      <c r="I20" t="s">
-        <v>87</v>
-      </c>
-      <c r="J20" s="6">
-        <f>SUM(C9:C44)</f>
-        <v>3100000</v>
-      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -2669,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>153400</v>
       </c>
       <c r="F21" t="s">
@@ -2694,7 +2725,7 @@
         <v>90000</v>
       </c>
       <c r="E22" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>63400</v>
       </c>
       <c r="F22" t="s">
@@ -2719,7 +2750,7 @@
         <v>10000</v>
       </c>
       <c r="E23" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>53400</v>
       </c>
       <c r="F23" t="s">
@@ -2732,15 +2763,9 @@
         <v>85</v>
       </c>
       <c r="I23" t="s">
-        <v>88</v>
-      </c>
-      <c r="J23" s="6">
-        <f>D23+D24+D25+D27+D28+D29+D30+D31+D32+D33</f>
-        <v>340900</v>
-      </c>
-      <c r="K23" t="s">
-        <v>97</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="K23" s="6"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -2757,7 +2782,7 @@
         <v>88400</v>
       </c>
       <c r="E24" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-35000</v>
       </c>
       <c r="F24" t="s">
@@ -2769,6 +2794,9 @@
       <c r="H24" t="s">
         <v>85</v>
       </c>
+      <c r="I24" t="s">
+        <v>96</v>
+      </c>
       <c r="J24" s="6"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -2786,7 +2814,7 @@
         <v>7000</v>
       </c>
       <c r="E25" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-42000</v>
       </c>
       <c r="F25" t="s">
@@ -2798,6 +2826,9 @@
       <c r="H25" t="s">
         <v>85</v>
       </c>
+      <c r="I25" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -2814,17 +2845,20 @@
         <v>50300</v>
       </c>
       <c r="E26" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-92300</v>
       </c>
       <c r="F26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G26" t="s">
         <v>49</v>
       </c>
       <c r="H26" t="s">
-        <v>90</v>
+        <v>89</v>
+      </c>
+      <c r="I26" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -2842,7 +2876,7 @@
         <v>10000</v>
       </c>
       <c r="E27" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-102300</v>
       </c>
       <c r="F27" t="s">
@@ -2854,6 +2888,9 @@
       <c r="H27" t="s">
         <v>85</v>
       </c>
+      <c r="I27" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -2870,11 +2907,11 @@
         <v>10000</v>
       </c>
       <c r="E28" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-112300</v>
       </c>
       <c r="F28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G28" t="s">
         <v>44</v>
@@ -2882,6 +2919,9 @@
       <c r="H28" t="s">
         <v>85</v>
       </c>
+      <c r="I28" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -2898,11 +2938,11 @@
         <v>12500</v>
       </c>
       <c r="E29" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-124800</v>
       </c>
       <c r="F29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G29" t="s">
         <v>44</v>
@@ -2910,6 +2950,9 @@
       <c r="H29" t="s">
         <v>85</v>
       </c>
+      <c r="I29" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -2926,7 +2969,7 @@
         <v>10000</v>
       </c>
       <c r="E30" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-134800</v>
       </c>
       <c r="F30" t="s">
@@ -2938,8 +2981,15 @@
       <c r="H30" t="s">
         <v>85</v>
       </c>
+      <c r="I30" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
       <c r="B31" s="8">
         <v>44509</v>
       </c>
@@ -2950,7 +3000,7 @@
         <v>83000</v>
       </c>
       <c r="E31" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-217800</v>
       </c>
       <c r="F31" t="s">
@@ -2962,8 +3012,15 @@
       <c r="H31" t="s">
         <v>85</v>
       </c>
+      <c r="I31" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
       <c r="B32" s="8">
         <v>44510</v>
       </c>
@@ -2974,7 +3031,7 @@
         <v>10000</v>
       </c>
       <c r="E32" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-227800</v>
       </c>
       <c r="F32" t="s">
@@ -2986,8 +3043,15 @@
       <c r="H32" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I32" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
       <c r="B33" s="8">
         <v>44512</v>
       </c>
@@ -2998,7 +3062,7 @@
         <v>100000</v>
       </c>
       <c r="E33" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-327800</v>
       </c>
       <c r="F33" t="s">
@@ -3010,8 +3074,15 @@
       <c r="H33" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I33" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
       <c r="B34" s="8">
         <v>44512</v>
       </c>
@@ -3022,17 +3093,21 @@
         <v>0</v>
       </c>
       <c r="E34" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>422200</v>
       </c>
       <c r="F34" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G34" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
       <c r="B35" s="8">
         <v>44512</v>
       </c>
@@ -3043,17 +3118,21 @@
         <v>120500</v>
       </c>
       <c r="E35" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>301700</v>
       </c>
       <c r="F35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G35" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
       <c r="B36" s="8">
         <v>44513</v>
       </c>
@@ -3064,17 +3143,21 @@
         <v>15000</v>
       </c>
       <c r="E36" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>286700</v>
       </c>
       <c r="F36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G36" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
       <c r="B37" s="8">
         <v>44513</v>
       </c>
@@ -3085,17 +3168,21 @@
         <v>12500</v>
       </c>
       <c r="E37" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>274200</v>
       </c>
       <c r="F37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G37" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
       <c r="B38" s="8">
         <v>44513</v>
       </c>
@@ -3106,17 +3193,21 @@
         <v>0</v>
       </c>
       <c r="E38" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1524200</v>
       </c>
       <c r="F38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G38" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
       <c r="B39" s="8">
         <v>44513</v>
       </c>
@@ -3127,17 +3218,30 @@
         <v>1576500</v>
       </c>
       <c r="E39" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-52300</v>
       </c>
       <c r="F39" t="s">
+        <v>97</v>
+      </c>
+      <c r="G39" t="s">
         <v>98</v>
       </c>
-      <c r="G39" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H39" t="s">
+        <v>85</v>
+      </c>
+      <c r="I39" t="s">
+        <v>100</v>
+      </c>
+      <c r="J39" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
       <c r="B40" s="8">
         <v>44513</v>
       </c>
@@ -3148,7 +3252,7 @@
         <v>15000</v>
       </c>
       <c r="E40" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-67300</v>
       </c>
       <c r="F40" t="s">
@@ -3158,179 +3262,435 @@
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B41" s="8">
+        <v>44513</v>
+      </c>
+      <c r="C41" s="6">
+        <v>0</v>
+      </c>
+      <c r="D41" s="6">
+        <v>5000</v>
+      </c>
       <c r="E41" s="6">
-        <f t="shared" si="2"/>
-        <v>-67300</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C42" s="9"/>
-      <c r="D42" s="6"/>
+        <f t="shared" si="1"/>
+        <v>-72300</v>
+      </c>
+      <c r="F41" t="s">
+        <v>99</v>
+      </c>
+      <c r="G41" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B42" s="8">
+        <v>44514</v>
+      </c>
+      <c r="C42" s="6">
+        <v>0</v>
+      </c>
+      <c r="D42" s="6">
+        <v>10000</v>
+      </c>
       <c r="E42" s="6">
-        <f t="shared" si="2"/>
-        <v>-67300</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C43" s="9"/>
-      <c r="D43" s="6"/>
+        <f t="shared" si="1"/>
+        <v>-82300</v>
+      </c>
+      <c r="F42" t="s">
+        <v>102</v>
+      </c>
+      <c r="G42" t="s">
+        <v>103</v>
+      </c>
+      <c r="H42" t="s">
+        <v>85</v>
+      </c>
+      <c r="I42" t="s">
+        <v>100</v>
+      </c>
+      <c r="J42" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B43" s="8">
+        <v>44514</v>
+      </c>
+      <c r="C43" s="6">
+        <v>0</v>
+      </c>
+      <c r="D43" s="6">
+        <v>90000</v>
+      </c>
       <c r="E43" s="6">
-        <f t="shared" si="2"/>
-        <v>-67300</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C44" s="9"/>
-      <c r="D44" s="6"/>
+        <f t="shared" si="1"/>
+        <v>-172300</v>
+      </c>
+      <c r="F43" t="s">
+        <v>81</v>
+      </c>
+      <c r="G43" t="s">
+        <v>17</v>
+      </c>
+      <c r="H43" t="s">
+        <v>85</v>
+      </c>
+      <c r="I43" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B44" s="8">
+        <v>44515</v>
+      </c>
+      <c r="C44" s="6">
+        <v>0</v>
+      </c>
+      <c r="D44" s="6">
+        <v>17500</v>
+      </c>
       <c r="E44" s="6">
-        <f t="shared" si="2"/>
-        <v>-67300</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>-189800</v>
+      </c>
+      <c r="F44" t="s">
+        <v>101</v>
+      </c>
+      <c r="G44" t="s">
+        <v>23</v>
+      </c>
+      <c r="H44" t="s">
+        <v>85</v>
+      </c>
+      <c r="I44" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="E45" s="6">
+        <f t="shared" si="1"/>
+        <v>-189800</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
       <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E46" s="6">
+        <f t="shared" si="1"/>
+        <v>-189800</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
       <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E47" s="6">
+        <f t="shared" si="1"/>
+        <v>-189800</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
       <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-    </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E48" s="6">
+        <f t="shared" si="1"/>
+        <v>-189800</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
       <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-    </row>
-    <row r="50" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E49" s="6">
+        <f t="shared" si="1"/>
+        <v>-189800</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
       <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-    </row>
-    <row r="51" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E50" s="6">
+        <f t="shared" si="1"/>
+        <v>-189800</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
       <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-    </row>
-    <row r="52" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E51" s="6">
+        <f t="shared" si="1"/>
+        <v>-189800</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
       <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-    </row>
-    <row r="53" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E52" s="6">
+        <f t="shared" si="1"/>
+        <v>-189800</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
       <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-    </row>
-    <row r="54" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E53" s="6">
+        <f t="shared" si="1"/>
+        <v>-189800</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
       <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-    </row>
-    <row r="55" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E54" s="6">
+        <f t="shared" si="1"/>
+        <v>-189800</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
       <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-    </row>
-    <row r="56" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E55" s="6">
+        <f t="shared" si="1"/>
+        <v>-189800</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
       <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-    </row>
-    <row r="57" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E56" s="6">
+        <f t="shared" si="1"/>
+        <v>-189800</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
       <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-    </row>
-    <row r="58" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E57" s="6">
+        <f t="shared" si="1"/>
+        <v>-189800</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
       <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-    </row>
-    <row r="59" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E58" s="6">
+        <f t="shared" si="1"/>
+        <v>-189800</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
       <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-    </row>
-    <row r="60" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E59" s="6">
+        <f t="shared" si="1"/>
+        <v>-189800</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
       <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-    </row>
-    <row r="61" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E60" s="6">
+        <f t="shared" si="1"/>
+        <v>-189800</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
       <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-    </row>
-    <row r="62" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E61" s="6">
+        <f t="shared" si="1"/>
+        <v>-189800</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
       <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-    </row>
-    <row r="63" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E62" s="6">
+        <f t="shared" si="1"/>
+        <v>-189800</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
       <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-    </row>
-    <row r="64" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E63" s="6">
+        <f t="shared" si="1"/>
+        <v>-189800</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
       <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-    </row>
-    <row r="65" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E64" s="6">
+        <f t="shared" si="1"/>
+        <v>-189800</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
       <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-    </row>
-    <row r="66" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E65" s="6">
+        <f t="shared" si="1"/>
+        <v>-189800</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
       <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-    </row>
-    <row r="67" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E66" s="6">
+        <f t="shared" si="1"/>
+        <v>-189800</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
       <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-    </row>
-    <row r="68" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E67" s="6">
+        <f t="shared" si="1"/>
+        <v>-189800</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
       <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-    </row>
-    <row r="69" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E68" s="6">
+        <f t="shared" si="1"/>
+        <v>-189800</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
     </row>
-    <row r="70" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
     </row>
-    <row r="71" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D71" s="6"/>
       <c r="E71" s="6"/>
     </row>
-    <row r="72" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D72" s="6"/>
       <c r="E72" s="6"/>
     </row>
-    <row r="73" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
     </row>
-    <row r="74" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D74" s="6"/>
       <c r="E74" s="6"/>
     </row>
-    <row r="75" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
     </row>
-    <row r="76" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
     </row>
-    <row r="77" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
     </row>
-    <row r="78" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
     </row>
-    <row r="79" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
     </row>
-    <row r="80" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D80" s="6"/>
       <c r="E80" s="6"/>
     </row>

--- a/rekap data uang kas kecil - asrama.xlsx
+++ b/rekap data uang kas kecil - asrama.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yofandi Riki Winata\Documents\yofandi\rekap data - uang galon, parkir, bumbu asrama\uangasrama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D1E35A-32DC-4F62-9922-AC45115FA58B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08004609-8B22-4E3A-BFBC-F346E92B5535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{C456B771-9DF8-4725-AC5F-E2624C050843}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="122">
   <si>
     <t>Kas Kecil - Asrama STTHF</t>
   </si>
@@ -357,6 +357,51 @@
   </si>
   <si>
     <t>uang kepake 77000 (100000)</t>
+  </si>
+  <si>
+    <t>uang beli beras 25 kg (Bless)</t>
+  </si>
+  <si>
+    <t>uang beli beras 25 kg (cap murah mertah)</t>
+  </si>
+  <si>
+    <t>uang masuk kas kecil asrama dari ce nanda (lewat ovo)</t>
+  </si>
+  <si>
+    <t>biaya tranfrer tarik tunai ovo ke bank</t>
+  </si>
+  <si>
+    <t>uangbeli minyak 2 L (1)</t>
+  </si>
+  <si>
+    <t>uang beli gula buat es buah</t>
+  </si>
+  <si>
+    <t>uang beli es batu</t>
+  </si>
+  <si>
+    <t>uang beli galon aqua (7 galon)</t>
+  </si>
+  <si>
+    <t>**</t>
+  </si>
+  <si>
+    <t>uang beli telur 4 kg</t>
+  </si>
+  <si>
+    <t>uangbeli bensin avanza</t>
+  </si>
+  <si>
+    <t>uang masuk kas kecil asrama dari ce nanda lewat dana</t>
+  </si>
+  <si>
+    <t>uang beli steker kran sealt tape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uang beli jas ujan plastik </t>
+  </si>
+  <si>
+    <t>uang bensin motor pertalite</t>
   </si>
 </sst>
 </file>
@@ -420,7 +465,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -433,8 +478,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -442,12 +511,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -464,7 +548,18 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -486,6 +581,9 @@
     <xf numFmtId="17" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -818,14 +916,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="B1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -836,12 +934,12 @@
       <c r="O1" s="2"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -852,12 +950,12 @@
       <c r="O2" s="2"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -868,12 +966,12 @@
       <c r="O3" s="2"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -884,14 +982,14 @@
       <c r="O4" s="2"/>
     </row>
     <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -902,12 +1000,12 @@
       <c r="O5" s="3"/>
     </row>
     <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -2170,41 +2268,41 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="11" t="s">
+      <c r="A60" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="B60" s="12"/>
-      <c r="C60" s="13">
+      <c r="B60" s="23"/>
+      <c r="C60" s="24">
         <f>SUM(C9:C59)</f>
         <v>2100000</v>
       </c>
-      <c r="D60" s="13">
+      <c r="D60" s="24">
         <f>SUM(D9:D59)</f>
         <v>2118600</v>
       </c>
-      <c r="E60" s="13">
+      <c r="E60" s="24">
         <v>-18600</v>
       </c>
-      <c r="F60" s="12"/>
-      <c r="G60" s="12"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="23"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="12"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="12"/>
+      <c r="A61" s="23"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="23"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="12"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="12"/>
+      <c r="A62" s="23"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="23"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B63" s="7"/>
@@ -2267,10 +2365,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BDAE0A9-9D0C-4DE2-9702-0E943FFDF5A6}">
-  <dimension ref="A1:K94"/>
+  <dimension ref="A1:K97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2288,56 +2386,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="B1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
@@ -2370,393 +2468,393 @@
         <v>87</v>
       </c>
       <c r="J8" s="6">
-        <f>SUM(C9:C44)</f>
-        <v>3100000</v>
+        <f>SUM(C9:C71)</f>
+        <v>4050000</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="8">
         <f>ROW(A1)</f>
         <v>1</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="9">
         <v>44503</v>
       </c>
-      <c r="C9" s="6">
-        <v>0</v>
-      </c>
-      <c r="D9" s="6">
+      <c r="C9" s="10">
+        <v>0</v>
+      </c>
+      <c r="D9" s="10">
         <v>18600</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="10">
         <f>C9-D9</f>
         <v>-18600</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="8" t="s">
         <v>23</v>
       </c>
       <c r="I9" t="s">
         <v>104</v>
       </c>
       <c r="J9" s="6">
-        <f>SUM(D9:D44)</f>
-        <v>3289800</v>
+        <f>SUM(D9:D71)</f>
+        <v>4202300</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <f t="shared" ref="A10:A68" si="0">ROW(A2)</f>
+      <c r="A10" s="8">
+        <f t="shared" ref="A10:A71" si="0">ROW(A2)</f>
         <v>2</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="9">
         <v>44503</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="10">
         <v>300000</v>
       </c>
-      <c r="D10" s="6">
-        <v>0</v>
-      </c>
-      <c r="E10" s="6">
+      <c r="D10" s="10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="10">
         <f>E9+C10-D10</f>
         <v>281400</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="8" t="s">
         <v>23</v>
       </c>
       <c r="J10" s="6">
         <f>J8-J9</f>
-        <v>-189800</v>
+        <v>-152300</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="9">
         <v>44503</v>
       </c>
-      <c r="C11" s="6">
-        <v>0</v>
-      </c>
-      <c r="D11" s="6">
+      <c r="C11" s="10">
+        <v>0</v>
+      </c>
+      <c r="D11" s="10">
         <v>83000</v>
       </c>
-      <c r="E11" s="6">
-        <f t="shared" ref="E11:E68" si="1">E10+C11-D11</f>
+      <c r="E11" s="10">
+        <f t="shared" ref="E11:E71" si="1">E10+C11-D11</f>
         <v>198400</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="9">
         <v>44503</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="10">
         <v>700000</v>
       </c>
-      <c r="D12" s="6">
-        <v>0</v>
-      </c>
-      <c r="E12" s="6">
+      <c r="D12" s="10">
+        <v>0</v>
+      </c>
+      <c r="E12" s="10">
         <f t="shared" si="1"/>
         <v>898400</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="8">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="9">
         <v>44503</v>
       </c>
-      <c r="C13" s="6">
-        <v>0</v>
-      </c>
-      <c r="D13" s="6">
+      <c r="C13" s="10">
+        <v>0</v>
+      </c>
+      <c r="D13" s="10">
         <v>150000</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="10">
         <f t="shared" si="1"/>
         <v>748400</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="8" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="9">
         <v>44503</v>
       </c>
-      <c r="C14" s="6">
-        <v>0</v>
-      </c>
-      <c r="D14" s="6">
+      <c r="C14" s="10">
+        <v>0</v>
+      </c>
+      <c r="D14" s="10">
         <v>15000</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="10">
         <f t="shared" si="1"/>
         <v>733400</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="8" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="8">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="9">
         <v>44503</v>
       </c>
-      <c r="C15" s="6">
-        <v>0</v>
-      </c>
-      <c r="D15" s="6">
+      <c r="C15" s="10">
+        <v>0</v>
+      </c>
+      <c r="D15" s="10">
         <v>150000</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="10">
         <f t="shared" si="1"/>
         <v>583400</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="8" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="8">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="9">
         <v>44504</v>
       </c>
-      <c r="C16" s="6">
-        <v>0</v>
-      </c>
-      <c r="D16" s="6">
+      <c r="C16" s="10">
+        <v>0</v>
+      </c>
+      <c r="D16" s="10">
         <v>80000</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="10">
         <f t="shared" si="1"/>
         <v>503400</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="8" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="8">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="9">
         <v>44504</v>
       </c>
-      <c r="C17" s="6">
-        <v>0</v>
-      </c>
-      <c r="D17" s="6">
+      <c r="C17" s="10">
+        <v>0</v>
+      </c>
+      <c r="D17" s="10">
         <v>10000</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="10">
         <f t="shared" si="1"/>
         <v>493400</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="8">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="9">
         <v>44505</v>
       </c>
-      <c r="C18" s="6">
-        <v>0</v>
-      </c>
-      <c r="D18" s="6">
+      <c r="C18" s="10">
+        <v>0</v>
+      </c>
+      <c r="D18" s="10">
         <v>230000</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="10">
         <f t="shared" si="1"/>
         <v>263400</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="8">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="9">
         <v>44505</v>
       </c>
-      <c r="C19" s="6">
-        <v>0</v>
-      </c>
-      <c r="D19" s="6">
+      <c r="C19" s="10">
+        <v>0</v>
+      </c>
+      <c r="D19" s="10">
         <v>10000</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="10">
         <f t="shared" si="1"/>
         <v>253400</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="8">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="9">
         <v>44505</v>
       </c>
-      <c r="C20" s="6">
-        <v>0</v>
-      </c>
-      <c r="D20" s="6">
+      <c r="C20" s="10">
+        <v>0</v>
+      </c>
+      <c r="D20" s="10">
         <v>200000</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="10">
         <f t="shared" si="1"/>
         <v>53400</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="11">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="12">
         <v>44506</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="13">
         <v>100000</v>
       </c>
-      <c r="D21" s="6">
-        <v>0</v>
-      </c>
-      <c r="E21" s="6">
+      <c r="D21" s="13">
+        <v>0</v>
+      </c>
+      <c r="E21" s="13">
         <f t="shared" si="1"/>
         <v>153400</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="11" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="11">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="12">
         <v>44506</v>
       </c>
-      <c r="C22" s="6">
-        <v>0</v>
-      </c>
-      <c r="D22" s="6">
+      <c r="C22" s="13">
+        <v>0</v>
+      </c>
+      <c r="D22" s="13">
         <v>90000</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="13">
         <f t="shared" si="1"/>
         <v>63400</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="11" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="11">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="12">
         <v>44506</v>
       </c>
-      <c r="C23" s="6">
-        <v>0</v>
-      </c>
-      <c r="D23" s="6">
+      <c r="C23" s="13">
+        <v>0</v>
+      </c>
+      <c r="D23" s="13">
         <v>10000</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="13">
         <f t="shared" si="1"/>
         <v>53400</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="11" t="s">
         <v>17</v>
       </c>
       <c r="H23" t="s">
@@ -2768,27 +2866,27 @@
       <c r="K23" s="6"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="11">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="12">
         <v>44506</v>
       </c>
-      <c r="C24" s="6">
-        <v>0</v>
-      </c>
-      <c r="D24" s="6">
+      <c r="C24" s="13">
+        <v>0</v>
+      </c>
+      <c r="D24" s="13">
         <v>88400</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="13">
         <f t="shared" si="1"/>
         <v>-35000</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="11" t="s">
         <v>23</v>
       </c>
       <c r="H24" t="s">
@@ -2800,27 +2898,27 @@
       <c r="J24" s="6"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="11">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="12">
         <v>44506</v>
       </c>
-      <c r="C25" s="6">
-        <v>0</v>
-      </c>
-      <c r="D25" s="6">
+      <c r="C25" s="13">
+        <v>0</v>
+      </c>
+      <c r="D25" s="13">
         <v>7000</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="13">
         <f t="shared" si="1"/>
         <v>-42000</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="11" t="s">
         <v>23</v>
       </c>
       <c r="H25" t="s">
@@ -2831,58 +2929,58 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="11">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="12">
         <v>44506</v>
       </c>
-      <c r="C26" s="6">
-        <v>0</v>
-      </c>
-      <c r="D26" s="6">
+      <c r="C26" s="13">
+        <v>0</v>
+      </c>
+      <c r="D26" s="13">
         <v>50300</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="13">
         <f t="shared" si="1"/>
         <v>-92300</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="11" t="s">
         <v>49</v>
       </c>
       <c r="H26" t="s">
         <v>89</v>
       </c>
       <c r="I26" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="11">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27" s="12">
         <v>44507</v>
       </c>
-      <c r="C27" s="6">
-        <v>0</v>
-      </c>
-      <c r="D27" s="6">
+      <c r="C27" s="13">
+        <v>0</v>
+      </c>
+      <c r="D27" s="13">
         <v>10000</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="13">
         <f t="shared" si="1"/>
         <v>-102300</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="11" t="s">
         <v>17</v>
       </c>
       <c r="H27" t="s">
@@ -2893,27 +2991,27 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="A28" s="11">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B28" s="12">
         <v>44507</v>
       </c>
-      <c r="C28" s="6">
-        <v>0</v>
-      </c>
-      <c r="D28" s="6">
+      <c r="C28" s="13">
+        <v>0</v>
+      </c>
+      <c r="D28" s="13">
         <v>10000</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="13">
         <f t="shared" si="1"/>
         <v>-112300</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="11" t="s">
         <v>44</v>
       </c>
       <c r="H28" t="s">
@@ -2924,27 +3022,27 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="A29" s="11">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B29" s="12">
         <v>44507</v>
       </c>
-      <c r="C29" s="6">
-        <v>0</v>
-      </c>
-      <c r="D29" s="6">
+      <c r="C29" s="13">
+        <v>0</v>
+      </c>
+      <c r="D29" s="13">
         <v>12500</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="13">
         <f t="shared" si="1"/>
         <v>-124800</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="11" t="s">
         <v>44</v>
       </c>
       <c r="H29" t="s">
@@ -2955,27 +3053,27 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="A30" s="11">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B30" s="12">
         <v>44508</v>
       </c>
-      <c r="C30" s="6">
-        <v>0</v>
-      </c>
-      <c r="D30" s="6">
+      <c r="C30" s="13">
+        <v>0</v>
+      </c>
+      <c r="D30" s="13">
         <v>10000</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="13">
         <f t="shared" si="1"/>
         <v>-134800</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="11" t="s">
         <v>17</v>
       </c>
       <c r="H30" t="s">
@@ -2986,27 +3084,27 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="A31" s="11">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B31" s="12">
         <v>44509</v>
       </c>
-      <c r="C31" s="6">
-        <v>0</v>
-      </c>
-      <c r="D31" s="6">
+      <c r="C31" s="13">
+        <v>0</v>
+      </c>
+      <c r="D31" s="13">
         <v>83000</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="13">
         <f t="shared" si="1"/>
         <v>-217800</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H31" t="s">
@@ -3017,27 +3115,27 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="A32" s="11">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B32" s="12">
         <v>44510</v>
       </c>
-      <c r="C32" s="6">
-        <v>0</v>
-      </c>
-      <c r="D32" s="6">
+      <c r="C32" s="13">
+        <v>0</v>
+      </c>
+      <c r="D32" s="13">
         <v>10000</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="13">
         <f t="shared" si="1"/>
         <v>-227800</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="11" t="s">
         <v>17</v>
       </c>
       <c r="H32" t="s">
@@ -3047,28 +3145,28 @@
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="11">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B33" s="8">
+      <c r="B33" s="12">
         <v>44512</v>
       </c>
-      <c r="C33" s="6">
-        <v>0</v>
-      </c>
-      <c r="D33" s="6">
+      <c r="C33" s="13">
+        <v>0</v>
+      </c>
+      <c r="D33" s="13">
         <v>100000</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33" s="13">
         <f t="shared" si="1"/>
         <v>-327800</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="11" t="s">
         <v>17</v>
       </c>
       <c r="H33" t="s">
@@ -3078,619 +3176,969 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="11">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B34" s="8">
+      <c r="B34" s="12">
         <v>44512</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="13">
         <v>750000</v>
       </c>
-      <c r="D34" s="6">
-        <v>0</v>
-      </c>
-      <c r="E34" s="6">
+      <c r="D34" s="13">
+        <v>0</v>
+      </c>
+      <c r="E34" s="13">
         <f t="shared" si="1"/>
         <v>422200</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="11">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B35" s="8">
+      <c r="B35" s="12">
         <v>44512</v>
       </c>
-      <c r="C35" s="6">
-        <v>0</v>
-      </c>
-      <c r="D35" s="6">
+      <c r="C35" s="13">
+        <v>0</v>
+      </c>
+      <c r="D35" s="13">
         <v>120500</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="13">
         <f t="shared" si="1"/>
         <v>301700</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <f t="shared" si="0"/>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="14">
+        <f>ROW(A28)</f>
         <v>28</v>
       </c>
-      <c r="B36" s="8">
+      <c r="B36" s="15">
         <v>44513</v>
       </c>
-      <c r="C36" s="6">
-        <v>0</v>
-      </c>
-      <c r="D36" s="6">
+      <c r="C36" s="16">
+        <v>0</v>
+      </c>
+      <c r="D36" s="16">
         <v>15000</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="16">
         <f t="shared" si="1"/>
         <v>286700</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="14">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B37" s="8">
+      <c r="B37" s="15">
         <v>44513</v>
       </c>
-      <c r="C37" s="6">
-        <v>0</v>
-      </c>
-      <c r="D37" s="6">
+      <c r="C37" s="16">
+        <v>0</v>
+      </c>
+      <c r="D37" s="16">
         <v>12500</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="16">
         <f t="shared" si="1"/>
         <v>274200</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="14">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B38" s="8">
+      <c r="B38" s="15">
         <v>44513</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="16">
         <v>1250000</v>
       </c>
-      <c r="D38" s="6">
-        <v>0</v>
-      </c>
-      <c r="E38" s="6">
+      <c r="D38" s="16">
+        <v>0</v>
+      </c>
+      <c r="E38" s="16">
         <f t="shared" si="1"/>
         <v>1524200</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="14">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B39" s="8">
+      <c r="B39" s="15">
         <v>44513</v>
       </c>
-      <c r="C39" s="6">
-        <v>0</v>
-      </c>
-      <c r="D39" s="6">
+      <c r="C39" s="16">
+        <v>0</v>
+      </c>
+      <c r="D39" s="16">
         <v>1576500</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39" s="16">
         <f t="shared" si="1"/>
         <v>-52300</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" s="14" t="s">
         <v>98</v>
       </c>
       <c r="H39" t="s">
         <v>85</v>
       </c>
       <c r="I39" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="J39" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="14">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B40" s="8">
+      <c r="B40" s="15">
         <v>44513</v>
       </c>
-      <c r="C40" s="6">
-        <v>0</v>
-      </c>
-      <c r="D40" s="6">
+      <c r="C40" s="16">
+        <v>0</v>
+      </c>
+      <c r="D40" s="16">
         <v>15000</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40" s="16">
         <f t="shared" si="1"/>
         <v>-67300</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" s="14" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="K40" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="14">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B41" s="8">
+      <c r="B41" s="15">
         <v>44513</v>
       </c>
-      <c r="C41" s="6">
-        <v>0</v>
-      </c>
-      <c r="D41" s="6">
+      <c r="C41" s="16">
+        <v>0</v>
+      </c>
+      <c r="D41" s="16">
         <v>5000</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E41" s="16">
         <f t="shared" si="1"/>
         <v>-72300</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" s="14" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="14">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B42" s="8">
+      <c r="B42" s="15">
         <v>44514</v>
       </c>
-      <c r="C42" s="6">
-        <v>0</v>
-      </c>
-      <c r="D42" s="6">
+      <c r="C42" s="16">
+        <v>0</v>
+      </c>
+      <c r="D42" s="16">
         <v>10000</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E42" s="16">
         <f t="shared" si="1"/>
         <v>-82300</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" s="14" t="s">
         <v>103</v>
       </c>
       <c r="H42" t="s">
         <v>85</v>
       </c>
       <c r="I42" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="J42" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="14">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B43" s="8">
+      <c r="B43" s="15">
         <v>44514</v>
       </c>
-      <c r="C43" s="6">
-        <v>0</v>
-      </c>
-      <c r="D43" s="6">
+      <c r="C43" s="16">
+        <v>0</v>
+      </c>
+      <c r="D43" s="16">
         <v>90000</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E43" s="16">
         <f t="shared" si="1"/>
         <v>-172300</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" s="14" t="s">
         <v>17</v>
       </c>
       <c r="H43" t="s">
         <v>85</v>
       </c>
       <c r="I43" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="27">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B44" s="8">
+      <c r="B44" s="28">
         <v>44515</v>
       </c>
-      <c r="C44" s="6">
-        <v>0</v>
-      </c>
-      <c r="D44" s="6">
+      <c r="C44" s="29">
+        <v>0</v>
+      </c>
+      <c r="D44" s="29">
         <v>17500</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E44" s="29">
         <f t="shared" si="1"/>
         <v>-189800</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" s="27" t="s">
         <v>23</v>
       </c>
       <c r="H44" t="s">
         <v>85</v>
       </c>
       <c r="I44" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="27">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B45" s="28">
+        <v>44515</v>
+      </c>
+      <c r="C45" s="29">
+        <v>500000</v>
+      </c>
+      <c r="D45" s="29">
+        <v>0</v>
+      </c>
+      <c r="E45" s="29">
+        <f t="shared" si="1"/>
+        <v>310200</v>
+      </c>
+      <c r="F45" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="G45" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="27">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B46" s="28">
+        <v>44515</v>
+      </c>
+      <c r="C46" s="29">
+        <v>0</v>
+      </c>
+      <c r="D46" s="29">
+        <v>250000</v>
+      </c>
+      <c r="E46" s="29">
+        <f t="shared" si="1"/>
+        <v>60200</v>
+      </c>
+      <c r="F46" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="G46" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="27">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B47" s="28">
+        <v>44515</v>
+      </c>
+      <c r="C47" s="29">
+        <v>0</v>
+      </c>
+      <c r="D47" s="29">
+        <v>59000</v>
+      </c>
+      <c r="E47" s="29">
+        <f t="shared" si="1"/>
+        <v>1200</v>
+      </c>
+      <c r="F47" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="G47" s="27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="27">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B48" s="28">
+        <v>44515</v>
+      </c>
+      <c r="C48" s="29">
+        <v>0</v>
+      </c>
+      <c r="D48" s="29">
+        <v>240000</v>
+      </c>
+      <c r="E48" s="29">
+        <f t="shared" si="1"/>
+        <v>-238800</v>
+      </c>
+      <c r="F48" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="G48" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="H48" t="s">
+        <v>85</v>
+      </c>
+      <c r="I48" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="E45" s="6">
-        <f t="shared" si="1"/>
-        <v>-189800</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <f t="shared" si="0"/>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="27">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B49" s="28">
+        <v>44515</v>
+      </c>
+      <c r="C49" s="29">
+        <v>0</v>
+      </c>
+      <c r="D49" s="29">
+        <v>37000</v>
+      </c>
+      <c r="E49" s="29">
+        <f t="shared" si="1"/>
+        <v>-275800</v>
+      </c>
+      <c r="F49" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="G49" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="H49" t="s">
+        <v>85</v>
+      </c>
+      <c r="I49" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="27">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B50" s="28">
+        <v>44516</v>
+      </c>
+      <c r="C50" s="29">
+        <v>100000</v>
+      </c>
+      <c r="D50" s="29">
+        <v>0</v>
+      </c>
+      <c r="E50" s="29">
+        <f t="shared" si="1"/>
+        <v>-175800</v>
+      </c>
+      <c r="F50" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="G50" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="27">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B51" s="28">
+        <v>44516</v>
+      </c>
+      <c r="C51" s="29">
+        <v>0</v>
+      </c>
+      <c r="D51" s="29">
+        <v>2500</v>
+      </c>
+      <c r="E51" s="29">
+        <f t="shared" si="1"/>
+        <v>-178300</v>
+      </c>
+      <c r="F51" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="G51" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="27">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B52" s="28">
+        <v>44516</v>
+      </c>
+      <c r="C52" s="29">
+        <v>0</v>
+      </c>
+      <c r="D52" s="29">
+        <v>12500</v>
+      </c>
+      <c r="E52" s="29">
+        <f t="shared" si="1"/>
+        <v>-190800</v>
+      </c>
+      <c r="F52" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="G52" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="27">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B53" s="28">
+        <v>44516</v>
+      </c>
+      <c r="C53" s="29">
+        <v>0</v>
+      </c>
+      <c r="D53" s="29">
+        <v>10000</v>
+      </c>
+      <c r="E53" s="29">
+        <f t="shared" si="1"/>
+        <v>-200800</v>
+      </c>
+      <c r="F53" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="G53" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="17">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B54" s="18">
+        <v>44519</v>
+      </c>
+      <c r="C54" s="19">
+        <v>100000</v>
+      </c>
+      <c r="D54" s="19">
+        <v>0</v>
+      </c>
+      <c r="E54" s="19">
+        <f t="shared" si="1"/>
+        <v>-100800</v>
+      </c>
+      <c r="F54" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="G54" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="17">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B55" s="18">
+        <v>44519</v>
+      </c>
+      <c r="C55" s="19">
+        <v>0</v>
+      </c>
+      <c r="D55" s="19">
+        <v>96000</v>
+      </c>
+      <c r="E55" s="19">
+        <f t="shared" si="1"/>
+        <v>-196800</v>
+      </c>
+      <c r="F55" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="G55" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="17">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B56" s="18">
+        <v>44520</v>
+      </c>
+      <c r="C56" s="19">
+        <v>0</v>
+      </c>
+      <c r="D56" s="19">
+        <v>8000</v>
+      </c>
+      <c r="E56" s="19">
+        <f t="shared" si="1"/>
+        <v>-204800</v>
+      </c>
+      <c r="F56" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6">
-        <f t="shared" si="1"/>
-        <v>-189800</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6">
-        <f t="shared" si="1"/>
-        <v>-189800</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6">
-        <f t="shared" si="1"/>
-        <v>-189800</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6">
-        <f t="shared" si="1"/>
-        <v>-189800</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6">
-        <f t="shared" si="1"/>
-        <v>-189800</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6">
-        <f t="shared" si="1"/>
-        <v>-189800</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6">
-        <f t="shared" si="1"/>
-        <v>-189800</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6">
-        <f t="shared" si="1"/>
-        <v>-189800</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6">
-        <f t="shared" si="1"/>
-        <v>-189800</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6">
-        <f t="shared" si="1"/>
-        <v>-189800</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6">
-        <f t="shared" si="1"/>
-        <v>-189800</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57">
+      <c r="G56" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="17">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6">
-        <f t="shared" si="1"/>
-        <v>-189800</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58">
+      <c r="B57" s="18">
+        <v>44521</v>
+      </c>
+      <c r="C57" s="19">
+        <v>0</v>
+      </c>
+      <c r="D57" s="19">
+        <v>10000</v>
+      </c>
+      <c r="E57" s="19">
+        <f t="shared" si="1"/>
+        <v>-214800</v>
+      </c>
+      <c r="F57" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="G57" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="17">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6">
-        <f t="shared" si="1"/>
-        <v>-189800</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59">
+      <c r="B58" s="18">
+        <v>44521</v>
+      </c>
+      <c r="C58" s="19">
+        <v>0</v>
+      </c>
+      <c r="D58" s="19">
+        <v>100000</v>
+      </c>
+      <c r="E58" s="19">
+        <f t="shared" si="1"/>
+        <v>-314800</v>
+      </c>
+      <c r="F58" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="G58" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="17">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6">
-        <f t="shared" si="1"/>
-        <v>-189800</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60">
+      <c r="B59" s="18">
+        <v>44521</v>
+      </c>
+      <c r="C59" s="19">
+        <v>250000</v>
+      </c>
+      <c r="D59" s="19">
+        <v>0</v>
+      </c>
+      <c r="E59" s="19">
+        <f t="shared" si="1"/>
+        <v>-64800</v>
+      </c>
+      <c r="F59" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="G59" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="17">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6">
-        <f t="shared" si="1"/>
-        <v>-189800</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61">
+      <c r="B60" s="18">
+        <v>44521</v>
+      </c>
+      <c r="C60" s="19">
+        <v>0</v>
+      </c>
+      <c r="D60" s="19">
+        <v>43000</v>
+      </c>
+      <c r="E60" s="19">
+        <f t="shared" si="1"/>
+        <v>-107800</v>
+      </c>
+      <c r="F60" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="G60" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="17">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6">
-        <f t="shared" si="1"/>
-        <v>-189800</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62">
+      <c r="B61" s="18">
+        <v>44521</v>
+      </c>
+      <c r="C61" s="19">
+        <v>0</v>
+      </c>
+      <c r="D61" s="19">
+        <v>29500</v>
+      </c>
+      <c r="E61" s="19">
+        <f t="shared" si="1"/>
+        <v>-137300</v>
+      </c>
+      <c r="F61" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="G61" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="I61" s="6">
+        <f>D56+D61+D62</f>
+        <v>52500</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="17">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6">
-        <f t="shared" si="1"/>
-        <v>-189800</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63">
+      <c r="B62" s="18">
+        <v>44521</v>
+      </c>
+      <c r="C62" s="19">
+        <v>0</v>
+      </c>
+      <c r="D62" s="19">
+        <v>15000</v>
+      </c>
+      <c r="E62" s="19">
+        <f t="shared" si="1"/>
+        <v>-152300</v>
+      </c>
+      <c r="F62" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="G62" s="17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="17">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6">
-        <f t="shared" si="1"/>
-        <v>-189800</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64">
+      <c r="B63" s="18"/>
+      <c r="C63" s="19">
+        <v>0</v>
+      </c>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19">
+        <f t="shared" si="1"/>
+        <v>-152300</v>
+      </c>
+      <c r="F63" s="17"/>
+      <c r="G63" s="17"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="17">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6">
-        <f t="shared" si="1"/>
-        <v>-189800</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65">
+      <c r="B64" s="17"/>
+      <c r="C64" s="19">
+        <v>0</v>
+      </c>
+      <c r="D64" s="19"/>
+      <c r="E64" s="19">
+        <f t="shared" si="1"/>
+        <v>-152300</v>
+      </c>
+      <c r="F64" s="17"/>
+      <c r="G64" s="17"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="17">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6">
-        <f t="shared" si="1"/>
-        <v>-189800</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66">
+      <c r="B65" s="17"/>
+      <c r="C65" s="19">
+        <v>0</v>
+      </c>
+      <c r="D65" s="19"/>
+      <c r="E65" s="19">
+        <f t="shared" si="1"/>
+        <v>-152300</v>
+      </c>
+      <c r="F65" s="17"/>
+      <c r="G65" s="17"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="17">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6">
-        <f t="shared" si="1"/>
-        <v>-189800</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67">
+      <c r="B66" s="17"/>
+      <c r="C66" s="19">
+        <v>0</v>
+      </c>
+      <c r="D66" s="19"/>
+      <c r="E66" s="19">
+        <f t="shared" si="1"/>
+        <v>-152300</v>
+      </c>
+      <c r="F66" s="17"/>
+      <c r="G66" s="17"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="17">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6">
-        <f t="shared" si="1"/>
-        <v>-189800</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68">
+      <c r="B67" s="17"/>
+      <c r="C67" s="19">
+        <v>0</v>
+      </c>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19">
+        <f t="shared" si="1"/>
+        <v>-152300</v>
+      </c>
+      <c r="F67" s="17"/>
+      <c r="G67" s="17"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="17">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6">
-        <f t="shared" si="1"/>
-        <v>-189800</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B68" s="17"/>
+      <c r="C68" s="19">
+        <v>0</v>
+      </c>
+      <c r="D68" s="19"/>
+      <c r="E68" s="19">
+        <f t="shared" si="1"/>
+        <v>-152300</v>
+      </c>
+      <c r="F68" s="17"/>
+      <c r="G68" s="17"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="17">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="B69" s="17"/>
+      <c r="C69" s="19">
+        <v>0</v>
+      </c>
+      <c r="D69" s="19"/>
+      <c r="E69" s="19">
+        <f t="shared" si="1"/>
+        <v>-152300</v>
+      </c>
+      <c r="F69" s="17"/>
+      <c r="G69" s="17"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="17">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="B70" s="17"/>
+      <c r="C70" s="19">
+        <v>0</v>
+      </c>
+      <c r="D70" s="19"/>
+      <c r="E70" s="19">
+        <f t="shared" si="1"/>
+        <v>-152300</v>
+      </c>
+      <c r="F70" s="17"/>
+      <c r="G70" s="17"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="17">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="B71" s="17"/>
+      <c r="C71" s="19">
+        <v>0</v>
+      </c>
+      <c r="D71" s="19"/>
+      <c r="E71" s="19">
+        <f t="shared" si="1"/>
+        <v>-152300</v>
+      </c>
+      <c r="F71" s="17"/>
+      <c r="G71" s="17"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D72" s="6"/>
       <c r="E72" s="6"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D74" s="6"/>
       <c r="E74" s="6"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D76" s="6"/>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D76" s="6">
+        <f>SUM(D46:D53)</f>
+        <v>611000</v>
+      </c>
       <c r="E76" s="6"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D80" s="6"/>
       <c r="E80" s="6"/>
     </row>
@@ -3747,7 +4195,19 @@
       <c r="E93" s="6"/>
     </row>
     <row r="94" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D94" s="6"/>
       <c r="E94" s="6"/>
+    </row>
+    <row r="95" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+    </row>
+    <row r="96" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+    </row>
+    <row r="97" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E97" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/rekap data uang kas kecil - asrama.xlsx
+++ b/rekap data uang kas kecil - asrama.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yofandi Riki Winata\Documents\yofandi\rekap data - uang galon, parkir, bumbu asrama\uangasrama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08004609-8B22-4E3A-BFBC-F346E92B5535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20652D66-F885-4835-B5F4-9F07E509BFF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{C456B771-9DF8-4725-AC5F-E2624C050843}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="124">
   <si>
     <t>Kas Kecil - Asrama STTHF</t>
   </si>
@@ -386,9 +386,6 @@
     <t>**</t>
   </si>
   <si>
-    <t>uang beli telur 4 kg</t>
-  </si>
-  <si>
     <t>uangbeli bensin avanza</t>
   </si>
   <si>
@@ -402,6 +399,15 @@
   </si>
   <si>
     <t>uang bensin motor pertalite</t>
+  </si>
+  <si>
+    <t>uang beli galon aqua 10 galon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uang safe </t>
+  </si>
+  <si>
+    <t>uang yofandi</t>
   </si>
 </sst>
 </file>
@@ -465,7 +471,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -502,6 +508,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -531,7 +543,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -560,6 +572,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -581,9 +596,7 @@
     <xf numFmtId="17" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -916,14 +929,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
+      <c r="B1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -934,12 +947,12 @@
       <c r="O1" s="2"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -950,12 +963,12 @@
       <c r="O2" s="2"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -966,12 +979,12 @@
       <c r="O3" s="2"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -982,14 +995,14 @@
       <c r="O4" s="2"/>
     </row>
     <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -1000,12 +1013,12 @@
       <c r="O5" s="3"/>
     </row>
     <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -2268,41 +2281,41 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="22" t="s">
+      <c r="A60" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="B60" s="23"/>
-      <c r="C60" s="24">
+      <c r="B60" s="26"/>
+      <c r="C60" s="27">
         <f>SUM(C9:C59)</f>
         <v>2100000</v>
       </c>
-      <c r="D60" s="24">
+      <c r="D60" s="27">
         <f>SUM(D9:D59)</f>
         <v>2118600</v>
       </c>
-      <c r="E60" s="24">
+      <c r="E60" s="27">
         <v>-18600</v>
       </c>
-      <c r="F60" s="23"/>
-      <c r="G60" s="23"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="26"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="23"/>
-      <c r="B61" s="23"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="25"/>
-      <c r="E61" s="24"/>
-      <c r="F61" s="23"/>
-      <c r="G61" s="23"/>
+      <c r="A61" s="26"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="28"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="27"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="26"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="23"/>
-      <c r="B62" s="23"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="24"/>
-      <c r="F62" s="23"/>
-      <c r="G62" s="23"/>
+      <c r="A62" s="26"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="27"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="26"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B63" s="7"/>
@@ -2365,10 +2378,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BDAE0A9-9D0C-4DE2-9702-0E943FFDF5A6}">
-  <dimension ref="A1:K97"/>
+  <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="I62" sqref="I62"/>
+    <sheetView tabSelected="1" topLeftCell="B62" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2386,56 +2399,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
+      <c r="B1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
@@ -2468,8 +2481,8 @@
         <v>87</v>
       </c>
       <c r="J8" s="6">
-        <f>SUM(C9:C71)</f>
-        <v>4050000</v>
+        <f>SUM(C9:C65)</f>
+        <v>3950000</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -2500,13 +2513,13 @@
         <v>104</v>
       </c>
       <c r="J9" s="6">
-        <f>SUM(D9:D71)</f>
-        <v>4202300</v>
+        <f>SUM(D9:D65)</f>
+        <v>4199300</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
-        <f t="shared" ref="A10:A71" si="0">ROW(A2)</f>
+        <f t="shared" ref="A10:A53" si="0">ROW(A2)</f>
         <v>2</v>
       </c>
       <c r="B10" s="9">
@@ -2530,7 +2543,7 @@
       </c>
       <c r="J10" s="6">
         <f>J8-J9</f>
-        <v>-152300</v>
+        <v>-249300</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -2548,7 +2561,7 @@
         <v>83000</v>
       </c>
       <c r="E11" s="10">
-        <f t="shared" ref="E11:E71" si="1">E10+C11-D11</f>
+        <f t="shared" ref="E11:E65" si="1">E10+C11-D11</f>
         <v>198400</v>
       </c>
       <c r="F11" s="8" t="s">
@@ -3454,27 +3467,27 @@
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="27">
+      <c r="A44" s="20">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B44" s="28">
+      <c r="B44" s="21">
         <v>44515</v>
       </c>
-      <c r="C44" s="29">
-        <v>0</v>
-      </c>
-      <c r="D44" s="29">
+      <c r="C44" s="22">
+        <v>0</v>
+      </c>
+      <c r="D44" s="22">
         <v>17500</v>
       </c>
-      <c r="E44" s="29">
+      <c r="E44" s="22">
         <f t="shared" si="1"/>
         <v>-189800</v>
       </c>
-      <c r="F44" s="27" t="s">
+      <c r="F44" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="G44" s="27" t="s">
+      <c r="G44" s="20" t="s">
         <v>23</v>
       </c>
       <c r="H44" t="s">
@@ -3485,102 +3498,102 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="27">
+      <c r="A45" s="20">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B45" s="28">
+      <c r="B45" s="21">
         <v>44515</v>
       </c>
-      <c r="C45" s="29">
+      <c r="C45" s="22">
         <v>500000</v>
       </c>
-      <c r="D45" s="29">
-        <v>0</v>
-      </c>
-      <c r="E45" s="29">
+      <c r="D45" s="22">
+        <v>0</v>
+      </c>
+      <c r="E45" s="22">
         <f t="shared" si="1"/>
         <v>310200</v>
       </c>
-      <c r="F45" s="27" t="s">
+      <c r="F45" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="G45" s="27" t="s">
+      <c r="G45" s="20" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="27">
+      <c r="A46" s="20">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B46" s="28">
+      <c r="B46" s="21">
         <v>44515</v>
       </c>
-      <c r="C46" s="29">
-        <v>0</v>
-      </c>
-      <c r="D46" s="29">
+      <c r="C46" s="22">
+        <v>0</v>
+      </c>
+      <c r="D46" s="22">
         <v>250000</v>
       </c>
-      <c r="E46" s="29">
+      <c r="E46" s="22">
         <f t="shared" si="1"/>
         <v>60200</v>
       </c>
-      <c r="F46" s="27" t="s">
+      <c r="F46" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="G46" s="27" t="s">
+      <c r="G46" s="20" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="27">
+      <c r="A47" s="20">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B47" s="28">
+      <c r="B47" s="21">
         <v>44515</v>
       </c>
-      <c r="C47" s="29">
-        <v>0</v>
-      </c>
-      <c r="D47" s="29">
+      <c r="C47" s="22">
+        <v>0</v>
+      </c>
+      <c r="D47" s="22">
         <v>59000</v>
       </c>
-      <c r="E47" s="29">
+      <c r="E47" s="22">
         <f t="shared" si="1"/>
         <v>1200</v>
       </c>
-      <c r="F47" s="27" t="s">
+      <c r="F47" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="G47" s="27" t="s">
+      <c r="G47" s="20" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="27">
+      <c r="A48" s="20">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B48" s="28">
+      <c r="B48" s="21">
         <v>44515</v>
       </c>
-      <c r="C48" s="29">
-        <v>0</v>
-      </c>
-      <c r="D48" s="29">
+      <c r="C48" s="22">
+        <v>0</v>
+      </c>
+      <c r="D48" s="22">
         <v>240000</v>
       </c>
-      <c r="E48" s="29">
+      <c r="E48" s="22">
         <f t="shared" si="1"/>
         <v>-238800</v>
       </c>
-      <c r="F48" s="27" t="s">
+      <c r="F48" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="G48" s="27" t="s">
+      <c r="G48" s="20" t="s">
         <v>23</v>
       </c>
       <c r="H48" t="s">
@@ -3591,27 +3604,27 @@
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="27">
+      <c r="A49" s="20">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B49" s="28">
+      <c r="B49" s="21">
         <v>44515</v>
       </c>
-      <c r="C49" s="29">
-        <v>0</v>
-      </c>
-      <c r="D49" s="29">
+      <c r="C49" s="22">
+        <v>0</v>
+      </c>
+      <c r="D49" s="22">
         <v>37000</v>
       </c>
-      <c r="E49" s="29">
+      <c r="E49" s="22">
         <f t="shared" si="1"/>
         <v>-275800</v>
       </c>
-      <c r="F49" s="27" t="s">
+      <c r="F49" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="G49" s="27" t="s">
+      <c r="G49" s="20" t="s">
         <v>23</v>
       </c>
       <c r="H49" t="s">
@@ -3622,125 +3635,125 @@
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="27">
+      <c r="A50" s="20">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B50" s="28">
+      <c r="B50" s="21">
         <v>44516</v>
       </c>
-      <c r="C50" s="29">
+      <c r="C50" s="22">
         <v>100000</v>
       </c>
-      <c r="D50" s="29">
-        <v>0</v>
-      </c>
-      <c r="E50" s="29">
+      <c r="D50" s="22">
+        <v>0</v>
+      </c>
+      <c r="E50" s="22">
         <f t="shared" si="1"/>
         <v>-175800</v>
       </c>
-      <c r="F50" s="27" t="s">
+      <c r="F50" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="G50" s="27" t="s">
+      <c r="G50" s="20" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="27">
+      <c r="A51" s="20">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B51" s="28">
+      <c r="B51" s="21">
         <v>44516</v>
       </c>
-      <c r="C51" s="29">
-        <v>0</v>
-      </c>
-      <c r="D51" s="29">
+      <c r="C51" s="22">
+        <v>0</v>
+      </c>
+      <c r="D51" s="22">
         <v>2500</v>
       </c>
-      <c r="E51" s="29">
+      <c r="E51" s="22">
         <f t="shared" si="1"/>
         <v>-178300</v>
       </c>
-      <c r="F51" s="27" t="s">
+      <c r="F51" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="G51" s="27" t="s">
+      <c r="G51" s="20" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="27">
+      <c r="A52" s="20">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B52" s="28">
+      <c r="B52" s="21">
         <v>44516</v>
       </c>
-      <c r="C52" s="29">
-        <v>0</v>
-      </c>
-      <c r="D52" s="29">
+      <c r="C52" s="22">
+        <v>0</v>
+      </c>
+      <c r="D52" s="22">
         <v>12500</v>
       </c>
-      <c r="E52" s="29">
+      <c r="E52" s="22">
         <f t="shared" si="1"/>
         <v>-190800</v>
       </c>
-      <c r="F52" s="27" t="s">
+      <c r="F52" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="G52" s="27" t="s">
+      <c r="G52" s="20" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="27">
+      <c r="A53" s="20">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B53" s="28">
+      <c r="B53" s="21">
         <v>44516</v>
       </c>
-      <c r="C53" s="29">
-        <v>0</v>
-      </c>
-      <c r="D53" s="29">
+      <c r="C53" s="22">
+        <v>0</v>
+      </c>
+      <c r="D53" s="22">
         <v>10000</v>
       </c>
-      <c r="E53" s="29">
+      <c r="E53" s="22">
         <f t="shared" si="1"/>
         <v>-200800</v>
       </c>
-      <c r="F53" s="27" t="s">
+      <c r="F53" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="G53" s="27" t="s">
+      <c r="G53" s="20" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="17">
-        <f t="shared" si="0"/>
-        <v>46</v>
+        <f>ROW(A48)</f>
+        <v>48</v>
       </c>
       <c r="B54" s="18">
-        <v>44519</v>
+        <v>44520</v>
       </c>
       <c r="C54" s="19">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="D54" s="19">
-        <v>0</v>
-      </c>
-      <c r="E54" s="19">
-        <f t="shared" si="1"/>
-        <v>-100800</v>
+        <v>8000</v>
+      </c>
+      <c r="E54" s="30">
+        <f t="shared" si="1"/>
+        <v>-208800</v>
       </c>
       <c r="F54" s="17" t="s">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="G54" s="17" t="s">
         <v>17</v>
@@ -3748,24 +3761,24 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="17">
-        <f t="shared" si="0"/>
-        <v>47</v>
+        <f>ROW(A49)</f>
+        <v>49</v>
       </c>
       <c r="B55" s="18">
-        <v>44519</v>
+        <v>44521</v>
       </c>
       <c r="C55" s="19">
         <v>0</v>
       </c>
       <c r="D55" s="19">
-        <v>96000</v>
-      </c>
-      <c r="E55" s="19">
-        <f t="shared" si="1"/>
-        <v>-196800</v>
+        <v>10000</v>
+      </c>
+      <c r="E55" s="30">
+        <f t="shared" si="1"/>
+        <v>-218800</v>
       </c>
       <c r="F55" s="17" t="s">
-        <v>116</v>
+        <v>61</v>
       </c>
       <c r="G55" s="17" t="s">
         <v>17</v>
@@ -3773,24 +3786,24 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="17">
-        <f t="shared" si="0"/>
-        <v>48</v>
+        <f>ROW(A50)</f>
+        <v>50</v>
       </c>
       <c r="B56" s="18">
-        <v>44520</v>
+        <v>44521</v>
       </c>
       <c r="C56" s="19">
         <v>0</v>
       </c>
       <c r="D56" s="19">
-        <v>8000</v>
-      </c>
-      <c r="E56" s="19">
-        <f t="shared" si="1"/>
-        <v>-204800</v>
+        <v>100000</v>
+      </c>
+      <c r="E56" s="30">
+        <f t="shared" si="1"/>
+        <v>-318800</v>
       </c>
       <c r="F56" s="17" t="s">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="G56" s="17" t="s">
         <v>17</v>
@@ -3798,33 +3811,33 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="17">
-        <f t="shared" si="0"/>
-        <v>49</v>
+        <f>ROW(A51)</f>
+        <v>51</v>
       </c>
       <c r="B57" s="18">
         <v>44521</v>
       </c>
       <c r="C57" s="19">
-        <v>0</v>
+        <v>250000</v>
       </c>
       <c r="D57" s="19">
-        <v>10000</v>
-      </c>
-      <c r="E57" s="19">
-        <f t="shared" si="1"/>
-        <v>-214800</v>
+        <v>0</v>
+      </c>
+      <c r="E57" s="30">
+        <f t="shared" si="1"/>
+        <v>-68800</v>
       </c>
       <c r="F57" s="17" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="G57" s="17" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="17">
-        <f t="shared" si="0"/>
-        <v>50</v>
+        <f>ROW(A52)</f>
+        <v>52</v>
       </c>
       <c r="B58" s="18">
         <v>44521</v>
@@ -3833,48 +3846,55 @@
         <v>0</v>
       </c>
       <c r="D58" s="19">
-        <v>100000</v>
-      </c>
-      <c r="E58" s="19">
-        <f t="shared" si="1"/>
-        <v>-314800</v>
+        <v>43000</v>
+      </c>
+      <c r="E58" s="30">
+        <f t="shared" si="1"/>
+        <v>-111800</v>
       </c>
       <c r="F58" s="17" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G58" s="17" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="17">
-        <f t="shared" si="0"/>
-        <v>51</v>
+        <f>ROW(A53)</f>
+        <v>53</v>
       </c>
       <c r="B59" s="18">
         <v>44521</v>
       </c>
       <c r="C59" s="19">
-        <v>250000</v>
+        <v>0</v>
       </c>
       <c r="D59" s="19">
-        <v>0</v>
-      </c>
-      <c r="E59" s="19">
-        <f t="shared" si="1"/>
-        <v>-64800</v>
+        <v>29500</v>
+      </c>
+      <c r="E59" s="30">
+        <f t="shared" si="1"/>
+        <v>-141300</v>
       </c>
       <c r="F59" s="17" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G59" s="17" t="s">
-        <v>23</v>
+        <v>64</v>
+      </c>
+      <c r="H59" t="s">
+        <v>122</v>
+      </c>
+      <c r="I59" s="6">
+        <f>D54+D59+D60</f>
+        <v>52500</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="17">
-        <f t="shared" si="0"/>
-        <v>52</v>
+        <f t="shared" ref="A60:A65" si="2">ROW(A54)</f>
+        <v>54</v>
       </c>
       <c r="B60" s="18">
         <v>44521</v>
@@ -3883,68 +3903,71 @@
         <v>0</v>
       </c>
       <c r="D60" s="19">
-        <v>43000</v>
-      </c>
-      <c r="E60" s="19">
-        <f t="shared" si="1"/>
-        <v>-107800</v>
+        <v>15000</v>
+      </c>
+      <c r="E60" s="30">
+        <f t="shared" si="1"/>
+        <v>-156300</v>
       </c>
       <c r="F60" s="17" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G60" s="17" t="s">
-        <v>23</v>
+        <v>64</v>
+      </c>
+      <c r="H60" t="s">
+        <v>123</v>
+      </c>
+      <c r="I60" s="6">
+        <f>249300-52500</f>
+        <v>196800</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="17">
-        <f t="shared" si="0"/>
-        <v>53</v>
+        <f t="shared" si="2"/>
+        <v>55</v>
       </c>
       <c r="B61" s="18">
-        <v>44521</v>
+        <v>44524</v>
       </c>
       <c r="C61" s="19">
         <v>0</v>
       </c>
       <c r="D61" s="19">
-        <v>29500</v>
-      </c>
-      <c r="E61" s="19">
-        <f t="shared" si="1"/>
-        <v>-137300</v>
+        <v>83000</v>
+      </c>
+      <c r="E61" s="30">
+        <f t="shared" si="1"/>
+        <v>-239300</v>
       </c>
       <c r="F61" s="17" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G61" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="I61" s="6">
-        <f>D56+D61+D62</f>
-        <v>52500</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="17">
-        <f t="shared" si="0"/>
-        <v>54</v>
+        <f t="shared" si="2"/>
+        <v>56</v>
       </c>
       <c r="B62" s="18">
-        <v>44521</v>
+        <v>44527</v>
       </c>
       <c r="C62" s="19">
         <v>0</v>
       </c>
       <c r="D62" s="19">
-        <v>15000</v>
-      </c>
-      <c r="E62" s="19">
-        <f t="shared" si="1"/>
-        <v>-152300</v>
+        <v>10000</v>
+      </c>
+      <c r="E62" s="30">
+        <f t="shared" si="1"/>
+        <v>-249300</v>
       </c>
       <c r="F62" s="17" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="G62" s="17" t="s">
         <v>64</v>
@@ -3952,160 +3975,107 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="17">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="B63" s="18"/>
+        <f t="shared" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="B63" s="17"/>
       <c r="C63" s="19">
         <v>0</v>
       </c>
       <c r="D63" s="19"/>
-      <c r="E63" s="19">
-        <f t="shared" si="1"/>
-        <v>-152300</v>
+      <c r="E63" s="30">
+        <f t="shared" si="1"/>
+        <v>-249300</v>
       </c>
       <c r="F63" s="17"/>
       <c r="G63" s="17"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="17">
-        <f t="shared" si="0"/>
-        <v>56</v>
+        <f t="shared" si="2"/>
+        <v>58</v>
       </c>
       <c r="B64" s="17"/>
       <c r="C64" s="19">
         <v>0</v>
       </c>
       <c r="D64" s="19"/>
-      <c r="E64" s="19">
-        <f t="shared" si="1"/>
-        <v>-152300</v>
+      <c r="E64" s="30">
+        <f t="shared" si="1"/>
+        <v>-249300</v>
       </c>
       <c r="F64" s="17"/>
       <c r="G64" s="17"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="17">
-        <f t="shared" si="0"/>
-        <v>57</v>
+        <f t="shared" si="2"/>
+        <v>59</v>
       </c>
       <c r="B65" s="17"/>
       <c r="C65" s="19">
         <v>0</v>
       </c>
       <c r="D65" s="19"/>
-      <c r="E65" s="19">
-        <f t="shared" si="1"/>
-        <v>-152300</v>
+      <c r="E65" s="30">
+        <f t="shared" si="1"/>
+        <v>-249300</v>
       </c>
       <c r="F65" s="17"/>
       <c r="G65" s="17"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="17">
-        <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-      <c r="B66" s="17"/>
-      <c r="C66" s="19">
-        <v>0</v>
-      </c>
-      <c r="D66" s="19"/>
-      <c r="E66" s="19">
-        <f t="shared" si="1"/>
-        <v>-152300</v>
-      </c>
-      <c r="F66" s="17"/>
-      <c r="G66" s="17"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="17">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="B67" s="17"/>
-      <c r="C67" s="19">
-        <v>0</v>
-      </c>
-      <c r="D67" s="19"/>
-      <c r="E67" s="19">
-        <f t="shared" si="1"/>
-        <v>-152300</v>
-      </c>
-      <c r="F67" s="17"/>
-      <c r="G67" s="17"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="17">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="B68" s="17"/>
-      <c r="C68" s="19">
-        <v>0</v>
-      </c>
-      <c r="D68" s="19"/>
-      <c r="E68" s="19">
-        <f t="shared" si="1"/>
-        <v>-152300</v>
-      </c>
-      <c r="F68" s="17"/>
-      <c r="G68" s="17"/>
+      <c r="D68" s="6">
+        <f>SUM(D54:D65)</f>
+        <v>298500</v>
+      </c>
+      <c r="E68" s="6"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="17">
-        <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-      <c r="B69" s="17"/>
-      <c r="C69" s="19">
-        <v>0</v>
-      </c>
-      <c r="D69" s="19"/>
-      <c r="E69" s="19">
-        <f t="shared" si="1"/>
-        <v>-152300</v>
-      </c>
-      <c r="F69" s="17"/>
-      <c r="G69" s="17"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="17">
-        <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
-      <c r="B70" s="17"/>
-      <c r="C70" s="19">
-        <v>0</v>
-      </c>
-      <c r="D70" s="19"/>
-      <c r="E70" s="19">
-        <f t="shared" si="1"/>
-        <v>-152300</v>
-      </c>
-      <c r="F70" s="17"/>
-      <c r="G70" s="17"/>
+      <c r="C70" s="6">
+        <f>SUM(C9:C65)</f>
+        <v>3950000</v>
+      </c>
+      <c r="D70" s="6">
+        <f>SUM(D9:D65)</f>
+        <v>4199300</v>
+      </c>
+      <c r="E70" s="6">
+        <f>C70-D70</f>
+        <v>-249300</v>
+      </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="17">
-        <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-      <c r="B71" s="17"/>
-      <c r="C71" s="19">
-        <v>0</v>
-      </c>
-      <c r="D71" s="19"/>
-      <c r="E71" s="19">
-        <f t="shared" si="1"/>
-        <v>-152300</v>
-      </c>
-      <c r="F71" s="17"/>
-      <c r="G71" s="17"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
+      <c r="C72">
+        <v>4119275</v>
+      </c>
+      <c r="D72" s="6">
+        <v>3950000</v>
+      </c>
+      <c r="E72" s="6">
+        <f>C72-D72</f>
+        <v>169275</v>
+      </c>
+      <c r="F72" s="6">
+        <f>E72+298500</f>
+        <v>467775</v>
+      </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D73" s="6"/>
@@ -4120,10 +4090,7 @@
       <c r="E75" s="6"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D76" s="6">
-        <f>SUM(D46:D53)</f>
-        <v>611000</v>
-      </c>
+      <c r="D76" s="6"/>
       <c r="E76" s="6"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -4183,31 +4150,7 @@
       <c r="E90" s="6"/>
     </row>
     <row r="91" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D91" s="6"/>
       <c r="E91" s="6"/>
-    </row>
-    <row r="92" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D92" s="6"/>
-      <c r="E92" s="6"/>
-    </row>
-    <row r="93" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D93" s="6"/>
-      <c r="E93" s="6"/>
-    </row>
-    <row r="94" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D94" s="6"/>
-      <c r="E94" s="6"/>
-    </row>
-    <row r="95" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D95" s="6"/>
-      <c r="E95" s="6"/>
-    </row>
-    <row r="96" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D96" s="6"/>
-      <c r="E96" s="6"/>
-    </row>
-    <row r="97" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E97" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/rekap data uang kas kecil - asrama.xlsx
+++ b/rekap data uang kas kecil - asrama.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yofandi Riki Winata\Documents\yofandi\rekap data - uang galon, parkir, bumbu asrama\uangasrama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20652D66-F885-4835-B5F4-9F07E509BFF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2708E51F-E33E-4850-B4F8-DEDAFD17EED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{C456B771-9DF8-4725-AC5F-E2624C050843}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{C456B771-9DF8-4725-AC5F-E2624C050843}"/>
   </bookViews>
   <sheets>
     <sheet name="Oktober" sheetId="1" r:id="rId1"/>
     <sheet name="November" sheetId="2" r:id="rId2"/>
+    <sheet name="Desember" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Oktober!$A$8:$G$8</definedName>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="142">
   <si>
     <t>Kas Kecil - Asrama STTHF</t>
   </si>
@@ -408,16 +409,72 @@
   </si>
   <si>
     <t>uang yofandi</t>
+  </si>
+  <si>
+    <t>*dimulai tanggal 01 Desmber 2021</t>
+  </si>
+  <si>
+    <t>*Desember 2021</t>
+  </si>
+  <si>
+    <t>sisa saldo nota dari bulan November</t>
+  </si>
+  <si>
+    <t>uang masuk kas asrama tapi langsung dipakai</t>
+  </si>
+  <si>
+    <t>uang beli bensin avanza</t>
+  </si>
+  <si>
+    <t>uang beli santan kara</t>
+  </si>
+  <si>
+    <t>uang masuk kas asrama tapi langsung dipakai untuk beli bahan asrama di lotte mart</t>
+  </si>
+  <si>
+    <t>petrus sama yofandi</t>
+  </si>
+  <si>
+    <t>uang masuk ke bandara juanda</t>
+  </si>
+  <si>
+    <t>uang masuk ke ruko rich palace</t>
+  </si>
+  <si>
+    <t>uang masuk ke kas kecil asrama, uang diambil valen</t>
+  </si>
+  <si>
+    <t>valen sama yofandi</t>
+  </si>
+  <si>
+    <t>uang beli minyak masako ladaku</t>
+  </si>
+  <si>
+    <t>hosea sama saferius</t>
+  </si>
+  <si>
+    <t>uang ngambil cucian kak Yehuda (tapi inisialnya ditulis yudas)</t>
+  </si>
+  <si>
+    <t>uang beli bensin buat motor mio punya hfc kota</t>
+  </si>
+  <si>
+    <t>uang beli garam dapur</t>
+  </si>
+  <si>
+    <t>hosea sama yofandi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="_([$Rp-421]* #,##0.00_);_([$Rp-421]* \(#,##0.00\);_([$Rp-421]* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="167" formatCode="m/d/yy\ h:mm;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -543,7 +600,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -575,6 +632,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -596,7 +657,6 @@
     <xf numFmtId="17" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -929,14 +989,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
+      <c r="B1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -947,12 +1007,12 @@
       <c r="O1" s="2"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -963,12 +1023,12 @@
       <c r="O2" s="2"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -979,12 +1039,12 @@
       <c r="O3" s="2"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -995,14 +1055,14 @@
       <c r="O4" s="2"/>
     </row>
     <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -1013,12 +1073,12 @@
       <c r="O5" s="3"/>
     </row>
     <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -2281,41 +2341,41 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="25" t="s">
+      <c r="A60" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="B60" s="26"/>
-      <c r="C60" s="27">
+      <c r="B60" s="30"/>
+      <c r="C60" s="31">
         <f>SUM(C9:C59)</f>
         <v>2100000</v>
       </c>
-      <c r="D60" s="27">
+      <c r="D60" s="31">
         <f>SUM(D9:D59)</f>
         <v>2118600</v>
       </c>
-      <c r="E60" s="27">
+      <c r="E60" s="31">
         <v>-18600</v>
       </c>
-      <c r="F60" s="26"/>
-      <c r="G60" s="26"/>
+      <c r="F60" s="30"/>
+      <c r="G60" s="30"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="26"/>
-      <c r="B61" s="26"/>
-      <c r="C61" s="28"/>
-      <c r="D61" s="28"/>
-      <c r="E61" s="27"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="26"/>
+      <c r="A61" s="30"/>
+      <c r="B61" s="30"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="30"/>
+      <c r="G61" s="30"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="26"/>
-      <c r="B62" s="26"/>
-      <c r="C62" s="28"/>
-      <c r="D62" s="28"/>
-      <c r="E62" s="27"/>
-      <c r="F62" s="26"/>
-      <c r="G62" s="26"/>
+      <c r="A62" s="30"/>
+      <c r="B62" s="30"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="31"/>
+      <c r="F62" s="30"/>
+      <c r="G62" s="30"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B63" s="7"/>
@@ -2380,8 +2440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BDAE0A9-9D0C-4DE2-9702-0E943FFDF5A6}">
   <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B62" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+    <sheetView topLeftCell="A31" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2398,64 +2458,64 @@
     <col min="11" max="11" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="29" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>31</v>
       </c>
@@ -2485,7 +2545,7 @@
         <v>3950000</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>ROW(A1)</f>
         <v>1</v>
@@ -2516,8 +2576,12 @@
         <f>SUM(D9:D65)</f>
         <v>4199300</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9" s="6">
+        <f>SUM(D10:D20)</f>
+        <v>928000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f t="shared" ref="A10:A53" si="0">ROW(A2)</f>
         <v>2</v>
@@ -2546,7 +2610,7 @@
         <v>-249300</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2571,7 +2635,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2596,7 +2660,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2621,7 +2685,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2646,7 +2710,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2671,7 +2735,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2819,6 +2883,10 @@
       </c>
       <c r="G21" s="11" t="s">
         <v>23</v>
+      </c>
+      <c r="K21" s="6">
+        <f>SUM(D21:D35)</f>
+        <v>601700</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -3347,6 +3415,10 @@
       <c r="J39" t="s">
         <v>106</v>
       </c>
+      <c r="K39" s="6">
+        <f>SUM(D36:D43)</f>
+        <v>1724000</v>
+      </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="14">
@@ -3602,6 +3674,10 @@
       <c r="I48" t="s">
         <v>100</v>
       </c>
+      <c r="K48" s="6">
+        <f>SUM(D44:D53)</f>
+        <v>628500</v>
+      </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="20">
@@ -3736,7 +3812,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="17">
-        <f>ROW(A48)</f>
+        <f t="shared" ref="A54:A59" si="2">ROW(A48)</f>
         <v>48</v>
       </c>
       <c r="B54" s="18">
@@ -3748,7 +3824,7 @@
       <c r="D54" s="19">
         <v>8000</v>
       </c>
-      <c r="E54" s="30">
+      <c r="E54" s="23">
         <f t="shared" si="1"/>
         <v>-208800</v>
       </c>
@@ -3761,7 +3837,7 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="17">
-        <f>ROW(A49)</f>
+        <f t="shared" si="2"/>
         <v>49</v>
       </c>
       <c r="B55" s="18">
@@ -3773,7 +3849,7 @@
       <c r="D55" s="19">
         <v>10000</v>
       </c>
-      <c r="E55" s="30">
+      <c r="E55" s="23">
         <f t="shared" si="1"/>
         <v>-218800</v>
       </c>
@@ -3786,7 +3862,7 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="17">
-        <f>ROW(A50)</f>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="B56" s="18">
@@ -3798,7 +3874,7 @@
       <c r="D56" s="19">
         <v>100000</v>
       </c>
-      <c r="E56" s="30">
+      <c r="E56" s="23">
         <f t="shared" si="1"/>
         <v>-318800</v>
       </c>
@@ -3811,7 +3887,7 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="17">
-        <f>ROW(A51)</f>
+        <f t="shared" si="2"/>
         <v>51</v>
       </c>
       <c r="B57" s="18">
@@ -3823,7 +3899,7 @@
       <c r="D57" s="19">
         <v>0</v>
       </c>
-      <c r="E57" s="30">
+      <c r="E57" s="23">
         <f t="shared" si="1"/>
         <v>-68800</v>
       </c>
@@ -3836,7 +3912,7 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="17">
-        <f>ROW(A52)</f>
+        <f t="shared" si="2"/>
         <v>52</v>
       </c>
       <c r="B58" s="18">
@@ -3848,7 +3924,7 @@
       <c r="D58" s="19">
         <v>43000</v>
       </c>
-      <c r="E58" s="30">
+      <c r="E58" s="23">
         <f t="shared" si="1"/>
         <v>-111800</v>
       </c>
@@ -3861,7 +3937,7 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="17">
-        <f>ROW(A53)</f>
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="B59" s="18">
@@ -3873,7 +3949,7 @@
       <c r="D59" s="19">
         <v>29500</v>
       </c>
-      <c r="E59" s="30">
+      <c r="E59" s="23">
         <f t="shared" si="1"/>
         <v>-141300</v>
       </c>
@@ -3893,7 +3969,7 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="17">
-        <f t="shared" ref="A60:A65" si="2">ROW(A54)</f>
+        <f t="shared" ref="A60:A65" si="3">ROW(A54)</f>
         <v>54</v>
       </c>
       <c r="B60" s="18">
@@ -3905,7 +3981,7 @@
       <c r="D60" s="19">
         <v>15000</v>
       </c>
-      <c r="E60" s="30">
+      <c r="E60" s="23">
         <f t="shared" si="1"/>
         <v>-156300</v>
       </c>
@@ -3925,7 +4001,7 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>55</v>
       </c>
       <c r="B61" s="18">
@@ -3937,7 +4013,7 @@
       <c r="D61" s="19">
         <v>83000</v>
       </c>
-      <c r="E61" s="30">
+      <c r="E61" s="23">
         <f t="shared" si="1"/>
         <v>-239300</v>
       </c>
@@ -3950,7 +4026,7 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>56</v>
       </c>
       <c r="B62" s="18">
@@ -3962,7 +4038,7 @@
       <c r="D62" s="19">
         <v>10000</v>
       </c>
-      <c r="E62" s="30">
+      <c r="E62" s="23">
         <f t="shared" si="1"/>
         <v>-249300</v>
       </c>
@@ -3975,7 +4051,7 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>57</v>
       </c>
       <c r="B63" s="17"/>
@@ -3983,7 +4059,7 @@
         <v>0</v>
       </c>
       <c r="D63" s="19"/>
-      <c r="E63" s="30">
+      <c r="E63" s="23">
         <f t="shared" si="1"/>
         <v>-249300</v>
       </c>
@@ -3992,7 +4068,7 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>58</v>
       </c>
       <c r="B64" s="17"/>
@@ -4000,16 +4076,16 @@
         <v>0</v>
       </c>
       <c r="D64" s="19"/>
-      <c r="E64" s="30">
+      <c r="E64" s="23">
         <f t="shared" si="1"/>
         <v>-249300</v>
       </c>
       <c r="F64" s="17"/>
       <c r="G64" s="17"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>59</v>
       </c>
       <c r="B65" s="17"/>
@@ -4017,95 +4093,102 @@
         <v>0</v>
       </c>
       <c r="D65" s="19"/>
-      <c r="E65" s="30">
+      <c r="E65" s="23">
         <f t="shared" si="1"/>
         <v>-249300</v>
       </c>
       <c r="F65" s="17"/>
       <c r="G65" s="17"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D68" s="6">
         <f>SUM(D54:D65)</f>
         <v>298500</v>
       </c>
       <c r="E68" s="6"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C70" s="6">
         <f>SUM(C9:C65)</f>
         <v>3950000</v>
       </c>
       <c r="D70" s="6">
-        <f>SUM(D9:D65)</f>
-        <v>4199300</v>
+        <v>4183625</v>
       </c>
       <c r="E70" s="6">
         <f>C70-D70</f>
-        <v>-249300</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-233625</v>
+      </c>
+      <c r="G70">
+        <f>298500+628500+928000+601700+1726925</f>
+        <v>4183625</v>
+      </c>
+      <c r="K70" s="24">
+        <f>SUM(K8:K65)</f>
+        <v>3882200</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D71" s="6"/>
       <c r="E71" s="6"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C72">
-        <v>4119275</v>
+        <v>4183675</v>
       </c>
       <c r="D72" s="6">
         <v>3950000</v>
       </c>
       <c r="E72" s="6">
         <f>C72-D72</f>
-        <v>169275</v>
+        <v>233675</v>
       </c>
       <c r="F72" s="6">
         <f>E72+298500</f>
-        <v>467775</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+        <v>532175</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D74" s="6"/>
       <c r="E74" s="6"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D80" s="6"/>
       <c r="E80" s="6"/>
     </row>
@@ -4151,6 +4234,565 @@
     </row>
     <row r="91" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E91" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:G4"/>
+    <mergeCell ref="B5:G6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5F64CBD-DB22-4638-8CA7-C0C11522CF9D}">
+  <dimension ref="A1:G30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="35.42578125" customWidth="1"/>
+    <col min="7" max="7" width="33.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+    </row>
+    <row r="8" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="25">
+        <v>44531.438888888886</v>
+      </c>
+      <c r="C9" s="6">
+        <v>-249300</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6">
+        <f>C9-D9</f>
+        <v>-249300</v>
+      </c>
+      <c r="F9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="25">
+        <v>44531.438888888886</v>
+      </c>
+      <c r="C10" s="6">
+        <v>500000</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6">
+        <f>E9+C10-D10</f>
+        <v>250700</v>
+      </c>
+      <c r="F10" t="s">
+        <v>127</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="25">
+        <v>44531.460416666669</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0</v>
+      </c>
+      <c r="D11" s="6">
+        <v>50000</v>
+      </c>
+      <c r="E11" s="6">
+        <f t="shared" ref="E11:E30" si="0">E10+C11-D11</f>
+        <v>200700</v>
+      </c>
+      <c r="F11" t="s">
+        <v>128</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="25">
+        <v>44531.460416666669</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0</v>
+      </c>
+      <c r="D12" s="6">
+        <v>50000</v>
+      </c>
+      <c r="E12" s="6">
+        <f t="shared" si="0"/>
+        <v>150700</v>
+      </c>
+      <c r="F12" t="s">
+        <v>128</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="25">
+        <v>44531.582638888889</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0</v>
+      </c>
+      <c r="D13" s="6">
+        <v>20500</v>
+      </c>
+      <c r="E13" s="6">
+        <f t="shared" si="0"/>
+        <v>130200</v>
+      </c>
+      <c r="F13" t="s">
+        <v>129</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="25">
+        <v>44531.811805555553</v>
+      </c>
+      <c r="C14" s="6">
+        <v>500000</v>
+      </c>
+      <c r="D14" s="6">
+        <v>490800</v>
+      </c>
+      <c r="E14" s="6">
+        <f t="shared" si="0"/>
+        <v>139400</v>
+      </c>
+      <c r="F14" t="s">
+        <v>130</v>
+      </c>
+      <c r="G14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="25">
+        <v>44532.46875</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0</v>
+      </c>
+      <c r="D15" s="6">
+        <v>83000</v>
+      </c>
+      <c r="E15" s="6">
+        <f t="shared" si="0"/>
+        <v>56400</v>
+      </c>
+      <c r="F15" t="s">
+        <v>121</v>
+      </c>
+      <c r="G15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="26">
+        <v>44533.388888888891</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0</v>
+      </c>
+      <c r="D16" s="6">
+        <v>40000</v>
+      </c>
+      <c r="E16" s="6">
+        <f t="shared" si="0"/>
+        <v>16400</v>
+      </c>
+      <c r="F16" t="s">
+        <v>128</v>
+      </c>
+      <c r="G16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="26">
+        <v>44533.374305555553</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0</v>
+      </c>
+      <c r="D17" s="6">
+        <v>10000</v>
+      </c>
+      <c r="E17" s="6">
+        <f t="shared" si="0"/>
+        <v>6400</v>
+      </c>
+      <c r="F17" t="s">
+        <v>132</v>
+      </c>
+      <c r="G17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="26">
+        <v>44533.459027777775</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0</v>
+      </c>
+      <c r="D18" s="6">
+        <v>10000</v>
+      </c>
+      <c r="E18" s="6">
+        <f t="shared" si="0"/>
+        <v>-3600</v>
+      </c>
+      <c r="F18" t="s">
+        <v>133</v>
+      </c>
+      <c r="G18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="26">
+        <v>44533.75277777778</v>
+      </c>
+      <c r="C19" s="6">
+        <v>500000</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0</v>
+      </c>
+      <c r="E19" s="6">
+        <f t="shared" si="0"/>
+        <v>496400</v>
+      </c>
+      <c r="F19" t="s">
+        <v>134</v>
+      </c>
+      <c r="G19" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="26">
+        <v>44533.820138888892</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0</v>
+      </c>
+      <c r="D20" s="6">
+        <v>18000</v>
+      </c>
+      <c r="E20" s="6">
+        <f t="shared" si="0"/>
+        <v>478400</v>
+      </c>
+      <c r="F20" t="s">
+        <v>136</v>
+      </c>
+      <c r="G20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="26">
+        <v>44533.820138888892</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0</v>
+      </c>
+      <c r="D21" s="6">
+        <v>10000</v>
+      </c>
+      <c r="E21" s="6">
+        <f t="shared" si="0"/>
+        <v>468400</v>
+      </c>
+      <c r="F21" t="s">
+        <v>74</v>
+      </c>
+      <c r="G21" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="26">
+        <v>44534.883333333331</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0</v>
+      </c>
+      <c r="D22" s="6">
+        <v>60000</v>
+      </c>
+      <c r="E22" s="6">
+        <f t="shared" si="0"/>
+        <v>408400</v>
+      </c>
+      <c r="F22" t="s">
+        <v>138</v>
+      </c>
+      <c r="G22" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="26">
+        <v>44534.614583333336</v>
+      </c>
+      <c r="C23" s="6">
+        <v>0</v>
+      </c>
+      <c r="D23" s="6">
+        <v>20000</v>
+      </c>
+      <c r="E23" s="6">
+        <f t="shared" si="0"/>
+        <v>388400</v>
+      </c>
+      <c r="F23" t="s">
+        <v>139</v>
+      </c>
+      <c r="G23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="26">
+        <v>44534.833333333336</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0</v>
+      </c>
+      <c r="D24" s="6">
+        <v>100000</v>
+      </c>
+      <c r="E24" s="6">
+        <f t="shared" si="0"/>
+        <v>288400</v>
+      </c>
+      <c r="F24" t="s">
+        <v>128</v>
+      </c>
+      <c r="G24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="26">
+        <v>44535.508333333331</v>
+      </c>
+      <c r="C25" s="6">
+        <v>500000</v>
+      </c>
+      <c r="D25" s="6">
+        <v>0</v>
+      </c>
+      <c r="E25" s="6">
+        <f t="shared" si="0"/>
+        <v>788400</v>
+      </c>
+      <c r="F25" t="s">
+        <v>134</v>
+      </c>
+      <c r="G25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="26">
+        <v>44535.508333333331</v>
+      </c>
+      <c r="C26" s="6">
+        <v>0</v>
+      </c>
+      <c r="D26" s="6">
+        <v>10000</v>
+      </c>
+      <c r="E26" s="6">
+        <f t="shared" si="0"/>
+        <v>778400</v>
+      </c>
+      <c r="F26" t="s">
+        <v>61</v>
+      </c>
+      <c r="G26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="26">
+        <v>44536.291666666664</v>
+      </c>
+      <c r="C27" s="6">
+        <v>0</v>
+      </c>
+      <c r="D27" s="6">
+        <v>9000</v>
+      </c>
+      <c r="E27" s="6">
+        <f t="shared" si="0"/>
+        <v>769400</v>
+      </c>
+      <c r="F27" t="s">
+        <v>140</v>
+      </c>
+      <c r="G27" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="26">
+        <v>44537.486805555556</v>
+      </c>
+      <c r="C28" s="6">
+        <v>0</v>
+      </c>
+      <c r="D28" s="6">
+        <v>10000</v>
+      </c>
+      <c r="E28" s="6">
+        <f t="shared" si="0"/>
+        <v>759400</v>
+      </c>
+      <c r="F28" t="s">
+        <v>74</v>
+      </c>
+      <c r="G28" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="26">
+        <v>44537.660983796297</v>
+      </c>
+      <c r="C29" s="6">
+        <v>0</v>
+      </c>
+      <c r="D29" s="6">
+        <v>100000</v>
+      </c>
+      <c r="E29" s="6">
+        <f t="shared" si="0"/>
+        <v>659400</v>
+      </c>
+      <c r="F29" t="s">
+        <v>128</v>
+      </c>
+      <c r="G29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E30" s="6">
+        <f t="shared" si="0"/>
+        <v>659400</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/rekap data uang kas kecil - asrama.xlsx
+++ b/rekap data uang kas kecil - asrama.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yofandi Riki Winata\Documents\yofandi\rekap data - uang galon, parkir, bumbu asrama\uangasrama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2708E51F-E33E-4850-B4F8-DEDAFD17EED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF0FC24-A443-43AF-B13A-1FC663791AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{C456B771-9DF8-4725-AC5F-E2624C050843}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="157">
   <si>
     <t>Kas Kecil - Asrama STTHF</t>
   </si>
@@ -463,6 +463,51 @@
   </si>
   <si>
     <t>hosea sama yofandi</t>
+  </si>
+  <si>
+    <t>uang beli obat pak handoko</t>
+  </si>
+  <si>
+    <t>yofandi sama saferius</t>
+  </si>
+  <si>
+    <t>uang beli makan pak handoko</t>
+  </si>
+  <si>
+    <t>uang karcis masuk ruko rungkut megah raya</t>
+  </si>
+  <si>
+    <t>jhonan</t>
+  </si>
+  <si>
+    <t>uang beli bahan-bahan asrama di lotte grosir</t>
+  </si>
+  <si>
+    <t>uang beli minyak goreng 2 L</t>
+  </si>
+  <si>
+    <t>uang beli gas elpiji 3 kilo 1</t>
+  </si>
+  <si>
+    <t>buat beli bensin avanza</t>
+  </si>
+  <si>
+    <t>uang dari cece buat beli super pell minyak air soflent pentol</t>
+  </si>
+  <si>
+    <t>uang masuk ke kas kecil asrama</t>
+  </si>
+  <si>
+    <t>uang beli indomie goreng (25bungkus)</t>
+  </si>
+  <si>
+    <t>eliyakim sama hosea</t>
+  </si>
+  <si>
+    <t>yofandi sama peter</t>
+  </si>
+  <si>
+    <t>uang beli beras 25 kg (2) sama telur (5 kg)</t>
   </si>
 </sst>
 </file>
@@ -4247,10 +4292,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5F64CBD-DB22-4638-8CA7-C0C11522CF9D}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:I94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4262,9 +4307,10 @@
     <col min="5" max="5" width="24.42578125" style="6" customWidth="1"/>
     <col min="6" max="6" width="35.42578125" customWidth="1"/>
     <col min="7" max="7" width="33.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" s="27" t="s">
         <v>0</v>
       </c>
@@ -4274,7 +4320,7 @@
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
@@ -4282,7 +4328,7 @@
       <c r="F2" s="27"/>
       <c r="G2" s="27"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
       <c r="D3" s="27"/>
@@ -4290,7 +4336,7 @@
       <c r="F3" s="27"/>
       <c r="G3" s="27"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="27"/>
       <c r="C4" s="27"/>
       <c r="D4" s="27"/>
@@ -4298,7 +4344,7 @@
       <c r="F4" s="27"/>
       <c r="G4" s="27"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="33" t="s">
         <v>125</v>
       </c>
@@ -4308,7 +4354,7 @@
       <c r="F5" s="28"/>
       <c r="G5" s="28"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="28"/>
       <c r="C6" s="28"/>
       <c r="D6" s="28"/>
@@ -4316,7 +4362,7 @@
       <c r="F6" s="28"/>
       <c r="G6" s="28"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>124</v>
       </c>
@@ -4324,7 +4370,7 @@
       <c r="D7"/>
       <c r="E7"/>
     </row>
-    <row r="8" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>31</v>
       </c>
@@ -4347,7 +4393,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="25">
         <v>44531.438888888886</v>
       </c>
@@ -4368,7 +4414,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="25">
         <v>44531.438888888886</v>
       </c>
@@ -4389,7 +4435,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="25">
         <v>44531.460416666669</v>
       </c>
@@ -4400,7 +4446,7 @@
         <v>50000</v>
       </c>
       <c r="E11" s="6">
-        <f t="shared" ref="E11:E30" si="0">E10+C11-D11</f>
+        <f t="shared" ref="E11:E77" si="0">E10+C11-D11</f>
         <v>200700</v>
       </c>
       <c r="F11" t="s">
@@ -4409,8 +4455,12 @@
       <c r="G11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I11" s="6">
+        <f>SUM(C10:C56)</f>
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="25">
         <v>44531.460416666669</v>
       </c>
@@ -4431,7 +4481,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="25">
         <v>44531.582638888889</v>
       </c>
@@ -4452,7 +4502,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="25">
         <v>44531.811805555553</v>
       </c>
@@ -4473,7 +4523,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="25">
         <v>44532.46875</v>
       </c>
@@ -4494,7 +4544,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="26">
         <v>44533.388888888891</v>
       </c>
@@ -4789,9 +4839,897 @@
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="26">
+        <v>44539.878472222219</v>
+      </c>
+      <c r="C30" s="6">
+        <v>200000</v>
+      </c>
+      <c r="D30" s="6">
+        <v>192800</v>
+      </c>
       <c r="E30" s="6">
         <f t="shared" si="0"/>
-        <v>659400</v>
+        <v>666600</v>
+      </c>
+      <c r="F30" t="s">
+        <v>151</v>
+      </c>
+      <c r="G30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="26">
+        <v>44540.666666666664</v>
+      </c>
+      <c r="C31" s="6">
+        <v>0</v>
+      </c>
+      <c r="D31" s="6">
+        <v>10000</v>
+      </c>
+      <c r="E31" s="6">
+        <f t="shared" si="0"/>
+        <v>656600</v>
+      </c>
+      <c r="F31" t="s">
+        <v>74</v>
+      </c>
+      <c r="G31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="26">
+        <v>44539.660983796297</v>
+      </c>
+      <c r="C32" s="6">
+        <v>0</v>
+      </c>
+      <c r="D32" s="6">
+        <v>100000</v>
+      </c>
+      <c r="E32" s="6">
+        <f t="shared" si="0"/>
+        <v>556600</v>
+      </c>
+      <c r="F32" t="s">
+        <v>150</v>
+      </c>
+      <c r="G32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="26">
+        <v>44540.479166666664</v>
+      </c>
+      <c r="C33" s="6">
+        <v>0</v>
+      </c>
+      <c r="D33" s="6">
+        <v>83000</v>
+      </c>
+      <c r="E33" s="6">
+        <f t="shared" si="0"/>
+        <v>473600</v>
+      </c>
+      <c r="F33" t="s">
+        <v>121</v>
+      </c>
+      <c r="G33" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="26">
+        <v>44541.670138888891</v>
+      </c>
+      <c r="C34" s="6">
+        <v>0</v>
+      </c>
+      <c r="D34" s="6">
+        <v>16000</v>
+      </c>
+      <c r="E34" s="6">
+        <f t="shared" si="0"/>
+        <v>457600</v>
+      </c>
+      <c r="F34" t="s">
+        <v>142</v>
+      </c>
+      <c r="G34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="26">
+        <v>44541.606956018521</v>
+      </c>
+      <c r="C35" s="6">
+        <v>0</v>
+      </c>
+      <c r="D35" s="6">
+        <v>10000</v>
+      </c>
+      <c r="E35" s="6">
+        <f t="shared" si="0"/>
+        <v>447600</v>
+      </c>
+      <c r="F35" t="s">
+        <v>61</v>
+      </c>
+      <c r="G35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="26">
+        <v>44541.87226851852</v>
+      </c>
+      <c r="C36" s="6">
+        <v>0</v>
+      </c>
+      <c r="D36" s="6">
+        <v>33000</v>
+      </c>
+      <c r="E36" s="6">
+        <f t="shared" si="0"/>
+        <v>414600</v>
+      </c>
+      <c r="F36" t="s">
+        <v>142</v>
+      </c>
+      <c r="G36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="26">
+        <v>44541.447511574072</v>
+      </c>
+      <c r="C37" s="6">
+        <v>0</v>
+      </c>
+      <c r="D37" s="6">
+        <v>20000</v>
+      </c>
+      <c r="E37" s="6">
+        <f t="shared" si="0"/>
+        <v>394600</v>
+      </c>
+      <c r="F37" t="s">
+        <v>74</v>
+      </c>
+      <c r="G37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="26">
+        <v>44542.524340277778</v>
+      </c>
+      <c r="C38" s="6">
+        <v>0</v>
+      </c>
+      <c r="D38" s="6">
+        <v>100000</v>
+      </c>
+      <c r="E38" s="6">
+        <f t="shared" si="0"/>
+        <v>294600</v>
+      </c>
+      <c r="F38" t="s">
+        <v>128</v>
+      </c>
+      <c r="G38" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="26">
+        <v>44542.404386574075</v>
+      </c>
+      <c r="C39" s="6">
+        <v>0</v>
+      </c>
+      <c r="D39" s="6">
+        <v>10000</v>
+      </c>
+      <c r="E39" s="6">
+        <f t="shared" si="0"/>
+        <v>284600</v>
+      </c>
+      <c r="F39" t="s">
+        <v>61</v>
+      </c>
+      <c r="G39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="26">
+        <v>44543.570833333331</v>
+      </c>
+      <c r="C40" s="6">
+        <v>0</v>
+      </c>
+      <c r="D40" s="6">
+        <v>90000</v>
+      </c>
+      <c r="E40" s="6">
+        <f t="shared" si="0"/>
+        <v>194600</v>
+      </c>
+      <c r="F40" t="s">
+        <v>142</v>
+      </c>
+      <c r="G40" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="26">
+        <v>44543.581944444442</v>
+      </c>
+      <c r="C41" s="6">
+        <v>0</v>
+      </c>
+      <c r="D41" s="6">
+        <v>15000</v>
+      </c>
+      <c r="E41" s="6">
+        <f t="shared" si="0"/>
+        <v>179600</v>
+      </c>
+      <c r="F41" t="s">
+        <v>144</v>
+      </c>
+      <c r="G41" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="26">
+        <v>44545.875</v>
+      </c>
+      <c r="C42" s="6">
+        <v>0</v>
+      </c>
+      <c r="D42" s="6">
+        <v>3000</v>
+      </c>
+      <c r="E42" s="6">
+        <f t="shared" si="0"/>
+        <v>176600</v>
+      </c>
+      <c r="F42" t="s">
+        <v>145</v>
+      </c>
+      <c r="G42" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="26">
+        <v>44546.416666666664</v>
+      </c>
+      <c r="C43" s="6">
+        <v>0</v>
+      </c>
+      <c r="D43" s="6">
+        <v>3000</v>
+      </c>
+      <c r="E43" s="6">
+        <f t="shared" si="0"/>
+        <v>173600</v>
+      </c>
+      <c r="F43" t="s">
+        <v>145</v>
+      </c>
+      <c r="G43" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="26">
+        <v>44546.435879629629</v>
+      </c>
+      <c r="C44" s="6">
+        <v>0</v>
+      </c>
+      <c r="D44" s="6">
+        <v>100000</v>
+      </c>
+      <c r="E44" s="6">
+        <f t="shared" si="0"/>
+        <v>73600</v>
+      </c>
+      <c r="F44" t="s">
+        <v>128</v>
+      </c>
+      <c r="G44" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="26">
+        <v>44546.545497685183</v>
+      </c>
+      <c r="C45" s="6">
+        <v>0</v>
+      </c>
+      <c r="D45" s="6">
+        <v>10000</v>
+      </c>
+      <c r="E45" s="6">
+        <f t="shared" si="0"/>
+        <v>63600</v>
+      </c>
+      <c r="F45" t="s">
+        <v>74</v>
+      </c>
+      <c r="G45" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46" s="26">
+        <v>44547.502129629633</v>
+      </c>
+      <c r="C46" s="6">
+        <v>600000</v>
+      </c>
+      <c r="D46" s="6">
+        <v>494350</v>
+      </c>
+      <c r="E46" s="6">
+        <f t="shared" si="0"/>
+        <v>169250</v>
+      </c>
+      <c r="F46" t="s">
+        <v>147</v>
+      </c>
+      <c r="G46" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47" s="26">
+        <v>44547.359027777777</v>
+      </c>
+      <c r="C47" s="6">
+        <v>0</v>
+      </c>
+      <c r="D47" s="6">
+        <v>39000</v>
+      </c>
+      <c r="E47" s="6">
+        <f t="shared" si="0"/>
+        <v>130250</v>
+      </c>
+      <c r="F47" t="s">
+        <v>148</v>
+      </c>
+      <c r="G47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48" s="26">
+        <v>44548.861145833333</v>
+      </c>
+      <c r="C48" s="6">
+        <v>0</v>
+      </c>
+      <c r="D48" s="6">
+        <v>100000</v>
+      </c>
+      <c r="E48" s="6">
+        <f t="shared" si="0"/>
+        <v>30250</v>
+      </c>
+      <c r="F48" t="s">
+        <v>128</v>
+      </c>
+      <c r="G48" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="26">
+        <v>44549.40902777778</v>
+      </c>
+      <c r="C49" s="6">
+        <v>0</v>
+      </c>
+      <c r="D49" s="6">
+        <v>10000</v>
+      </c>
+      <c r="E49" s="6">
+        <f t="shared" si="0"/>
+        <v>20250</v>
+      </c>
+      <c r="F49" t="s">
+        <v>61</v>
+      </c>
+      <c r="G49" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50" s="26">
+        <v>44551.404861111114</v>
+      </c>
+      <c r="C50" s="6">
+        <v>0</v>
+      </c>
+      <c r="D50" s="6">
+        <v>16000</v>
+      </c>
+      <c r="E50" s="6">
+        <f t="shared" si="0"/>
+        <v>4250</v>
+      </c>
+      <c r="F50" t="s">
+        <v>149</v>
+      </c>
+      <c r="G50" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51" s="26">
+        <v>44552.666666666664</v>
+      </c>
+      <c r="C51" s="6">
+        <v>200000</v>
+      </c>
+      <c r="D51" s="6">
+        <v>0</v>
+      </c>
+      <c r="E51" s="6">
+        <f t="shared" si="0"/>
+        <v>204250</v>
+      </c>
+      <c r="F51" t="s">
+        <v>152</v>
+      </c>
+      <c r="G51" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B52" s="26">
+        <v>44552.730555555558</v>
+      </c>
+      <c r="C52" s="6">
+        <v>0</v>
+      </c>
+      <c r="D52" s="6">
+        <v>67500</v>
+      </c>
+      <c r="E52" s="6">
+        <f t="shared" si="0"/>
+        <v>136750</v>
+      </c>
+      <c r="F52" t="s">
+        <v>153</v>
+      </c>
+      <c r="G52" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B53" s="26">
+        <v>44552.870833333334</v>
+      </c>
+      <c r="D53" s="6">
+        <v>20000</v>
+      </c>
+      <c r="E53" s="6">
+        <f t="shared" si="0"/>
+        <v>116750</v>
+      </c>
+      <c r="F53" t="s">
+        <v>74</v>
+      </c>
+      <c r="G53" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B54" s="26">
+        <v>44552.88181712963</v>
+      </c>
+      <c r="D54" s="6">
+        <v>100000</v>
+      </c>
+      <c r="E54" s="6">
+        <f t="shared" si="0"/>
+        <v>16750</v>
+      </c>
+      <c r="F54" t="s">
+        <v>128</v>
+      </c>
+      <c r="G54" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B55" s="26">
+        <v>44554.500567129631</v>
+      </c>
+      <c r="C55" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="D55" s="6">
+        <v>0</v>
+      </c>
+      <c r="E55" s="6">
+        <f t="shared" si="0"/>
+        <v>1016750</v>
+      </c>
+      <c r="F55" t="s">
+        <v>152</v>
+      </c>
+      <c r="G55" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B56" s="26">
+        <v>44554.524710648147</v>
+      </c>
+      <c r="C56" s="6">
+        <v>0</v>
+      </c>
+      <c r="D56" s="6">
+        <v>665000</v>
+      </c>
+      <c r="E56" s="6">
+        <f t="shared" si="0"/>
+        <v>351750</v>
+      </c>
+      <c r="F56" t="s">
+        <v>156</v>
+      </c>
+      <c r="G56" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B57" s="26">
+        <v>44554.695416666669</v>
+      </c>
+      <c r="C57" s="6">
+        <v>0</v>
+      </c>
+      <c r="D57" s="6">
+        <v>10000</v>
+      </c>
+      <c r="E57" s="6">
+        <f t="shared" si="0"/>
+        <v>341750</v>
+      </c>
+      <c r="F57" t="s">
+        <v>61</v>
+      </c>
+      <c r="G57" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B58" s="26">
+        <v>44555.373229166667</v>
+      </c>
+      <c r="C58" s="6">
+        <v>0</v>
+      </c>
+      <c r="D58" s="6">
+        <v>10000</v>
+      </c>
+      <c r="E58" s="6">
+        <f t="shared" si="0"/>
+        <v>331750</v>
+      </c>
+      <c r="F58" t="s">
+        <v>61</v>
+      </c>
+      <c r="G58" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="26">
+        <v>44555.510868055557</v>
+      </c>
+      <c r="C59" s="6">
+        <v>0</v>
+      </c>
+      <c r="D59" s="6">
+        <v>90000</v>
+      </c>
+      <c r="E59" s="6">
+        <f t="shared" si="0"/>
+        <v>241750</v>
+      </c>
+      <c r="F59" t="s">
+        <v>128</v>
+      </c>
+      <c r="G59" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B60" s="26">
+        <v>44556.393194444441</v>
+      </c>
+      <c r="C60" s="6">
+        <v>0</v>
+      </c>
+      <c r="D60" s="6">
+        <v>10000</v>
+      </c>
+      <c r="E60" s="6">
+        <f t="shared" si="0"/>
+        <v>231750</v>
+      </c>
+      <c r="F60" t="s">
+        <v>61</v>
+      </c>
+      <c r="G60" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B61" s="26">
+        <v>44556.27270833333</v>
+      </c>
+      <c r="C61" s="6">
+        <v>0</v>
+      </c>
+      <c r="D61" s="6">
+        <v>20000</v>
+      </c>
+      <c r="E61" s="6">
+        <f t="shared" si="0"/>
+        <v>211750</v>
+      </c>
+      <c r="F61" t="s">
+        <v>74</v>
+      </c>
+      <c r="G61" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B62" s="26">
+        <v>44556.652314814812</v>
+      </c>
+      <c r="C62" s="6">
+        <v>0</v>
+      </c>
+      <c r="D62" s="6">
+        <v>200000</v>
+      </c>
+      <c r="E62" s="6">
+        <f t="shared" si="0"/>
+        <v>11750</v>
+      </c>
+      <c r="F62" t="s">
+        <v>128</v>
+      </c>
+      <c r="G62" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B63" s="26">
+        <v>44556.895833333336</v>
+      </c>
+      <c r="C63" s="6">
+        <v>0</v>
+      </c>
+      <c r="D63" s="6">
+        <v>10000</v>
+      </c>
+      <c r="E63" s="6">
+        <f t="shared" si="0"/>
+        <v>1750</v>
+      </c>
+      <c r="F63" t="s">
+        <v>66</v>
+      </c>
+      <c r="G63" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E64" s="6">
+        <f t="shared" si="0"/>
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="65" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E65" s="6">
+        <f t="shared" si="0"/>
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="66" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E66" s="6">
+        <f t="shared" si="0"/>
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="67" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E67" s="6">
+        <f t="shared" si="0"/>
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="68" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E68" s="6">
+        <f t="shared" si="0"/>
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="69" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E69" s="6">
+        <f t="shared" si="0"/>
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="70" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E70" s="6">
+        <f t="shared" si="0"/>
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="71" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E71" s="6">
+        <f t="shared" si="0"/>
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="72" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E72" s="6">
+        <f t="shared" si="0"/>
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="73" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E73" s="6">
+        <f t="shared" si="0"/>
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="74" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E74" s="6">
+        <f t="shared" si="0"/>
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="75" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E75" s="6">
+        <f t="shared" si="0"/>
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="76" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E76" s="6">
+        <f t="shared" si="0"/>
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="77" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E77" s="6">
+        <f t="shared" si="0"/>
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="78" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E78" s="6">
+        <f t="shared" ref="E78:E94" si="1">E77+C78-D78</f>
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="79" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E79" s="6">
+        <f t="shared" si="1"/>
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="80" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E80" s="6">
+        <f t="shared" si="1"/>
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="81" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E81" s="6">
+        <f t="shared" si="1"/>
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="82" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E82" s="6">
+        <f t="shared" si="1"/>
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="83" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E83" s="6">
+        <f t="shared" si="1"/>
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="84" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E84" s="6">
+        <f t="shared" si="1"/>
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="85" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E85" s="6">
+        <f t="shared" si="1"/>
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="86" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E86" s="6">
+        <f t="shared" si="1"/>
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="87" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E87" s="6">
+        <f t="shared" si="1"/>
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="88" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E88" s="6">
+        <f t="shared" si="1"/>
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="89" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E89" s="6">
+        <f t="shared" si="1"/>
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="90" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E90" s="6">
+        <f t="shared" si="1"/>
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="91" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E91" s="6">
+        <f t="shared" si="1"/>
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="92" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E92" s="6">
+        <f t="shared" si="1"/>
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="93" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E93" s="6">
+        <f t="shared" si="1"/>
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="94" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E94" s="6">
+        <f t="shared" si="1"/>
+        <v>1750</v>
       </c>
     </row>
   </sheetData>

--- a/rekap data uang kas kecil - asrama.xlsx
+++ b/rekap data uang kas kecil - asrama.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yofandi Riki Winata\Documents\yofandi\rekap data - uang galon, parkir, bumbu asrama\uangasrama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF0FC24-A443-43AF-B13A-1FC663791AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BFAFCE6-C13F-400F-9C84-D327CFE576D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{C456B771-9DF8-4725-AC5F-E2624C050843}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="4" xr2:uid="{C456B771-9DF8-4725-AC5F-E2624C050843}"/>
   </bookViews>
   <sheets>
-    <sheet name="Oktober" sheetId="1" r:id="rId1"/>
-    <sheet name="November" sheetId="2" r:id="rId2"/>
-    <sheet name="Desember" sheetId="3" r:id="rId3"/>
+    <sheet name="Oktober_2021" sheetId="1" r:id="rId1"/>
+    <sheet name="November_2021" sheetId="2" r:id="rId2"/>
+    <sheet name="Desember_2021" sheetId="3" r:id="rId3"/>
+    <sheet name="Januari_2022" sheetId="5" r:id="rId4"/>
+    <sheet name="Febuari_2022" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Oktober!$A$8:$G$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Oktober_2021!$A$8:$G$8</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="223">
   <si>
     <t>Kas Kecil - Asrama STTHF</t>
   </si>
@@ -508,18 +510,215 @@
   </si>
   <si>
     <t>uang beli beras 25 kg (2) sama telur (5 kg)</t>
+  </si>
+  <si>
+    <t>uang masuk kas kecil asrama</t>
+  </si>
+  <si>
+    <t>ganti oli dan kasih lem didaerah sekitar penampung oli</t>
+  </si>
+  <si>
+    <t>uang masuk ruko rungkut megah raya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uang beli spon </t>
+  </si>
+  <si>
+    <t>uang beli obat</t>
+  </si>
+  <si>
+    <t>pizza pesenan ce nanda</t>
+  </si>
+  <si>
+    <t>uang bensin avanza</t>
+  </si>
+  <si>
+    <t>uang masuk ke kas asrama</t>
+  </si>
+  <si>
+    <t>uang masuk ruko ke radio prima</t>
+  </si>
+  <si>
+    <t>beli gas elpiji 3 kilo (2)</t>
+  </si>
+  <si>
+    <t>uang beli telur 5 kilo</t>
+  </si>
+  <si>
+    <t>uang beli bensin motor</t>
+  </si>
+  <si>
+    <t>uang beli sabun pel</t>
+  </si>
+  <si>
+    <t>valen sama quiny</t>
+  </si>
+  <si>
+    <t>uang beli obat-obat buat stok asrama</t>
+  </si>
+  <si>
+    <t>yofandi sama abraham</t>
+  </si>
+  <si>
+    <t>uang masuk ruko di prima radio</t>
+  </si>
+  <si>
+    <t>uang tambal ban motor</t>
+  </si>
+  <si>
+    <t>uang beli pel-pel'an</t>
+  </si>
+  <si>
+    <t>uang parkir motor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minus bulan november </t>
+  </si>
+  <si>
+    <t>*Januari 2022</t>
+  </si>
+  <si>
+    <t>*dimulai tanggal 01 Januari 2022</t>
+  </si>
+  <si>
+    <t>sisa saldo nota dari bulan Desember 2021</t>
+  </si>
+  <si>
+    <t>ganti ban motor</t>
+  </si>
+  <si>
+    <t>hosea sama patrick</t>
+  </si>
+  <si>
+    <t>uang beli kecap sama saus tiram</t>
+  </si>
+  <si>
+    <t>uang beli tabung gas elpiji 2 tabung</t>
+  </si>
+  <si>
+    <t>uang beli minyak sama vixal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uang beli sampo anak </t>
+  </si>
+  <si>
+    <t xml:space="preserve">uang beli bensin motor </t>
+  </si>
+  <si>
+    <t>uang beli beras karung 25 kg x 2</t>
+  </si>
+  <si>
+    <t>uang beli minyak</t>
+  </si>
+  <si>
+    <t>uang beli minyak kunci mas sama sovia</t>
+  </si>
+  <si>
+    <t>uang beli telur 4.5 kg</t>
+  </si>
+  <si>
+    <t>uang bensin motor</t>
+  </si>
+  <si>
+    <t>uang beli gembong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uang beli es batu </t>
+  </si>
+  <si>
+    <t>uang beli kertas minyak sama karet</t>
+  </si>
+  <si>
+    <t>uang beli foam mangkok sama tempat makan</t>
+  </si>
+  <si>
+    <t>jhonan sama saferius</t>
+  </si>
+  <si>
+    <t>uang beli galon aqua 6 galon</t>
+  </si>
+  <si>
+    <t>uang beli royco</t>
+  </si>
+  <si>
+    <t>uang beli roti goreng (ganti makan siang temen2 isolasi)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uang beli minyak goreng 2 L </t>
+  </si>
+  <si>
+    <t>uang isi ban motor</t>
+  </si>
+  <si>
+    <t>uang beli kecap sama royco</t>
+  </si>
+  <si>
+    <t>uang beli gas elpiji 3 kg 2 tabung</t>
+  </si>
+  <si>
+    <t>uang beli mie sedap 30 bungkus ecer</t>
+  </si>
+  <si>
+    <t>*Febuari 2022</t>
+  </si>
+  <si>
+    <t>uang sisa saldo Januari 2022</t>
+  </si>
+  <si>
+    <t>uang beli matras 2 lembar</t>
+  </si>
+  <si>
+    <t>uang parkir mobil + motor</t>
+  </si>
+  <si>
+    <t>*dimulai tanggal 03 Febuari 2022</t>
+  </si>
+  <si>
+    <t>uang beli telur 6 kg</t>
+  </si>
+  <si>
+    <t>uang ganti kampas rem + nambah minyak rem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uang beli bensin avanza </t>
+  </si>
+  <si>
+    <t>uang masuk ke kas asrama lewat valen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uang beli fom kotak makan dan plastik makanan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">beli obat demakolin dan calniplex </t>
+  </si>
+  <si>
+    <t>beli obat kakatua</t>
+  </si>
+  <si>
+    <t>uang beli gas elpiji 1 tabung</t>
+  </si>
+  <si>
+    <t>uang beli gas elpiji 2 tabung</t>
+  </si>
+  <si>
+    <t>uang beli plastik fuma</t>
+  </si>
+  <si>
+    <t>uang antar makanan via grab ke karantina angkatan 5 + uang masuk ruko</t>
+  </si>
+  <si>
+    <t>yofandi sama irene sama patrick</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="_([$Rp-421]* #,##0.00_);_([$Rp-421]* \(#,##0.00\);_([$Rp-421]* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="167" formatCode="m/d/yy\ h:mm;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -573,7 +772,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -616,6 +815,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -645,7 +868,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -679,8 +902,28 @@
     <xf numFmtId="165" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1019,8 +1262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1137C53-0063-4FE4-9637-7E05AFF16C56}">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:G6"/>
+    <sheetView topLeftCell="A35" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1034,14 +1277,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="B1" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -1052,12 +1295,12 @@
       <c r="O1" s="2"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -1068,12 +1311,12 @@
       <c r="O2" s="2"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -1084,12 +1327,12 @@
       <c r="O3" s="2"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -1100,14 +1343,14 @@
       <c r="O4" s="2"/>
     </row>
     <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -1118,12 +1361,12 @@
       <c r="O5" s="3"/>
     </row>
     <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -2386,41 +2629,41 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="29" t="s">
+      <c r="A60" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="B60" s="30"/>
-      <c r="C60" s="31">
+      <c r="B60" s="50"/>
+      <c r="C60" s="51">
         <f>SUM(C9:C59)</f>
         <v>2100000</v>
       </c>
-      <c r="D60" s="31">
+      <c r="D60" s="51">
         <f>SUM(D9:D59)</f>
         <v>2118600</v>
       </c>
-      <c r="E60" s="31">
+      <c r="E60" s="51">
         <v>-18600</v>
       </c>
-      <c r="F60" s="30"/>
-      <c r="G60" s="30"/>
+      <c r="F60" s="50"/>
+      <c r="G60" s="50"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="30"/>
-      <c r="B61" s="30"/>
-      <c r="C61" s="32"/>
-      <c r="D61" s="32"/>
-      <c r="E61" s="31"/>
-      <c r="F61" s="30"/>
-      <c r="G61" s="30"/>
+      <c r="A61" s="50"/>
+      <c r="B61" s="50"/>
+      <c r="C61" s="52"/>
+      <c r="D61" s="52"/>
+      <c r="E61" s="51"/>
+      <c r="F61" s="50"/>
+      <c r="G61" s="50"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="30"/>
-      <c r="B62" s="30"/>
-      <c r="C62" s="32"/>
-      <c r="D62" s="32"/>
-      <c r="E62" s="31"/>
-      <c r="F62" s="30"/>
-      <c r="G62" s="30"/>
+      <c r="A62" s="50"/>
+      <c r="B62" s="50"/>
+      <c r="C62" s="52"/>
+      <c r="D62" s="52"/>
+      <c r="E62" s="51"/>
+      <c r="F62" s="50"/>
+      <c r="G62" s="50"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B63" s="7"/>
@@ -2485,8 +2728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BDAE0A9-9D0C-4DE2-9702-0E943FFDF5A6}">
   <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G70" sqref="G70"/>
+    <sheetView topLeftCell="A50" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2504,56 +2747,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="B1" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
@@ -4292,77 +4535,78 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5F64CBD-DB22-4638-8CA7-C0C11522CF9D}">
-  <dimension ref="A1:I94"/>
+  <dimension ref="A1:K85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E69" sqref="E69"/>
+    <sheetView topLeftCell="A70" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="28.7109375" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="35.42578125" customWidth="1"/>
+    <col min="3" max="3" width="55.140625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="58.140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="48.7109375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="52.7109375" customWidth="1"/>
     <col min="7" max="7" width="33.140625" customWidth="1"/>
     <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="33" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>124</v>
       </c>
@@ -4370,7 +4614,7 @@
       <c r="D7"/>
       <c r="E7"/>
     </row>
-    <row r="8" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>31</v>
       </c>
@@ -4393,8 +4637,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f>ROW(A1)</f>
+        <v>1</v>
+      </c>
+      <c r="B9" s="33">
         <v>44531.438888888886</v>
       </c>
       <c r="C9" s="6">
@@ -4414,307 +4662,4140 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" ref="A10:A73" si="0">ROW(A2)</f>
+        <v>2</v>
+      </c>
+      <c r="B10" s="34">
         <v>44531.438888888886</v>
       </c>
+      <c r="C10" s="25">
+        <v>500000</v>
+      </c>
+      <c r="D10" s="25">
+        <v>0</v>
+      </c>
+      <c r="E10" s="25">
+        <f>E9+C10-D10</f>
+        <v>250700</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B11" s="34">
+        <v>44531.460416666669</v>
+      </c>
+      <c r="C11" s="25">
+        <v>0</v>
+      </c>
+      <c r="D11" s="25">
+        <v>50000</v>
+      </c>
+      <c r="E11" s="25">
+        <f t="shared" ref="E11:E32" si="1">E10+C11-D11</f>
+        <v>200700</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="6">
+        <f>SUM(C10:C82)</f>
+        <v>5200000</v>
+      </c>
+      <c r="J11" t="s">
+        <v>177</v>
+      </c>
+      <c r="K11">
+        <v>249300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B12" s="34">
+        <v>44531.460416666669</v>
+      </c>
+      <c r="C12" s="25">
+        <v>0</v>
+      </c>
+      <c r="D12" s="25">
+        <v>50000</v>
+      </c>
+      <c r="E12" s="25">
+        <f t="shared" si="1"/>
+        <v>150700</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="6">
+        <f>SUM(D10:D82)</f>
+        <v>4347451</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B13" s="34">
+        <v>44531.460416666669</v>
+      </c>
+      <c r="C13" s="25">
+        <v>0</v>
+      </c>
+      <c r="D13" s="25">
+        <v>20000</v>
+      </c>
+      <c r="E13" s="25">
+        <f t="shared" si="1"/>
+        <v>130700</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B14" s="34">
+        <v>44531.582638888889</v>
+      </c>
+      <c r="C14" s="25">
+        <v>0</v>
+      </c>
+      <c r="D14" s="25">
+        <v>20500</v>
+      </c>
+      <c r="E14" s="25">
+        <f t="shared" si="1"/>
+        <v>110200</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B15" s="34">
+        <v>44531.811805555553</v>
+      </c>
+      <c r="C15" s="25">
+        <v>500000</v>
+      </c>
+      <c r="D15" s="25">
+        <v>490800</v>
+      </c>
+      <c r="E15" s="25">
+        <f t="shared" si="1"/>
+        <v>119400</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B16" s="34">
+        <v>44532.46875</v>
+      </c>
+      <c r="C16" s="25">
+        <v>0</v>
+      </c>
+      <c r="D16" s="25">
+        <v>83000</v>
+      </c>
+      <c r="E16" s="25">
+        <f t="shared" si="1"/>
+        <v>36400</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B17" s="34">
+        <v>44532.459027777775</v>
+      </c>
+      <c r="C17" s="25">
+        <v>0</v>
+      </c>
+      <c r="D17" s="25">
+        <v>10000</v>
+      </c>
+      <c r="E17" s="25">
+        <f t="shared" si="1"/>
+        <v>26400</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B18" s="34">
+        <v>44533.388888888891</v>
+      </c>
+      <c r="C18" s="25">
+        <v>0</v>
+      </c>
+      <c r="D18" s="25">
+        <v>40000</v>
+      </c>
+      <c r="E18" s="25">
+        <f t="shared" si="1"/>
+        <v>-13600</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="G18" s="26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B19" s="34">
+        <v>44533.374305555553</v>
+      </c>
+      <c r="C19" s="25">
+        <v>0</v>
+      </c>
+      <c r="D19" s="25">
+        <v>10000</v>
+      </c>
+      <c r="E19" s="25">
+        <f t="shared" si="1"/>
+        <v>-23600</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="G19" s="26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B20" s="34">
+        <v>44533.75277777778</v>
+      </c>
+      <c r="C20" s="25">
+        <v>500000</v>
+      </c>
+      <c r="D20" s="25">
+        <v>0</v>
+      </c>
+      <c r="E20" s="25">
+        <f t="shared" si="1"/>
+        <v>476400</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="G20" s="26" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B21" s="34">
+        <v>44533.820138888892</v>
+      </c>
+      <c r="C21" s="25">
+        <v>0</v>
+      </c>
+      <c r="D21" s="25">
+        <v>18000</v>
+      </c>
+      <c r="E21" s="25">
+        <f t="shared" si="1"/>
+        <v>458400</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B22" s="34">
+        <v>44533.820138888892</v>
+      </c>
+      <c r="C22" s="25">
+        <v>0</v>
+      </c>
+      <c r="D22" s="25">
+        <v>10000</v>
+      </c>
+      <c r="E22" s="25">
+        <f t="shared" si="1"/>
+        <v>448400</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G22" s="26" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B23" s="34">
+        <v>44533.459027777775</v>
+      </c>
+      <c r="C23" s="25">
+        <v>0</v>
+      </c>
+      <c r="D23" s="25">
+        <v>10000</v>
+      </c>
+      <c r="E23" s="25">
+        <f t="shared" si="1"/>
+        <v>438400</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="G23" s="26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B24" s="34">
+        <v>44534.883333333331</v>
+      </c>
+      <c r="C24" s="25">
+        <v>0</v>
+      </c>
+      <c r="D24" s="25">
+        <v>60000</v>
+      </c>
+      <c r="E24" s="25">
+        <f t="shared" si="1"/>
+        <v>378400</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G24" s="26" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B25" s="34">
+        <v>44534.614583333336</v>
+      </c>
+      <c r="C25" s="25">
+        <v>0</v>
+      </c>
+      <c r="D25" s="25">
+        <v>20000</v>
+      </c>
+      <c r="E25" s="25">
+        <f t="shared" si="1"/>
+        <v>358400</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="G25" s="26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B26" s="34">
+        <v>44534.833333333336</v>
+      </c>
+      <c r="C26" s="25">
+        <v>0</v>
+      </c>
+      <c r="D26" s="25">
+        <v>100000</v>
+      </c>
+      <c r="E26" s="25">
+        <f t="shared" si="1"/>
+        <v>258400</v>
+      </c>
+      <c r="F26" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="G26" s="26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B27" s="34">
+        <v>44535.508333333331</v>
+      </c>
+      <c r="C27" s="25">
+        <v>500000</v>
+      </c>
+      <c r="D27" s="25">
+        <v>0</v>
+      </c>
+      <c r="E27" s="25">
+        <f t="shared" si="1"/>
+        <v>758400</v>
+      </c>
+      <c r="F27" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="G27" s="26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B28" s="34">
+        <v>44535.508333333331</v>
+      </c>
+      <c r="C28" s="25">
+        <v>0</v>
+      </c>
+      <c r="D28" s="25">
+        <v>10000</v>
+      </c>
+      <c r="E28" s="25">
+        <f t="shared" si="1"/>
+        <v>748400</v>
+      </c>
+      <c r="F28" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="G28" s="26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B29" s="34">
+        <v>44536.291666666664</v>
+      </c>
+      <c r="C29" s="25">
+        <v>0</v>
+      </c>
+      <c r="D29" s="25">
+        <v>9000</v>
+      </c>
+      <c r="E29" s="25">
+        <f t="shared" si="1"/>
+        <v>739400</v>
+      </c>
+      <c r="F29" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="G29" s="26" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B30" s="34">
+        <v>44536.291666666664</v>
+      </c>
+      <c r="C30" s="25">
+        <v>0</v>
+      </c>
+      <c r="D30" s="25">
+        <v>10000</v>
+      </c>
+      <c r="E30" s="25">
+        <f t="shared" si="1"/>
+        <v>729400</v>
+      </c>
+      <c r="F30" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="G30" s="26" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B31" s="34">
+        <v>44537.486805555556</v>
+      </c>
+      <c r="C31" s="25">
+        <v>0</v>
+      </c>
+      <c r="D31" s="25">
+        <v>10000</v>
+      </c>
+      <c r="E31" s="25">
+        <f t="shared" si="1"/>
+        <v>719400</v>
+      </c>
+      <c r="F31" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G31" s="26" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B32" s="34">
+        <v>44537.660983796297</v>
+      </c>
+      <c r="C32" s="25">
+        <v>0</v>
+      </c>
+      <c r="D32" s="25">
+        <v>100000</v>
+      </c>
+      <c r="E32" s="25">
+        <f t="shared" si="1"/>
+        <v>619400</v>
+      </c>
+      <c r="F32" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="G32" s="26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B33" s="35">
+        <v>44539.878472222219</v>
+      </c>
+      <c r="C33" s="27">
+        <v>200000</v>
+      </c>
+      <c r="D33" s="27">
+        <v>192800</v>
+      </c>
+      <c r="E33" s="27">
+        <f>E32+C33-D33</f>
+        <v>626600</v>
+      </c>
+      <c r="F33" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="G33" s="28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B34" s="35">
+        <v>44540.666666666664</v>
+      </c>
+      <c r="C34" s="27">
+        <v>0</v>
+      </c>
+      <c r="D34" s="27">
+        <v>10000</v>
+      </c>
+      <c r="E34" s="27">
+        <f t="shared" ref="E34:E36" si="2">E33+C34-D34</f>
+        <v>616600</v>
+      </c>
+      <c r="F34" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="G34" s="28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B35" s="35">
+        <v>44539.660983796297</v>
+      </c>
+      <c r="C35" s="27">
+        <v>0</v>
+      </c>
+      <c r="D35" s="27">
+        <v>100000</v>
+      </c>
+      <c r="E35" s="27">
+        <f t="shared" si="2"/>
+        <v>516600</v>
+      </c>
+      <c r="F35" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="G35" s="28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B36" s="35">
+        <v>44540.479166666664</v>
+      </c>
+      <c r="C36" s="27">
+        <v>0</v>
+      </c>
+      <c r="D36" s="27">
+        <v>83000</v>
+      </c>
+      <c r="E36" s="27">
+        <f t="shared" si="2"/>
+        <v>433600</v>
+      </c>
+      <c r="F36" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="G36" s="28" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B37" s="35">
+        <v>44541.670138888891</v>
+      </c>
+      <c r="C37" s="27">
+        <v>0</v>
+      </c>
+      <c r="D37" s="27">
+        <v>16000</v>
+      </c>
+      <c r="E37" s="27">
+        <f>E36+C37-D37</f>
+        <v>417600</v>
+      </c>
+      <c r="F37" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="G37" s="28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B38" s="35">
+        <v>44541.670138888891</v>
+      </c>
+      <c r="C38" s="27">
+        <v>0</v>
+      </c>
+      <c r="D38" s="27">
+        <v>10000</v>
+      </c>
+      <c r="E38" s="27">
+        <f>E37+C38-D38</f>
+        <v>407600</v>
+      </c>
+      <c r="F38" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="G38" s="28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B39" s="35">
+        <v>44541.606956018521</v>
+      </c>
+      <c r="C39" s="27">
+        <v>0</v>
+      </c>
+      <c r="D39" s="27">
+        <v>10000</v>
+      </c>
+      <c r="E39" s="27">
+        <f t="shared" ref="E39:E82" si="3">E38+C39-D39</f>
+        <v>397600</v>
+      </c>
+      <c r="F39" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="G39" s="28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B40" s="35">
+        <v>44541.87226851852</v>
+      </c>
+      <c r="C40" s="27">
+        <v>0</v>
+      </c>
+      <c r="D40" s="27">
+        <v>33000</v>
+      </c>
+      <c r="E40" s="27">
+        <f t="shared" si="3"/>
+        <v>364600</v>
+      </c>
+      <c r="F40" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="G40" s="28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B41" s="35">
+        <v>44541.447511574072</v>
+      </c>
+      <c r="C41" s="27">
+        <v>0</v>
+      </c>
+      <c r="D41" s="27">
+        <v>20000</v>
+      </c>
+      <c r="E41" s="27">
+        <f t="shared" si="3"/>
+        <v>344600</v>
+      </c>
+      <c r="F41" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="G41" s="28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B42" s="35">
+        <v>44542.524340277778</v>
+      </c>
+      <c r="C42" s="27">
+        <v>0</v>
+      </c>
+      <c r="D42" s="27">
+        <v>100000</v>
+      </c>
+      <c r="E42" s="27">
+        <f t="shared" si="3"/>
+        <v>244600</v>
+      </c>
+      <c r="F42" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="G42" s="28" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B43" s="35">
+        <v>44542.404386574075</v>
+      </c>
+      <c r="C43" s="27">
+        <v>0</v>
+      </c>
+      <c r="D43" s="27">
+        <v>10000</v>
+      </c>
+      <c r="E43" s="27">
+        <f t="shared" si="3"/>
+        <v>234600</v>
+      </c>
+      <c r="F43" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="G43" s="28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B44" s="35">
+        <v>44543.570833333331</v>
+      </c>
+      <c r="C44" s="27">
+        <v>0</v>
+      </c>
+      <c r="D44" s="27">
+        <v>90000</v>
+      </c>
+      <c r="E44" s="27">
+        <f t="shared" si="3"/>
+        <v>144600</v>
+      </c>
+      <c r="F44" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="G44" s="28" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B45" s="35">
+        <v>44543.581944444442</v>
+      </c>
+      <c r="C45" s="27">
+        <v>0</v>
+      </c>
+      <c r="D45" s="27">
+        <v>15000</v>
+      </c>
+      <c r="E45" s="27">
+        <f t="shared" si="3"/>
+        <v>129600</v>
+      </c>
+      <c r="F45" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="G45" s="28" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B46" s="35">
+        <v>44545.875</v>
+      </c>
+      <c r="C46" s="27">
+        <v>0</v>
+      </c>
+      <c r="D46" s="27">
+        <v>3000</v>
+      </c>
+      <c r="E46" s="27">
+        <f t="shared" si="3"/>
+        <v>126600</v>
+      </c>
+      <c r="F46" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="G46" s="28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B47" s="35">
+        <v>44546.416666666664</v>
+      </c>
+      <c r="C47" s="27">
+        <v>0</v>
+      </c>
+      <c r="D47" s="27">
+        <v>3000</v>
+      </c>
+      <c r="E47" s="27">
+        <f t="shared" si="3"/>
+        <v>123600</v>
+      </c>
+      <c r="F47" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="G47" s="28" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B48" s="35">
+        <v>44546.435879629629</v>
+      </c>
+      <c r="C48" s="27">
+        <v>0</v>
+      </c>
+      <c r="D48" s="27">
+        <v>100000</v>
+      </c>
+      <c r="E48" s="27">
+        <f t="shared" si="3"/>
+        <v>23600</v>
+      </c>
+      <c r="F48" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="G48" s="28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B49" s="35">
+        <v>44546.545497685183</v>
+      </c>
+      <c r="C49" s="27">
+        <v>0</v>
+      </c>
+      <c r="D49" s="27">
+        <v>10000</v>
+      </c>
+      <c r="E49" s="27">
+        <f t="shared" si="3"/>
+        <v>13600</v>
+      </c>
+      <c r="F49" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="G49" s="28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B50" s="36">
+        <v>44547.502129629633</v>
+      </c>
+      <c r="C50" s="29">
+        <v>600000</v>
+      </c>
+      <c r="D50" s="29">
+        <v>494350</v>
+      </c>
+      <c r="E50" s="29">
+        <f t="shared" si="3"/>
+        <v>119250</v>
+      </c>
+      <c r="F50" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="G50" s="30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B51" s="36">
+        <v>44547.359027777777</v>
+      </c>
+      <c r="C51" s="29">
+        <v>0</v>
+      </c>
+      <c r="D51" s="29">
+        <v>39000</v>
+      </c>
+      <c r="E51" s="29">
+        <f t="shared" si="3"/>
+        <v>80250</v>
+      </c>
+      <c r="F51" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="G51" s="30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B52" s="36">
+        <v>44548.861145833333</v>
+      </c>
+      <c r="C52" s="29">
+        <v>0</v>
+      </c>
+      <c r="D52" s="29">
+        <v>100000</v>
+      </c>
+      <c r="E52" s="29">
+        <f t="shared" si="3"/>
+        <v>-19750</v>
+      </c>
+      <c r="F52" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="G52" s="30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B53" s="36">
+        <v>44549.40902777778</v>
+      </c>
+      <c r="C53" s="29">
+        <v>0</v>
+      </c>
+      <c r="D53" s="29">
+        <v>10000</v>
+      </c>
+      <c r="E53" s="29">
+        <f t="shared" si="3"/>
+        <v>-29750</v>
+      </c>
+      <c r="F53" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="G53" s="30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B54" s="36">
+        <v>44551.404861111114</v>
+      </c>
+      <c r="C54" s="29">
+        <v>0</v>
+      </c>
+      <c r="D54" s="29">
+        <v>16000</v>
+      </c>
+      <c r="E54" s="29">
+        <f t="shared" si="3"/>
+        <v>-45750</v>
+      </c>
+      <c r="F54" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="G54" s="30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B55" s="36">
+        <v>44552.666666666664</v>
+      </c>
+      <c r="C55" s="29">
+        <v>200000</v>
+      </c>
+      <c r="D55" s="29">
+        <v>0</v>
+      </c>
+      <c r="E55" s="29">
+        <f t="shared" si="3"/>
+        <v>154250</v>
+      </c>
+      <c r="F55" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="G55" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B56" s="36">
+        <v>44552.730555555558</v>
+      </c>
+      <c r="C56" s="29">
+        <v>0</v>
+      </c>
+      <c r="D56" s="29">
+        <v>67500</v>
+      </c>
+      <c r="E56" s="29">
+        <f t="shared" si="3"/>
+        <v>86750</v>
+      </c>
+      <c r="F56" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="G56" s="30" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B57" s="36">
+        <v>44552.870833333334</v>
+      </c>
+      <c r="C57" s="29"/>
+      <c r="D57" s="29">
+        <v>20000</v>
+      </c>
+      <c r="E57" s="29">
+        <f t="shared" si="3"/>
+        <v>66750</v>
+      </c>
+      <c r="F57" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="G57" s="30" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B58" s="36">
+        <v>44552.88181712963</v>
+      </c>
+      <c r="C58" s="29"/>
+      <c r="D58" s="29">
+        <v>100000</v>
+      </c>
+      <c r="E58" s="29">
+        <f t="shared" si="3"/>
+        <v>-33250</v>
+      </c>
+      <c r="F58" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="G58" s="30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B59" s="36">
+        <v>44554.500567129631</v>
+      </c>
+      <c r="C59" s="29">
+        <v>1000000</v>
+      </c>
+      <c r="D59" s="29">
+        <v>0</v>
+      </c>
+      <c r="E59" s="29">
+        <f t="shared" si="3"/>
+        <v>966750</v>
+      </c>
+      <c r="F59" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="G59" s="30" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B60" s="36">
+        <v>44554.524710648147</v>
+      </c>
+      <c r="C60" s="29">
+        <v>0</v>
+      </c>
+      <c r="D60" s="29">
+        <v>665000</v>
+      </c>
+      <c r="E60" s="29">
+        <f t="shared" si="3"/>
+        <v>301750</v>
+      </c>
+      <c r="F60" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="G60" s="30" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B61" s="36">
+        <v>44554.695416666669</v>
+      </c>
+      <c r="C61" s="29">
+        <v>0</v>
+      </c>
+      <c r="D61" s="29">
+        <v>10000</v>
+      </c>
+      <c r="E61" s="29">
+        <f t="shared" si="3"/>
+        <v>291750</v>
+      </c>
+      <c r="F61" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="G61" s="30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B62" s="36">
+        <v>44555.373229166667</v>
+      </c>
+      <c r="C62" s="29">
+        <v>0</v>
+      </c>
+      <c r="D62" s="29">
+        <v>10000</v>
+      </c>
+      <c r="E62" s="29">
+        <f t="shared" si="3"/>
+        <v>281750</v>
+      </c>
+      <c r="F62" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="G62" s="30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B63" s="36">
+        <v>44555.510868055557</v>
+      </c>
+      <c r="C63" s="29">
+        <v>0</v>
+      </c>
+      <c r="D63" s="29">
+        <v>90000</v>
+      </c>
+      <c r="E63" s="29">
+        <f t="shared" si="3"/>
+        <v>191750</v>
+      </c>
+      <c r="F63" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="G63" s="30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B64" s="36">
+        <v>44556.393194444441</v>
+      </c>
+      <c r="C64" s="29">
+        <v>0</v>
+      </c>
+      <c r="D64" s="29">
+        <v>10000</v>
+      </c>
+      <c r="E64" s="29">
+        <f t="shared" si="3"/>
+        <v>181750</v>
+      </c>
+      <c r="F64" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="G64" s="30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B65" s="36">
+        <v>44556.27270833333</v>
+      </c>
+      <c r="C65" s="29">
+        <v>0</v>
+      </c>
+      <c r="D65" s="29">
+        <v>20000</v>
+      </c>
+      <c r="E65" s="29">
+        <f t="shared" si="3"/>
+        <v>161750</v>
+      </c>
+      <c r="F65" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="G65" s="30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B66" s="36">
+        <v>44556.652314814812</v>
+      </c>
+      <c r="C66" s="29">
+        <v>0</v>
+      </c>
+      <c r="D66" s="29">
+        <v>200000</v>
+      </c>
+      <c r="E66" s="29">
+        <f t="shared" si="3"/>
+        <v>-38250</v>
+      </c>
+      <c r="F66" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="G66" s="30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B67" s="36">
+        <v>44556.895833333336</v>
+      </c>
+      <c r="C67" s="29">
+        <v>0</v>
+      </c>
+      <c r="D67" s="29">
+        <v>10000</v>
+      </c>
+      <c r="E67" s="29">
+        <f t="shared" si="3"/>
+        <v>-48250</v>
+      </c>
+      <c r="F67" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="G67" s="30" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B68" s="37">
+        <v>44558.395833333336</v>
+      </c>
+      <c r="C68" s="31">
+        <v>500000</v>
+      </c>
+      <c r="D68" s="31">
+        <v>0</v>
+      </c>
+      <c r="E68" s="31">
+        <f t="shared" si="3"/>
+        <v>451750</v>
+      </c>
+      <c r="F68" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="G68" s="32" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="B69" s="37">
+        <v>44558.583333333336</v>
+      </c>
+      <c r="C69" s="31">
+        <v>0</v>
+      </c>
+      <c r="D69" s="31">
+        <v>61000</v>
+      </c>
+      <c r="E69" s="31">
+        <f t="shared" si="3"/>
+        <v>390750</v>
+      </c>
+      <c r="F69" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="G69" s="32" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="B70" s="37">
+        <v>44558.583333333336</v>
+      </c>
+      <c r="C70" s="31">
+        <v>0</v>
+      </c>
+      <c r="D70" s="31">
+        <v>3000</v>
+      </c>
+      <c r="E70" s="31">
+        <f t="shared" si="3"/>
+        <v>387750</v>
+      </c>
+      <c r="F70" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="G70" s="32" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="B71" s="37">
+        <v>44559.699062500003</v>
+      </c>
+      <c r="C71" s="31">
+        <v>0</v>
+      </c>
+      <c r="D71" s="31">
+        <v>10000</v>
+      </c>
+      <c r="E71" s="31">
+        <f t="shared" si="3"/>
+        <v>377750</v>
+      </c>
+      <c r="F71" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="G71" s="32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="B72" s="37">
+        <v>44559.657395833332</v>
+      </c>
+      <c r="C72" s="31">
+        <v>0</v>
+      </c>
+      <c r="D72" s="31">
+        <v>83000</v>
+      </c>
+      <c r="E72" s="31">
+        <f t="shared" si="3"/>
+        <v>294750</v>
+      </c>
+      <c r="F72" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="G72" s="32" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="B73" s="37">
+        <v>44559.454004629632</v>
+      </c>
+      <c r="C73" s="31">
+        <v>0</v>
+      </c>
+      <c r="D73" s="31">
+        <v>14000</v>
+      </c>
+      <c r="E73" s="31">
+        <f t="shared" si="3"/>
+        <v>280750</v>
+      </c>
+      <c r="F73" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="G73" s="32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <f t="shared" ref="A74:A82" si="4">ROW(A66)</f>
+        <v>66</v>
+      </c>
+      <c r="B74" s="37">
+        <v>44559.454004629632</v>
+      </c>
+      <c r="C74" s="31">
+        <v>0</v>
+      </c>
+      <c r="D74" s="31">
+        <v>100000</v>
+      </c>
+      <c r="E74" s="31">
+        <f t="shared" si="3"/>
+        <v>180750</v>
+      </c>
+      <c r="F74" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="G74" s="32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <f t="shared" si="4"/>
+        <v>67</v>
+      </c>
+      <c r="B75" s="37">
+        <v>44560.833865740744</v>
+      </c>
+      <c r="C75" s="31">
+        <v>0</v>
+      </c>
+      <c r="D75" s="31">
+        <v>28500</v>
+      </c>
+      <c r="E75" s="31">
+        <f t="shared" si="3"/>
+        <v>152250</v>
+      </c>
+      <c r="F75" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="G75" s="32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <f t="shared" si="4"/>
+        <v>68</v>
+      </c>
+      <c r="B76" s="37">
+        <v>44560.650671296295</v>
+      </c>
+      <c r="C76" s="31">
+        <v>0</v>
+      </c>
+      <c r="D76" s="31">
+        <v>118001</v>
+      </c>
+      <c r="E76" s="31">
+        <f t="shared" si="3"/>
+        <v>34249</v>
+      </c>
+      <c r="F76" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="G76" s="32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <f t="shared" si="4"/>
+        <v>69</v>
+      </c>
+      <c r="B77" s="37">
+        <v>44560.650671296295</v>
+      </c>
+      <c r="C77" s="31">
+        <v>0</v>
+      </c>
+      <c r="D77" s="31">
+        <v>5000</v>
+      </c>
+      <c r="E77" s="31">
+        <f t="shared" si="3"/>
+        <v>29249</v>
+      </c>
+      <c r="F77" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="G77" s="32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <f t="shared" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="B78" s="37">
+        <v>44560.668935185182</v>
+      </c>
+      <c r="C78" s="31">
+        <v>0</v>
+      </c>
+      <c r="D78" s="31">
+        <v>100000</v>
+      </c>
+      <c r="E78" s="31">
+        <f t="shared" si="3"/>
+        <v>-70751</v>
+      </c>
+      <c r="F78" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="G78" s="32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <f t="shared" si="4"/>
+        <v>71</v>
+      </c>
+      <c r="B79" s="37">
+        <v>44561.668935127316</v>
+      </c>
+      <c r="C79" s="31">
+        <v>700000</v>
+      </c>
+      <c r="D79" s="31">
+        <v>0</v>
+      </c>
+      <c r="E79" s="31">
+        <f t="shared" si="3"/>
+        <v>629249</v>
+      </c>
+      <c r="F79" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="G79" s="32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <f t="shared" si="4"/>
+        <v>72</v>
+      </c>
+      <c r="B80" s="37">
+        <v>44561.534733796296</v>
+      </c>
+      <c r="C80" s="31">
+        <v>0</v>
+      </c>
+      <c r="D80" s="31">
+        <v>8000</v>
+      </c>
+      <c r="E80" s="31">
+        <f t="shared" si="3"/>
+        <v>621249</v>
+      </c>
+      <c r="F80" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="G80" s="32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <f t="shared" si="4"/>
+        <v>73</v>
+      </c>
+      <c r="B81" s="37">
+        <v>44561.464988425927</v>
+      </c>
+      <c r="C81" s="31">
+        <v>0</v>
+      </c>
+      <c r="D81" s="31">
+        <v>8000</v>
+      </c>
+      <c r="E81" s="31">
+        <f t="shared" si="3"/>
+        <v>613249</v>
+      </c>
+      <c r="F81" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="G81" s="32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <f t="shared" si="4"/>
+        <v>74</v>
+      </c>
+      <c r="B82" s="37">
+        <v>44561.720532407409</v>
+      </c>
+      <c r="C82" s="31">
+        <v>0</v>
+      </c>
+      <c r="D82" s="31">
+        <v>10000</v>
+      </c>
+      <c r="E82" s="31">
+        <f t="shared" si="3"/>
+        <v>603249</v>
+      </c>
+      <c r="F82" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="G82" s="32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="B83" s="50"/>
+      <c r="C83" s="51">
+        <f>SUM(C9:C82)</f>
+        <v>4950700</v>
+      </c>
+      <c r="D83" s="51">
+        <f>SUM(D9:D82)</f>
+        <v>4347451</v>
+      </c>
+      <c r="E83" s="51">
+        <v>603249</v>
+      </c>
+      <c r="F83" s="50"/>
+      <c r="G83" s="50"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="50"/>
+      <c r="B84" s="50"/>
+      <c r="C84" s="52"/>
+      <c r="D84" s="52"/>
+      <c r="E84" s="51"/>
+      <c r="F84" s="50"/>
+      <c r="G84" s="50"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="50"/>
+      <c r="B85" s="50"/>
+      <c r="C85" s="52"/>
+      <c r="D85" s="52"/>
+      <c r="E85" s="51"/>
+      <c r="F85" s="50"/>
+      <c r="G85" s="50"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B1:G4"/>
+    <mergeCell ref="B5:G6"/>
+    <mergeCell ref="A83:B85"/>
+    <mergeCell ref="C83:C85"/>
+    <mergeCell ref="D83:D85"/>
+    <mergeCell ref="E83:E85"/>
+    <mergeCell ref="F83:G85"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E32AD99-4A38-4AEE-9F06-FC6D5823ED5A}">
+  <dimension ref="A1:J78"/>
+  <sheetViews>
+    <sheetView topLeftCell="B59" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="34.5703125" style="33" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="41.85546875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="30.28515625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="40.85546875" customWidth="1"/>
+    <col min="7" max="7" width="27.7109375" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="53" t="s">
+        <v>178</v>
+      </c>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+    </row>
+    <row r="8" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="6">
+        <f>SUM(C9:C60)</f>
+        <v>2753249</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="38">
+        <f t="shared" ref="A9:A40" si="0">ROW(A1)</f>
+        <v>1</v>
+      </c>
+      <c r="B9" s="39">
+        <v>44562</v>
+      </c>
+      <c r="C9" s="40">
+        <v>603249</v>
+      </c>
+      <c r="D9" s="40">
+        <v>0</v>
+      </c>
+      <c r="E9" s="40">
+        <f>C9-D9</f>
+        <v>603249</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="38">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B10" s="39">
+        <v>44562.806064814817</v>
+      </c>
+      <c r="C10" s="40">
+        <v>0</v>
+      </c>
+      <c r="D10" s="40">
+        <v>100000</v>
+      </c>
+      <c r="E10" s="40">
+        <f t="shared" ref="E10:E41" si="1">E9+C10-D10</f>
+        <v>503249</v>
+      </c>
+      <c r="F10" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="38">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B11" s="39">
+        <v>44563.39340277778</v>
+      </c>
+      <c r="C11" s="40">
+        <v>0</v>
+      </c>
+      <c r="D11" s="40">
+        <v>10000</v>
+      </c>
+      <c r="E11" s="40">
+        <f t="shared" si="1"/>
+        <v>493249</v>
+      </c>
+      <c r="F11" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="38">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B12" s="39">
+        <v>44564.375347222223</v>
+      </c>
+      <c r="C12" s="40">
+        <v>0</v>
+      </c>
+      <c r="D12" s="40">
+        <v>32000</v>
+      </c>
+      <c r="E12" s="40">
+        <f t="shared" si="1"/>
+        <v>461249</v>
+      </c>
+      <c r="F12" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="G12" s="38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="38">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B13" s="39">
+        <v>44564.375347222223</v>
+      </c>
+      <c r="C13" s="40">
+        <v>0</v>
+      </c>
+      <c r="D13" s="40">
+        <v>140000</v>
+      </c>
+      <c r="E13" s="40">
+        <f t="shared" si="1"/>
+        <v>321249</v>
+      </c>
+      <c r="F13" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="G13" s="38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="38">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B14" s="39">
+        <v>44564.642083333332</v>
+      </c>
+      <c r="C14" s="40">
+        <v>0</v>
+      </c>
+      <c r="D14" s="40">
+        <v>33000</v>
+      </c>
+      <c r="E14" s="40">
+        <f t="shared" si="1"/>
+        <v>288249</v>
+      </c>
+      <c r="F14" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="G14" s="38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="38">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B15" s="39">
+        <v>44564.335416666669</v>
+      </c>
+      <c r="C15" s="40">
+        <v>0</v>
+      </c>
+      <c r="D15" s="40">
+        <v>100000</v>
+      </c>
+      <c r="E15" s="40">
+        <f>E14+C15-D15</f>
+        <v>188249</v>
+      </c>
+      <c r="F15" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="G15" s="38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="38">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B16" s="39">
+        <v>44566.708333333336</v>
+      </c>
+      <c r="C16" s="40">
+        <v>0</v>
+      </c>
+      <c r="D16" s="40">
+        <v>11300</v>
+      </c>
+      <c r="E16" s="40">
+        <f t="shared" si="1"/>
+        <v>176949</v>
+      </c>
+      <c r="F16" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="G16" s="38" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="38">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B17" s="39">
+        <v>44566.791585648149</v>
+      </c>
+      <c r="C17" s="40">
+        <v>0</v>
+      </c>
+      <c r="D17" s="40">
+        <v>90000</v>
+      </c>
+      <c r="E17" s="40">
+        <f t="shared" si="1"/>
+        <v>86949</v>
+      </c>
+      <c r="F17" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="G17" s="38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="38">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B18" s="39">
+        <v>44567.807638888888</v>
+      </c>
+      <c r="C18" s="40">
+        <v>0</v>
+      </c>
+      <c r="D18" s="40">
+        <v>132500</v>
+      </c>
+      <c r="E18" s="40">
+        <f t="shared" si="1"/>
+        <v>-45551</v>
+      </c>
+      <c r="F18" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="G18" s="38" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="38">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B19" s="39">
+        <v>44203.469467592593</v>
+      </c>
+      <c r="C19" s="40">
+        <v>0</v>
+      </c>
+      <c r="D19" s="40">
+        <v>8000</v>
+      </c>
+      <c r="E19" s="40">
+        <f t="shared" si="1"/>
+        <v>-53551</v>
+      </c>
+      <c r="F19" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="G19" s="38" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="38">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B20" s="39">
+        <v>44203.469467592593</v>
+      </c>
+      <c r="C20" s="40">
+        <v>250000</v>
+      </c>
+      <c r="D20" s="40">
+        <v>0</v>
+      </c>
+      <c r="E20" s="40">
+        <f t="shared" si="1"/>
+        <v>196449</v>
+      </c>
+      <c r="F20" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="G20" s="38" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="38">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B21" s="39">
+        <v>44203.469467592593</v>
+      </c>
+      <c r="C21" s="40">
+        <v>0</v>
+      </c>
+      <c r="D21" s="40">
+        <v>37000</v>
+      </c>
+      <c r="E21" s="40">
+        <f t="shared" si="1"/>
+        <v>159449</v>
+      </c>
+      <c r="F21" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="G21" s="38" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="38">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B22" s="39">
+        <v>44569.359027777777</v>
+      </c>
+      <c r="C22" s="40">
+        <v>0</v>
+      </c>
+      <c r="D22" s="40">
+        <v>20000</v>
+      </c>
+      <c r="E22" s="40">
+        <f t="shared" si="1"/>
+        <v>139449</v>
+      </c>
+      <c r="F22" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="G22" s="38" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="38">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B23" s="39">
+        <v>44569.428831018522</v>
+      </c>
+      <c r="C23" s="40">
+        <v>0</v>
+      </c>
+      <c r="D23" s="40">
+        <v>100000</v>
+      </c>
+      <c r="E23" s="40">
+        <f t="shared" si="1"/>
+        <v>39449</v>
+      </c>
+      <c r="F23" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="G23" s="38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="38">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B24" s="39">
+        <v>44570.383634259262</v>
+      </c>
+      <c r="C24" s="40">
+        <v>0</v>
+      </c>
+      <c r="D24" s="40">
+        <v>10000</v>
+      </c>
+      <c r="E24" s="40">
+        <f t="shared" si="1"/>
+        <v>29449</v>
+      </c>
+      <c r="F24" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="G24" s="38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="41">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B25" s="42">
+        <v>44575</v>
+      </c>
+      <c r="C25" s="43">
+        <v>500000</v>
+      </c>
+      <c r="D25" s="43">
+        <v>0</v>
+      </c>
+      <c r="E25" s="43">
+        <f t="shared" si="1"/>
+        <v>529449</v>
+      </c>
+      <c r="F25" s="41" t="s">
+        <v>152</v>
+      </c>
+      <c r="G25" s="41" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="41">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B26" s="42">
+        <v>44575</v>
+      </c>
+      <c r="C26" s="43">
+        <v>0</v>
+      </c>
+      <c r="D26" s="43">
+        <v>60000</v>
+      </c>
+      <c r="E26" s="43">
+        <f t="shared" si="1"/>
+        <v>469449</v>
+      </c>
+      <c r="F26" s="41" t="s">
+        <v>181</v>
+      </c>
+      <c r="G26" s="41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="41">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B27" s="42">
+        <v>44576</v>
+      </c>
+      <c r="C27" s="43">
+        <v>0</v>
+      </c>
+      <c r="D27" s="43">
+        <v>200000</v>
+      </c>
+      <c r="E27" s="43">
+        <f t="shared" si="1"/>
+        <v>269449</v>
+      </c>
+      <c r="F27" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="G27" s="41" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="41">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B28" s="42">
+        <v>44576</v>
+      </c>
+      <c r="C28" s="43">
+        <v>0</v>
+      </c>
+      <c r="D28" s="43">
+        <v>5500</v>
+      </c>
+      <c r="E28" s="43">
+        <f t="shared" si="1"/>
+        <v>263949</v>
+      </c>
+      <c r="F28" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="41" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="41">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B29" s="42">
+        <v>44576</v>
+      </c>
+      <c r="C29" s="43">
+        <v>0</v>
+      </c>
+      <c r="D29" s="43">
+        <v>15300</v>
+      </c>
+      <c r="E29" s="43">
+        <f t="shared" si="1"/>
+        <v>248649</v>
+      </c>
+      <c r="F29" s="41" t="s">
+        <v>183</v>
+      </c>
+      <c r="G29" s="41" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="41">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B30" s="42">
+        <v>44577</v>
+      </c>
+      <c r="C30" s="43">
+        <v>0</v>
+      </c>
+      <c r="D30" s="43">
+        <v>10000</v>
+      </c>
+      <c r="E30" s="43">
+        <f t="shared" si="1"/>
+        <v>238649</v>
+      </c>
+      <c r="F30" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="G30" s="41" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="41">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B31" s="42">
+        <v>44578</v>
+      </c>
+      <c r="C31" s="43">
+        <v>0</v>
+      </c>
+      <c r="D31" s="43">
+        <v>32000</v>
+      </c>
+      <c r="E31" s="43">
+        <f t="shared" si="1"/>
+        <v>206649</v>
+      </c>
+      <c r="F31" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="G31" s="41" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="41">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B32" s="42">
+        <v>44578</v>
+      </c>
+      <c r="C32" s="43">
+        <v>0</v>
+      </c>
+      <c r="D32" s="43">
+        <v>80000</v>
+      </c>
+      <c r="E32" s="43">
+        <f t="shared" si="1"/>
+        <v>126649</v>
+      </c>
+      <c r="F32" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="G32" s="41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="41">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B33" s="42">
+        <v>44578</v>
+      </c>
+      <c r="C33" s="43">
+        <v>0</v>
+      </c>
+      <c r="D33" s="43">
+        <v>65800</v>
+      </c>
+      <c r="E33" s="43">
+        <f t="shared" si="1"/>
+        <v>60849</v>
+      </c>
+      <c r="F33" s="41" t="s">
+        <v>185</v>
+      </c>
+      <c r="G33" s="41" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="41">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B34" s="42">
+        <v>44578</v>
+      </c>
+      <c r="C34" s="43">
+        <v>0</v>
+      </c>
+      <c r="D34" s="43">
+        <v>22500</v>
+      </c>
+      <c r="E34" s="43">
+        <f t="shared" si="1"/>
+        <v>38349</v>
+      </c>
+      <c r="F34" s="41" t="s">
+        <v>186</v>
+      </c>
+      <c r="G34" s="41" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="41">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B35" s="42">
+        <v>44579</v>
+      </c>
+      <c r="C35" s="43">
+        <v>0</v>
+      </c>
+      <c r="D35" s="43">
+        <v>10000</v>
+      </c>
+      <c r="E35" s="43">
+        <f t="shared" si="1"/>
+        <v>28349</v>
+      </c>
+      <c r="F35" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="G35" s="41" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="41">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B36" s="42">
+        <v>44580</v>
+      </c>
+      <c r="C36" s="43">
+        <v>0</v>
+      </c>
+      <c r="D36" s="43">
+        <v>24000</v>
+      </c>
+      <c r="E36" s="43">
+        <f t="shared" si="1"/>
+        <v>4349</v>
+      </c>
+      <c r="F36" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="G36" s="41" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="41">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B37" s="42">
+        <v>44580</v>
+      </c>
+      <c r="C37" s="43">
+        <v>0</v>
+      </c>
+      <c r="D37" s="43">
+        <v>10000</v>
+      </c>
+      <c r="E37" s="43">
+        <f t="shared" si="1"/>
+        <v>-5651</v>
+      </c>
+      <c r="F37" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="G37" s="41" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="41">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B38" s="42">
+        <v>44580</v>
+      </c>
+      <c r="C38" s="43">
+        <v>500000</v>
+      </c>
+      <c r="D38" s="43">
+        <v>0</v>
+      </c>
+      <c r="E38" s="43">
+        <f t="shared" si="1"/>
+        <v>494349</v>
+      </c>
+      <c r="F38" s="41" t="s">
+        <v>152</v>
+      </c>
+      <c r="G38" s="41" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="41">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B39" s="42">
+        <v>44581</v>
+      </c>
+      <c r="C39" s="43">
+        <v>0</v>
+      </c>
+      <c r="D39" s="43">
+        <v>100000</v>
+      </c>
+      <c r="E39" s="43">
+        <f t="shared" si="1"/>
+        <v>394349</v>
+      </c>
+      <c r="F39" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="G39" s="41" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="41">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B40" s="42">
+        <v>44581</v>
+      </c>
+      <c r="C40" s="43">
+        <v>0</v>
+      </c>
+      <c r="D40" s="43">
+        <v>470000</v>
+      </c>
+      <c r="E40" s="43">
+        <f t="shared" si="1"/>
+        <v>-75651</v>
+      </c>
+      <c r="F40" s="41" t="s">
+        <v>188</v>
+      </c>
+      <c r="G40" s="41" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="41">
+        <f t="shared" ref="A41:A72" si="2">ROW(A33)</f>
+        <v>33</v>
+      </c>
+      <c r="B41" s="42">
+        <v>44581</v>
+      </c>
+      <c r="C41" s="43">
+        <v>0</v>
+      </c>
+      <c r="D41" s="43">
+        <v>38000</v>
+      </c>
+      <c r="E41" s="43">
+        <f t="shared" si="1"/>
+        <v>-113651</v>
+      </c>
+      <c r="F41" s="41" t="s">
+        <v>189</v>
+      </c>
+      <c r="G41" s="41" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="41">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="B42" s="42">
+        <v>44581</v>
+      </c>
+      <c r="C42" s="43">
+        <v>0</v>
+      </c>
+      <c r="D42" s="43">
+        <v>3000</v>
+      </c>
+      <c r="E42" s="43">
+        <f t="shared" ref="E42:E73" si="3">E41+C42-D42</f>
+        <v>-116651</v>
+      </c>
+      <c r="F42" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="G42" s="41" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="41">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="B43" s="42">
+        <v>44581</v>
+      </c>
+      <c r="C43" s="43">
+        <v>150000</v>
+      </c>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43">
+        <f t="shared" si="3"/>
+        <v>33349</v>
+      </c>
+      <c r="F43" s="41" t="s">
+        <v>152</v>
+      </c>
+      <c r="G43" s="41" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="28">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="B44" s="35">
+        <v>44582</v>
+      </c>
+      <c r="C44" s="27">
+        <v>500000</v>
+      </c>
+      <c r="D44" s="27">
+        <v>0</v>
+      </c>
+      <c r="E44" s="27">
+        <f t="shared" si="3"/>
+        <v>533349</v>
+      </c>
+      <c r="F44" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G44" s="28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="28">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="B45" s="35">
+        <v>44582</v>
+      </c>
+      <c r="C45" s="27">
+        <v>0</v>
+      </c>
+      <c r="D45" s="27">
+        <v>119000</v>
+      </c>
+      <c r="E45" s="27">
+        <f t="shared" si="3"/>
+        <v>414349</v>
+      </c>
+      <c r="F45" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="G45" s="28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="28">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="B46" s="35">
+        <v>44582</v>
+      </c>
+      <c r="C46" s="27">
+        <v>0</v>
+      </c>
+      <c r="D46" s="27">
+        <v>94500</v>
+      </c>
+      <c r="E46" s="27">
+        <f t="shared" si="3"/>
+        <v>319849</v>
+      </c>
+      <c r="F46" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="G46" s="28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="28">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="B47" s="35">
+        <v>44584</v>
+      </c>
+      <c r="C47" s="27">
+        <v>0</v>
+      </c>
+      <c r="D47" s="27">
+        <v>10000</v>
+      </c>
+      <c r="E47" s="27">
+        <f t="shared" si="3"/>
+        <v>309849</v>
+      </c>
+      <c r="F47" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="G47" s="28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="28">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="B48" s="35">
+        <v>44584</v>
+      </c>
+      <c r="C48" s="27">
+        <v>0</v>
+      </c>
+      <c r="D48" s="27">
+        <v>12500</v>
+      </c>
+      <c r="E48" s="27">
+        <f t="shared" si="3"/>
+        <v>297349</v>
+      </c>
+      <c r="F48" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="G48" s="28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="28">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="B49" s="35">
+        <v>44585</v>
+      </c>
+      <c r="C49" s="27">
+        <v>0</v>
+      </c>
+      <c r="D49" s="27">
+        <v>50000</v>
+      </c>
+      <c r="E49" s="27">
+        <f t="shared" si="3"/>
+        <v>247349</v>
+      </c>
+      <c r="F49" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="G49" s="28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="28">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="B50" s="35">
+        <v>44585</v>
+      </c>
+      <c r="C50" s="27">
+        <v>0</v>
+      </c>
+      <c r="D50" s="27">
+        <v>3000</v>
+      </c>
+      <c r="E50" s="27">
+        <f t="shared" si="3"/>
+        <v>244349</v>
+      </c>
+      <c r="F50" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G50" s="28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="28">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="B51" s="35">
+        <v>44586</v>
+      </c>
+      <c r="C51" s="27">
+        <v>0</v>
+      </c>
+      <c r="D51" s="27">
+        <v>17500</v>
+      </c>
+      <c r="E51" s="27">
+        <f t="shared" si="3"/>
+        <v>226849</v>
+      </c>
+      <c r="F51" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="G51" s="28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="28">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="B52" s="35">
+        <v>44586</v>
+      </c>
+      <c r="C52" s="27">
+        <v>0</v>
+      </c>
+      <c r="D52" s="27">
+        <v>12000</v>
+      </c>
+      <c r="E52" s="27">
+        <f t="shared" si="3"/>
+        <v>214849</v>
+      </c>
+      <c r="F52" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="G52" s="28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="28">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="B53" s="35">
+        <v>44586</v>
+      </c>
+      <c r="C53" s="27">
+        <v>0</v>
+      </c>
+      <c r="D53" s="27">
+        <v>83000</v>
+      </c>
+      <c r="E53" s="27">
+        <f t="shared" si="3"/>
+        <v>131849</v>
+      </c>
+      <c r="F53" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="G53" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="28">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="B54" s="35">
+        <v>44586</v>
+      </c>
+      <c r="C54" s="27">
+        <v>0</v>
+      </c>
+      <c r="D54" s="27">
+        <v>3000</v>
+      </c>
+      <c r="E54" s="27">
+        <f t="shared" si="3"/>
+        <v>128849</v>
+      </c>
+      <c r="F54" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="G54" s="28" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="28">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="B55" s="35">
+        <v>44587</v>
+      </c>
+      <c r="C55" s="27">
+        <v>250000</v>
+      </c>
+      <c r="D55" s="27">
+        <v>0</v>
+      </c>
+      <c r="E55" s="27">
+        <f t="shared" si="3"/>
+        <v>378849</v>
+      </c>
+      <c r="F55" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G55" s="28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="28">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="B56" s="35">
+        <v>44587</v>
+      </c>
+      <c r="C56" s="27">
+        <v>0</v>
+      </c>
+      <c r="D56" s="27">
+        <v>5000</v>
+      </c>
+      <c r="E56" s="27">
+        <f t="shared" si="3"/>
+        <v>373849</v>
+      </c>
+      <c r="F56" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="G56" s="28" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="28">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="B57" s="35">
+        <v>44587</v>
+      </c>
+      <c r="C57" s="27">
+        <v>0</v>
+      </c>
+      <c r="D57" s="27">
+        <v>29000</v>
+      </c>
+      <c r="E57" s="27">
+        <f t="shared" si="3"/>
+        <v>344849</v>
+      </c>
+      <c r="F57" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="G57" s="28" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="28">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="B58" s="35">
+        <v>44587</v>
+      </c>
+      <c r="C58" s="27">
+        <v>0</v>
+      </c>
+      <c r="D58" s="27">
+        <v>22000</v>
+      </c>
+      <c r="E58" s="27">
+        <f t="shared" si="3"/>
+        <v>322849</v>
+      </c>
+      <c r="F58" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="G58" s="28" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="28">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="B59" s="35">
+        <v>44587</v>
+      </c>
+      <c r="C59" s="27">
+        <v>0</v>
+      </c>
+      <c r="D59" s="27">
+        <v>84500</v>
+      </c>
+      <c r="E59" s="27">
+        <f t="shared" si="3"/>
+        <v>238349</v>
+      </c>
+      <c r="F59" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="G59" s="28" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="28">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="B60" s="35">
+        <v>44587</v>
+      </c>
+      <c r="C60" s="27">
+        <v>0</v>
+      </c>
+      <c r="D60" s="27">
+        <v>100000</v>
+      </c>
+      <c r="E60" s="27">
+        <f t="shared" si="3"/>
+        <v>138349</v>
+      </c>
+      <c r="F60" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="G60" s="28" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="44">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="B61" s="45">
+        <v>44588</v>
+      </c>
+      <c r="C61" s="46">
+        <v>0</v>
+      </c>
+      <c r="D61" s="46">
+        <v>51000</v>
+      </c>
+      <c r="E61" s="46">
+        <f t="shared" si="3"/>
+        <v>87349</v>
+      </c>
+      <c r="F61" s="44" t="s">
+        <v>198</v>
+      </c>
+      <c r="G61" s="44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="44">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="B62" s="45">
+        <v>44588</v>
+      </c>
+      <c r="C62" s="46">
+        <v>0</v>
+      </c>
+      <c r="D62" s="46">
+        <v>12000</v>
+      </c>
+      <c r="E62" s="46">
+        <f t="shared" si="3"/>
+        <v>75349</v>
+      </c>
+      <c r="F62" s="44" t="s">
+        <v>187</v>
+      </c>
+      <c r="G62" s="44" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="44">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="B63" s="45">
+        <v>44588</v>
+      </c>
+      <c r="C63" s="46">
+        <v>0</v>
+      </c>
+      <c r="D63" s="46">
+        <v>23000</v>
+      </c>
+      <c r="E63" s="46">
+        <f t="shared" si="3"/>
+        <v>52349</v>
+      </c>
+      <c r="F63" s="44" t="s">
+        <v>199</v>
+      </c>
+      <c r="G63" s="44" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="44">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="B64" s="45">
+        <v>44588</v>
+      </c>
+      <c r="C64" s="46">
+        <v>0</v>
+      </c>
+      <c r="D64" s="46">
+        <v>10000</v>
+      </c>
+      <c r="E64" s="46">
+        <f t="shared" si="3"/>
+        <v>42349</v>
+      </c>
+      <c r="F64" s="44" t="s">
+        <v>200</v>
+      </c>
+      <c r="G64" s="44" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="44">
+        <f t="shared" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="B65" s="45">
+        <v>44588</v>
+      </c>
+      <c r="C65" s="46">
+        <v>0</v>
+      </c>
+      <c r="D65" s="46">
+        <v>40000</v>
+      </c>
+      <c r="E65" s="46">
+        <f t="shared" si="3"/>
+        <v>2349</v>
+      </c>
+      <c r="F65" s="44" t="s">
+        <v>201</v>
+      </c>
+      <c r="G65" s="44" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="44">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="B66" s="45">
+        <v>44588</v>
+      </c>
+      <c r="C66" s="46">
+        <v>0</v>
+      </c>
+      <c r="D66" s="46">
+        <v>5000</v>
+      </c>
+      <c r="E66" s="46">
+        <f t="shared" si="3"/>
+        <v>-2651</v>
+      </c>
+      <c r="F66" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="G66" s="44" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="44">
+        <f t="shared" si="2"/>
+        <v>59</v>
+      </c>
+      <c r="B67" s="45">
+        <v>44589</v>
+      </c>
+      <c r="C67" s="46">
+        <v>0</v>
+      </c>
+      <c r="D67" s="46">
+        <v>50000</v>
+      </c>
+      <c r="E67" s="46">
+        <f t="shared" si="3"/>
+        <v>-52651</v>
+      </c>
+      <c r="F67" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="G67" s="44" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="44">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="B68" s="45">
+        <v>44590</v>
+      </c>
+      <c r="C68" s="46">
+        <v>500000</v>
+      </c>
+      <c r="D68" s="46">
+        <v>0</v>
+      </c>
+      <c r="E68" s="46">
+        <f t="shared" si="3"/>
+        <v>447349</v>
+      </c>
+      <c r="F68" s="44" t="s">
+        <v>152</v>
+      </c>
+      <c r="G68" s="44" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="44">
+        <f t="shared" si="2"/>
+        <v>61</v>
+      </c>
+      <c r="B69" s="45">
+        <v>44590</v>
+      </c>
+      <c r="C69" s="46">
+        <v>0</v>
+      </c>
+      <c r="D69" s="46">
+        <v>200000</v>
+      </c>
+      <c r="E69" s="46">
+        <f t="shared" si="3"/>
+        <v>247349</v>
+      </c>
+      <c r="F69" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="G69" s="44" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="44">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="B70" s="45">
+        <v>44590</v>
+      </c>
+      <c r="C70" s="46">
+        <v>0</v>
+      </c>
+      <c r="D70" s="46">
+        <v>48400</v>
+      </c>
+      <c r="E70" s="46">
+        <f t="shared" si="3"/>
+        <v>198949</v>
+      </c>
+      <c r="F70" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="G70" s="44" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="44">
+        <f t="shared" si="2"/>
+        <v>63</v>
+      </c>
+      <c r="B71" s="45">
+        <v>44590</v>
+      </c>
+      <c r="C71" s="46">
+        <v>0</v>
+      </c>
+      <c r="D71" s="46">
+        <v>32000</v>
+      </c>
+      <c r="E71" s="46">
+        <f t="shared" si="3"/>
+        <v>166949</v>
+      </c>
+      <c r="F71" s="44" t="s">
+        <v>204</v>
+      </c>
+      <c r="G71" s="44" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="44">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="B72" s="45">
+        <v>44591</v>
+      </c>
+      <c r="C72" s="46">
+        <v>0</v>
+      </c>
+      <c r="D72" s="46">
+        <v>10000</v>
+      </c>
+      <c r="E72" s="46">
+        <f t="shared" si="3"/>
+        <v>156949</v>
+      </c>
+      <c r="F72" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="G72" s="44" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="44">
+        <f t="shared" ref="A73:A75" si="4">ROW(A65)</f>
+        <v>65</v>
+      </c>
+      <c r="B73" s="45">
+        <v>44591</v>
+      </c>
+      <c r="C73" s="46">
+        <v>0</v>
+      </c>
+      <c r="D73" s="46">
+        <v>69000</v>
+      </c>
+      <c r="E73" s="46">
+        <f t="shared" si="3"/>
+        <v>87949</v>
+      </c>
+      <c r="F73" s="44" t="s">
+        <v>205</v>
+      </c>
+      <c r="G73" s="44" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="44">
+        <f t="shared" si="4"/>
+        <v>66</v>
+      </c>
+      <c r="B74" s="45">
+        <v>44592</v>
+      </c>
+      <c r="C74" s="46">
+        <v>0</v>
+      </c>
+      <c r="D74" s="46">
+        <v>12000</v>
+      </c>
+      <c r="E74" s="46">
+        <f t="shared" ref="E74:E75" si="5">E73+C74-D74</f>
+        <v>75949</v>
+      </c>
+      <c r="F74" s="44" t="s">
+        <v>168</v>
+      </c>
+      <c r="G74" s="44" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="44">
+        <f t="shared" si="4"/>
+        <v>67</v>
+      </c>
+      <c r="B75" s="45">
+        <v>44592</v>
+      </c>
+      <c r="C75" s="46">
+        <v>0</v>
+      </c>
+      <c r="D75" s="46">
+        <v>2000</v>
+      </c>
+      <c r="E75" s="46">
+        <f t="shared" si="5"/>
+        <v>73949</v>
+      </c>
+      <c r="F75" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="G75" s="44" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="B76" s="50"/>
+      <c r="C76" s="51">
+        <f>SUM(C3:C75)</f>
+        <v>3253249</v>
+      </c>
+      <c r="D76" s="51">
+        <f>SUM(D3:D75)</f>
+        <v>3179300</v>
+      </c>
+      <c r="E76" s="51">
+        <v>73949</v>
+      </c>
+      <c r="F76" s="50"/>
+      <c r="G76" s="50"/>
+    </row>
+    <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="50"/>
+      <c r="B77" s="50"/>
+      <c r="C77" s="52"/>
+      <c r="D77" s="52"/>
+      <c r="E77" s="51"/>
+      <c r="F77" s="50"/>
+      <c r="G77" s="50"/>
+    </row>
+    <row r="78" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="50"/>
+      <c r="B78" s="50"/>
+      <c r="C78" s="52"/>
+      <c r="D78" s="52"/>
+      <c r="E78" s="51"/>
+      <c r="F78" s="50"/>
+      <c r="G78" s="50"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B1:G4"/>
+    <mergeCell ref="B5:G6"/>
+    <mergeCell ref="A76:B78"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="D76:D78"/>
+    <mergeCell ref="E76:E78"/>
+    <mergeCell ref="F76:G78"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{134DA075-3EEA-49FD-A26F-3260CD6C0D89}">
+  <dimension ref="A1:G65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="35.5703125" customWidth="1"/>
+    <col min="3" max="3" width="41.5703125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="49.7109375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="36" style="6" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" customWidth="1"/>
+    <col min="7" max="7" width="33.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="53" t="s">
+        <v>206</v>
+      </c>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+    </row>
+    <row r="8" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="33">
+        <v>44593</v>
+      </c>
+      <c r="C9" s="6">
+        <v>73949</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6">
+        <f>C9-D9</f>
+        <v>73949</v>
+      </c>
+      <c r="F9" t="s">
+        <v>207</v>
+      </c>
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="33">
+        <v>44593</v>
+      </c>
       <c r="C10" s="6">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="D10" s="6">
-        <v>0</v>
+        <v>66000</v>
       </c>
       <c r="E10" s="6">
         <f>E9+C10-D10</f>
-        <v>250700</v>
+        <v>7949</v>
       </c>
       <c r="F10" t="s">
-        <v>127</v>
+        <v>208</v>
       </c>
       <c r="G10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="25">
-        <v>44531.460416666669</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="33">
+        <v>44593</v>
       </c>
       <c r="C11" s="6">
         <v>0</v>
       </c>
       <c r="D11" s="6">
-        <v>50000</v>
+        <v>39000</v>
       </c>
       <c r="E11" s="6">
-        <f t="shared" ref="E11:E77" si="0">E10+C11-D11</f>
-        <v>200700</v>
+        <f>E10+C11-D11</f>
+        <v>-31051</v>
       </c>
       <c r="F11" t="s">
-        <v>128</v>
+        <v>201</v>
       </c>
       <c r="G11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="6">
-        <f>SUM(C10:C56)</f>
-        <v>4000000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="25">
-        <v>44531.460416666669</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="33">
+        <v>44593</v>
       </c>
       <c r="C12" s="6">
         <v>0</v>
       </c>
       <c r="D12" s="6">
-        <v>50000</v>
+        <v>7000</v>
       </c>
       <c r="E12" s="6">
-        <f t="shared" si="0"/>
-        <v>150700</v>
+        <f t="shared" ref="E12:E65" si="0">E11+C12-D12</f>
+        <v>-38051</v>
       </c>
       <c r="F12" t="s">
-        <v>128</v>
+        <v>209</v>
       </c>
       <c r="G12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="25">
-        <v>44531.582638888889</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="33">
+        <v>44595</v>
       </c>
       <c r="C13" s="6">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="D13" s="6">
-        <v>20500</v>
+        <v>0</v>
       </c>
       <c r="E13" s="6">
         <f t="shared" si="0"/>
-        <v>130200</v>
+        <v>461949</v>
       </c>
       <c r="F13" t="s">
-        <v>129</v>
+        <v>164</v>
       </c>
       <c r="G13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="25">
-        <v>44531.811805555553</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="33">
+        <v>44595</v>
       </c>
       <c r="C14" s="6">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="D14" s="6">
-        <v>490800</v>
+        <v>38000</v>
       </c>
       <c r="E14" s="6">
         <f t="shared" si="0"/>
-        <v>139400</v>
+        <v>423949</v>
       </c>
       <c r="F14" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="G14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="25">
-        <v>44532.46875</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="33">
+        <v>44595</v>
       </c>
       <c r="C15" s="6">
         <v>0</v>
       </c>
       <c r="D15" s="6">
+        <v>120000</v>
+      </c>
+      <c r="E15" s="6">
+        <f t="shared" si="0"/>
+        <v>303949</v>
+      </c>
+      <c r="F15" t="s">
+        <v>211</v>
+      </c>
+      <c r="G15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="33">
+        <v>44595</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0</v>
+      </c>
+      <c r="D16" s="6">
+        <v>67000</v>
+      </c>
+      <c r="E16" s="6">
+        <f t="shared" si="0"/>
+        <v>236949</v>
+      </c>
+      <c r="F16" t="s">
+        <v>212</v>
+      </c>
+      <c r="G16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="33">
+        <v>44595</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0</v>
+      </c>
+      <c r="D17" s="6">
         <v>83000</v>
       </c>
-      <c r="E15" s="6">
-        <f t="shared" si="0"/>
-        <v>56400</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="E17" s="6">
+        <f t="shared" si="0"/>
+        <v>153949</v>
+      </c>
+      <c r="F17" t="s">
         <v>121</v>
       </c>
-      <c r="G15" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="26">
-        <v>44533.388888888891</v>
-      </c>
-      <c r="C16" s="6">
-        <v>0</v>
-      </c>
-      <c r="D16" s="6">
-        <v>40000</v>
-      </c>
-      <c r="E16" s="6">
-        <f t="shared" si="0"/>
-        <v>16400</v>
-      </c>
-      <c r="F16" t="s">
-        <v>128</v>
-      </c>
-      <c r="G16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="26">
-        <v>44533.374305555553</v>
-      </c>
-      <c r="C17" s="6">
-        <v>0</v>
-      </c>
-      <c r="D17" s="6">
-        <v>10000</v>
-      </c>
-      <c r="E17" s="6">
-        <f t="shared" si="0"/>
-        <v>6400</v>
-      </c>
-      <c r="F17" t="s">
-        <v>132</v>
-      </c>
       <c r="G17" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="26">
-        <v>44533.459027777775</v>
+      <c r="B18" s="33">
+        <v>44595</v>
       </c>
       <c r="C18" s="6">
         <v>0</v>
       </c>
       <c r="D18" s="6">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="E18" s="6">
         <f t="shared" si="0"/>
-        <v>-3600</v>
+        <v>53949</v>
       </c>
       <c r="F18" t="s">
-        <v>133</v>
+        <v>213</v>
       </c>
       <c r="G18" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="26">
-        <v>44533.75277777778</v>
+      <c r="B19" s="33">
+        <v>44596</v>
       </c>
       <c r="C19" s="6">
-        <v>500000</v>
+        <v>250000</v>
       </c>
       <c r="D19" s="6">
         <v>0</v>
       </c>
       <c r="E19" s="6">
         <f t="shared" si="0"/>
-        <v>496400</v>
+        <v>303949</v>
       </c>
       <c r="F19" t="s">
-        <v>134</v>
+        <v>214</v>
       </c>
       <c r="G19" t="s">
-        <v>135</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="26">
-        <v>44533.820138888892</v>
+      <c r="B20" s="33">
+        <v>44596</v>
       </c>
       <c r="C20" s="6">
         <v>0</v>
       </c>
       <c r="D20" s="6">
-        <v>18000</v>
+        <v>125600</v>
       </c>
       <c r="E20" s="6">
         <f t="shared" si="0"/>
-        <v>478400</v>
+        <v>178349</v>
       </c>
       <c r="F20" t="s">
-        <v>136</v>
+        <v>215</v>
       </c>
       <c r="G20" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="26">
-        <v>44533.820138888892</v>
+      <c r="B21" s="33">
+        <v>44596</v>
       </c>
       <c r="C21" s="6">
         <v>0</v>
       </c>
       <c r="D21" s="6">
-        <v>10000</v>
+        <v>74000</v>
       </c>
       <c r="E21" s="6">
         <f t="shared" si="0"/>
-        <v>468400</v>
+        <v>104349</v>
       </c>
       <c r="F21" t="s">
-        <v>74</v>
+        <v>216</v>
       </c>
       <c r="G21" t="s">
-        <v>137</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="26">
-        <v>44534.883333333331</v>
+      <c r="B22" s="33">
+        <v>44596</v>
       </c>
       <c r="C22" s="6">
         <v>0</v>
       </c>
       <c r="D22" s="6">
-        <v>60000</v>
+        <v>15000</v>
       </c>
       <c r="E22" s="6">
         <f t="shared" si="0"/>
-        <v>408400</v>
+        <v>89349</v>
       </c>
       <c r="F22" t="s">
-        <v>138</v>
+        <v>66</v>
       </c>
       <c r="G22" t="s">
-        <v>135</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="26">
-        <v>44534.614583333336</v>
+      <c r="B23" s="33">
+        <v>44597</v>
       </c>
       <c r="C23" s="6">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="D23" s="6">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="E23" s="6">
         <f t="shared" si="0"/>
-        <v>388400</v>
+        <v>289349</v>
       </c>
       <c r="F23" t="s">
-        <v>139</v>
-      </c>
-      <c r="G23" t="s">
-        <v>23</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="26">
-        <v>44534.833333333336</v>
+      <c r="B24" s="33">
+        <v>44597</v>
       </c>
       <c r="C24" s="6">
         <v>0</v>
@@ -4724,81 +8805,81 @@
       </c>
       <c r="E24" s="6">
         <f t="shared" si="0"/>
-        <v>288400</v>
+        <v>189349</v>
       </c>
       <c r="F24" t="s">
-        <v>128</v>
+        <v>163</v>
       </c>
       <c r="G24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="26">
-        <v>44535.508333333331</v>
+      <c r="B25" s="33">
+        <v>44597</v>
       </c>
       <c r="C25" s="6">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="D25" s="6">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="E25" s="6">
         <f t="shared" si="0"/>
-        <v>788400</v>
+        <v>139349</v>
       </c>
       <c r="F25" t="s">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="G25" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="26">
-        <v>44535.508333333331</v>
+      <c r="B26" s="33">
+        <v>44597</v>
       </c>
       <c r="C26" s="6">
         <v>0</v>
       </c>
       <c r="D26" s="6">
-        <v>10000</v>
+        <v>40000</v>
       </c>
       <c r="E26" s="6">
         <f t="shared" si="0"/>
-        <v>778400</v>
+        <v>99349</v>
       </c>
       <c r="F26" t="s">
-        <v>61</v>
+        <v>163</v>
       </c>
       <c r="G26" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="26">
-        <v>44536.291666666664</v>
+      <c r="B27" s="33">
+        <v>44597</v>
       </c>
       <c r="C27" s="6">
         <v>0</v>
       </c>
       <c r="D27" s="6">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="E27" s="6">
         <f t="shared" si="0"/>
-        <v>769400</v>
+        <v>91349</v>
       </c>
       <c r="F27" t="s">
-        <v>140</v>
+        <v>66</v>
       </c>
       <c r="G27" t="s">
-        <v>141</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="26">
-        <v>44537.486805555556</v>
+      <c r="B28" s="33">
+        <v>44597</v>
       </c>
       <c r="C28" s="6">
         <v>0</v>
@@ -4808,928 +8889,355 @@
       </c>
       <c r="E28" s="6">
         <f t="shared" si="0"/>
-        <v>759400</v>
+        <v>81349</v>
       </c>
       <c r="F28" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="G28" t="s">
-        <v>135</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="26">
-        <v>44537.660983796297</v>
+      <c r="B29" s="33">
+        <v>44598</v>
       </c>
       <c r="C29" s="6">
         <v>0</v>
       </c>
       <c r="D29" s="6">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="E29" s="6">
         <f t="shared" si="0"/>
-        <v>659400</v>
+        <v>71349</v>
       </c>
       <c r="F29" t="s">
-        <v>128</v>
+        <v>61</v>
       </c>
       <c r="G29" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="26">
-        <v>44539.878472222219</v>
+      <c r="B30" s="33">
+        <v>44598</v>
       </c>
       <c r="C30" s="6">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="D30" s="6">
-        <v>192800</v>
+        <v>12000</v>
       </c>
       <c r="E30" s="6">
         <f t="shared" si="0"/>
-        <v>666600</v>
+        <v>59349</v>
       </c>
       <c r="F30" t="s">
-        <v>151</v>
+        <v>217</v>
       </c>
       <c r="G30" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="26">
-        <v>44540.666666666664</v>
+      <c r="B31" s="33">
+        <v>44598</v>
       </c>
       <c r="C31" s="6">
         <v>0</v>
       </c>
       <c r="D31" s="6">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="E31" s="6">
         <f t="shared" si="0"/>
-        <v>656600</v>
+        <v>29349</v>
       </c>
       <c r="F31" t="s">
-        <v>74</v>
+        <v>221</v>
       </c>
       <c r="G31" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="33">
+        <v>44599</v>
+      </c>
+      <c r="C32" s="6">
+        <v>0</v>
+      </c>
+      <c r="D32" s="6">
+        <v>18000</v>
+      </c>
+      <c r="E32" s="6">
+        <f t="shared" si="0"/>
+        <v>11349</v>
+      </c>
+      <c r="F32" t="s">
+        <v>218</v>
+      </c>
+      <c r="G32" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="26">
-        <v>44539.660983796297</v>
-      </c>
-      <c r="C32" s="6">
-        <v>0</v>
-      </c>
-      <c r="D32" s="6">
-        <v>100000</v>
-      </c>
-      <c r="E32" s="6">
-        <f t="shared" si="0"/>
-        <v>556600</v>
-      </c>
-      <c r="F32" t="s">
-        <v>150</v>
-      </c>
-      <c r="G32" t="s">
-        <v>17</v>
-      </c>
-    </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="26">
-        <v>44540.479166666664</v>
+      <c r="B33" s="33">
+        <v>44599</v>
       </c>
       <c r="C33" s="6">
         <v>0</v>
       </c>
       <c r="D33" s="6">
-        <v>83000</v>
+        <v>36000</v>
       </c>
       <c r="E33" s="6">
         <f t="shared" si="0"/>
-        <v>473600</v>
+        <v>-24651</v>
       </c>
       <c r="F33" t="s">
-        <v>121</v>
+        <v>219</v>
       </c>
       <c r="G33" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="26">
-        <v>44541.670138888891</v>
+      <c r="B34" s="33">
+        <v>44599</v>
       </c>
       <c r="C34" s="6">
         <v>0</v>
       </c>
       <c r="D34" s="6">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="E34" s="6">
         <f t="shared" si="0"/>
-        <v>457600</v>
+        <v>-35651</v>
       </c>
       <c r="F34" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="G34" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="26">
-        <v>44541.606956018521</v>
+      <c r="B35" s="33">
+        <v>44600</v>
       </c>
       <c r="C35" s="6">
         <v>0</v>
       </c>
       <c r="D35" s="6">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="E35" s="6">
         <f t="shared" si="0"/>
-        <v>447600</v>
+        <v>-43651</v>
       </c>
       <c r="F35" t="s">
-        <v>61</v>
+        <v>220</v>
       </c>
       <c r="G35" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="26">
-        <v>44541.87226851852</v>
+      <c r="B36" s="33">
+        <v>44600</v>
       </c>
       <c r="C36" s="6">
         <v>0</v>
       </c>
       <c r="D36" s="6">
-        <v>33000</v>
+        <v>23580</v>
       </c>
       <c r="E36" s="6">
         <f t="shared" si="0"/>
-        <v>414600</v>
+        <v>-67231</v>
       </c>
       <c r="F36" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="G36" t="s">
-        <v>17</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="26">
-        <v>44541.447511574072</v>
-      </c>
-      <c r="C37" s="6">
-        <v>0</v>
-      </c>
-      <c r="D37" s="6">
-        <v>20000</v>
-      </c>
       <c r="E37" s="6">
         <f t="shared" si="0"/>
-        <v>394600</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
-      </c>
-      <c r="G37" t="s">
-        <v>23</v>
+        <v>-67231</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="26">
-        <v>44542.524340277778</v>
-      </c>
-      <c r="C38" s="6">
-        <v>0</v>
-      </c>
-      <c r="D38" s="6">
-        <v>100000</v>
-      </c>
       <c r="E38" s="6">
         <f t="shared" si="0"/>
-        <v>294600</v>
-      </c>
-      <c r="F38" t="s">
-        <v>128</v>
-      </c>
-      <c r="G38" t="s">
-        <v>135</v>
+        <v>-67231</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="26">
-        <v>44542.404386574075</v>
-      </c>
-      <c r="C39" s="6">
-        <v>0</v>
-      </c>
-      <c r="D39" s="6">
-        <v>10000</v>
-      </c>
       <c r="E39" s="6">
         <f t="shared" si="0"/>
-        <v>284600</v>
-      </c>
-      <c r="F39" t="s">
-        <v>61</v>
-      </c>
-      <c r="G39" t="s">
-        <v>17</v>
+        <v>-67231</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="26">
-        <v>44543.570833333331</v>
-      </c>
-      <c r="C40" s="6">
-        <v>0</v>
-      </c>
-      <c r="D40" s="6">
-        <v>90000</v>
-      </c>
       <c r="E40" s="6">
         <f t="shared" si="0"/>
-        <v>194600</v>
-      </c>
-      <c r="F40" t="s">
-        <v>142</v>
-      </c>
-      <c r="G40" t="s">
-        <v>143</v>
+        <v>-67231</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="26">
-        <v>44543.581944444442</v>
-      </c>
-      <c r="C41" s="6">
-        <v>0</v>
-      </c>
-      <c r="D41" s="6">
-        <v>15000</v>
-      </c>
       <c r="E41" s="6">
         <f t="shared" si="0"/>
-        <v>179600</v>
-      </c>
-      <c r="F41" t="s">
-        <v>144</v>
-      </c>
-      <c r="G41" t="s">
-        <v>143</v>
+        <v>-67231</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="26">
-        <v>44545.875</v>
-      </c>
-      <c r="C42" s="6">
-        <v>0</v>
-      </c>
-      <c r="D42" s="6">
-        <v>3000</v>
-      </c>
       <c r="E42" s="6">
         <f t="shared" si="0"/>
-        <v>176600</v>
-      </c>
-      <c r="F42" t="s">
-        <v>145</v>
-      </c>
-      <c r="G42" t="s">
-        <v>23</v>
+        <v>-67231</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="26">
-        <v>44546.416666666664</v>
-      </c>
-      <c r="C43" s="6">
-        <v>0</v>
-      </c>
-      <c r="D43" s="6">
-        <v>3000</v>
-      </c>
       <c r="E43" s="6">
         <f t="shared" si="0"/>
-        <v>173600</v>
-      </c>
-      <c r="F43" t="s">
-        <v>145</v>
-      </c>
-      <c r="G43" t="s">
-        <v>146</v>
+        <v>-67231</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="26">
-        <v>44546.435879629629</v>
-      </c>
-      <c r="C44" s="6">
-        <v>0</v>
-      </c>
-      <c r="D44" s="6">
-        <v>100000</v>
-      </c>
       <c r="E44" s="6">
         <f t="shared" si="0"/>
-        <v>73600</v>
-      </c>
-      <c r="F44" t="s">
-        <v>128</v>
-      </c>
-      <c r="G44" t="s">
-        <v>17</v>
+        <v>-67231</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B45" s="26">
-        <v>44546.545497685183</v>
-      </c>
-      <c r="C45" s="6">
-        <v>0</v>
-      </c>
-      <c r="D45" s="6">
-        <v>10000</v>
-      </c>
       <c r="E45" s="6">
         <f t="shared" si="0"/>
-        <v>63600</v>
-      </c>
-      <c r="F45" t="s">
-        <v>74</v>
-      </c>
-      <c r="G45" t="s">
-        <v>55</v>
+        <v>-67231</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="26">
-        <v>44547.502129629633</v>
-      </c>
-      <c r="C46" s="6">
-        <v>600000</v>
-      </c>
-      <c r="D46" s="6">
-        <v>494350</v>
-      </c>
       <c r="E46" s="6">
         <f t="shared" si="0"/>
-        <v>169250</v>
-      </c>
-      <c r="F46" t="s">
-        <v>147</v>
-      </c>
-      <c r="G46" t="s">
-        <v>17</v>
+        <v>-67231</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B47" s="26">
-        <v>44547.359027777777</v>
-      </c>
-      <c r="C47" s="6">
-        <v>0</v>
-      </c>
-      <c r="D47" s="6">
-        <v>39000</v>
-      </c>
       <c r="E47" s="6">
         <f t="shared" si="0"/>
-        <v>130250</v>
-      </c>
-      <c r="F47" t="s">
-        <v>148</v>
-      </c>
-      <c r="G47" t="s">
-        <v>17</v>
+        <v>-67231</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B48" s="26">
-        <v>44548.861145833333</v>
-      </c>
-      <c r="C48" s="6">
-        <v>0</v>
-      </c>
-      <c r="D48" s="6">
-        <v>100000</v>
-      </c>
       <c r="E48" s="6">
         <f t="shared" si="0"/>
-        <v>30250</v>
-      </c>
-      <c r="F48" t="s">
-        <v>128</v>
-      </c>
-      <c r="G48" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B49" s="26">
-        <v>44549.40902777778</v>
-      </c>
-      <c r="C49" s="6">
-        <v>0</v>
-      </c>
-      <c r="D49" s="6">
-        <v>10000</v>
-      </c>
+        <v>-67231</v>
+      </c>
+    </row>
+    <row r="49" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E49" s="6">
         <f t="shared" si="0"/>
-        <v>20250</v>
-      </c>
-      <c r="F49" t="s">
-        <v>61</v>
-      </c>
-      <c r="G49" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="26">
-        <v>44551.404861111114</v>
-      </c>
-      <c r="C50" s="6">
-        <v>0</v>
-      </c>
-      <c r="D50" s="6">
-        <v>16000</v>
-      </c>
+        <v>-67231</v>
+      </c>
+    </row>
+    <row r="50" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E50" s="6">
         <f t="shared" si="0"/>
-        <v>4250</v>
-      </c>
-      <c r="F50" t="s">
-        <v>149</v>
-      </c>
-      <c r="G50" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="26">
-        <v>44552.666666666664</v>
-      </c>
-      <c r="C51" s="6">
-        <v>200000</v>
-      </c>
-      <c r="D51" s="6">
-        <v>0</v>
-      </c>
+        <v>-67231</v>
+      </c>
+    </row>
+    <row r="51" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E51" s="6">
         <f t="shared" si="0"/>
-        <v>204250</v>
-      </c>
-      <c r="F51" t="s">
-        <v>152</v>
-      </c>
-      <c r="G51" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B52" s="26">
-        <v>44552.730555555558</v>
-      </c>
-      <c r="C52" s="6">
-        <v>0</v>
-      </c>
-      <c r="D52" s="6">
-        <v>67500</v>
-      </c>
+        <v>-67231</v>
+      </c>
+    </row>
+    <row r="52" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E52" s="6">
         <f t="shared" si="0"/>
-        <v>136750</v>
-      </c>
-      <c r="F52" t="s">
-        <v>153</v>
-      </c>
-      <c r="G52" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B53" s="26">
-        <v>44552.870833333334</v>
-      </c>
-      <c r="D53" s="6">
-        <v>20000</v>
-      </c>
+        <v>-67231</v>
+      </c>
+    </row>
+    <row r="53" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E53" s="6">
         <f t="shared" si="0"/>
-        <v>116750</v>
-      </c>
-      <c r="F53" t="s">
-        <v>74</v>
-      </c>
-      <c r="G53" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B54" s="26">
-        <v>44552.88181712963</v>
-      </c>
-      <c r="D54" s="6">
-        <v>100000</v>
-      </c>
+        <v>-67231</v>
+      </c>
+    </row>
+    <row r="54" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E54" s="6">
         <f t="shared" si="0"/>
-        <v>16750</v>
-      </c>
-      <c r="F54" t="s">
-        <v>128</v>
-      </c>
-      <c r="G54" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B55" s="26">
-        <v>44554.500567129631</v>
-      </c>
-      <c r="C55" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="D55" s="6">
-        <v>0</v>
-      </c>
+        <v>-67231</v>
+      </c>
+    </row>
+    <row r="55" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E55" s="6">
         <f t="shared" si="0"/>
-        <v>1016750</v>
-      </c>
-      <c r="F55" t="s">
-        <v>152</v>
-      </c>
-      <c r="G55" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B56" s="26">
-        <v>44554.524710648147</v>
-      </c>
-      <c r="C56" s="6">
-        <v>0</v>
-      </c>
-      <c r="D56" s="6">
-        <v>665000</v>
-      </c>
+        <v>-67231</v>
+      </c>
+    </row>
+    <row r="56" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E56" s="6">
         <f t="shared" si="0"/>
-        <v>351750</v>
-      </c>
-      <c r="F56" t="s">
-        <v>156</v>
-      </c>
-      <c r="G56" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B57" s="26">
-        <v>44554.695416666669</v>
-      </c>
-      <c r="C57" s="6">
-        <v>0</v>
-      </c>
-      <c r="D57" s="6">
-        <v>10000</v>
-      </c>
+        <v>-67231</v>
+      </c>
+    </row>
+    <row r="57" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E57" s="6">
         <f t="shared" si="0"/>
-        <v>341750</v>
-      </c>
-      <c r="F57" t="s">
-        <v>61</v>
-      </c>
-      <c r="G57" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B58" s="26">
-        <v>44555.373229166667</v>
-      </c>
-      <c r="C58" s="6">
-        <v>0</v>
-      </c>
-      <c r="D58" s="6">
-        <v>10000</v>
-      </c>
+        <v>-67231</v>
+      </c>
+    </row>
+    <row r="58" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E58" s="6">
         <f t="shared" si="0"/>
-        <v>331750</v>
-      </c>
-      <c r="F58" t="s">
-        <v>61</v>
-      </c>
-      <c r="G58" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B59" s="26">
-        <v>44555.510868055557</v>
-      </c>
-      <c r="C59" s="6">
-        <v>0</v>
-      </c>
-      <c r="D59" s="6">
-        <v>90000</v>
-      </c>
+        <v>-67231</v>
+      </c>
+    </row>
+    <row r="59" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E59" s="6">
         <f t="shared" si="0"/>
-        <v>241750</v>
-      </c>
-      <c r="F59" t="s">
-        <v>128</v>
-      </c>
-      <c r="G59" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B60" s="26">
-        <v>44556.393194444441</v>
-      </c>
-      <c r="C60" s="6">
-        <v>0</v>
-      </c>
-      <c r="D60" s="6">
-        <v>10000</v>
-      </c>
+        <v>-67231</v>
+      </c>
+    </row>
+    <row r="60" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E60" s="6">
         <f t="shared" si="0"/>
-        <v>231750</v>
-      </c>
-      <c r="F60" t="s">
-        <v>61</v>
-      </c>
-      <c r="G60" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B61" s="26">
-        <v>44556.27270833333</v>
-      </c>
-      <c r="C61" s="6">
-        <v>0</v>
-      </c>
-      <c r="D61" s="6">
-        <v>20000</v>
-      </c>
+        <v>-67231</v>
+      </c>
+    </row>
+    <row r="61" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E61" s="6">
         <f t="shared" si="0"/>
-        <v>211750</v>
-      </c>
-      <c r="F61" t="s">
-        <v>74</v>
-      </c>
-      <c r="G61" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B62" s="26">
-        <v>44556.652314814812</v>
-      </c>
-      <c r="C62" s="6">
-        <v>0</v>
-      </c>
-      <c r="D62" s="6">
-        <v>200000</v>
-      </c>
+        <v>-67231</v>
+      </c>
+    </row>
+    <row r="62" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E62" s="6">
         <f t="shared" si="0"/>
-        <v>11750</v>
-      </c>
-      <c r="F62" t="s">
-        <v>128</v>
-      </c>
-      <c r="G62" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B63" s="26">
-        <v>44556.895833333336</v>
-      </c>
-      <c r="C63" s="6">
-        <v>0</v>
-      </c>
-      <c r="D63" s="6">
-        <v>10000</v>
-      </c>
+        <v>-67231</v>
+      </c>
+    </row>
+    <row r="63" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E63" s="6">
         <f t="shared" si="0"/>
-        <v>1750</v>
-      </c>
-      <c r="F63" t="s">
-        <v>66</v>
-      </c>
-      <c r="G63" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+        <v>-67231</v>
+      </c>
+    </row>
+    <row r="64" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E64" s="6">
         <f t="shared" si="0"/>
-        <v>1750</v>
+        <v>-67231</v>
       </c>
     </row>
     <row r="65" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E65" s="6">
         <f t="shared" si="0"/>
-        <v>1750</v>
-      </c>
-    </row>
-    <row r="66" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E66" s="6">
-        <f t="shared" si="0"/>
-        <v>1750</v>
-      </c>
-    </row>
-    <row r="67" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E67" s="6">
-        <f t="shared" si="0"/>
-        <v>1750</v>
-      </c>
-    </row>
-    <row r="68" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E68" s="6">
-        <f t="shared" si="0"/>
-        <v>1750</v>
-      </c>
-    </row>
-    <row r="69" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E69" s="6">
-        <f t="shared" si="0"/>
-        <v>1750</v>
-      </c>
-    </row>
-    <row r="70" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E70" s="6">
-        <f t="shared" si="0"/>
-        <v>1750</v>
-      </c>
-    </row>
-    <row r="71" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E71" s="6">
-        <f t="shared" si="0"/>
-        <v>1750</v>
-      </c>
-    </row>
-    <row r="72" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E72" s="6">
-        <f t="shared" si="0"/>
-        <v>1750</v>
-      </c>
-    </row>
-    <row r="73" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E73" s="6">
-        <f t="shared" si="0"/>
-        <v>1750</v>
-      </c>
-    </row>
-    <row r="74" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E74" s="6">
-        <f t="shared" si="0"/>
-        <v>1750</v>
-      </c>
-    </row>
-    <row r="75" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E75" s="6">
-        <f t="shared" si="0"/>
-        <v>1750</v>
-      </c>
-    </row>
-    <row r="76" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E76" s="6">
-        <f t="shared" si="0"/>
-        <v>1750</v>
-      </c>
-    </row>
-    <row r="77" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E77" s="6">
-        <f t="shared" si="0"/>
-        <v>1750</v>
-      </c>
-    </row>
-    <row r="78" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E78" s="6">
-        <f t="shared" ref="E78:E94" si="1">E77+C78-D78</f>
-        <v>1750</v>
-      </c>
-    </row>
-    <row r="79" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E79" s="6">
-        <f t="shared" si="1"/>
-        <v>1750</v>
-      </c>
-    </row>
-    <row r="80" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E80" s="6">
-        <f t="shared" si="1"/>
-        <v>1750</v>
-      </c>
-    </row>
-    <row r="81" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E81" s="6">
-        <f t="shared" si="1"/>
-        <v>1750</v>
-      </c>
-    </row>
-    <row r="82" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E82" s="6">
-        <f t="shared" si="1"/>
-        <v>1750</v>
-      </c>
-    </row>
-    <row r="83" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E83" s="6">
-        <f t="shared" si="1"/>
-        <v>1750</v>
-      </c>
-    </row>
-    <row r="84" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E84" s="6">
-        <f t="shared" si="1"/>
-        <v>1750</v>
-      </c>
-    </row>
-    <row r="85" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E85" s="6">
-        <f t="shared" si="1"/>
-        <v>1750</v>
-      </c>
-    </row>
-    <row r="86" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E86" s="6">
-        <f t="shared" si="1"/>
-        <v>1750</v>
-      </c>
-    </row>
-    <row r="87" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E87" s="6">
-        <f t="shared" si="1"/>
-        <v>1750</v>
-      </c>
-    </row>
-    <row r="88" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E88" s="6">
-        <f t="shared" si="1"/>
-        <v>1750</v>
-      </c>
-    </row>
-    <row r="89" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E89" s="6">
-        <f t="shared" si="1"/>
-        <v>1750</v>
-      </c>
-    </row>
-    <row r="90" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E90" s="6">
-        <f t="shared" si="1"/>
-        <v>1750</v>
-      </c>
-    </row>
-    <row r="91" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E91" s="6">
-        <f t="shared" si="1"/>
-        <v>1750</v>
-      </c>
-    </row>
-    <row r="92" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E92" s="6">
-        <f t="shared" si="1"/>
-        <v>1750</v>
-      </c>
-    </row>
-    <row r="93" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E93" s="6">
-        <f t="shared" si="1"/>
-        <v>1750</v>
-      </c>
-    </row>
-    <row r="94" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E94" s="6">
-        <f t="shared" si="1"/>
-        <v>1750</v>
+        <v>-67231</v>
       </c>
     </row>
   </sheetData>

--- a/rekap data uang kas kecil - asrama.xlsx
+++ b/rekap data uang kas kecil - asrama.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yofandi Riki Winata\Documents\yofandi\rekap data - uang galon, parkir, bumbu asrama\uangasrama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BFAFCE6-C13F-400F-9C84-D327CFE576D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B05B2AF-1002-4175-909B-F37B37B26678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="4" xr2:uid="{C456B771-9DF8-4725-AC5F-E2624C050843}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="234">
   <si>
     <t>Kas Kecil - Asrama STTHF</t>
   </si>
@@ -708,6 +708,39 @@
   </si>
   <si>
     <t>yofandi sama irene sama patrick</t>
+  </si>
+  <si>
+    <t>uang masuk ke kas kecil</t>
+  </si>
+  <si>
+    <t>uang beli galon aqua 9 galon</t>
+  </si>
+  <si>
+    <t>uang beli betadin</t>
+  </si>
+  <si>
+    <t>uang ganti ban dalam motor</t>
+  </si>
+  <si>
+    <t>hosea sama elyakim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uang masuk ke kas kecil asrama </t>
+  </si>
+  <si>
+    <t>uang ngisi ban motor</t>
+  </si>
+  <si>
+    <t>uang beli beras 25kg</t>
+  </si>
+  <si>
+    <t>uang beli galon aqua 4 galon</t>
+  </si>
+  <si>
+    <t>uang masuk prima radio</t>
+  </si>
+  <si>
+    <t>uang beli tabung gas elpiji 3kg 2 tabung</t>
   </si>
 </sst>
 </file>
@@ -8382,10 +8415,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{134DA075-3EEA-49FD-A26F-3260CD6C0D89}">
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8555,7 +8588,7 @@
         <v>7000</v>
       </c>
       <c r="E12" s="6">
-        <f t="shared" ref="E12:E65" si="0">E11+C12-D12</f>
+        <f t="shared" ref="E12:E67" si="0">E11+C12-D12</f>
         <v>-38051</v>
       </c>
       <c r="F12" t="s">
@@ -8567,23 +8600,23 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" s="33">
-        <v>44595</v>
+        <v>44594</v>
       </c>
       <c r="C13" s="6">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="D13" s="6">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="E13" s="6">
         <f t="shared" si="0"/>
-        <v>461949</v>
+        <v>-98051</v>
       </c>
       <c r="F13" t="s">
-        <v>164</v>
+        <v>66</v>
       </c>
       <c r="G13" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -8591,17 +8624,17 @@
         <v>44595</v>
       </c>
       <c r="C14" s="6">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="D14" s="6">
-        <v>38000</v>
+        <v>0</v>
       </c>
       <c r="E14" s="6">
         <f t="shared" si="0"/>
-        <v>423949</v>
+        <v>401949</v>
       </c>
       <c r="F14" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G14" t="s">
         <v>23</v>
@@ -8615,14 +8648,14 @@
         <v>0</v>
       </c>
       <c r="D15" s="6">
-        <v>120000</v>
+        <v>38000</v>
       </c>
       <c r="E15" s="6">
         <f t="shared" si="0"/>
-        <v>303949</v>
+        <v>363949</v>
       </c>
       <c r="F15" t="s">
-        <v>211</v>
+        <v>168</v>
       </c>
       <c r="G15" t="s">
         <v>23</v>
@@ -8636,14 +8669,14 @@
         <v>0</v>
       </c>
       <c r="D16" s="6">
-        <v>67000</v>
+        <v>120000</v>
       </c>
       <c r="E16" s="6">
         <f t="shared" si="0"/>
-        <v>236949</v>
+        <v>243949</v>
       </c>
       <c r="F16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G16" t="s">
         <v>23</v>
@@ -8657,17 +8690,17 @@
         <v>0</v>
       </c>
       <c r="D17" s="6">
-        <v>83000</v>
+        <v>67000</v>
       </c>
       <c r="E17" s="6">
         <f t="shared" si="0"/>
-        <v>153949</v>
+        <v>176949</v>
       </c>
       <c r="F17" t="s">
-        <v>121</v>
+        <v>212</v>
       </c>
       <c r="G17" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
@@ -8678,35 +8711,35 @@
         <v>0</v>
       </c>
       <c r="D18" s="6">
-        <v>100000</v>
+        <v>83000</v>
       </c>
       <c r="E18" s="6">
         <f t="shared" si="0"/>
-        <v>53949</v>
+        <v>93949</v>
       </c>
       <c r="F18" t="s">
-        <v>213</v>
+        <v>121</v>
       </c>
       <c r="G18" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="33">
-        <v>44596</v>
+        <v>44595</v>
       </c>
       <c r="C19" s="6">
-        <v>250000</v>
+        <v>0</v>
       </c>
       <c r="D19" s="6">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="E19" s="6">
         <f t="shared" si="0"/>
-        <v>303949</v>
+        <v>-6051</v>
       </c>
       <c r="F19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G19" t="s">
         <v>17</v>
@@ -8717,17 +8750,17 @@
         <v>44596</v>
       </c>
       <c r="C20" s="6">
-        <v>0</v>
+        <v>250000</v>
       </c>
       <c r="D20" s="6">
-        <v>125600</v>
+        <v>0</v>
       </c>
       <c r="E20" s="6">
         <f t="shared" si="0"/>
-        <v>178349</v>
+        <v>243949</v>
       </c>
       <c r="F20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G20" t="s">
         <v>17</v>
@@ -8741,14 +8774,14 @@
         <v>0</v>
       </c>
       <c r="D21" s="6">
-        <v>74000</v>
+        <v>125600</v>
       </c>
       <c r="E21" s="6">
         <f t="shared" si="0"/>
-        <v>104349</v>
+        <v>118349</v>
       </c>
       <c r="F21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G21" t="s">
         <v>17</v>
@@ -8762,14 +8795,14 @@
         <v>0</v>
       </c>
       <c r="D22" s="6">
-        <v>15000</v>
+        <v>74000</v>
       </c>
       <c r="E22" s="6">
         <f t="shared" si="0"/>
-        <v>89349</v>
+        <v>44349</v>
       </c>
       <c r="F22" t="s">
-        <v>66</v>
+        <v>216</v>
       </c>
       <c r="G22" t="s">
         <v>17</v>
@@ -8777,20 +8810,23 @@
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="33">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="C23" s="6">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="D23" s="6">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="E23" s="6">
         <f t="shared" si="0"/>
-        <v>289349</v>
+        <v>29349</v>
       </c>
       <c r="F23" t="s">
-        <v>214</v>
+        <v>66</v>
+      </c>
+      <c r="G23" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
@@ -8798,20 +8834,17 @@
         <v>44597</v>
       </c>
       <c r="C24" s="6">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="D24" s="6">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="E24" s="6">
         <f t="shared" si="0"/>
-        <v>189349</v>
+        <v>229349</v>
       </c>
       <c r="F24" t="s">
-        <v>163</v>
-      </c>
-      <c r="G24" t="s">
-        <v>17</v>
+        <v>214</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
@@ -8822,11 +8855,11 @@
         <v>0</v>
       </c>
       <c r="D25" s="6">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="E25" s="6">
         <f t="shared" si="0"/>
-        <v>139349</v>
+        <v>129349</v>
       </c>
       <c r="F25" t="s">
         <v>163</v>
@@ -8843,11 +8876,11 @@
         <v>0</v>
       </c>
       <c r="D26" s="6">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="E26" s="6">
         <f t="shared" si="0"/>
-        <v>99349</v>
+        <v>79349</v>
       </c>
       <c r="F26" t="s">
         <v>163</v>
@@ -8864,14 +8897,14 @@
         <v>0</v>
       </c>
       <c r="D27" s="6">
-        <v>8000</v>
+        <v>40000</v>
       </c>
       <c r="E27" s="6">
         <f t="shared" si="0"/>
-        <v>91349</v>
+        <v>39349</v>
       </c>
       <c r="F27" t="s">
-        <v>66</v>
+        <v>163</v>
       </c>
       <c r="G27" t="s">
         <v>17</v>
@@ -8885,11 +8918,11 @@
         <v>0</v>
       </c>
       <c r="D28" s="6">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="E28" s="6">
         <f t="shared" si="0"/>
-        <v>81349</v>
+        <v>31349</v>
       </c>
       <c r="F28" t="s">
         <v>66</v>
@@ -8900,7 +8933,7 @@
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="33">
-        <v>44598</v>
+        <v>44597</v>
       </c>
       <c r="C29" s="6">
         <v>0</v>
@@ -8910,10 +8943,10 @@
       </c>
       <c r="E29" s="6">
         <f t="shared" si="0"/>
-        <v>71349</v>
+        <v>21349</v>
       </c>
       <c r="F29" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="G29" t="s">
         <v>17</v>
@@ -8927,17 +8960,17 @@
         <v>0</v>
       </c>
       <c r="D30" s="6">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="E30" s="6">
         <f t="shared" si="0"/>
-        <v>59349</v>
+        <v>11349</v>
       </c>
       <c r="F30" t="s">
-        <v>217</v>
+        <v>61</v>
       </c>
       <c r="G30" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
@@ -8948,38 +8981,38 @@
         <v>0</v>
       </c>
       <c r="D31" s="6">
-        <v>30000</v>
+        <v>12000</v>
       </c>
       <c r="E31" s="6">
         <f t="shared" si="0"/>
-        <v>29349</v>
+        <v>-651</v>
       </c>
       <c r="F31" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G31" t="s">
-        <v>222</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="33">
-        <v>44599</v>
+        <v>44598</v>
       </c>
       <c r="C32" s="6">
         <v>0</v>
       </c>
       <c r="D32" s="6">
-        <v>18000</v>
+        <v>30000</v>
       </c>
       <c r="E32" s="6">
         <f t="shared" si="0"/>
-        <v>11349</v>
+        <v>-30651</v>
       </c>
       <c r="F32" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="G32" t="s">
-        <v>23</v>
+        <v>222</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
@@ -8990,14 +9023,14 @@
         <v>0</v>
       </c>
       <c r="D33" s="6">
-        <v>36000</v>
+        <v>18000</v>
       </c>
       <c r="E33" s="6">
         <f t="shared" si="0"/>
-        <v>-24651</v>
+        <v>-48651</v>
       </c>
       <c r="F33" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G33" t="s">
         <v>23</v>
@@ -9011,38 +9044,38 @@
         <v>0</v>
       </c>
       <c r="D34" s="6">
-        <v>11000</v>
+        <v>36000</v>
       </c>
       <c r="E34" s="6">
         <f t="shared" si="0"/>
-        <v>-35651</v>
+        <v>-84651</v>
       </c>
       <c r="F34" t="s">
-        <v>168</v>
+        <v>219</v>
       </c>
       <c r="G34" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="33">
-        <v>44600</v>
+        <v>44599</v>
       </c>
       <c r="C35" s="6">
         <v>0</v>
       </c>
       <c r="D35" s="6">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="E35" s="6">
         <f t="shared" si="0"/>
-        <v>-43651</v>
+        <v>-95651</v>
       </c>
       <c r="F35" t="s">
-        <v>220</v>
+        <v>168</v>
       </c>
       <c r="G35" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
@@ -9053,191 +9086,578 @@
         <v>0</v>
       </c>
       <c r="D36" s="6">
+        <v>8000</v>
+      </c>
+      <c r="E36" s="6">
+        <f t="shared" si="0"/>
+        <v>-103651</v>
+      </c>
+      <c r="F36" t="s">
+        <v>220</v>
+      </c>
+      <c r="G36" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="33">
+        <v>44600</v>
+      </c>
+      <c r="C37" s="6">
+        <v>0</v>
+      </c>
+      <c r="D37" s="6">
         <v>23580</v>
       </c>
-      <c r="E36" s="6">
-        <f t="shared" si="0"/>
-        <v>-67231</v>
-      </c>
-      <c r="F36" t="s">
+      <c r="E37" s="6">
+        <f t="shared" si="0"/>
+        <v>-127231</v>
+      </c>
+      <c r="F37" t="s">
         <v>168</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G37" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E37" s="6">
-        <f t="shared" si="0"/>
-        <v>-67231</v>
-      </c>
-    </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="33">
+        <v>44601</v>
+      </c>
+      <c r="C38" s="6">
+        <v>0</v>
+      </c>
+      <c r="D38" s="6">
+        <v>38000</v>
+      </c>
       <c r="E38" s="6">
         <f t="shared" si="0"/>
-        <v>-67231</v>
+        <v>-165231</v>
+      </c>
+      <c r="F38" t="s">
+        <v>201</v>
+      </c>
+      <c r="G38" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="33">
+        <v>44601</v>
+      </c>
+      <c r="C39" s="6">
+        <v>0</v>
+      </c>
+      <c r="D39" s="6">
+        <v>50000</v>
+      </c>
       <c r="E39" s="6">
         <f t="shared" si="0"/>
-        <v>-67231</v>
+        <v>-215231</v>
+      </c>
+      <c r="F39" t="s">
+        <v>213</v>
+      </c>
+      <c r="G39" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="33">
+        <v>44602</v>
+      </c>
+      <c r="C40" s="6">
+        <v>150000</v>
+      </c>
+      <c r="D40" s="6">
+        <v>0</v>
+      </c>
       <c r="E40" s="6">
         <f t="shared" si="0"/>
-        <v>-67231</v>
+        <v>-65231</v>
+      </c>
+      <c r="F40" t="s">
+        <v>223</v>
+      </c>
+      <c r="G40" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="33">
+        <v>44602</v>
+      </c>
+      <c r="C41" s="6">
+        <v>0</v>
+      </c>
+      <c r="D41" s="6">
+        <v>75000</v>
+      </c>
       <c r="E41" s="6">
         <f t="shared" si="0"/>
-        <v>-67231</v>
+        <v>-140231</v>
+      </c>
+      <c r="F41" t="s">
+        <v>224</v>
+      </c>
+      <c r="G41" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="33">
+        <v>44602</v>
+      </c>
+      <c r="C42" s="6">
+        <v>0</v>
+      </c>
+      <c r="D42" s="6">
+        <v>27000</v>
+      </c>
       <c r="E42" s="6">
         <f t="shared" si="0"/>
-        <v>-67231</v>
+        <v>-167231</v>
+      </c>
+      <c r="F42" t="s">
+        <v>225</v>
+      </c>
+      <c r="G42" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="33">
+        <v>44603</v>
+      </c>
+      <c r="C43" s="6">
+        <v>0</v>
+      </c>
+      <c r="D43" s="6">
+        <v>45000</v>
+      </c>
       <c r="E43" s="6">
         <f t="shared" si="0"/>
-        <v>-67231</v>
+        <v>-212231</v>
+      </c>
+      <c r="F43" t="s">
+        <v>226</v>
+      </c>
+      <c r="G43" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="33">
+        <v>44603</v>
+      </c>
+      <c r="C44" s="6">
+        <v>0</v>
+      </c>
+      <c r="D44" s="6">
+        <v>100000</v>
+      </c>
       <c r="E44" s="6">
         <f t="shared" si="0"/>
-        <v>-67231</v>
+        <v>-312231</v>
+      </c>
+      <c r="F44" t="s">
+        <v>213</v>
+      </c>
+      <c r="G44" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="33">
+        <v>44603</v>
+      </c>
+      <c r="C45" s="6">
+        <v>0</v>
+      </c>
+      <c r="D45" s="6">
+        <v>18000</v>
+      </c>
       <c r="E45" s="6">
         <f t="shared" si="0"/>
-        <v>-67231</v>
+        <v>-330231</v>
+      </c>
+      <c r="F45" t="s">
+        <v>168</v>
+      </c>
+      <c r="G45" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46" s="33">
+        <v>44603</v>
+      </c>
+      <c r="C46" s="6">
+        <v>100000</v>
+      </c>
+      <c r="D46" s="6">
+        <v>0</v>
+      </c>
       <c r="E46" s="6">
         <f t="shared" si="0"/>
-        <v>-67231</v>
+        <v>-230231</v>
+      </c>
+      <c r="F46" t="s">
+        <v>228</v>
+      </c>
+      <c r="G46" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47" s="33">
+        <v>44603</v>
+      </c>
+      <c r="C47" s="6">
+        <v>0</v>
+      </c>
+      <c r="D47" s="6">
+        <v>2000</v>
+      </c>
       <c r="E47" s="6">
         <f t="shared" si="0"/>
-        <v>-67231</v>
+        <v>-232231</v>
+      </c>
+      <c r="F47" t="s">
+        <v>229</v>
+      </c>
+      <c r="G47" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48" s="33">
+        <v>44603</v>
+      </c>
+      <c r="C48" s="6">
+        <v>0</v>
+      </c>
+      <c r="D48" s="6">
+        <v>3000</v>
+      </c>
       <c r="E48" s="6">
         <f t="shared" si="0"/>
-        <v>-67231</v>
-      </c>
-    </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.25">
+        <v>-235231</v>
+      </c>
+      <c r="F48" t="s">
+        <v>159</v>
+      </c>
+      <c r="G48" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="33">
+        <v>44605</v>
+      </c>
+      <c r="C49" s="6">
+        <v>0</v>
+      </c>
+      <c r="D49" s="6">
+        <v>48000</v>
+      </c>
       <c r="E49" s="6">
         <f t="shared" si="0"/>
-        <v>-67231</v>
-      </c>
-    </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.25">
+        <v>-283231</v>
+      </c>
+      <c r="F49" t="s">
+        <v>198</v>
+      </c>
+      <c r="G49" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50" s="33">
+        <v>44605</v>
+      </c>
+      <c r="C50" s="6">
+        <v>0</v>
+      </c>
+      <c r="D50" s="6">
+        <v>10000</v>
+      </c>
       <c r="E50" s="6">
         <f t="shared" si="0"/>
-        <v>-67231</v>
-      </c>
-    </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.25">
+        <v>-293231</v>
+      </c>
+      <c r="F50" t="s">
+        <v>61</v>
+      </c>
+      <c r="G50" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51" s="33">
+        <v>44605</v>
+      </c>
+      <c r="C51" s="6">
+        <v>0</v>
+      </c>
+      <c r="D51" s="6">
+        <v>25000</v>
+      </c>
       <c r="E51" s="6">
         <f t="shared" si="0"/>
-        <v>-67231</v>
-      </c>
-    </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.25">
+        <v>-318231</v>
+      </c>
+      <c r="F51" t="s">
+        <v>168</v>
+      </c>
+      <c r="G51" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B52" s="33">
+        <v>44605</v>
+      </c>
+      <c r="C52" s="6">
+        <v>0</v>
+      </c>
+      <c r="D52" s="6">
+        <v>50000</v>
+      </c>
       <c r="E52" s="6">
         <f t="shared" si="0"/>
-        <v>-67231</v>
-      </c>
-    </row>
-    <row r="53" spans="5:5" x14ac:dyDescent="0.25">
+        <v>-368231</v>
+      </c>
+      <c r="F52" t="s">
+        <v>213</v>
+      </c>
+      <c r="G52" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B53" s="33">
+        <v>44605</v>
+      </c>
+      <c r="C53" s="6">
+        <v>200000</v>
+      </c>
+      <c r="D53" s="6">
+        <v>0</v>
+      </c>
       <c r="E53" s="6">
         <f t="shared" si="0"/>
-        <v>-67231</v>
-      </c>
-    </row>
-    <row r="54" spans="5:5" x14ac:dyDescent="0.25">
+        <v>-168231</v>
+      </c>
+      <c r="F53" t="s">
+        <v>228</v>
+      </c>
+      <c r="G53" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B54" s="33">
+        <v>44606</v>
+      </c>
+      <c r="C54" s="6">
+        <v>750000</v>
+      </c>
+      <c r="D54" s="6">
+        <v>0</v>
+      </c>
       <c r="E54" s="6">
         <f t="shared" si="0"/>
-        <v>-67231</v>
-      </c>
-    </row>
-    <row r="55" spans="5:5" x14ac:dyDescent="0.25">
+        <v>581769</v>
+      </c>
+      <c r="F54" t="s">
+        <v>228</v>
+      </c>
+      <c r="G54" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B55" s="33">
+        <v>44606</v>
+      </c>
+      <c r="C55" s="6">
+        <v>0</v>
+      </c>
+      <c r="D55" s="6">
+        <v>245000</v>
+      </c>
       <c r="E55" s="6">
         <f t="shared" si="0"/>
-        <v>-67231</v>
-      </c>
-    </row>
-    <row r="56" spans="5:5" x14ac:dyDescent="0.25">
+        <v>336769</v>
+      </c>
+      <c r="F55" t="s">
+        <v>230</v>
+      </c>
+      <c r="G55" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B56" s="33">
+        <v>44606</v>
+      </c>
+      <c r="C56" s="6">
+        <v>0</v>
+      </c>
+      <c r="D56" s="6">
+        <v>245000</v>
+      </c>
       <c r="E56" s="6">
         <f t="shared" si="0"/>
-        <v>-67231</v>
-      </c>
-    </row>
-    <row r="57" spans="5:5" x14ac:dyDescent="0.25">
+        <v>91769</v>
+      </c>
+      <c r="F56" t="s">
+        <v>230</v>
+      </c>
+      <c r="G56" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B57" s="33">
+        <v>44606</v>
+      </c>
+      <c r="C57" s="6">
+        <v>0</v>
+      </c>
+      <c r="D57" s="6">
+        <v>3000</v>
+      </c>
       <c r="E57" s="6">
         <f t="shared" si="0"/>
-        <v>-67231</v>
-      </c>
-    </row>
-    <row r="58" spans="5:5" x14ac:dyDescent="0.25">
+        <v>88769</v>
+      </c>
+      <c r="F57" t="s">
+        <v>159</v>
+      </c>
+      <c r="G57" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B58" s="33">
+        <v>44607</v>
+      </c>
+      <c r="C58" s="6">
+        <v>0</v>
+      </c>
+      <c r="D58" s="6">
+        <v>32000</v>
+      </c>
       <c r="E58" s="6">
         <f t="shared" si="0"/>
-        <v>-67231</v>
-      </c>
-    </row>
-    <row r="59" spans="5:5" x14ac:dyDescent="0.25">
+        <v>56769</v>
+      </c>
+      <c r="F58" t="s">
+        <v>231</v>
+      </c>
+      <c r="G58" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="33">
+        <v>44607</v>
+      </c>
+      <c r="C59" s="6">
+        <v>0</v>
+      </c>
+      <c r="D59" s="6">
+        <v>50000</v>
+      </c>
       <c r="E59" s="6">
         <f t="shared" si="0"/>
-        <v>-67231</v>
-      </c>
-    </row>
-    <row r="60" spans="5:5" x14ac:dyDescent="0.25">
+        <v>6769</v>
+      </c>
+      <c r="F59" t="s">
+        <v>213</v>
+      </c>
+      <c r="G59" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B60" s="33">
+        <v>44607</v>
+      </c>
+      <c r="C60" s="6">
+        <v>0</v>
+      </c>
+      <c r="D60" s="6">
+        <v>8000</v>
+      </c>
       <c r="E60" s="6">
         <f t="shared" si="0"/>
-        <v>-67231</v>
-      </c>
-    </row>
-    <row r="61" spans="5:5" x14ac:dyDescent="0.25">
+        <v>-1231</v>
+      </c>
+      <c r="F60" t="s">
+        <v>232</v>
+      </c>
+      <c r="G60" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B61" s="33">
+        <v>44607</v>
+      </c>
+      <c r="C61" s="6">
+        <v>0</v>
+      </c>
+      <c r="D61" s="6">
+        <v>32000</v>
+      </c>
       <c r="E61" s="6">
         <f t="shared" si="0"/>
-        <v>-67231</v>
-      </c>
-    </row>
-    <row r="62" spans="5:5" x14ac:dyDescent="0.25">
+        <v>-33231</v>
+      </c>
+      <c r="F61" t="s">
+        <v>233</v>
+      </c>
+      <c r="G61" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E62" s="6">
         <f t="shared" si="0"/>
-        <v>-67231</v>
-      </c>
-    </row>
-    <row r="63" spans="5:5" x14ac:dyDescent="0.25">
+        <v>-33231</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E63" s="6">
         <f t="shared" si="0"/>
-        <v>-67231</v>
-      </c>
-    </row>
-    <row r="64" spans="5:5" x14ac:dyDescent="0.25">
+        <v>-33231</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E64" s="6">
         <f t="shared" si="0"/>
-        <v>-67231</v>
+        <v>-33231</v>
       </c>
     </row>
     <row r="65" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E65" s="6">
         <f t="shared" si="0"/>
-        <v>-67231</v>
+        <v>-33231</v>
+      </c>
+    </row>
+    <row r="66" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E66" s="6">
+        <f t="shared" si="0"/>
+        <v>-33231</v>
+      </c>
+    </row>
+    <row r="67" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E67" s="6">
+        <f t="shared" si="0"/>
+        <v>-33231</v>
       </c>
     </row>
   </sheetData>

--- a/rekap data uang kas kecil - asrama.xlsx
+++ b/rekap data uang kas kecil - asrama.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yofandi Riki Winata\Documents\yofandi\rekap data - uang galon, parkir, bumbu asrama\uangasrama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B05B2AF-1002-4175-909B-F37B37B26678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EDAFDFB-A4AA-4228-90E9-3932F13CDD13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="4" xr2:uid="{C456B771-9DF8-4725-AC5F-E2624C050843}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="237">
   <si>
     <t>Kas Kecil - Asrama STTHF</t>
   </si>
@@ -741,6 +741,15 @@
   </si>
   <si>
     <t>uang beli tabung gas elpiji 3kg 2 tabung</t>
+  </si>
+  <si>
+    <t>uang ganti ban depan dalam motor</t>
+  </si>
+  <si>
+    <t>uang isi nitrogen motor</t>
+  </si>
+  <si>
+    <t>peter</t>
   </si>
 </sst>
 </file>
@@ -805,7 +814,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -872,6 +881,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -901,7 +928,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -978,6 +1005,15 @@
     <xf numFmtId="17" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6586,8 +6622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E32AD99-4A38-4AEE-9F06-FC6D5823ED5A}">
   <dimension ref="A1:J78"/>
   <sheetViews>
-    <sheetView topLeftCell="B59" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView topLeftCell="C68" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76:G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8415,10 +8451,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{134DA075-3EEA-49FD-A26F-3260CD6C0D89}">
-  <dimension ref="A1:G67"/>
+  <dimension ref="A1:J72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="G58" sqref="A58:G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8429,6 +8465,8 @@
     <col min="5" max="5" width="36" style="6" customWidth="1"/>
     <col min="6" max="6" width="27.42578125" customWidth="1"/>
     <col min="7" max="7" width="33.5703125" customWidth="1"/>
+    <col min="8" max="9" width="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -8515,1155 +8553,1587 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="33">
+      <c r="A9" s="54">
+        <f>ROW(A1)</f>
+        <v>1</v>
+      </c>
+      <c r="B9" s="55">
         <v>44593</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="56">
         <v>73949</v>
       </c>
-      <c r="D9" s="6">
-        <v>0</v>
-      </c>
-      <c r="E9" s="6">
+      <c r="D9" s="56">
+        <v>0</v>
+      </c>
+      <c r="E9" s="56">
         <f>C9-D9</f>
         <v>73949</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="54" t="s">
         <v>207</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="54" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="33">
+      <c r="A10" s="54">
+        <f t="shared" ref="A10:A69" si="0">ROW(A2)</f>
+        <v>2</v>
+      </c>
+      <c r="B10" s="55">
         <v>44593</v>
       </c>
-      <c r="C10" s="6">
-        <v>0</v>
-      </c>
-      <c r="D10" s="6">
+      <c r="C10" s="56">
+        <v>0</v>
+      </c>
+      <c r="D10" s="56">
         <v>66000</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="56">
         <f>E9+C10-D10</f>
         <v>7949</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="54" t="s">
         <v>208</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="54" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="33">
+      <c r="A11" s="54">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B11" s="55">
         <v>44593</v>
       </c>
-      <c r="C11" s="6">
-        <v>0</v>
-      </c>
-      <c r="D11" s="6">
+      <c r="C11" s="56">
+        <v>0</v>
+      </c>
+      <c r="D11" s="56">
         <v>39000</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="56">
         <f>E10+C11-D11</f>
         <v>-31051</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="54" t="s">
         <v>201</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="54" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="33">
+      <c r="A12" s="54">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B12" s="55">
         <v>44593</v>
       </c>
-      <c r="C12" s="6">
-        <v>0</v>
-      </c>
-      <c r="D12" s="6">
+      <c r="C12" s="56">
+        <v>0</v>
+      </c>
+      <c r="D12" s="56">
         <v>7000</v>
       </c>
-      <c r="E12" s="6">
-        <f t="shared" ref="E12:E67" si="0">E11+C12-D12</f>
+      <c r="E12" s="56">
+        <f t="shared" ref="E12:E70" si="1">E11+C12-D12</f>
         <v>-38051</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="54" t="s">
         <v>209</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="54" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="33">
+      <c r="A13" s="54">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B13" s="55">
         <v>44594</v>
       </c>
-      <c r="C13" s="6">
-        <v>0</v>
-      </c>
-      <c r="D13" s="6">
+      <c r="C13" s="56">
+        <v>0</v>
+      </c>
+      <c r="D13" s="56">
         <v>60000</v>
       </c>
-      <c r="E13" s="6">
-        <f t="shared" si="0"/>
+      <c r="E13" s="56">
+        <f t="shared" si="1"/>
         <v>-98051</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="54" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="33">
+      <c r="A14" s="54">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B14" s="55">
         <v>44595</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="56">
         <v>500000</v>
       </c>
-      <c r="D14" s="6">
-        <v>0</v>
-      </c>
-      <c r="E14" s="6">
-        <f t="shared" si="0"/>
+      <c r="D14" s="56">
+        <v>0</v>
+      </c>
+      <c r="E14" s="56">
+        <f t="shared" si="1"/>
         <v>401949</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="54" t="s">
         <v>164</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="54" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="33">
+      <c r="A15" s="54">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B15" s="55">
         <v>44595</v>
       </c>
-      <c r="C15" s="6">
-        <v>0</v>
-      </c>
-      <c r="D15" s="6">
+      <c r="C15" s="56">
+        <v>0</v>
+      </c>
+      <c r="D15" s="56">
         <v>38000</v>
       </c>
-      <c r="E15" s="6">
-        <f t="shared" si="0"/>
+      <c r="E15" s="56">
+        <f t="shared" si="1"/>
         <v>363949</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="54" t="s">
         <v>168</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="54" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="33">
+      <c r="A16" s="54">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B16" s="55">
         <v>44595</v>
       </c>
-      <c r="C16" s="6">
-        <v>0</v>
-      </c>
-      <c r="D16" s="6">
+      <c r="C16" s="56">
+        <v>0</v>
+      </c>
+      <c r="D16" s="56">
         <v>120000</v>
       </c>
-      <c r="E16" s="6">
-        <f t="shared" si="0"/>
+      <c r="E16" s="56">
+        <f t="shared" si="1"/>
         <v>243949</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="54" t="s">
         <v>211</v>
       </c>
-      <c r="G16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="33">
+      <c r="G16" s="54" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="54">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B17" s="55">
         <v>44595</v>
       </c>
-      <c r="C17" s="6">
-        <v>0</v>
-      </c>
-      <c r="D17" s="6">
+      <c r="C17" s="56">
+        <v>0</v>
+      </c>
+      <c r="D17" s="56">
         <v>67000</v>
       </c>
-      <c r="E17" s="6">
-        <f t="shared" si="0"/>
+      <c r="E17" s="56">
+        <f t="shared" si="1"/>
         <v>176949</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="54" t="s">
         <v>212</v>
       </c>
-      <c r="G17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="33">
+      <c r="G17" s="54" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="54">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B18" s="55">
         <v>44595</v>
       </c>
-      <c r="C18" s="6">
-        <v>0</v>
-      </c>
-      <c r="D18" s="6">
+      <c r="C18" s="56">
+        <v>0</v>
+      </c>
+      <c r="D18" s="56">
         <v>83000</v>
       </c>
-      <c r="E18" s="6">
-        <f t="shared" si="0"/>
+      <c r="E18" s="56">
+        <f t="shared" si="1"/>
         <v>93949</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="54" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="33">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="54">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B19" s="55">
         <v>44595</v>
       </c>
-      <c r="C19" s="6">
-        <v>0</v>
-      </c>
-      <c r="D19" s="6">
+      <c r="C19" s="56">
+        <v>0</v>
+      </c>
+      <c r="D19" s="56">
         <v>100000</v>
       </c>
-      <c r="E19" s="6">
-        <f t="shared" si="0"/>
+      <c r="E19" s="56">
+        <f t="shared" si="1"/>
         <v>-6051</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="54" t="s">
         <v>213</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="54" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="33">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="30">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B20" s="36">
         <v>44596</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="29">
         <v>250000</v>
       </c>
-      <c r="D20" s="6">
-        <v>0</v>
-      </c>
-      <c r="E20" s="6">
-        <f t="shared" si="0"/>
+      <c r="D20" s="29">
+        <v>0</v>
+      </c>
+      <c r="E20" s="29">
+        <f t="shared" si="1"/>
         <v>243949</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="30" t="s">
         <v>214</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="30" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="33">
+      <c r="H20" s="6">
+        <f>SUM(C20:C39)</f>
+        <v>450000</v>
+      </c>
+      <c r="I20" s="6">
+        <f>SUM(D20:D39)</f>
+        <v>659180</v>
+      </c>
+      <c r="J20" s="6">
+        <f>H20-I20</f>
+        <v>-209180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="30">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B21" s="36">
         <v>44596</v>
       </c>
-      <c r="C21" s="6">
-        <v>0</v>
-      </c>
-      <c r="D21" s="6">
+      <c r="C21" s="29">
+        <v>0</v>
+      </c>
+      <c r="D21" s="29">
         <v>125600</v>
       </c>
-      <c r="E21" s="6">
-        <f t="shared" si="0"/>
+      <c r="E21" s="29">
+        <f t="shared" si="1"/>
         <v>118349</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="30" t="s">
         <v>215</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="30" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="33">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="30">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B22" s="36">
         <v>44596</v>
       </c>
-      <c r="C22" s="6">
-        <v>0</v>
-      </c>
-      <c r="D22" s="6">
+      <c r="C22" s="29">
+        <v>0</v>
+      </c>
+      <c r="D22" s="29">
         <v>74000</v>
       </c>
-      <c r="E22" s="6">
-        <f t="shared" si="0"/>
+      <c r="E22" s="29">
+        <f t="shared" si="1"/>
         <v>44349</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="30" t="s">
         <v>216</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="30" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="33">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="30">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B23" s="36">
         <v>44596</v>
       </c>
-      <c r="C23" s="6">
-        <v>0</v>
-      </c>
-      <c r="D23" s="6">
+      <c r="C23" s="29">
+        <v>0</v>
+      </c>
+      <c r="D23" s="29">
         <v>15000</v>
       </c>
-      <c r="E23" s="6">
-        <f t="shared" si="0"/>
+      <c r="E23" s="29">
+        <f t="shared" si="1"/>
         <v>29349</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="30" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="33">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="30">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B24" s="36">
         <v>44597</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="29">
         <v>200000</v>
       </c>
-      <c r="D24" s="6">
-        <v>0</v>
-      </c>
-      <c r="E24" s="6">
-        <f t="shared" si="0"/>
+      <c r="D24" s="29">
+        <v>0</v>
+      </c>
+      <c r="E24" s="29">
+        <f t="shared" si="1"/>
         <v>229349</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="30" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="33">
+      <c r="G24" s="30"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="30">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B25" s="36">
         <v>44597</v>
       </c>
-      <c r="C25" s="6">
-        <v>0</v>
-      </c>
-      <c r="D25" s="6">
+      <c r="C25" s="29">
+        <v>0</v>
+      </c>
+      <c r="D25" s="29">
         <v>100000</v>
       </c>
-      <c r="E25" s="6">
-        <f t="shared" si="0"/>
+      <c r="E25" s="29">
+        <f t="shared" si="1"/>
         <v>129349</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="30" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="33">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="30">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B26" s="36">
         <v>44597</v>
       </c>
-      <c r="C26" s="6">
-        <v>0</v>
-      </c>
-      <c r="D26" s="6">
+      <c r="C26" s="29">
+        <v>0</v>
+      </c>
+      <c r="D26" s="29">
         <v>50000</v>
       </c>
-      <c r="E26" s="6">
-        <f t="shared" si="0"/>
+      <c r="E26" s="29">
+        <f t="shared" si="1"/>
         <v>79349</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="30" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="33">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="30">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B27" s="36">
         <v>44597</v>
       </c>
-      <c r="C27" s="6">
-        <v>0</v>
-      </c>
-      <c r="D27" s="6">
+      <c r="C27" s="29">
+        <v>0</v>
+      </c>
+      <c r="D27" s="29">
         <v>40000</v>
       </c>
-      <c r="E27" s="6">
-        <f t="shared" si="0"/>
+      <c r="E27" s="29">
+        <f t="shared" si="1"/>
         <v>39349</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="30" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="33">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="30">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B28" s="36">
         <v>44597</v>
       </c>
-      <c r="C28" s="6">
-        <v>0</v>
-      </c>
-      <c r="D28" s="6">
+      <c r="C28" s="29">
+        <v>0</v>
+      </c>
+      <c r="D28" s="29">
         <v>8000</v>
       </c>
-      <c r="E28" s="6">
-        <f t="shared" si="0"/>
+      <c r="E28" s="29">
+        <f t="shared" si="1"/>
         <v>31349</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="30" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="33">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="30">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B29" s="36">
         <v>44597</v>
       </c>
-      <c r="C29" s="6">
-        <v>0</v>
-      </c>
-      <c r="D29" s="6">
+      <c r="C29" s="29">
+        <v>0</v>
+      </c>
+      <c r="D29" s="29">
         <v>10000</v>
       </c>
-      <c r="E29" s="6">
-        <f t="shared" si="0"/>
+      <c r="E29" s="29">
+        <f t="shared" si="1"/>
         <v>21349</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="30" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="33">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="30">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B30" s="36">
         <v>44598</v>
       </c>
-      <c r="C30" s="6">
-        <v>0</v>
-      </c>
-      <c r="D30" s="6">
+      <c r="C30" s="29">
+        <v>0</v>
+      </c>
+      <c r="D30" s="29">
         <v>10000</v>
       </c>
-      <c r="E30" s="6">
-        <f t="shared" si="0"/>
+      <c r="E30" s="29">
+        <f t="shared" si="1"/>
         <v>11349</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="30" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="33">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="30">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B31" s="36">
         <v>44598</v>
       </c>
-      <c r="C31" s="6">
-        <v>0</v>
-      </c>
-      <c r="D31" s="6">
+      <c r="C31" s="29">
+        <v>0</v>
+      </c>
+      <c r="D31" s="29">
         <v>12000</v>
       </c>
-      <c r="E31" s="6">
-        <f t="shared" si="0"/>
+      <c r="E31" s="29">
+        <f t="shared" si="1"/>
         <v>-651</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="30" t="s">
         <v>217</v>
       </c>
-      <c r="G31" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="33">
+      <c r="G31" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="30">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B32" s="36">
         <v>44598</v>
       </c>
-      <c r="C32" s="6">
-        <v>0</v>
-      </c>
-      <c r="D32" s="6">
+      <c r="C32" s="29">
+        <v>0</v>
+      </c>
+      <c r="D32" s="29">
         <v>30000</v>
       </c>
-      <c r="E32" s="6">
-        <f t="shared" si="0"/>
+      <c r="E32" s="29">
+        <f t="shared" si="1"/>
         <v>-30651</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="30" t="s">
         <v>221</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="30" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="33">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="30">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B33" s="36">
         <v>44599</v>
       </c>
-      <c r="C33" s="6">
-        <v>0</v>
-      </c>
-      <c r="D33" s="6">
+      <c r="C33" s="29">
+        <v>0</v>
+      </c>
+      <c r="D33" s="29">
         <v>18000</v>
       </c>
-      <c r="E33" s="6">
-        <f t="shared" si="0"/>
+      <c r="E33" s="29">
+        <f t="shared" si="1"/>
         <v>-48651</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="G33" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="33">
+      <c r="G33" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="30">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B34" s="36">
         <v>44599</v>
       </c>
-      <c r="C34" s="6">
-        <v>0</v>
-      </c>
-      <c r="D34" s="6">
+      <c r="C34" s="29">
+        <v>0</v>
+      </c>
+      <c r="D34" s="29">
         <v>36000</v>
       </c>
-      <c r="E34" s="6">
-        <f t="shared" si="0"/>
+      <c r="E34" s="29">
+        <f t="shared" si="1"/>
         <v>-84651</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="30" t="s">
         <v>219</v>
       </c>
-      <c r="G34" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="33">
+      <c r="G34" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="30">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B35" s="36">
         <v>44599</v>
       </c>
-      <c r="C35" s="6">
-        <v>0</v>
-      </c>
-      <c r="D35" s="6">
+      <c r="C35" s="29">
+        <v>0</v>
+      </c>
+      <c r="D35" s="29">
         <v>11000</v>
       </c>
-      <c r="E35" s="6">
-        <f t="shared" si="0"/>
+      <c r="E35" s="29">
+        <f t="shared" si="1"/>
         <v>-95651</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="30" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="33">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="30">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B36" s="36">
         <v>44600</v>
       </c>
-      <c r="C36" s="6">
-        <v>0</v>
-      </c>
-      <c r="D36" s="6">
+      <c r="C36" s="29">
+        <v>0</v>
+      </c>
+      <c r="D36" s="29">
         <v>8000</v>
       </c>
-      <c r="E36" s="6">
-        <f t="shared" si="0"/>
+      <c r="E36" s="29">
+        <f t="shared" si="1"/>
         <v>-103651</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="30" t="s">
         <v>220</v>
       </c>
-      <c r="G36" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="33">
+      <c r="G36" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="30">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B37" s="36">
         <v>44600</v>
       </c>
-      <c r="C37" s="6">
-        <v>0</v>
-      </c>
-      <c r="D37" s="6">
+      <c r="C37" s="29">
+        <v>0</v>
+      </c>
+      <c r="D37" s="29">
         <v>23580</v>
       </c>
-      <c r="E37" s="6">
-        <f t="shared" si="0"/>
+      <c r="E37" s="29">
+        <f t="shared" si="1"/>
         <v>-127231</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" s="30" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="33">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="30">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B38" s="36">
         <v>44601</v>
       </c>
-      <c r="C38" s="6">
-        <v>0</v>
-      </c>
-      <c r="D38" s="6">
+      <c r="C38" s="29">
+        <v>0</v>
+      </c>
+      <c r="D38" s="29">
         <v>38000</v>
       </c>
-      <c r="E38" s="6">
-        <f t="shared" si="0"/>
+      <c r="E38" s="29">
+        <f t="shared" si="1"/>
         <v>-165231</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="30" t="s">
         <v>201</v>
       </c>
-      <c r="G38" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="33">
+      <c r="G38" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="30">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B39" s="36">
         <v>44601</v>
       </c>
-      <c r="C39" s="6">
-        <v>0</v>
-      </c>
-      <c r="D39" s="6">
+      <c r="C39" s="29">
+        <v>0</v>
+      </c>
+      <c r="D39" s="29">
         <v>50000</v>
       </c>
-      <c r="E39" s="6">
-        <f t="shared" si="0"/>
+      <c r="E39" s="29">
+        <f t="shared" si="1"/>
         <v>-215231</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="30" t="s">
         <v>213</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" s="30" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="33">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="57">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B40" s="58">
         <v>44602</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="59">
         <v>150000</v>
       </c>
-      <c r="D40" s="6">
-        <v>0</v>
-      </c>
-      <c r="E40" s="6">
-        <f t="shared" si="0"/>
+      <c r="D40" s="59">
+        <v>0</v>
+      </c>
+      <c r="E40" s="59">
+        <f t="shared" si="1"/>
         <v>-65231</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="57" t="s">
         <v>223</v>
       </c>
-      <c r="G40" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="33">
+      <c r="G40" s="57" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="57">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B41" s="58">
         <v>44602</v>
       </c>
-      <c r="C41" s="6">
-        <v>0</v>
-      </c>
-      <c r="D41" s="6">
+      <c r="C41" s="59">
+        <v>0</v>
+      </c>
+      <c r="D41" s="59">
         <v>75000</v>
       </c>
-      <c r="E41" s="6">
-        <f t="shared" si="0"/>
+      <c r="E41" s="59">
+        <f t="shared" si="1"/>
         <v>-140231</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="57" t="s">
         <v>224</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" s="57" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="33">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="57">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B42" s="58">
         <v>44602</v>
       </c>
-      <c r="C42" s="6">
-        <v>0</v>
-      </c>
-      <c r="D42" s="6">
+      <c r="C42" s="59">
+        <v>0</v>
+      </c>
+      <c r="D42" s="59">
         <v>27000</v>
       </c>
-      <c r="E42" s="6">
-        <f t="shared" si="0"/>
+      <c r="E42" s="59">
+        <f t="shared" si="1"/>
         <v>-167231</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="57" t="s">
         <v>225</v>
       </c>
-      <c r="G42" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="33">
+      <c r="G42" s="57" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="57">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B43" s="58">
         <v>44603</v>
       </c>
-      <c r="C43" s="6">
-        <v>0</v>
-      </c>
-      <c r="D43" s="6">
+      <c r="C43" s="59">
+        <v>0</v>
+      </c>
+      <c r="D43" s="59">
         <v>45000</v>
       </c>
-      <c r="E43" s="6">
-        <f t="shared" si="0"/>
+      <c r="E43" s="59">
+        <f t="shared" si="1"/>
         <v>-212231</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="57" t="s">
         <v>226</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" s="57" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="33">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="57">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B44" s="58">
         <v>44603</v>
       </c>
-      <c r="C44" s="6">
-        <v>0</v>
-      </c>
-      <c r="D44" s="6">
+      <c r="C44" s="59">
+        <v>0</v>
+      </c>
+      <c r="D44" s="59">
         <v>100000</v>
       </c>
-      <c r="E44" s="6">
-        <f t="shared" si="0"/>
+      <c r="E44" s="59">
+        <f t="shared" si="1"/>
         <v>-312231</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="57" t="s">
         <v>213</v>
       </c>
-      <c r="G44" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B45" s="33">
+      <c r="G44" s="57" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="57">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B45" s="58">
         <v>44603</v>
       </c>
-      <c r="C45" s="6">
-        <v>0</v>
-      </c>
-      <c r="D45" s="6">
+      <c r="C45" s="59">
+        <v>0</v>
+      </c>
+      <c r="D45" s="59">
         <v>18000</v>
       </c>
-      <c r="E45" s="6">
-        <f t="shared" si="0"/>
+      <c r="E45" s="59">
+        <f t="shared" si="1"/>
         <v>-330231</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="57" t="s">
         <v>168</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45" s="57" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="33">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="57">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B46" s="58">
         <v>44603</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46" s="59">
         <v>100000</v>
       </c>
-      <c r="D46" s="6">
-        <v>0</v>
-      </c>
-      <c r="E46" s="6">
-        <f t="shared" si="0"/>
+      <c r="D46" s="59">
+        <v>0</v>
+      </c>
+      <c r="E46" s="59">
+        <f t="shared" si="1"/>
         <v>-230231</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="57" t="s">
         <v>228</v>
       </c>
-      <c r="G46" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B47" s="33">
+      <c r="G46" s="57" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="57">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B47" s="58">
         <v>44603</v>
       </c>
-      <c r="C47" s="6">
-        <v>0</v>
-      </c>
-      <c r="D47" s="6">
+      <c r="C47" s="59">
+        <v>0</v>
+      </c>
+      <c r="D47" s="59">
         <v>2000</v>
       </c>
-      <c r="E47" s="6">
-        <f t="shared" si="0"/>
+      <c r="E47" s="59">
+        <f t="shared" si="1"/>
         <v>-232231</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="57" t="s">
         <v>229</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47" s="57" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B48" s="33">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="57">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B48" s="58">
         <v>44603</v>
       </c>
-      <c r="C48" s="6">
-        <v>0</v>
-      </c>
-      <c r="D48" s="6">
+      <c r="C48" s="59">
+        <v>0</v>
+      </c>
+      <c r="D48" s="59">
         <v>3000</v>
       </c>
-      <c r="E48" s="6">
-        <f t="shared" si="0"/>
+      <c r="E48" s="59">
+        <f t="shared" si="1"/>
         <v>-235231</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="G48" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B49" s="33">
+      <c r="G48" s="57" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="57">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B49" s="58">
         <v>44605</v>
       </c>
-      <c r="C49" s="6">
-        <v>0</v>
-      </c>
-      <c r="D49" s="6">
+      <c r="C49" s="59">
+        <v>0</v>
+      </c>
+      <c r="D49" s="59">
         <v>48000</v>
       </c>
-      <c r="E49" s="6">
-        <f t="shared" si="0"/>
+      <c r="E49" s="59">
+        <f t="shared" si="1"/>
         <v>-283231</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="57" t="s">
         <v>198</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G49" s="57" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="33">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="57">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B50" s="58">
         <v>44605</v>
       </c>
-      <c r="C50" s="6">
-        <v>0</v>
-      </c>
-      <c r="D50" s="6">
+      <c r="C50" s="59">
+        <v>0</v>
+      </c>
+      <c r="D50" s="59">
         <v>10000</v>
       </c>
-      <c r="E50" s="6">
-        <f t="shared" si="0"/>
+      <c r="E50" s="59">
+        <f t="shared" si="1"/>
         <v>-293231</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G50" s="57" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="33">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="57">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B51" s="58">
         <v>44605</v>
       </c>
-      <c r="C51" s="6">
-        <v>0</v>
-      </c>
-      <c r="D51" s="6">
+      <c r="C51" s="59">
+        <v>0</v>
+      </c>
+      <c r="D51" s="59">
         <v>25000</v>
       </c>
-      <c r="E51" s="6">
-        <f t="shared" si="0"/>
+      <c r="E51" s="59">
+        <f t="shared" si="1"/>
         <v>-318231</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="57" t="s">
         <v>168</v>
       </c>
-      <c r="G51" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B52" s="33">
+      <c r="G51" s="57" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="57">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B52" s="58">
         <v>44605</v>
       </c>
-      <c r="C52" s="6">
-        <v>0</v>
-      </c>
-      <c r="D52" s="6">
+      <c r="C52" s="59">
+        <v>0</v>
+      </c>
+      <c r="D52" s="59">
         <v>50000</v>
       </c>
-      <c r="E52" s="6">
-        <f t="shared" si="0"/>
+      <c r="E52" s="59">
+        <f t="shared" si="1"/>
         <v>-368231</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="57" t="s">
         <v>213</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G52" s="57" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B53" s="33">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="57">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B53" s="58">
         <v>44605</v>
       </c>
-      <c r="C53" s="6">
+      <c r="C53" s="59">
         <v>200000</v>
       </c>
-      <c r="D53" s="6">
-        <v>0</v>
-      </c>
-      <c r="E53" s="6">
-        <f t="shared" si="0"/>
+      <c r="D53" s="59">
+        <v>0</v>
+      </c>
+      <c r="E53" s="59">
+        <f t="shared" si="1"/>
         <v>-168231</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="57" t="s">
         <v>228</v>
       </c>
-      <c r="G53" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B54" s="33">
+      <c r="G53" s="57" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="57">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B54" s="58">
         <v>44606</v>
       </c>
-      <c r="C54" s="6">
+      <c r="C54" s="59">
         <v>750000</v>
       </c>
-      <c r="D54" s="6">
-        <v>0</v>
-      </c>
-      <c r="E54" s="6">
-        <f t="shared" si="0"/>
+      <c r="D54" s="59">
+        <v>0</v>
+      </c>
+      <c r="E54" s="59">
+        <f t="shared" si="1"/>
         <v>581769</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="57" t="s">
         <v>228</v>
       </c>
-      <c r="G54" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B55" s="33">
+      <c r="G54" s="57" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="57">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B55" s="58">
         <v>44606</v>
       </c>
-      <c r="C55" s="6">
-        <v>0</v>
-      </c>
-      <c r="D55" s="6">
+      <c r="C55" s="59">
+        <v>0</v>
+      </c>
+      <c r="D55" s="59">
         <v>245000</v>
       </c>
-      <c r="E55" s="6">
-        <f t="shared" si="0"/>
+      <c r="E55" s="59">
+        <f t="shared" si="1"/>
         <v>336769</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" s="57" t="s">
         <v>230</v>
       </c>
-      <c r="G55" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B56" s="33">
+      <c r="G55" s="57" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="57">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B56" s="58">
         <v>44606</v>
       </c>
-      <c r="C56" s="6">
-        <v>0</v>
-      </c>
-      <c r="D56" s="6">
+      <c r="C56" s="59">
+        <v>0</v>
+      </c>
+      <c r="D56" s="59">
         <v>245000</v>
       </c>
-      <c r="E56" s="6">
-        <f t="shared" si="0"/>
+      <c r="E56" s="59">
+        <f t="shared" si="1"/>
         <v>91769</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" s="57" t="s">
         <v>230</v>
       </c>
-      <c r="G56" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B57" s="33">
+      <c r="G56" s="57" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="57">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B57" s="58">
         <v>44606</v>
       </c>
-      <c r="C57" s="6">
-        <v>0</v>
-      </c>
-      <c r="D57" s="6">
+      <c r="C57" s="59">
+        <v>0</v>
+      </c>
+      <c r="D57" s="59">
         <v>3000</v>
       </c>
-      <c r="E57" s="6">
-        <f t="shared" si="0"/>
+      <c r="E57" s="59">
+        <f t="shared" si="1"/>
         <v>88769</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="G57" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B58" s="33">
+      <c r="G57" s="57" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="60">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B58" s="61">
         <v>44607</v>
       </c>
-      <c r="C58" s="6">
-        <v>0</v>
-      </c>
-      <c r="D58" s="6">
+      <c r="C58" s="62">
+        <v>0</v>
+      </c>
+      <c r="D58" s="62">
         <v>32000</v>
       </c>
-      <c r="E58" s="6">
-        <f t="shared" si="0"/>
+      <c r="E58" s="62">
+        <f t="shared" si="1"/>
         <v>56769</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" s="60" t="s">
         <v>231</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G58" s="60" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B59" s="33">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="60">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B59" s="61">
         <v>44607</v>
       </c>
-      <c r="C59" s="6">
-        <v>0</v>
-      </c>
-      <c r="D59" s="6">
+      <c r="C59" s="62">
+        <v>0</v>
+      </c>
+      <c r="D59" s="62">
         <v>50000</v>
       </c>
-      <c r="E59" s="6">
-        <f t="shared" si="0"/>
+      <c r="E59" s="62">
+        <f t="shared" si="1"/>
         <v>6769</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" s="60" t="s">
         <v>213</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G59" s="60" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B60" s="33">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="60">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B60" s="61">
         <v>44607</v>
       </c>
-      <c r="C60" s="6">
-        <v>0</v>
-      </c>
-      <c r="D60" s="6">
+      <c r="C60" s="62">
+        <v>0</v>
+      </c>
+      <c r="D60" s="62">
         <v>8000</v>
       </c>
-      <c r="E60" s="6">
-        <f t="shared" si="0"/>
+      <c r="E60" s="62">
+        <f t="shared" si="1"/>
         <v>-1231</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" s="60" t="s">
         <v>232</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G60" s="60" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B61" s="33">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="60">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B61" s="61">
         <v>44607</v>
       </c>
-      <c r="C61" s="6">
-        <v>0</v>
-      </c>
-      <c r="D61" s="6">
+      <c r="C61" s="62">
+        <v>0</v>
+      </c>
+      <c r="D61" s="62">
         <v>32000</v>
       </c>
-      <c r="E61" s="6">
-        <f t="shared" si="0"/>
+      <c r="E61" s="62">
+        <f t="shared" si="1"/>
         <v>-33231</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" s="60" t="s">
         <v>233</v>
       </c>
-      <c r="G61" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E62" s="6">
-        <f t="shared" si="0"/>
-        <v>-33231</v>
-      </c>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E63" s="6">
-        <f t="shared" si="0"/>
-        <v>-33231</v>
-      </c>
-    </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E64" s="6">
-        <f t="shared" si="0"/>
-        <v>-33231</v>
-      </c>
-    </row>
-    <row r="65" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E65" s="6">
-        <f t="shared" si="0"/>
-        <v>-33231</v>
-      </c>
-    </row>
-    <row r="66" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E66" s="6">
-        <f t="shared" si="0"/>
-        <v>-33231</v>
-      </c>
-    </row>
-    <row r="67" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E67" s="6">
-        <f t="shared" si="0"/>
-        <v>-33231</v>
-      </c>
+      <c r="G61" s="60" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="60">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B62" s="61">
+        <v>44608</v>
+      </c>
+      <c r="C62" s="62">
+        <v>0</v>
+      </c>
+      <c r="D62" s="62">
+        <v>10000</v>
+      </c>
+      <c r="E62" s="62">
+        <f t="shared" si="1"/>
+        <v>-43231</v>
+      </c>
+      <c r="F62" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="G62" s="60" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="60">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B63" s="61">
+        <v>44609</v>
+      </c>
+      <c r="C63" s="62">
+        <v>200000</v>
+      </c>
+      <c r="D63" s="62">
+        <v>0</v>
+      </c>
+      <c r="E63" s="62">
+        <f t="shared" si="1"/>
+        <v>156769</v>
+      </c>
+      <c r="F63" s="60" t="s">
+        <v>228</v>
+      </c>
+      <c r="G63" s="60" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="60">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B64" s="61">
+        <v>44609</v>
+      </c>
+      <c r="C64" s="62">
+        <v>0</v>
+      </c>
+      <c r="D64" s="62">
+        <v>55000</v>
+      </c>
+      <c r="E64" s="62">
+        <f t="shared" si="1"/>
+        <v>101769</v>
+      </c>
+      <c r="F64" s="60" t="s">
+        <v>234</v>
+      </c>
+      <c r="G64" s="60" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="60">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B65" s="61">
+        <v>44609</v>
+      </c>
+      <c r="C65" s="62">
+        <v>0</v>
+      </c>
+      <c r="D65" s="62">
+        <v>2500</v>
+      </c>
+      <c r="E65" s="62">
+        <f t="shared" si="1"/>
+        <v>99269</v>
+      </c>
+      <c r="F65" s="60" t="s">
+        <v>235</v>
+      </c>
+      <c r="G65" s="60" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="60">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B66" s="61">
+        <v>44609</v>
+      </c>
+      <c r="C66" s="62">
+        <v>0</v>
+      </c>
+      <c r="D66" s="62">
+        <v>83000</v>
+      </c>
+      <c r="E66" s="62">
+        <f t="shared" si="1"/>
+        <v>16269</v>
+      </c>
+      <c r="F66" s="60" t="s">
+        <v>121</v>
+      </c>
+      <c r="G66" s="60" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="60">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B67" s="61">
+        <v>44610</v>
+      </c>
+      <c r="C67" s="62">
+        <v>0</v>
+      </c>
+      <c r="D67" s="62">
+        <v>20000</v>
+      </c>
+      <c r="E67" s="62">
+        <f t="shared" si="1"/>
+        <v>-3731</v>
+      </c>
+      <c r="F67" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="G67" s="60" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="60">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B68" s="61">
+        <v>44611</v>
+      </c>
+      <c r="C68" s="62">
+        <v>0</v>
+      </c>
+      <c r="D68" s="62">
+        <v>3000</v>
+      </c>
+      <c r="E68" s="62">
+        <f t="shared" si="1"/>
+        <v>-6731</v>
+      </c>
+      <c r="F68" s="60" t="s">
+        <v>159</v>
+      </c>
+      <c r="G68" s="60" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="60">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="B69" s="61">
+        <v>44611</v>
+      </c>
+      <c r="C69" s="62">
+        <v>0</v>
+      </c>
+      <c r="D69" s="62">
+        <v>22000</v>
+      </c>
+      <c r="E69" s="62">
+        <f t="shared" si="1"/>
+        <v>-28731</v>
+      </c>
+      <c r="F69" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="G69" s="60" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="B70" s="50"/>
+      <c r="C70" s="51">
+        <f>SUM(C9:C69)</f>
+        <v>2423949</v>
+      </c>
+      <c r="D70" s="51">
+        <f>SUM(D9:D69)</f>
+        <v>2452680</v>
+      </c>
+      <c r="E70" s="51">
+        <f>C70-D70</f>
+        <v>-28731</v>
+      </c>
+      <c r="F70" s="50"/>
+      <c r="G70" s="50"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="50"/>
+      <c r="B71" s="50"/>
+      <c r="C71" s="52"/>
+      <c r="D71" s="52"/>
+      <c r="E71" s="51"/>
+      <c r="F71" s="50"/>
+      <c r="G71" s="50"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="50"/>
+      <c r="B72" s="50"/>
+      <c r="C72" s="52"/>
+      <c r="D72" s="52"/>
+      <c r="E72" s="51"/>
+      <c r="F72" s="50"/>
+      <c r="G72" s="50"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="7">
     <mergeCell ref="B1:G4"/>
     <mergeCell ref="B5:G6"/>
+    <mergeCell ref="A70:B72"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="D70:D72"/>
+    <mergeCell ref="E70:E72"/>
+    <mergeCell ref="F70:G72"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/rekap data uang kas kecil - asrama.xlsx
+++ b/rekap data uang kas kecil - asrama.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yofandi Riki Winata\Documents\yofandi\rekap data - uang galon, parkir, bumbu asrama\uangasrama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EDAFDFB-A4AA-4228-90E9-3932F13CDD13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30A3F23-0654-4C87-AD30-824E47D4E13C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="4" xr2:uid="{C456B771-9DF8-4725-AC5F-E2624C050843}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="1" activeTab="5" xr2:uid="{C456B771-9DF8-4725-AC5F-E2624C050843}"/>
   </bookViews>
   <sheets>
     <sheet name="Oktober_2021" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Desember_2021" sheetId="3" r:id="rId3"/>
     <sheet name="Januari_2022" sheetId="5" r:id="rId4"/>
     <sheet name="Febuari_2022" sheetId="6" r:id="rId5"/>
+    <sheet name="Maret_2022" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Oktober_2021!$A$8:$G$8</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="250">
   <si>
     <t>Kas Kecil - Asrama STTHF</t>
   </si>
@@ -750,6 +751,45 @@
   </si>
   <si>
     <t>peter</t>
+  </si>
+  <si>
+    <t>*dimulai tanggal 14 Maret 2022</t>
+  </si>
+  <si>
+    <t>uang masuk ke valen dari kas kecil asrama rungkut (uli)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uang bensin mobil avanza </t>
+  </si>
+  <si>
+    <t>uang refill aqua 3 galon</t>
+  </si>
+  <si>
+    <t>uang beli beras 5 kg</t>
+  </si>
+  <si>
+    <t>uang refill aqua 2 galon</t>
+  </si>
+  <si>
+    <t>uang beli colokan fit combinasi</t>
+  </si>
+  <si>
+    <t>uang baut dipan</t>
+  </si>
+  <si>
+    <t>uang tang kentaro mini kombinasi 4.5</t>
+  </si>
+  <si>
+    <t>uang beli kran dan kabel HYO 2X0.75</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>*Maret 2022</t>
+  </si>
+  <si>
+    <t>uang beli stapel sama isinya</t>
   </si>
 </sst>
 </file>
@@ -928,7 +968,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -984,6 +1024,15 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1005,15 +1054,21 @@
     <xf numFmtId="17" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1346,14 +1401,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
+      <c r="B1" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -1364,12 +1419,12 @@
       <c r="O1" s="2"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -1380,12 +1435,12 @@
       <c r="O2" s="2"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -1396,12 +1451,12 @@
       <c r="O3" s="2"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -1412,14 +1467,14 @@
       <c r="O4" s="2"/>
     </row>
     <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -1430,12 +1485,12 @@
       <c r="O5" s="3"/>
     </row>
     <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -2698,41 +2753,41 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="49" t="s">
+      <c r="A60" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="B60" s="50"/>
-      <c r="C60" s="51">
+      <c r="B60" s="59"/>
+      <c r="C60" s="60">
         <f>SUM(C9:C59)</f>
         <v>2100000</v>
       </c>
-      <c r="D60" s="51">
+      <c r="D60" s="60">
         <f>SUM(D9:D59)</f>
         <v>2118600</v>
       </c>
-      <c r="E60" s="51">
+      <c r="E60" s="60">
         <v>-18600</v>
       </c>
-      <c r="F60" s="50"/>
-      <c r="G60" s="50"/>
+      <c r="F60" s="59"/>
+      <c r="G60" s="59"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="50"/>
-      <c r="B61" s="50"/>
-      <c r="C61" s="52"/>
-      <c r="D61" s="52"/>
-      <c r="E61" s="51"/>
-      <c r="F61" s="50"/>
-      <c r="G61" s="50"/>
+      <c r="A61" s="59"/>
+      <c r="B61" s="59"/>
+      <c r="C61" s="61"/>
+      <c r="D61" s="61"/>
+      <c r="E61" s="60"/>
+      <c r="F61" s="59"/>
+      <c r="G61" s="59"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="50"/>
-      <c r="B62" s="50"/>
-      <c r="C62" s="52"/>
-      <c r="D62" s="52"/>
-      <c r="E62" s="51"/>
-      <c r="F62" s="50"/>
-      <c r="G62" s="50"/>
+      <c r="A62" s="59"/>
+      <c r="B62" s="59"/>
+      <c r="C62" s="61"/>
+      <c r="D62" s="61"/>
+      <c r="E62" s="60"/>
+      <c r="F62" s="59"/>
+      <c r="G62" s="59"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B63" s="7"/>
@@ -2816,56 +2871,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B1" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
+      <c r="B1" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
@@ -4624,56 +4679,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B1" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
+      <c r="B1" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="62" t="s">
         <v>125</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
@@ -6567,41 +6622,41 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="49" t="s">
+      <c r="A83" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="B83" s="50"/>
-      <c r="C83" s="51">
+      <c r="B83" s="59"/>
+      <c r="C83" s="60">
         <f>SUM(C9:C82)</f>
         <v>4950700</v>
       </c>
-      <c r="D83" s="51">
+      <c r="D83" s="60">
         <f>SUM(D9:D82)</f>
         <v>4347451</v>
       </c>
-      <c r="E83" s="51">
+      <c r="E83" s="60">
         <v>603249</v>
       </c>
-      <c r="F83" s="50"/>
-      <c r="G83" s="50"/>
+      <c r="F83" s="59"/>
+      <c r="G83" s="59"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="50"/>
-      <c r="B84" s="50"/>
-      <c r="C84" s="52"/>
-      <c r="D84" s="52"/>
-      <c r="E84" s="51"/>
-      <c r="F84" s="50"/>
-      <c r="G84" s="50"/>
+      <c r="A84" s="59"/>
+      <c r="B84" s="59"/>
+      <c r="C84" s="61"/>
+      <c r="D84" s="61"/>
+      <c r="E84" s="60"/>
+      <c r="F84" s="59"/>
+      <c r="G84" s="59"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="50"/>
-      <c r="B85" s="50"/>
-      <c r="C85" s="52"/>
-      <c r="D85" s="52"/>
-      <c r="E85" s="51"/>
-      <c r="F85" s="50"/>
-      <c r="G85" s="50"/>
+      <c r="A85" s="59"/>
+      <c r="B85" s="59"/>
+      <c r="C85" s="61"/>
+      <c r="D85" s="61"/>
+      <c r="E85" s="60"/>
+      <c r="F85" s="59"/>
+      <c r="G85" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -6638,56 +6693,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
+      <c r="B1" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="62" t="s">
         <v>178</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
@@ -8398,41 +8453,41 @@
       </c>
     </row>
     <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="49" t="s">
+      <c r="A76" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="B76" s="50"/>
-      <c r="C76" s="51">
+      <c r="B76" s="59"/>
+      <c r="C76" s="60">
         <f>SUM(C3:C75)</f>
         <v>3253249</v>
       </c>
-      <c r="D76" s="51">
+      <c r="D76" s="60">
         <f>SUM(D3:D75)</f>
         <v>3179300</v>
       </c>
-      <c r="E76" s="51">
+      <c r="E76" s="60">
         <v>73949</v>
       </c>
-      <c r="F76" s="50"/>
-      <c r="G76" s="50"/>
+      <c r="F76" s="59"/>
+      <c r="G76" s="59"/>
     </row>
     <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="50"/>
-      <c r="B77" s="50"/>
-      <c r="C77" s="52"/>
-      <c r="D77" s="52"/>
-      <c r="E77" s="51"/>
-      <c r="F77" s="50"/>
-      <c r="G77" s="50"/>
+      <c r="A77" s="59"/>
+      <c r="B77" s="59"/>
+      <c r="C77" s="61"/>
+      <c r="D77" s="61"/>
+      <c r="E77" s="60"/>
+      <c r="F77" s="59"/>
+      <c r="G77" s="59"/>
     </row>
     <row r="78" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="50"/>
-      <c r="B78" s="50"/>
-      <c r="C78" s="52"/>
-      <c r="D78" s="52"/>
-      <c r="E78" s="51"/>
-      <c r="F78" s="50"/>
-      <c r="G78" s="50"/>
+      <c r="A78" s="59"/>
+      <c r="B78" s="59"/>
+      <c r="C78" s="61"/>
+      <c r="D78" s="61"/>
+      <c r="E78" s="60"/>
+      <c r="F78" s="59"/>
+      <c r="G78" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -8451,10 +8506,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{134DA075-3EEA-49FD-A26F-3260CD6C0D89}">
-  <dimension ref="A1:J72"/>
+  <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="G58" sqref="A58:G69"/>
+    <sheetView topLeftCell="D62" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70:G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8465,63 +8520,64 @@
     <col min="5" max="5" width="36" style="6" customWidth="1"/>
     <col min="6" max="6" width="27.42578125" customWidth="1"/>
     <col min="7" max="7" width="33.5703125" customWidth="1"/>
-    <col min="8" max="9" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="53" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="62" t="s">
         <v>206</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>210</v>
       </c>
@@ -8529,7 +8585,7 @@
       <c r="D7"/>
       <c r="E7"/>
     </row>
-    <row r="8" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>31</v>
       </c>
@@ -8552,278 +8608,282 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="54">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="47">
         <f>ROW(A1)</f>
         <v>1</v>
       </c>
-      <c r="B9" s="55">
+      <c r="B9" s="48">
         <v>44593</v>
       </c>
-      <c r="C9" s="56">
+      <c r="C9" s="49">
         <v>73949</v>
       </c>
-      <c r="D9" s="56">
-        <v>0</v>
-      </c>
-      <c r="E9" s="56">
+      <c r="D9" s="49">
+        <v>0</v>
+      </c>
+      <c r="E9" s="49">
         <f>C9-D9</f>
         <v>73949</v>
       </c>
-      <c r="F9" s="54" t="s">
+      <c r="F9" s="47" t="s">
         <v>207</v>
       </c>
-      <c r="G9" s="54" t="s">
+      <c r="G9" s="47" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="54">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="47">
         <f t="shared" ref="A10:A69" si="0">ROW(A2)</f>
         <v>2</v>
       </c>
-      <c r="B10" s="55">
+      <c r="B10" s="48">
         <v>44593</v>
       </c>
-      <c r="C10" s="56">
-        <v>0</v>
-      </c>
-      <c r="D10" s="56">
+      <c r="C10" s="49">
+        <v>0</v>
+      </c>
+      <c r="D10" s="49">
         <v>66000</v>
       </c>
-      <c r="E10" s="56">
+      <c r="E10" s="49">
         <f>E9+C10-D10</f>
         <v>7949</v>
       </c>
-      <c r="F10" s="54" t="s">
+      <c r="F10" s="47" t="s">
         <v>208</v>
       </c>
-      <c r="G10" s="54" t="s">
+      <c r="G10" s="47" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="54">
+      <c r="H10" s="6">
+        <f>SUM(D9:D19)</f>
+        <v>580000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="47">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B11" s="55">
+      <c r="B11" s="48">
         <v>44593</v>
       </c>
-      <c r="C11" s="56">
-        <v>0</v>
-      </c>
-      <c r="D11" s="56">
+      <c r="C11" s="49">
+        <v>0</v>
+      </c>
+      <c r="D11" s="49">
         <v>39000</v>
       </c>
-      <c r="E11" s="56">
+      <c r="E11" s="49">
         <f>E10+C11-D11</f>
         <v>-31051</v>
       </c>
-      <c r="F11" s="54" t="s">
+      <c r="F11" s="47" t="s">
         <v>201</v>
       </c>
-      <c r="G11" s="54" t="s">
+      <c r="G11" s="47" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="54">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="47">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B12" s="55">
+      <c r="B12" s="48">
         <v>44593</v>
       </c>
-      <c r="C12" s="56">
-        <v>0</v>
-      </c>
-      <c r="D12" s="56">
+      <c r="C12" s="49">
+        <v>0</v>
+      </c>
+      <c r="D12" s="49">
         <v>7000</v>
       </c>
-      <c r="E12" s="56">
-        <f t="shared" ref="E12:E70" si="1">E11+C12-D12</f>
+      <c r="E12" s="49">
+        <f t="shared" ref="E12:E69" si="1">E11+C12-D12</f>
         <v>-38051</v>
       </c>
-      <c r="F12" s="54" t="s">
+      <c r="F12" s="47" t="s">
         <v>209</v>
       </c>
-      <c r="G12" s="54" t="s">
+      <c r="G12" s="47" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="54">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="47">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B13" s="55">
+      <c r="B13" s="48">
         <v>44594</v>
       </c>
-      <c r="C13" s="56">
-        <v>0</v>
-      </c>
-      <c r="D13" s="56">
+      <c r="C13" s="49">
+        <v>0</v>
+      </c>
+      <c r="D13" s="49">
         <v>60000</v>
       </c>
-      <c r="E13" s="56">
+      <c r="E13" s="49">
         <f t="shared" si="1"/>
         <v>-98051</v>
       </c>
-      <c r="F13" s="54" t="s">
+      <c r="F13" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="G13" s="54" t="s">
+      <c r="G13" s="47" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="54">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="47">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B14" s="55">
+      <c r="B14" s="48">
         <v>44595</v>
       </c>
-      <c r="C14" s="56">
+      <c r="C14" s="49">
         <v>500000</v>
       </c>
-      <c r="D14" s="56">
-        <v>0</v>
-      </c>
-      <c r="E14" s="56">
+      <c r="D14" s="49">
+        <v>0</v>
+      </c>
+      <c r="E14" s="49">
         <f t="shared" si="1"/>
         <v>401949</v>
       </c>
-      <c r="F14" s="54" t="s">
+      <c r="F14" s="47" t="s">
         <v>164</v>
       </c>
-      <c r="G14" s="54" t="s">
+      <c r="G14" s="47" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="54">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="47">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B15" s="55">
+      <c r="B15" s="48">
         <v>44595</v>
       </c>
-      <c r="C15" s="56">
-        <v>0</v>
-      </c>
-      <c r="D15" s="56">
+      <c r="C15" s="49">
+        <v>0</v>
+      </c>
+      <c r="D15" s="49">
         <v>38000</v>
       </c>
-      <c r="E15" s="56">
+      <c r="E15" s="49">
         <f t="shared" si="1"/>
         <v>363949</v>
       </c>
-      <c r="F15" s="54" t="s">
+      <c r="F15" s="47" t="s">
         <v>168</v>
       </c>
-      <c r="G15" s="54" t="s">
+      <c r="G15" s="47" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="54">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="47">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B16" s="55">
+      <c r="B16" s="48">
         <v>44595</v>
       </c>
-      <c r="C16" s="56">
-        <v>0</v>
-      </c>
-      <c r="D16" s="56">
+      <c r="C16" s="49">
+        <v>0</v>
+      </c>
+      <c r="D16" s="49">
         <v>120000</v>
       </c>
-      <c r="E16" s="56">
+      <c r="E16" s="49">
         <f t="shared" si="1"/>
         <v>243949</v>
       </c>
-      <c r="F16" s="54" t="s">
+      <c r="F16" s="47" t="s">
         <v>211</v>
       </c>
-      <c r="G16" s="54" t="s">
+      <c r="G16" s="47" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="54">
+      <c r="A17" s="47">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B17" s="55">
+      <c r="B17" s="48">
         <v>44595</v>
       </c>
-      <c r="C17" s="56">
-        <v>0</v>
-      </c>
-      <c r="D17" s="56">
+      <c r="C17" s="49">
+        <v>0</v>
+      </c>
+      <c r="D17" s="49">
         <v>67000</v>
       </c>
-      <c r="E17" s="56">
+      <c r="E17" s="49">
         <f t="shared" si="1"/>
         <v>176949</v>
       </c>
-      <c r="F17" s="54" t="s">
+      <c r="F17" s="47" t="s">
         <v>212</v>
       </c>
-      <c r="G17" s="54" t="s">
+      <c r="G17" s="47" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="54">
+      <c r="A18" s="47">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B18" s="55">
+      <c r="B18" s="48">
         <v>44595</v>
       </c>
-      <c r="C18" s="56">
-        <v>0</v>
-      </c>
-      <c r="D18" s="56">
+      <c r="C18" s="49">
+        <v>0</v>
+      </c>
+      <c r="D18" s="49">
         <v>83000</v>
       </c>
-      <c r="E18" s="56">
+      <c r="E18" s="49">
         <f t="shared" si="1"/>
         <v>93949</v>
       </c>
-      <c r="F18" s="54" t="s">
+      <c r="F18" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="G18" s="54" t="s">
+      <c r="G18" s="47" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="54">
+      <c r="A19" s="47">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B19" s="55">
+      <c r="B19" s="48">
         <v>44595</v>
       </c>
-      <c r="C19" s="56">
-        <v>0</v>
-      </c>
-      <c r="D19" s="56">
+      <c r="C19" s="49">
+        <v>0</v>
+      </c>
+      <c r="D19" s="49">
         <v>100000</v>
       </c>
-      <c r="E19" s="56">
+      <c r="E19" s="49">
         <f t="shared" si="1"/>
         <v>-6051</v>
       </c>
-      <c r="F19" s="54" t="s">
+      <c r="F19" s="47" t="s">
         <v>213</v>
       </c>
-      <c r="G19" s="54" t="s">
+      <c r="G19" s="47" t="s">
         <v>17</v>
       </c>
     </row>
@@ -8852,17 +8912,11 @@
         <v>17</v>
       </c>
       <c r="H20" s="6">
-        <f>SUM(C20:C39)</f>
-        <v>450000</v>
-      </c>
-      <c r="I20" s="6">
         <f>SUM(D20:D39)</f>
         <v>659180</v>
       </c>
-      <c r="J20" s="6">
-        <f>H20-I20</f>
-        <v>-209180</v>
-      </c>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="30">
@@ -9162,7 +9216,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="30">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -9187,7 +9241,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="30">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -9212,7 +9266,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="30">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -9237,7 +9291,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="30">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -9262,7 +9316,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="30">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -9287,7 +9341,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="30">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -9312,7 +9366,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="30">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -9337,793 +9391,807 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="57">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="50">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B40" s="58">
+      <c r="B40" s="51">
         <v>44602</v>
       </c>
-      <c r="C40" s="59">
+      <c r="C40" s="52">
         <v>150000</v>
       </c>
-      <c r="D40" s="59">
-        <v>0</v>
-      </c>
-      <c r="E40" s="59">
+      <c r="D40" s="52">
+        <v>0</v>
+      </c>
+      <c r="E40" s="52">
         <f t="shared" si="1"/>
         <v>-65231</v>
       </c>
-      <c r="F40" s="57" t="s">
+      <c r="F40" s="50" t="s">
         <v>223</v>
       </c>
-      <c r="G40" s="57" t="s">
+      <c r="G40" s="50" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="57">
+      <c r="H40" s="6">
+        <f>SUM(D40:D57)</f>
+        <v>896000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="50">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B41" s="58">
+      <c r="B41" s="51">
         <v>44602</v>
       </c>
-      <c r="C41" s="59">
-        <v>0</v>
-      </c>
-      <c r="D41" s="59">
+      <c r="C41" s="52">
+        <v>0</v>
+      </c>
+      <c r="D41" s="52">
         <v>75000</v>
       </c>
-      <c r="E41" s="59">
+      <c r="E41" s="52">
         <f t="shared" si="1"/>
         <v>-140231</v>
       </c>
-      <c r="F41" s="57" t="s">
+      <c r="F41" s="50" t="s">
         <v>224</v>
       </c>
-      <c r="G41" s="57" t="s">
+      <c r="G41" s="50" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="57">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="50">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B42" s="58">
+      <c r="B42" s="51">
         <v>44602</v>
       </c>
-      <c r="C42" s="59">
-        <v>0</v>
-      </c>
-      <c r="D42" s="59">
+      <c r="C42" s="52">
+        <v>0</v>
+      </c>
+      <c r="D42" s="52">
         <v>27000</v>
       </c>
-      <c r="E42" s="59">
+      <c r="E42" s="52">
         <f t="shared" si="1"/>
         <v>-167231</v>
       </c>
-      <c r="F42" s="57" t="s">
+      <c r="F42" s="50" t="s">
         <v>225</v>
       </c>
-      <c r="G42" s="57" t="s">
+      <c r="G42" s="50" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="57">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="50">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B43" s="58">
+      <c r="B43" s="51">
         <v>44603</v>
       </c>
-      <c r="C43" s="59">
-        <v>0</v>
-      </c>
-      <c r="D43" s="59">
+      <c r="C43" s="52">
+        <v>0</v>
+      </c>
+      <c r="D43" s="52">
         <v>45000</v>
       </c>
-      <c r="E43" s="59">
+      <c r="E43" s="52">
         <f t="shared" si="1"/>
         <v>-212231</v>
       </c>
-      <c r="F43" s="57" t="s">
+      <c r="F43" s="50" t="s">
         <v>226</v>
       </c>
-      <c r="G43" s="57" t="s">
+      <c r="G43" s="50" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="57">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="50">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B44" s="58">
+      <c r="B44" s="51">
         <v>44603</v>
       </c>
-      <c r="C44" s="59">
-        <v>0</v>
-      </c>
-      <c r="D44" s="59">
+      <c r="C44" s="52">
+        <v>0</v>
+      </c>
+      <c r="D44" s="52">
         <v>100000</v>
       </c>
-      <c r="E44" s="59">
+      <c r="E44" s="52">
         <f t="shared" si="1"/>
         <v>-312231</v>
       </c>
-      <c r="F44" s="57" t="s">
+      <c r="F44" s="50" t="s">
         <v>213</v>
       </c>
-      <c r="G44" s="57" t="s">
+      <c r="G44" s="50" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="57">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="50">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B45" s="58">
+      <c r="B45" s="51">
         <v>44603</v>
       </c>
-      <c r="C45" s="59">
-        <v>0</v>
-      </c>
-      <c r="D45" s="59">
+      <c r="C45" s="52">
+        <v>0</v>
+      </c>
+      <c r="D45" s="52">
         <v>18000</v>
       </c>
-      <c r="E45" s="59">
+      <c r="E45" s="52">
         <f t="shared" si="1"/>
         <v>-330231</v>
       </c>
-      <c r="F45" s="57" t="s">
+      <c r="F45" s="50" t="s">
         <v>168</v>
       </c>
-      <c r="G45" s="57" t="s">
+      <c r="G45" s="50" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="57">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="50">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B46" s="58">
+      <c r="B46" s="51">
         <v>44603</v>
       </c>
-      <c r="C46" s="59">
+      <c r="C46" s="52">
         <v>100000</v>
       </c>
-      <c r="D46" s="59">
-        <v>0</v>
-      </c>
-      <c r="E46" s="59">
+      <c r="D46" s="52">
+        <v>0</v>
+      </c>
+      <c r="E46" s="52">
         <f t="shared" si="1"/>
         <v>-230231</v>
       </c>
-      <c r="F46" s="57" t="s">
+      <c r="F46" s="50" t="s">
         <v>228</v>
       </c>
-      <c r="G46" s="57" t="s">
+      <c r="G46" s="50" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="57">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="50">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B47" s="58">
+      <c r="B47" s="51">
         <v>44603</v>
       </c>
-      <c r="C47" s="59">
-        <v>0</v>
-      </c>
-      <c r="D47" s="59">
+      <c r="C47" s="52">
+        <v>0</v>
+      </c>
+      <c r="D47" s="52">
         <v>2000</v>
       </c>
-      <c r="E47" s="59">
+      <c r="E47" s="52">
         <f t="shared" si="1"/>
         <v>-232231</v>
       </c>
-      <c r="F47" s="57" t="s">
+      <c r="F47" s="50" t="s">
         <v>229</v>
       </c>
-      <c r="G47" s="57" t="s">
+      <c r="G47" s="50" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="57">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="50">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B48" s="58">
+      <c r="B48" s="51">
         <v>44603</v>
       </c>
-      <c r="C48" s="59">
-        <v>0</v>
-      </c>
-      <c r="D48" s="59">
+      <c r="C48" s="52">
+        <v>0</v>
+      </c>
+      <c r="D48" s="52">
         <v>3000</v>
       </c>
-      <c r="E48" s="59">
+      <c r="E48" s="52">
         <f t="shared" si="1"/>
         <v>-235231</v>
       </c>
-      <c r="F48" s="57" t="s">
+      <c r="F48" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="G48" s="57" t="s">
+      <c r="G48" s="50" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="57">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="50">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B49" s="58">
+      <c r="B49" s="51">
         <v>44605</v>
       </c>
-      <c r="C49" s="59">
-        <v>0</v>
-      </c>
-      <c r="D49" s="59">
+      <c r="C49" s="52">
+        <v>0</v>
+      </c>
+      <c r="D49" s="52">
         <v>48000</v>
       </c>
-      <c r="E49" s="59">
+      <c r="E49" s="52">
         <f t="shared" si="1"/>
         <v>-283231</v>
       </c>
-      <c r="F49" s="57" t="s">
+      <c r="F49" s="50" t="s">
         <v>198</v>
       </c>
-      <c r="G49" s="57" t="s">
+      <c r="G49" s="50" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="57">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="50">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B50" s="58">
+      <c r="B50" s="51">
         <v>44605</v>
       </c>
-      <c r="C50" s="59">
-        <v>0</v>
-      </c>
-      <c r="D50" s="59">
+      <c r="C50" s="52">
+        <v>0</v>
+      </c>
+      <c r="D50" s="52">
         <v>10000</v>
       </c>
-      <c r="E50" s="59">
+      <c r="E50" s="52">
         <f t="shared" si="1"/>
         <v>-293231</v>
       </c>
-      <c r="F50" s="57" t="s">
+      <c r="F50" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="G50" s="57" t="s">
+      <c r="G50" s="50" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="57">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="50">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B51" s="58">
+      <c r="B51" s="51">
         <v>44605</v>
       </c>
-      <c r="C51" s="59">
-        <v>0</v>
-      </c>
-      <c r="D51" s="59">
+      <c r="C51" s="52">
+        <v>0</v>
+      </c>
+      <c r="D51" s="52">
         <v>25000</v>
       </c>
-      <c r="E51" s="59">
+      <c r="E51" s="52">
         <f t="shared" si="1"/>
         <v>-318231</v>
       </c>
-      <c r="F51" s="57" t="s">
+      <c r="F51" s="50" t="s">
         <v>168</v>
       </c>
-      <c r="G51" s="57" t="s">
+      <c r="G51" s="50" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="57">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="50">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B52" s="58">
+      <c r="B52" s="51">
         <v>44605</v>
       </c>
-      <c r="C52" s="59">
-        <v>0</v>
-      </c>
-      <c r="D52" s="59">
+      <c r="C52" s="52">
+        <v>0</v>
+      </c>
+      <c r="D52" s="52">
         <v>50000</v>
       </c>
-      <c r="E52" s="59">
+      <c r="E52" s="52">
         <f t="shared" si="1"/>
         <v>-368231</v>
       </c>
-      <c r="F52" s="57" t="s">
+      <c r="F52" s="50" t="s">
         <v>213</v>
       </c>
-      <c r="G52" s="57" t="s">
+      <c r="G52" s="50" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="57">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="50">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B53" s="58">
+      <c r="B53" s="51">
         <v>44605</v>
       </c>
-      <c r="C53" s="59">
+      <c r="C53" s="52">
         <v>200000</v>
       </c>
-      <c r="D53" s="59">
-        <v>0</v>
-      </c>
-      <c r="E53" s="59">
+      <c r="D53" s="52">
+        <v>0</v>
+      </c>
+      <c r="E53" s="52">
         <f t="shared" si="1"/>
         <v>-168231</v>
       </c>
-      <c r="F53" s="57" t="s">
+      <c r="F53" s="50" t="s">
         <v>228</v>
       </c>
-      <c r="G53" s="57" t="s">
+      <c r="G53" s="50" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="57">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="50">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B54" s="58">
+      <c r="B54" s="51">
         <v>44606</v>
       </c>
-      <c r="C54" s="59">
+      <c r="C54" s="52">
         <v>750000</v>
       </c>
-      <c r="D54" s="59">
-        <v>0</v>
-      </c>
-      <c r="E54" s="59">
+      <c r="D54" s="52">
+        <v>0</v>
+      </c>
+      <c r="E54" s="52">
         <f t="shared" si="1"/>
         <v>581769</v>
       </c>
-      <c r="F54" s="57" t="s">
+      <c r="F54" s="50" t="s">
         <v>228</v>
       </c>
-      <c r="G54" s="57" t="s">
+      <c r="G54" s="50" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="57">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="50">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B55" s="58">
+      <c r="B55" s="51">
         <v>44606</v>
       </c>
-      <c r="C55" s="59">
-        <v>0</v>
-      </c>
-      <c r="D55" s="59">
+      <c r="C55" s="52">
+        <v>0</v>
+      </c>
+      <c r="D55" s="52">
         <v>245000</v>
       </c>
-      <c r="E55" s="59">
+      <c r="E55" s="52">
         <f t="shared" si="1"/>
         <v>336769</v>
       </c>
-      <c r="F55" s="57" t="s">
+      <c r="F55" s="50" t="s">
         <v>230</v>
       </c>
-      <c r="G55" s="57" t="s">
+      <c r="G55" s="50" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="57">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="50">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B56" s="58">
+      <c r="B56" s="51">
         <v>44606</v>
       </c>
-      <c r="C56" s="59">
-        <v>0</v>
-      </c>
-      <c r="D56" s="59">
+      <c r="C56" s="52">
+        <v>0</v>
+      </c>
+      <c r="D56" s="52">
         <v>245000</v>
       </c>
-      <c r="E56" s="59">
+      <c r="E56" s="52">
         <f t="shared" si="1"/>
         <v>91769</v>
       </c>
-      <c r="F56" s="57" t="s">
+      <c r="F56" s="50" t="s">
         <v>230</v>
       </c>
-      <c r="G56" s="57" t="s">
+      <c r="G56" s="50" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="57">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="50">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B57" s="58">
+      <c r="B57" s="51">
         <v>44606</v>
       </c>
-      <c r="C57" s="59">
-        <v>0</v>
-      </c>
-      <c r="D57" s="59">
+      <c r="C57" s="52">
+        <v>0</v>
+      </c>
+      <c r="D57" s="52">
         <v>3000</v>
       </c>
-      <c r="E57" s="59">
+      <c r="E57" s="52">
         <f t="shared" si="1"/>
         <v>88769</v>
       </c>
-      <c r="F57" s="57" t="s">
+      <c r="F57" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="G57" s="57" t="s">
+      <c r="G57" s="50" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="60">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="53">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B58" s="61">
+      <c r="B58" s="54">
         <v>44607</v>
       </c>
-      <c r="C58" s="62">
-        <v>0</v>
-      </c>
-      <c r="D58" s="62">
+      <c r="C58" s="55">
+        <v>0</v>
+      </c>
+      <c r="D58" s="55">
         <v>32000</v>
       </c>
-      <c r="E58" s="62">
+      <c r="E58" s="55">
         <f t="shared" si="1"/>
         <v>56769</v>
       </c>
-      <c r="F58" s="60" t="s">
+      <c r="F58" s="53" t="s">
         <v>231</v>
       </c>
-      <c r="G58" s="60" t="s">
+      <c r="G58" s="53" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="60">
+      <c r="H58" s="6">
+        <f>SUM(D58:D69)</f>
+        <v>317500</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="53">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B59" s="61">
+      <c r="B59" s="54">
         <v>44607</v>
       </c>
-      <c r="C59" s="62">
-        <v>0</v>
-      </c>
-      <c r="D59" s="62">
+      <c r="C59" s="55">
+        <v>0</v>
+      </c>
+      <c r="D59" s="55">
         <v>50000</v>
       </c>
-      <c r="E59" s="62">
+      <c r="E59" s="55">
         <f t="shared" si="1"/>
         <v>6769</v>
       </c>
-      <c r="F59" s="60" t="s">
+      <c r="F59" s="53" t="s">
         <v>213</v>
       </c>
-      <c r="G59" s="60" t="s">
+      <c r="G59" s="53" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="60">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="53">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B60" s="61">
+      <c r="B60" s="54">
         <v>44607</v>
       </c>
-      <c r="C60" s="62">
-        <v>0</v>
-      </c>
-      <c r="D60" s="62">
+      <c r="C60" s="55">
+        <v>0</v>
+      </c>
+      <c r="D60" s="55">
         <v>8000</v>
       </c>
-      <c r="E60" s="62">
+      <c r="E60" s="55">
         <f t="shared" si="1"/>
         <v>-1231</v>
       </c>
-      <c r="F60" s="60" t="s">
+      <c r="F60" s="53" t="s">
         <v>232</v>
       </c>
-      <c r="G60" s="60" t="s">
+      <c r="G60" s="53" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="60">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="53">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B61" s="61">
+      <c r="B61" s="54">
         <v>44607</v>
       </c>
-      <c r="C61" s="62">
-        <v>0</v>
-      </c>
-      <c r="D61" s="62">
+      <c r="C61" s="55">
+        <v>0</v>
+      </c>
+      <c r="D61" s="55">
         <v>32000</v>
       </c>
-      <c r="E61" s="62">
+      <c r="E61" s="55">
         <f t="shared" si="1"/>
         <v>-33231</v>
       </c>
-      <c r="F61" s="60" t="s">
+      <c r="F61" s="53" t="s">
         <v>233</v>
       </c>
-      <c r="G61" s="60" t="s">
+      <c r="G61" s="53" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="60">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="53">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B62" s="61">
+      <c r="B62" s="54">
         <v>44608</v>
       </c>
-      <c r="C62" s="62">
-        <v>0</v>
-      </c>
-      <c r="D62" s="62">
+      <c r="C62" s="55">
+        <v>0</v>
+      </c>
+      <c r="D62" s="55">
         <v>10000</v>
       </c>
-      <c r="E62" s="62">
+      <c r="E62" s="55">
         <f t="shared" si="1"/>
         <v>-43231</v>
       </c>
-      <c r="F62" s="60" t="s">
+      <c r="F62" s="53" t="s">
         <v>168</v>
       </c>
-      <c r="G62" s="60" t="s">
+      <c r="G62" s="53" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="60">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="53">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="B63" s="61">
+      <c r="B63" s="54">
         <v>44609</v>
       </c>
-      <c r="C63" s="62">
+      <c r="C63" s="55">
         <v>200000</v>
       </c>
-      <c r="D63" s="62">
-        <v>0</v>
-      </c>
-      <c r="E63" s="62">
+      <c r="D63" s="55">
+        <v>0</v>
+      </c>
+      <c r="E63" s="55">
         <f t="shared" si="1"/>
         <v>156769</v>
       </c>
-      <c r="F63" s="60" t="s">
+      <c r="F63" s="53" t="s">
         <v>228</v>
       </c>
-      <c r="G63" s="60" t="s">
+      <c r="G63" s="53" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="60">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="53">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="B64" s="61">
+      <c r="B64" s="54">
         <v>44609</v>
       </c>
-      <c r="C64" s="62">
-        <v>0</v>
-      </c>
-      <c r="D64" s="62">
+      <c r="C64" s="55">
+        <v>0</v>
+      </c>
+      <c r="D64" s="55">
         <v>55000</v>
       </c>
-      <c r="E64" s="62">
+      <c r="E64" s="55">
         <f t="shared" si="1"/>
         <v>101769</v>
       </c>
-      <c r="F64" s="60" t="s">
+      <c r="F64" s="53" t="s">
         <v>234</v>
       </c>
-      <c r="G64" s="60" t="s">
+      <c r="G64" s="53" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="60">
+      <c r="A65" s="53">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B65" s="61">
+      <c r="B65" s="54">
         <v>44609</v>
       </c>
-      <c r="C65" s="62">
-        <v>0</v>
-      </c>
-      <c r="D65" s="62">
+      <c r="C65" s="55">
+        <v>0</v>
+      </c>
+      <c r="D65" s="55">
         <v>2500</v>
       </c>
-      <c r="E65" s="62">
+      <c r="E65" s="55">
         <f t="shared" si="1"/>
         <v>99269</v>
       </c>
-      <c r="F65" s="60" t="s">
+      <c r="F65" s="53" t="s">
         <v>235</v>
       </c>
-      <c r="G65" s="60" t="s">
+      <c r="G65" s="53" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="60">
+      <c r="A66" s="53">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="B66" s="61">
+      <c r="B66" s="54">
         <v>44609</v>
       </c>
-      <c r="C66" s="62">
-        <v>0</v>
-      </c>
-      <c r="D66" s="62">
+      <c r="C66" s="55">
+        <v>0</v>
+      </c>
+      <c r="D66" s="55">
         <v>83000</v>
       </c>
-      <c r="E66" s="62">
+      <c r="E66" s="55">
         <f t="shared" si="1"/>
         <v>16269</v>
       </c>
-      <c r="F66" s="60" t="s">
+      <c r="F66" s="53" t="s">
         <v>121</v>
       </c>
-      <c r="G66" s="60" t="s">
+      <c r="G66" s="53" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="60">
+      <c r="A67" s="53">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="B67" s="61">
+      <c r="B67" s="54">
         <v>44610</v>
       </c>
-      <c r="C67" s="62">
-        <v>0</v>
-      </c>
-      <c r="D67" s="62">
+      <c r="C67" s="55">
+        <v>0</v>
+      </c>
+      <c r="D67" s="55">
         <v>20000</v>
       </c>
-      <c r="E67" s="62">
+      <c r="E67" s="55">
         <f t="shared" si="1"/>
         <v>-3731</v>
       </c>
-      <c r="F67" s="60" t="s">
+      <c r="F67" s="53" t="s">
         <v>168</v>
       </c>
-      <c r="G67" s="60" t="s">
+      <c r="G67" s="53" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="60">
+      <c r="A68" s="53">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="B68" s="61">
+      <c r="B68" s="54">
         <v>44611</v>
       </c>
-      <c r="C68" s="62">
-        <v>0</v>
-      </c>
-      <c r="D68" s="62">
+      <c r="C68" s="55">
+        <v>0</v>
+      </c>
+      <c r="D68" s="55">
         <v>3000</v>
       </c>
-      <c r="E68" s="62">
+      <c r="E68" s="55">
         <f t="shared" si="1"/>
         <v>-6731</v>
       </c>
-      <c r="F68" s="60" t="s">
+      <c r="F68" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="G68" s="60" t="s">
+      <c r="G68" s="53" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="60">
+      <c r="A69" s="53">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="B69" s="61">
+      <c r="B69" s="54">
         <v>44611</v>
       </c>
-      <c r="C69" s="62">
-        <v>0</v>
-      </c>
-      <c r="D69" s="62">
+      <c r="C69" s="55">
+        <v>0</v>
+      </c>
+      <c r="D69" s="55">
         <v>22000</v>
       </c>
-      <c r="E69" s="62">
+      <c r="E69" s="55">
         <f t="shared" si="1"/>
         <v>-28731</v>
       </c>
-      <c r="F69" s="60" t="s">
+      <c r="F69" s="53" t="s">
         <v>168</v>
       </c>
-      <c r="G69" s="60" t="s">
+      <c r="G69" s="53" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="49" t="s">
+      <c r="A70" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="B70" s="50"/>
-      <c r="C70" s="51">
+      <c r="B70" s="59"/>
+      <c r="C70" s="60">
         <f>SUM(C9:C69)</f>
         <v>2423949</v>
       </c>
-      <c r="D70" s="51">
+      <c r="D70" s="60">
         <f>SUM(D9:D69)</f>
         <v>2452680</v>
       </c>
-      <c r="E70" s="51">
+      <c r="E70" s="60">
         <f>C70-D70</f>
         <v>-28731</v>
       </c>
-      <c r="F70" s="50"/>
-      <c r="G70" s="50"/>
+      <c r="F70" s="59"/>
+      <c r="G70" s="59"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="50"/>
-      <c r="B71" s="50"/>
-      <c r="C71" s="52"/>
-      <c r="D71" s="52"/>
-      <c r="E71" s="51"/>
-      <c r="F71" s="50"/>
-      <c r="G71" s="50"/>
+      <c r="A71" s="59"/>
+      <c r="B71" s="59"/>
+      <c r="C71" s="61"/>
+      <c r="D71" s="61"/>
+      <c r="E71" s="60"/>
+      <c r="F71" s="59"/>
+      <c r="G71" s="59"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="50"/>
-      <c r="B72" s="50"/>
-      <c r="C72" s="52"/>
-      <c r="D72" s="52"/>
-      <c r="E72" s="51"/>
-      <c r="F72" s="50"/>
-      <c r="G72" s="50"/>
+      <c r="A72" s="59"/>
+      <c r="B72" s="59"/>
+      <c r="C72" s="61"/>
+      <c r="D72" s="61"/>
+      <c r="E72" s="60"/>
+      <c r="F72" s="59"/>
+      <c r="G72" s="59"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C73" s="6">
+        <f>C14+C20+C24+C40+C46+C53+C54+C63</f>
+        <v>2350000</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -10138,4 +10206,1145 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97D8A395-695E-4464-B036-69F57F9C226F}">
+  <dimension ref="A1:J76"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="35.5703125" customWidth="1"/>
+    <col min="3" max="3" width="41.5703125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="49.7109375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="36" style="6" customWidth="1"/>
+    <col min="6" max="6" width="61" customWidth="1"/>
+    <col min="7" max="7" width="33.5703125" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="62" t="s">
+        <v>248</v>
+      </c>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+    </row>
+    <row r="8" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>247</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6">
+        <f>C9-D9</f>
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>247</v>
+      </c>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="33">
+        <v>44631</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0</v>
+      </c>
+      <c r="D10" s="6">
+        <v>10000</v>
+      </c>
+      <c r="E10" s="6">
+        <f>E9+C10-D10</f>
+        <v>-10000</v>
+      </c>
+      <c r="F10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="63"/>
+      <c r="B11" s="33">
+        <v>44632</v>
+      </c>
+      <c r="C11" s="65">
+        <v>0</v>
+      </c>
+      <c r="D11" s="65">
+        <v>200000</v>
+      </c>
+      <c r="E11" s="6">
+        <f t="shared" ref="E11:E23" si="0">E10+C11-D11</f>
+        <v>-210000</v>
+      </c>
+      <c r="F11" s="63" t="s">
+        <v>239</v>
+      </c>
+      <c r="G11" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="63"/>
+      <c r="B12" s="33">
+        <v>44633</v>
+      </c>
+      <c r="C12" s="65">
+        <v>0</v>
+      </c>
+      <c r="D12" s="65">
+        <v>24000</v>
+      </c>
+      <c r="E12" s="6">
+        <f t="shared" si="0"/>
+        <v>-234000</v>
+      </c>
+      <c r="F12" s="63" t="s">
+        <v>240</v>
+      </c>
+      <c r="G12" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="65"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="63"/>
+      <c r="B13" s="33">
+        <v>44633</v>
+      </c>
+      <c r="C13" s="65">
+        <v>0</v>
+      </c>
+      <c r="D13" s="65">
+        <v>55000</v>
+      </c>
+      <c r="E13" s="6">
+        <f t="shared" si="0"/>
+        <v>-289000</v>
+      </c>
+      <c r="F13" s="63" t="s">
+        <v>241</v>
+      </c>
+      <c r="G13" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="65"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="63"/>
+      <c r="B14" s="64">
+        <v>44634</v>
+      </c>
+      <c r="C14" s="65">
+        <v>50000</v>
+      </c>
+      <c r="D14" s="65">
+        <v>0</v>
+      </c>
+      <c r="E14" s="6">
+        <f t="shared" si="0"/>
+        <v>-239000</v>
+      </c>
+      <c r="F14" s="63" t="s">
+        <v>238</v>
+      </c>
+      <c r="G14" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="63"/>
+      <c r="B15" s="64">
+        <v>44634</v>
+      </c>
+      <c r="C15" s="65">
+        <v>0</v>
+      </c>
+      <c r="D15" s="65">
+        <v>16000</v>
+      </c>
+      <c r="E15" s="6">
+        <f t="shared" si="0"/>
+        <v>-255000</v>
+      </c>
+      <c r="F15" s="63" t="s">
+        <v>242</v>
+      </c>
+      <c r="G15" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="63"/>
+      <c r="B16" s="64">
+        <v>44634</v>
+      </c>
+      <c r="C16" s="65">
+        <v>0</v>
+      </c>
+      <c r="D16" s="65">
+        <v>10000</v>
+      </c>
+      <c r="E16" s="6">
+        <f t="shared" si="0"/>
+        <v>-265000</v>
+      </c>
+      <c r="F16" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="63"/>
+      <c r="B17" s="64">
+        <v>44635</v>
+      </c>
+      <c r="C17" s="65">
+        <v>0</v>
+      </c>
+      <c r="D17" s="65">
+        <v>200000</v>
+      </c>
+      <c r="E17" s="6">
+        <f t="shared" si="0"/>
+        <v>-465000</v>
+      </c>
+      <c r="F17" s="63" t="s">
+        <v>239</v>
+      </c>
+      <c r="G17" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="63"/>
+      <c r="B18" s="64">
+        <v>44635</v>
+      </c>
+      <c r="C18" s="65">
+        <v>0</v>
+      </c>
+      <c r="D18" s="65">
+        <v>28000</v>
+      </c>
+      <c r="E18" s="6">
+        <f t="shared" si="0"/>
+        <v>-493000</v>
+      </c>
+      <c r="F18" s="63" t="s">
+        <v>243</v>
+      </c>
+      <c r="G18" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="63"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="63"/>
+      <c r="B19" s="64">
+        <v>44635</v>
+      </c>
+      <c r="C19" s="65">
+        <v>0</v>
+      </c>
+      <c r="D19" s="65">
+        <v>16000</v>
+      </c>
+      <c r="E19" s="6">
+        <f t="shared" si="0"/>
+        <v>-509000</v>
+      </c>
+      <c r="F19" s="63" t="s">
+        <v>242</v>
+      </c>
+      <c r="G19" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="63"/>
+      <c r="B20" s="64">
+        <v>44636</v>
+      </c>
+      <c r="C20" s="65">
+        <v>0</v>
+      </c>
+      <c r="D20" s="65">
+        <v>3500</v>
+      </c>
+      <c r="E20" s="6">
+        <f t="shared" si="0"/>
+        <v>-512500</v>
+      </c>
+      <c r="F20" s="63" t="s">
+        <v>244</v>
+      </c>
+      <c r="G20" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="63"/>
+      <c r="B21" s="64">
+        <v>44636</v>
+      </c>
+      <c r="C21" s="65">
+        <v>0</v>
+      </c>
+      <c r="D21" s="65">
+        <v>30000</v>
+      </c>
+      <c r="E21" s="6">
+        <f t="shared" si="0"/>
+        <v>-542500</v>
+      </c>
+      <c r="F21" s="63" t="s">
+        <v>245</v>
+      </c>
+      <c r="G21" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="63"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="63"/>
+      <c r="B22" s="64">
+        <v>44636</v>
+      </c>
+      <c r="C22" s="65">
+        <v>0</v>
+      </c>
+      <c r="D22" s="65">
+        <v>140000</v>
+      </c>
+      <c r="E22" s="6">
+        <f t="shared" si="0"/>
+        <v>-682500</v>
+      </c>
+      <c r="F22" s="63" t="s">
+        <v>246</v>
+      </c>
+      <c r="G22" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="63"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="63"/>
+      <c r="B23" s="64">
+        <v>44636</v>
+      </c>
+      <c r="C23" s="65">
+        <v>0</v>
+      </c>
+      <c r="D23" s="65">
+        <v>19500</v>
+      </c>
+      <c r="E23" s="6">
+        <f t="shared" si="0"/>
+        <v>-702000</v>
+      </c>
+      <c r="F23" s="63" t="s">
+        <v>249</v>
+      </c>
+      <c r="G23" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" s="65"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="59"/>
+      <c r="C24" s="60">
+        <f>SUM(C9:C23)</f>
+        <v>50000</v>
+      </c>
+      <c r="D24" s="60">
+        <f>SUM(D9:D23)</f>
+        <v>752000</v>
+      </c>
+      <c r="E24" s="60">
+        <f>C24-D24</f>
+        <v>-702000</v>
+      </c>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="63"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="59"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="63"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="59"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="63"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="63"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="63"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="63"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="63"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="63"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="63"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="63"/>
+      <c r="J30" s="63"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="63"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="63"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="63"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="63"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="63"/>
+      <c r="B33" s="64"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="63"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="63"/>
+      <c r="B34" s="64"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="65"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="63"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="63"/>
+      <c r="B35" s="64"/>
+      <c r="C35" s="65"/>
+      <c r="D35" s="65"/>
+      <c r="E35" s="65"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="63"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="63"/>
+      <c r="J35" s="63"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="63"/>
+      <c r="B36" s="64"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="63"/>
+      <c r="G36" s="63"/>
+      <c r="H36" s="63"/>
+      <c r="I36" s="63"/>
+      <c r="J36" s="63"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="63"/>
+      <c r="B37" s="64"/>
+      <c r="C37" s="65"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="65"/>
+      <c r="F37" s="63"/>
+      <c r="G37" s="63"/>
+      <c r="H37" s="63"/>
+      <c r="I37" s="63"/>
+      <c r="J37" s="63"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="63"/>
+      <c r="B38" s="64"/>
+      <c r="C38" s="65"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="65"/>
+      <c r="F38" s="63"/>
+      <c r="G38" s="63"/>
+      <c r="H38" s="63"/>
+      <c r="I38" s="63"/>
+      <c r="J38" s="63"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="63"/>
+      <c r="B39" s="64"/>
+      <c r="C39" s="65"/>
+      <c r="D39" s="65"/>
+      <c r="E39" s="65"/>
+      <c r="F39" s="63"/>
+      <c r="G39" s="63"/>
+      <c r="H39" s="63"/>
+      <c r="I39" s="63"/>
+      <c r="J39" s="63"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="63"/>
+      <c r="B40" s="64"/>
+      <c r="C40" s="65"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="63"/>
+      <c r="G40" s="63"/>
+      <c r="H40" s="63"/>
+      <c r="I40" s="63"/>
+      <c r="J40" s="63"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="63"/>
+      <c r="B41" s="64"/>
+      <c r="C41" s="65"/>
+      <c r="D41" s="65"/>
+      <c r="E41" s="65"/>
+      <c r="F41" s="63"/>
+      <c r="G41" s="63"/>
+      <c r="H41" s="63"/>
+      <c r="I41" s="63"/>
+      <c r="J41" s="63"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="63"/>
+      <c r="B42" s="64"/>
+      <c r="C42" s="65"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="65"/>
+      <c r="F42" s="63"/>
+      <c r="G42" s="63"/>
+      <c r="H42" s="63"/>
+      <c r="I42" s="63"/>
+      <c r="J42" s="63"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="63"/>
+      <c r="B43" s="64"/>
+      <c r="C43" s="65"/>
+      <c r="D43" s="65"/>
+      <c r="E43" s="65"/>
+      <c r="F43" s="63"/>
+      <c r="G43" s="63"/>
+      <c r="H43" s="65"/>
+      <c r="I43" s="63"/>
+      <c r="J43" s="63"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="63"/>
+      <c r="B44" s="64"/>
+      <c r="C44" s="65"/>
+      <c r="D44" s="65"/>
+      <c r="E44" s="65"/>
+      <c r="F44" s="63"/>
+      <c r="G44" s="63"/>
+      <c r="H44" s="63"/>
+      <c r="I44" s="63"/>
+      <c r="J44" s="63"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="63"/>
+      <c r="B45" s="64"/>
+      <c r="C45" s="65"/>
+      <c r="D45" s="65"/>
+      <c r="E45" s="65"/>
+      <c r="F45" s="63"/>
+      <c r="G45" s="63"/>
+      <c r="H45" s="63"/>
+      <c r="I45" s="63"/>
+      <c r="J45" s="63"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="63"/>
+      <c r="B46" s="64"/>
+      <c r="C46" s="65"/>
+      <c r="D46" s="65"/>
+      <c r="E46" s="65"/>
+      <c r="F46" s="63"/>
+      <c r="G46" s="63"/>
+      <c r="H46" s="63"/>
+      <c r="I46" s="63"/>
+      <c r="J46" s="63"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="63"/>
+      <c r="B47" s="64"/>
+      <c r="C47" s="65"/>
+      <c r="D47" s="65"/>
+      <c r="E47" s="65"/>
+      <c r="F47" s="63"/>
+      <c r="G47" s="63"/>
+      <c r="H47" s="63"/>
+      <c r="I47" s="63"/>
+      <c r="J47" s="63"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="63"/>
+      <c r="B48" s="64"/>
+      <c r="C48" s="65"/>
+      <c r="D48" s="65"/>
+      <c r="E48" s="65"/>
+      <c r="F48" s="63"/>
+      <c r="G48" s="63"/>
+      <c r="H48" s="63"/>
+      <c r="I48" s="63"/>
+      <c r="J48" s="63"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="63"/>
+      <c r="B49" s="64"/>
+      <c r="C49" s="65"/>
+      <c r="D49" s="65"/>
+      <c r="E49" s="65"/>
+      <c r="F49" s="63"/>
+      <c r="G49" s="63"/>
+      <c r="H49" s="63"/>
+      <c r="I49" s="63"/>
+      <c r="J49" s="63"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="63"/>
+      <c r="B50" s="64"/>
+      <c r="C50" s="65"/>
+      <c r="D50" s="65"/>
+      <c r="E50" s="65"/>
+      <c r="F50" s="63"/>
+      <c r="G50" s="63"/>
+      <c r="H50" s="63"/>
+      <c r="I50" s="63"/>
+      <c r="J50" s="63"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="63"/>
+      <c r="B51" s="64"/>
+      <c r="C51" s="65"/>
+      <c r="D51" s="65"/>
+      <c r="E51" s="65"/>
+      <c r="F51" s="63"/>
+      <c r="G51" s="63"/>
+      <c r="H51" s="63"/>
+      <c r="I51" s="63"/>
+      <c r="J51" s="63"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="63"/>
+      <c r="B52" s="64"/>
+      <c r="C52" s="65"/>
+      <c r="D52" s="65"/>
+      <c r="E52" s="65"/>
+      <c r="F52" s="63"/>
+      <c r="G52" s="63"/>
+      <c r="H52" s="63"/>
+      <c r="I52" s="63"/>
+      <c r="J52" s="63"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="63"/>
+      <c r="B53" s="64"/>
+      <c r="C53" s="65"/>
+      <c r="D53" s="65"/>
+      <c r="E53" s="65"/>
+      <c r="F53" s="63"/>
+      <c r="G53" s="63"/>
+      <c r="H53" s="63"/>
+      <c r="I53" s="63"/>
+      <c r="J53" s="63"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="63"/>
+      <c r="B54" s="64"/>
+      <c r="C54" s="65"/>
+      <c r="D54" s="65"/>
+      <c r="E54" s="65"/>
+      <c r="F54" s="63"/>
+      <c r="G54" s="63"/>
+      <c r="H54" s="63"/>
+      <c r="I54" s="63"/>
+      <c r="J54" s="63"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="63"/>
+      <c r="B55" s="64"/>
+      <c r="C55" s="65"/>
+      <c r="D55" s="65"/>
+      <c r="E55" s="65"/>
+      <c r="F55" s="63"/>
+      <c r="G55" s="63"/>
+      <c r="H55" s="63"/>
+      <c r="I55" s="63"/>
+      <c r="J55" s="63"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="63"/>
+      <c r="B56" s="64"/>
+      <c r="C56" s="65"/>
+      <c r="D56" s="65"/>
+      <c r="E56" s="65"/>
+      <c r="F56" s="63"/>
+      <c r="G56" s="63"/>
+      <c r="H56" s="63"/>
+      <c r="I56" s="63"/>
+      <c r="J56" s="63"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="63"/>
+      <c r="B57" s="64"/>
+      <c r="C57" s="65"/>
+      <c r="D57" s="65"/>
+      <c r="E57" s="65"/>
+      <c r="F57" s="63"/>
+      <c r="G57" s="63"/>
+      <c r="H57" s="63"/>
+      <c r="I57" s="63"/>
+      <c r="J57" s="63"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="63"/>
+      <c r="B58" s="64"/>
+      <c r="C58" s="65"/>
+      <c r="D58" s="65"/>
+      <c r="E58" s="65"/>
+      <c r="F58" s="63"/>
+      <c r="G58" s="63"/>
+      <c r="H58" s="63"/>
+      <c r="I58" s="63"/>
+      <c r="J58" s="63"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="63"/>
+      <c r="B59" s="64"/>
+      <c r="C59" s="65"/>
+      <c r="D59" s="65"/>
+      <c r="E59" s="65"/>
+      <c r="F59" s="63"/>
+      <c r="G59" s="63"/>
+      <c r="H59" s="63"/>
+      <c r="I59" s="63"/>
+      <c r="J59" s="63"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="63"/>
+      <c r="B60" s="64"/>
+      <c r="C60" s="65"/>
+      <c r="D60" s="65"/>
+      <c r="E60" s="65"/>
+      <c r="F60" s="63"/>
+      <c r="G60" s="63"/>
+      <c r="H60" s="63"/>
+      <c r="I60" s="63"/>
+      <c r="J60" s="63"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="63"/>
+      <c r="B61" s="64"/>
+      <c r="C61" s="65"/>
+      <c r="D61" s="65"/>
+      <c r="E61" s="65"/>
+      <c r="F61" s="63"/>
+      <c r="G61" s="63"/>
+      <c r="H61" s="65"/>
+      <c r="I61" s="63"/>
+      <c r="J61" s="63"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="63"/>
+      <c r="B62" s="64"/>
+      <c r="C62" s="65"/>
+      <c r="D62" s="65"/>
+      <c r="E62" s="65"/>
+      <c r="F62" s="63"/>
+      <c r="G62" s="63"/>
+      <c r="H62" s="63"/>
+      <c r="I62" s="63"/>
+      <c r="J62" s="63"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="63"/>
+      <c r="B63" s="64"/>
+      <c r="C63" s="65"/>
+      <c r="D63" s="65"/>
+      <c r="E63" s="65"/>
+      <c r="F63" s="63"/>
+      <c r="G63" s="63"/>
+      <c r="H63" s="63"/>
+      <c r="I63" s="63"/>
+      <c r="J63" s="63"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="63"/>
+      <c r="B64" s="64"/>
+      <c r="C64" s="65"/>
+      <c r="D64" s="65"/>
+      <c r="E64" s="65"/>
+      <c r="F64" s="63"/>
+      <c r="G64" s="63"/>
+      <c r="H64" s="63"/>
+      <c r="I64" s="63"/>
+      <c r="J64" s="63"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="63"/>
+      <c r="B65" s="64"/>
+      <c r="C65" s="65"/>
+      <c r="D65" s="65"/>
+      <c r="E65" s="65"/>
+      <c r="F65" s="63"/>
+      <c r="G65" s="63"/>
+      <c r="H65" s="63"/>
+      <c r="I65" s="63"/>
+      <c r="J65" s="63"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="63"/>
+      <c r="B66" s="64"/>
+      <c r="C66" s="65"/>
+      <c r="D66" s="65"/>
+      <c r="E66" s="65"/>
+      <c r="F66" s="63"/>
+      <c r="G66" s="63"/>
+      <c r="H66" s="63"/>
+      <c r="I66" s="63"/>
+      <c r="J66" s="63"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="63"/>
+      <c r="B67" s="64"/>
+      <c r="C67" s="65"/>
+      <c r="D67" s="65"/>
+      <c r="E67" s="65"/>
+      <c r="F67" s="63"/>
+      <c r="G67" s="63"/>
+      <c r="H67" s="63"/>
+      <c r="I67" s="63"/>
+      <c r="J67" s="63"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="63"/>
+      <c r="B68" s="64"/>
+      <c r="C68" s="65"/>
+      <c r="D68" s="65"/>
+      <c r="E68" s="65"/>
+      <c r="F68" s="63"/>
+      <c r="G68" s="63"/>
+      <c r="H68" s="63"/>
+      <c r="I68" s="63"/>
+      <c r="J68" s="63"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="63"/>
+      <c r="B69" s="64"/>
+      <c r="C69" s="65"/>
+      <c r="D69" s="65"/>
+      <c r="E69" s="65"/>
+      <c r="F69" s="63"/>
+      <c r="G69" s="63"/>
+      <c r="H69" s="63"/>
+      <c r="I69" s="63"/>
+      <c r="J69" s="63"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="63"/>
+      <c r="B70" s="64"/>
+      <c r="C70" s="65"/>
+      <c r="D70" s="65"/>
+      <c r="E70" s="65"/>
+      <c r="F70" s="63"/>
+      <c r="G70" s="63"/>
+      <c r="H70" s="63"/>
+      <c r="I70" s="63"/>
+      <c r="J70" s="63"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="63"/>
+      <c r="B71" s="64"/>
+      <c r="C71" s="65"/>
+      <c r="D71" s="65"/>
+      <c r="E71" s="65"/>
+      <c r="F71" s="63"/>
+      <c r="G71" s="63"/>
+      <c r="H71" s="63"/>
+      <c r="I71" s="63"/>
+      <c r="J71" s="63"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="63"/>
+      <c r="B72" s="64"/>
+      <c r="C72" s="65"/>
+      <c r="D72" s="65"/>
+      <c r="E72" s="65"/>
+      <c r="F72" s="63"/>
+      <c r="G72" s="63"/>
+      <c r="H72" s="63"/>
+      <c r="I72" s="63"/>
+      <c r="J72" s="63"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="66"/>
+      <c r="B73" s="67"/>
+      <c r="C73" s="68"/>
+      <c r="D73" s="68"/>
+      <c r="E73" s="68"/>
+      <c r="F73" s="67"/>
+      <c r="G73" s="67"/>
+      <c r="H73" s="63"/>
+      <c r="I73" s="63"/>
+      <c r="J73" s="63"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="67"/>
+      <c r="B74" s="67"/>
+      <c r="C74" s="69"/>
+      <c r="D74" s="69"/>
+      <c r="E74" s="68"/>
+      <c r="F74" s="67"/>
+      <c r="G74" s="67"/>
+      <c r="H74" s="63"/>
+      <c r="I74" s="63"/>
+      <c r="J74" s="63"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="67"/>
+      <c r="B75" s="67"/>
+      <c r="C75" s="69"/>
+      <c r="D75" s="69"/>
+      <c r="E75" s="68"/>
+      <c r="F75" s="67"/>
+      <c r="G75" s="67"/>
+      <c r="H75" s="63"/>
+      <c r="I75" s="63"/>
+      <c r="J75" s="63"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="63"/>
+      <c r="B76" s="63"/>
+      <c r="C76" s="65"/>
+      <c r="D76" s="65"/>
+      <c r="E76" s="65"/>
+      <c r="F76" s="63"/>
+      <c r="G76" s="63"/>
+      <c r="H76" s="63"/>
+      <c r="I76" s="63"/>
+      <c r="J76" s="63"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="F24:G26"/>
+    <mergeCell ref="B1:G4"/>
+    <mergeCell ref="B5:G6"/>
+    <mergeCell ref="A73:B75"/>
+    <mergeCell ref="C73:C75"/>
+    <mergeCell ref="D73:D75"/>
+    <mergeCell ref="E73:E75"/>
+    <mergeCell ref="F73:G75"/>
+    <mergeCell ref="A24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D24:D26"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>